--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -76,10 +76,10 @@
     <t>פטירות של תושבי ישראל, לפי שנה וחודש, 2020-2000 - בני 70 ומעלה</t>
   </si>
   <si>
-    <t>הנתונים הופקו בתחום בריאות ותנועה טבעית, 23/8/2020</t>
+    <t>הנתונים הופקו בתחום בריאות ותנועה טבעית, 31/8/2020</t>
   </si>
   <si>
-    <t>מעודכן ל-23 באוגוסט</t>
+    <t>מעודכן ל-30 באוגוסט</t>
   </si>
 </sst>
 </file>
@@ -90,7 +90,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,14 +158,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -181,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -404,19 +396,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -466,7 +445,7 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -476,9 +455,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -488,7 +467,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -497,11 +475,10 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AN46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -997,7 +974,7 @@
       <c r="U10" s="18">
         <v>4806</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="21">
         <v>4583</v>
       </c>
     </row>
@@ -1005,135 +982,135 @@
       <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>3509</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>3283</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>3681</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>3256</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>3298</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>3691</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>3326</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <v>3545</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="20">
         <v>3834</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <v>3249</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="20">
         <v>3304</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="20">
         <v>3538</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="20">
         <v>4016</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="20">
         <v>3785</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="20">
         <v>3751</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="20">
         <v>4117</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="20">
         <v>4216</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="20">
         <v>4030</v>
       </c>
-      <c r="T11" s="21">
+      <c r="T11" s="20">
         <v>3905</v>
       </c>
-      <c r="U11" s="21">
+      <c r="U11" s="20">
         <v>4061</v>
       </c>
-      <c r="V11" s="22">
-        <v>3957</v>
+      <c r="V11" s="21">
+        <v>3956</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>3367</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>3396</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>3431</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>3629</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>3425</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>3463</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>3507</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <v>3736</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <v>3572</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <v>3539</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="20">
         <v>3481</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="20">
         <v>3683</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="20">
         <v>4166</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="20">
         <v>3906</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="20">
         <v>3993</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="20">
         <v>4153</v>
       </c>
-      <c r="R12" s="21">
+      <c r="R12" s="20">
         <v>3679</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="20">
         <v>4067</v>
       </c>
-      <c r="T12" s="21">
+      <c r="T12" s="20">
         <v>3991</v>
       </c>
-      <c r="U12" s="21">
+      <c r="U12" s="20">
         <v>4316</v>
       </c>
-      <c r="V12" s="22">
+      <c r="V12" s="21">
         <v>4171</v>
       </c>
     </row>
@@ -1141,135 +1118,135 @@
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>2976</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>3055</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>3066</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>3111</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>3021</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>3204</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>3064</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <v>3327</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="20">
         <v>3164</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="20">
         <v>3246</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="20">
         <v>3184</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="20">
         <v>3455</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="20">
         <v>3598</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="20">
         <v>3285</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="20">
         <v>3480</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="20">
         <v>3449</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R13" s="20">
         <v>3664</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="20">
         <v>3715</v>
       </c>
-      <c r="T13" s="21">
+      <c r="T13" s="20">
         <v>3474</v>
       </c>
-      <c r="U13" s="21">
+      <c r="U13" s="20">
         <v>3812</v>
       </c>
-      <c r="V13" s="22">
-        <v>3908</v>
+      <c r="V13" s="21">
+        <v>3910</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>2856</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>2982</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>3052</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>3126</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>2959</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>3048</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <v>3000</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>3083</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <v>3043</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="20">
         <v>3143</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="20">
         <v>3038</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="20">
         <v>3327</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="20">
         <v>3338</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="20">
         <v>3352</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="20">
         <v>3334</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="20">
         <v>3530</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="20">
         <v>3402</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="20">
         <v>3495</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14" s="20">
         <v>3582</v>
       </c>
-      <c r="U14" s="21">
+      <c r="U14" s="20">
         <v>3788</v>
       </c>
-      <c r="V14" s="28">
+      <c r="V14" s="21">
         <v>3870</v>
       </c>
     </row>
@@ -1277,553 +1254,553 @@
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>2748</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>2688</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>2913</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>2892</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>2815</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <v>2865</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <v>2935</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <v>2842</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <v>2832</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="20">
         <v>2907</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="20">
         <v>2974</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="20">
         <v>3056</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="20">
         <v>3055</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="20">
         <v>3042</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="20">
         <v>3093</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="20">
         <v>3198</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="20">
         <v>3259</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="20">
         <v>3311</v>
       </c>
-      <c r="T15" s="21">
+      <c r="T15" s="20">
         <v>3326</v>
       </c>
-      <c r="U15" s="21">
+      <c r="U15" s="20">
         <v>3338</v>
       </c>
-      <c r="V15" s="28">
-        <v>3395</v>
+      <c r="V15" s="21">
+        <v>3399</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>2869</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>2846</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>2894</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>2941</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>2890</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>2895</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <v>3080</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>3028</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="20">
         <v>2970</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="20">
         <v>2982</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="20">
         <v>2984</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="20">
         <v>3055</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="20">
         <v>3187</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="20">
         <v>3114</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="20">
         <v>3336</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="20">
         <v>3289</v>
       </c>
-      <c r="R16" s="21">
+      <c r="R16" s="20">
         <v>3310</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="20">
         <v>3406</v>
       </c>
-      <c r="T16" s="21">
+      <c r="T16" s="20">
         <v>3494</v>
       </c>
-      <c r="U16" s="21">
+      <c r="U16" s="20">
         <v>3433</v>
       </c>
-      <c r="V16" s="29">
-        <v>3578</v>
+      <c r="V16" s="21">
+        <v>3613</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>2890</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>3008</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>3041</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>2919</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>2864</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>2992</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <v>3209</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <v>2995</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="20">
         <v>3022</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="20">
         <v>3040</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="20">
         <v>3310</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="20">
         <v>3162</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="20">
         <v>3172</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="20">
         <v>3273</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="20">
         <v>3196</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="20">
         <v>3509</v>
       </c>
-      <c r="R17" s="21">
+      <c r="R17" s="20">
         <v>3390</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S17" s="20">
         <v>3290</v>
       </c>
-      <c r="T17" s="21">
+      <c r="T17" s="20">
         <v>3512</v>
       </c>
-      <c r="U17" s="21">
+      <c r="U17" s="20">
         <v>3495</v>
       </c>
-      <c r="V17" s="22"/>
+      <c r="V17" s="21"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>2813</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>2818</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>2888</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>2924</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>2884</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>2853</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <v>2894</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <v>2967</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="20">
         <v>3083</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="20">
         <v>2860</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="20">
         <v>3189</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="20">
         <v>2982</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="20">
         <v>3134</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="20">
         <v>3112</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="20">
         <v>3179</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="20">
         <v>3308</v>
       </c>
-      <c r="R18" s="21">
+      <c r="R18" s="20">
         <v>3241</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="20">
         <v>3220</v>
       </c>
-      <c r="T18" s="21">
+      <c r="T18" s="20">
         <v>3390</v>
       </c>
-      <c r="U18" s="21">
+      <c r="U18" s="20">
         <v>3403</v>
       </c>
-      <c r="V18" s="22"/>
+      <c r="V18" s="21"/>
     </row>
     <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>2906</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>3127</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>2945</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>3027</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>3038</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>3032</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>3015</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <v>3077</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="20">
         <v>3086</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="20">
         <v>3157</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="20">
         <v>3248</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="20">
         <v>3165</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="20">
         <v>3283</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="20">
         <v>3371</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="20">
         <v>3550</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19" s="20">
         <v>3529</v>
       </c>
-      <c r="R19" s="21">
+      <c r="R19" s="20">
         <v>3470</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19" s="20">
         <v>3601</v>
       </c>
-      <c r="T19" s="21">
+      <c r="T19" s="20">
         <v>3692</v>
       </c>
-      <c r="U19" s="21">
+      <c r="U19" s="20">
         <v>3604</v>
       </c>
-      <c r="V19" s="22"/>
+      <c r="V19" s="21"/>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>3087</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>3111</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <v>3076</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>3269</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>2984</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <v>3188</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <v>3224</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="20">
         <v>3144</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="20">
         <v>3123</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="20">
         <v>3191</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="20">
         <v>3113</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="20">
         <v>3382</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="20">
         <v>3329</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="20">
         <v>3235</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P20" s="20">
         <v>3421</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="20">
         <v>3595</v>
       </c>
-      <c r="R20" s="21">
+      <c r="R20" s="20">
         <v>3622</v>
       </c>
-      <c r="S20" s="21">
+      <c r="S20" s="20">
         <v>3577</v>
       </c>
-      <c r="T20" s="21">
+      <c r="T20" s="20">
         <v>3696</v>
       </c>
-      <c r="U20" s="21">
+      <c r="U20" s="20">
         <v>3687</v>
       </c>
-      <c r="V20" s="22"/>
+      <c r="V20" s="21"/>
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>3415</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>3469</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <v>3294</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>3743</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>3841</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <v>3159</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <v>3830</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="23">
         <v>3440</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="23">
         <v>3579</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="23">
         <v>3580</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="23">
         <v>3859</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="23">
         <v>3822</v>
       </c>
-      <c r="N21" s="24">
+      <c r="N21" s="23">
         <v>3631</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="23">
         <v>3777</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P21" s="23">
         <v>3837</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="23">
         <v>4039</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="23">
         <v>4340</v>
       </c>
-      <c r="S21" s="24">
+      <c r="S21" s="23">
         <v>3987</v>
       </c>
-      <c r="T21" s="24">
+      <c r="T21" s="23">
         <v>3979</v>
       </c>
-      <c r="U21" s="24">
+      <c r="U21" s="23">
         <v>4237</v>
       </c>
-      <c r="V21" s="25"/>
+      <c r="V21" s="24"/>
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <f>SUM(B10:B21)</f>
         <v>37758</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <f t="shared" ref="C22:U22" si="0">SUM(C10:C21)</f>
         <v>37225</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="26">
         <f t="shared" si="0"/>
         <v>38325</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <f t="shared" si="0"/>
         <v>38361</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="26">
         <f t="shared" si="0"/>
         <v>37787</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="26">
         <f t="shared" si="0"/>
         <v>38926</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="26">
         <f t="shared" si="0"/>
         <v>38700</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="26">
         <f t="shared" si="0"/>
         <v>39977</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="26">
         <f t="shared" si="0"/>
         <v>39264</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="26">
         <f t="shared" si="0"/>
         <v>38643</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="26">
         <f t="shared" si="0"/>
         <v>39451</v>
       </c>
-      <c r="M22" s="27">
+      <c r="M22" s="26">
         <f t="shared" si="0"/>
         <v>40690</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N22" s="26">
         <f t="shared" si="0"/>
         <v>41894</v>
       </c>
-      <c r="O22" s="27">
+      <c r="O22" s="26">
         <f t="shared" si="0"/>
         <v>41489</v>
       </c>
-      <c r="P22" s="27">
+      <c r="P22" s="26">
         <f t="shared" si="0"/>
         <v>42178</v>
       </c>
-      <c r="Q22" s="27">
+      <c r="Q22" s="26">
         <f t="shared" si="0"/>
         <v>44277</v>
       </c>
-      <c r="R22" s="27">
+      <c r="R22" s="26">
         <f t="shared" si="0"/>
         <v>43971</v>
       </c>
-      <c r="S22" s="27">
+      <c r="S22" s="26">
         <f t="shared" si="0"/>
         <v>44596</v>
       </c>
-      <c r="T22" s="27">
+      <c r="T22" s="26">
         <f t="shared" si="0"/>
         <v>44531</v>
       </c>
-      <c r="U22" s="27">
+      <c r="U22" s="26">
         <f t="shared" si="0"/>
         <v>45980</v>
       </c>
-      <c r="V22" s="27"/>
+      <c r="V22" s="26"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1963,7 +1940,7 @@
       <c r="U28" s="18">
         <v>3684</v>
       </c>
-      <c r="V28" s="19">
+      <c r="V28" s="21">
         <v>3464</v>
       </c>
     </row>
@@ -1971,135 +1948,135 @@
       <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>2547</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>2339</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <v>2690</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>2402</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <v>2410</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="20">
         <v>2699</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="20">
         <v>2404</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="20">
         <v>2625</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="20">
         <v>2891</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="20">
         <v>2399</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="20">
         <v>2471</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="20">
         <v>2597</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29" s="20">
         <v>3103</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="20">
         <v>2796</v>
       </c>
-      <c r="P29" s="21">
+      <c r="P29" s="20">
         <v>2864</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="Q29" s="20">
         <v>3135</v>
       </c>
-      <c r="R29" s="21">
+      <c r="R29" s="20">
         <v>3142</v>
       </c>
-      <c r="S29" s="21">
+      <c r="S29" s="20">
         <v>3010</v>
       </c>
-      <c r="T29" s="21">
+      <c r="T29" s="20">
         <v>2939</v>
       </c>
-      <c r="U29" s="21">
+      <c r="U29" s="20">
         <v>3096</v>
       </c>
-      <c r="V29" s="22">
-        <v>3030</v>
+      <c r="V29" s="21">
+        <v>3029</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="19">
         <v>2336</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>2394</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="20">
         <v>2382</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <v>2558</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <v>2406</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="20">
         <v>2505</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="20">
         <v>2583</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="20">
         <v>2753</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="20">
         <v>2630</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="20">
         <v>2629</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="20">
         <v>2545</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="20">
         <v>2739</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N30" s="20">
         <v>3106</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="20">
         <v>2863</v>
       </c>
-      <c r="P30" s="21">
+      <c r="P30" s="20">
         <v>2968</v>
       </c>
-      <c r="Q30" s="21">
+      <c r="Q30" s="20">
         <v>3077</v>
       </c>
-      <c r="R30" s="21">
+      <c r="R30" s="20">
         <v>2695</v>
       </c>
-      <c r="S30" s="21">
+      <c r="S30" s="20">
         <v>3072</v>
       </c>
-      <c r="T30" s="21">
+      <c r="T30" s="20">
         <v>2975</v>
       </c>
-      <c r="U30" s="21">
+      <c r="U30" s="20">
         <v>3246</v>
       </c>
-      <c r="V30" s="22">
+      <c r="V30" s="21">
         <v>3188</v>
       </c>
     </row>
@@ -2107,689 +2084,689 @@
       <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>2140</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>2149</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <v>2124</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="20">
         <v>2239</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <v>2188</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="20">
         <v>2324</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="20">
         <v>2223</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="20">
         <v>2443</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="20">
         <v>2292</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="20">
         <v>2396</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="20">
         <v>2347</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="20">
         <v>2596</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N31" s="20">
         <v>2730</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="20">
         <v>2389</v>
       </c>
-      <c r="P31" s="21">
+      <c r="P31" s="20">
         <v>2601</v>
       </c>
-      <c r="Q31" s="21">
+      <c r="Q31" s="20">
         <v>2565</v>
       </c>
-      <c r="R31" s="21">
+      <c r="R31" s="20">
         <v>2712</v>
       </c>
-      <c r="S31" s="21">
+      <c r="S31" s="20">
         <v>2752</v>
       </c>
-      <c r="T31" s="21">
+      <c r="T31" s="20">
         <v>2557</v>
       </c>
-      <c r="U31" s="21">
+      <c r="U31" s="20">
         <v>2824</v>
       </c>
-      <c r="V31" s="22">
-        <v>2998</v>
+      <c r="V31" s="21">
+        <v>3000</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="19">
         <v>1979</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>2056</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="20">
         <v>2130</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="20">
         <v>2205</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>2094</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="20">
         <v>2152</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="20">
         <v>2155</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="20">
         <v>2233</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="20">
         <v>2174</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="20">
         <v>2292</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="20">
         <v>2187</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M32" s="20">
         <v>2426</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="20">
         <v>2428</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="20">
         <v>2489</v>
       </c>
-      <c r="P32" s="21">
+      <c r="P32" s="20">
         <v>2391</v>
       </c>
-      <c r="Q32" s="21">
+      <c r="Q32" s="20">
         <v>2573</v>
       </c>
-      <c r="R32" s="21">
+      <c r="R32" s="20">
         <v>2458</v>
       </c>
-      <c r="S32" s="21">
+      <c r="S32" s="20">
         <v>2579</v>
       </c>
-      <c r="T32" s="21">
+      <c r="T32" s="20">
         <v>2645</v>
       </c>
-      <c r="U32" s="21">
+      <c r="U32" s="20">
         <v>2822</v>
       </c>
-      <c r="V32" s="28">
-        <v>2924</v>
+      <c r="V32" s="21">
+        <v>2925</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>1836</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>1834</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="20">
         <v>2035</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>2018</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <v>1977</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="20">
         <v>2034</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="20">
         <v>2063</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="20">
         <v>2024</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="20">
         <v>2044</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="20">
         <v>2133</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="20">
         <v>2138</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M33" s="20">
         <v>2198</v>
       </c>
-      <c r="N33" s="21">
+      <c r="N33" s="20">
         <v>2252</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33" s="20">
         <v>2241</v>
       </c>
-      <c r="P33" s="21">
+      <c r="P33" s="20">
         <v>2214</v>
       </c>
-      <c r="Q33" s="21">
+      <c r="Q33" s="20">
         <v>2342</v>
       </c>
-      <c r="R33" s="21">
+      <c r="R33" s="20">
         <v>2345</v>
       </c>
-      <c r="S33" s="21">
+      <c r="S33" s="20">
         <v>2360</v>
       </c>
-      <c r="T33" s="21">
+      <c r="T33" s="20">
         <v>2433</v>
       </c>
-      <c r="U33" s="21">
+      <c r="U33" s="20">
         <v>2469</v>
       </c>
-      <c r="V33" s="28">
-        <v>2516</v>
+      <c r="V33" s="21">
+        <v>2519</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="19">
         <v>1993</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>1911</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="20">
         <v>1974</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="20">
         <v>2023</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="20">
         <v>2014</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="20">
         <v>2087</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="20">
         <v>2128</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="20">
         <v>2119</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="20">
         <v>2151</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="20">
         <v>2105</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="20">
         <v>2151</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="20">
         <v>2227</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34" s="20">
         <v>2318</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="20">
         <v>2215</v>
       </c>
-      <c r="P34" s="21">
+      <c r="P34" s="20">
         <v>2351</v>
       </c>
-      <c r="Q34" s="21">
+      <c r="Q34" s="20">
         <v>2378</v>
       </c>
-      <c r="R34" s="21">
+      <c r="R34" s="20">
         <v>2361</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34" s="20">
         <v>2456</v>
       </c>
-      <c r="T34" s="21">
+      <c r="T34" s="20">
         <v>2544</v>
       </c>
-      <c r="U34" s="21">
+      <c r="U34" s="28">
         <v>2522</v>
       </c>
-      <c r="V34" s="29">
-        <v>2699</v>
+      <c r="V34" s="21">
+        <v>2720</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="19">
         <v>2012</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>2111</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="20">
         <v>2082</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <v>2030</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <v>2012</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="20">
         <v>2102</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="20">
         <v>2241</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="20">
         <v>2131</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="20">
         <v>2199</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="20">
         <v>2176</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="20">
         <v>2373</v>
       </c>
-      <c r="M35" s="21">
+      <c r="M35" s="20">
         <v>2251</v>
       </c>
-      <c r="N35" s="21">
+      <c r="N35" s="20">
         <v>2307</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="20">
         <v>2323</v>
       </c>
-      <c r="P35" s="21">
+      <c r="P35" s="20">
         <v>2313</v>
       </c>
-      <c r="Q35" s="21">
+      <c r="Q35" s="20">
         <v>2538</v>
       </c>
-      <c r="R35" s="21">
+      <c r="R35" s="20">
         <v>2504</v>
       </c>
-      <c r="S35" s="21">
+      <c r="S35" s="20">
         <v>2365</v>
       </c>
-      <c r="T35" s="21">
+      <c r="T35" s="20">
         <v>2570</v>
       </c>
-      <c r="U35" s="21">
+      <c r="U35" s="20">
         <v>2540</v>
       </c>
-      <c r="V35" s="22"/>
+      <c r="V35" s="21"/>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="19">
         <v>1877</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>1956</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="20">
         <v>2046</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <v>2043</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <v>2019</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="20">
         <v>1994</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="20">
         <v>2086</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="20">
         <v>2103</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="20">
         <v>2218</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="20">
         <v>2065</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="20">
         <v>2335</v>
       </c>
-      <c r="M36" s="21">
+      <c r="M36" s="20">
         <v>2101</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N36" s="20">
         <v>2331</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="20">
         <v>2240</v>
       </c>
-      <c r="P36" s="21">
+      <c r="P36" s="20">
         <v>2306</v>
       </c>
-      <c r="Q36" s="21">
+      <c r="Q36" s="20">
         <v>2409</v>
       </c>
-      <c r="R36" s="21">
+      <c r="R36" s="20">
         <v>2334</v>
       </c>
-      <c r="S36" s="21">
+      <c r="S36" s="20">
         <v>2355</v>
       </c>
-      <c r="T36" s="21">
+      <c r="T36" s="20">
         <v>2496</v>
       </c>
-      <c r="U36" s="21">
+      <c r="U36" s="20">
         <v>2527</v>
       </c>
-      <c r="V36" s="22"/>
+      <c r="V36" s="21"/>
     </row>
     <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>2014</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>2173</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="20">
         <v>2044</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <v>2169</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="20">
         <v>2113</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="20">
         <v>2151</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="20">
         <v>2146</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="20">
         <v>2233</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="20">
         <v>2258</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="20">
         <v>2233</v>
       </c>
-      <c r="L37" s="21">
+      <c r="L37" s="20">
         <v>2368</v>
       </c>
-      <c r="M37" s="21">
+      <c r="M37" s="20">
         <v>2331</v>
       </c>
-      <c r="N37" s="21">
+      <c r="N37" s="20">
         <v>2356</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="20">
         <v>2445</v>
       </c>
-      <c r="P37" s="21">
+      <c r="P37" s="20">
         <v>2612</v>
       </c>
-      <c r="Q37" s="21">
+      <c r="Q37" s="20">
         <v>2547</v>
       </c>
-      <c r="R37" s="21">
+      <c r="R37" s="20">
         <v>2552</v>
       </c>
-      <c r="S37" s="21">
+      <c r="S37" s="20">
         <v>2649</v>
       </c>
-      <c r="T37" s="21">
+      <c r="T37" s="20">
         <v>2669</v>
       </c>
-      <c r="U37" s="21">
+      <c r="U37" s="20">
         <v>2695</v>
       </c>
-      <c r="V37" s="22"/>
+      <c r="V37" s="21"/>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="19">
         <v>2166</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>2170</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="20">
         <v>2153</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="20">
         <v>2380</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="20">
         <v>2171</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="20">
         <v>2263</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="20">
         <v>2309</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="20">
         <v>2281</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="20">
         <v>2287</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="20">
         <v>2339</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L38" s="20">
         <v>2278</v>
       </c>
-      <c r="M38" s="21">
+      <c r="M38" s="20">
         <v>2460</v>
       </c>
-      <c r="N38" s="21">
+      <c r="N38" s="20">
         <v>2431</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="20">
         <v>2346</v>
       </c>
-      <c r="P38" s="21">
+      <c r="P38" s="20">
         <v>2470</v>
       </c>
-      <c r="Q38" s="21">
+      <c r="Q38" s="20">
         <v>2637</v>
       </c>
-      <c r="R38" s="21">
+      <c r="R38" s="20">
         <v>2662</v>
       </c>
-      <c r="S38" s="21">
+      <c r="S38" s="20">
         <v>2615</v>
       </c>
-      <c r="T38" s="21">
+      <c r="T38" s="20">
         <v>2744</v>
       </c>
-      <c r="U38" s="21">
+      <c r="U38" s="20">
         <v>2740</v>
       </c>
-      <c r="V38" s="22"/>
+      <c r="V38" s="21"/>
     </row>
     <row r="39" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="22">
         <v>2355</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="23">
         <v>2427</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="23">
         <v>2372</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="23">
         <v>2706</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="23">
         <v>2781</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="23">
         <v>2228</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="23">
         <v>2852</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="23">
         <v>2518</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="23">
         <v>2607</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="23">
         <v>2643</v>
       </c>
-      <c r="L39" s="24">
+      <c r="L39" s="23">
         <v>2823</v>
       </c>
-      <c r="M39" s="24">
+      <c r="M39" s="23">
         <v>2878</v>
       </c>
-      <c r="N39" s="24">
+      <c r="N39" s="23">
         <v>2638</v>
       </c>
-      <c r="O39" s="24">
+      <c r="O39" s="23">
         <v>2819</v>
       </c>
-      <c r="P39" s="24">
+      <c r="P39" s="23">
         <v>2837</v>
       </c>
-      <c r="Q39" s="24">
+      <c r="Q39" s="23">
         <v>2937</v>
       </c>
-      <c r="R39" s="24">
+      <c r="R39" s="23">
         <v>3290</v>
       </c>
-      <c r="S39" s="24">
+      <c r="S39" s="23">
         <v>3026</v>
       </c>
-      <c r="T39" s="24">
+      <c r="T39" s="23">
         <v>2920</v>
       </c>
-      <c r="U39" s="24">
+      <c r="U39" s="23">
         <v>3152</v>
       </c>
-      <c r="V39" s="25"/>
+      <c r="V39" s="24"/>
     </row>
     <row r="40" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <f>SUM(B28:B39)</f>
         <v>26399</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="26">
         <f t="shared" ref="C40:U40" si="1">SUM(C28:C39)</f>
         <v>25956</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="26">
         <f t="shared" si="1"/>
         <v>26977</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="26">
         <f t="shared" si="1"/>
         <v>27291</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="26">
         <f t="shared" si="1"/>
         <v>26942</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="26">
         <f t="shared" si="1"/>
         <v>27925</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H40" s="26">
         <f t="shared" si="1"/>
         <v>27827</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="26">
         <f t="shared" si="1"/>
         <v>29132</v>
       </c>
-      <c r="J40" s="27">
+      <c r="J40" s="26">
         <f t="shared" si="1"/>
         <v>28637</v>
       </c>
-      <c r="K40" s="27">
+      <c r="K40" s="26">
         <f t="shared" si="1"/>
         <v>28176</v>
       </c>
-      <c r="L40" s="27">
+      <c r="L40" s="26">
         <f t="shared" si="1"/>
         <v>28813</v>
       </c>
-      <c r="M40" s="27">
+      <c r="M40" s="26">
         <f t="shared" si="1"/>
         <v>29853</v>
       </c>
-      <c r="N40" s="27">
+      <c r="N40" s="26">
         <f t="shared" si="1"/>
         <v>31021</v>
       </c>
-      <c r="O40" s="27">
+      <c r="O40" s="26">
         <f t="shared" si="1"/>
         <v>30302</v>
       </c>
-      <c r="P40" s="27">
+      <c r="P40" s="26">
         <f t="shared" si="1"/>
         <v>30952</v>
       </c>
-      <c r="Q40" s="27">
+      <c r="Q40" s="26">
         <f t="shared" si="1"/>
         <v>32558</v>
       </c>
-      <c r="R40" s="27">
+      <c r="R40" s="26">
         <f t="shared" si="1"/>
         <v>32305</v>
       </c>
-      <c r="S40" s="27">
+      <c r="S40" s="26">
         <f t="shared" si="1"/>
         <v>32959</v>
       </c>
-      <c r="T40" s="27">
+      <c r="T40" s="26">
         <f t="shared" si="1"/>
         <v>32921</v>
       </c>
-      <c r="U40" s="27">
+      <c r="U40" s="26">
         <f t="shared" si="1"/>
         <v>34317</v>
       </c>
-      <c r="V40" s="27"/>
+      <c r="V40" s="26"/>
     </row>
     <row r="41" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2840,12 +2817,12 @@
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
   </sheetData>
   <sortState ref="Y4:AA12">
@@ -2861,8 +2838,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00776BC5533B746B4DA895265925393F0F" ma:contentTypeVersion="71" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="f113a4d6684a743bbe6aa41fbab63169">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="593126f3e5e30cc75b07edf206c24d9f" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00776BC5533B746B4DA895265925393F0F" ma:contentTypeVersion="71" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="949c9db9a460b5c5bc4e3b82eeaeeac0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37a636099ab557e2fea8c7c355c38385" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
     <xsd:element name="properties">
@@ -3166,16 +3143,16 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingRollupImage xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsPublishingDocSubject xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsPublishingDocSubject xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsDataSource xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <VariationsItemGroupID xmlns="http://schemas.microsoft.com/sharepoint/v3">f237d0e9-0598-4deb-ada7-f1c0a69147a4</VariationsItemGroupID>
     <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
       <UserInfo>
@@ -3185,8 +3162,8 @@
       </UserInfo>
     </RatedBy>
     <CbsMadadPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-08-22T21:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-08-30T21:00:00+00:00</CbsDataPublishDate>
     <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
       <UserInfo>
@@ -3210,13 +3187,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F218D85-15A5-4107-AECC-7C544A7C648F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04F65187-7A64-4CC7-866D-1A4A0FAD55B3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAB4AF5-DF58-4D13-A357-BCA174343457}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6D25DE7-ED53-4EF3-A11B-51FE3B097218}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4EA015-FC42-400F-A766-AEA8ED58A274}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40F5F2C5-6936-4086-A602-2812FC5554DC}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -2838,8 +2838,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00776BC5533B746B4DA895265925393F0F" ma:contentTypeVersion="71" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="949c9db9a460b5c5bc4e3b82eeaeeac0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37a636099ab557e2fea8c7c355c38385" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00776BC5533B746B4DA895265925393F0F" ma:contentTypeVersion="71" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="c2e1067d9b453f82182b64b305117a69">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="736967ab1603711ab377fb9d14b1d8e6" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
     <xsd:element name="properties">
@@ -3187,7 +3187,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04F65187-7A64-4CC7-866D-1A4A0FAD55B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4CFE640-9276-4B0C-B2DF-96D9DFA874E8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -76,10 +76,10 @@
     <t>פטירות של תושבי ישראל, לפי שנה וחודש, 2020-2000 - בני 70 ומעלה</t>
   </si>
   <si>
-    <t>הנתונים הופקו בתחום בריאות ותנועה טבעית, 31/8/2020</t>
+    <t>מעודכן ל-13 בספטמבר</t>
   </si>
   <si>
-    <t>מעודכן ל-30 באוגוסט</t>
+    <t>הנתונים הופקו בתחום בריאות ותנועה טבעית, 13/9/2020</t>
   </si>
 </sst>
 </file>
@@ -475,10 +475,10 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AN46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -840,7 +840,7 @@
     </row>
     <row r="8" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V8" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1111,7 +1111,7 @@
         <v>4316</v>
       </c>
       <c r="V12" s="21">
-        <v>4171</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
         <v>3812</v>
       </c>
       <c r="V13" s="21">
-        <v>3910</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>3788</v>
       </c>
       <c r="V14" s="21">
-        <v>3870</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1315,7 +1315,7 @@
         <v>3338</v>
       </c>
       <c r="V15" s="21">
-        <v>3399</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>3433</v>
       </c>
       <c r="V16" s="21">
-        <v>3613</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2145,7 +2145,7 @@
         <v>2824</v>
       </c>
       <c r="V31" s="21">
-        <v>3000</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2213,7 +2213,7 @@
         <v>2822</v>
       </c>
       <c r="V32" s="21">
-        <v>2925</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2281,7 +2281,7 @@
         <v>2469</v>
       </c>
       <c r="V33" s="21">
-        <v>2519</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2345,11 +2345,11 @@
       <c r="T34" s="20">
         <v>2544</v>
       </c>
-      <c r="U34" s="28">
+      <c r="U34" s="27">
         <v>2522</v>
       </c>
       <c r="V34" s="21">
-        <v>2720</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2776,7 +2776,7 @@
     </row>
     <row r="43" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2817,12 +2817,12 @@
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
     </row>
   </sheetData>
   <sortState ref="Y4:AA12">
@@ -2838,8 +2838,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00776BC5533B746B4DA895265925393F0F" ma:contentTypeVersion="71" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="c2e1067d9b453f82182b64b305117a69">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="736967ab1603711ab377fb9d14b1d8e6" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00776BC5533B746B4DA895265925393F0F" ma:contentTypeVersion="71" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="e33ac7c05f0474a92d6bc67ed303f599">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af45c461164966bb811fc546d9103d89" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
     <xsd:element name="properties">
@@ -3143,16 +3143,16 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <PublishingRollupImage xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingRollupImage xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocSubject xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsDataSource xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <CbsDataSource xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <VariationsItemGroupID xmlns="http://schemas.microsoft.com/sharepoint/v3">f237d0e9-0598-4deb-ada7-f1c0a69147a4</VariationsItemGroupID>
     <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
       <UserInfo>
@@ -3162,8 +3162,8 @@
       </UserInfo>
     </RatedBy>
     <CbsMadadPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-09-13T21:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-08-30T21:00:00+00:00</CbsDataPublishDate>
     <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
       <UserInfo>
@@ -3187,13 +3187,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4CFE640-9276-4B0C-B2DF-96D9DFA874E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F30E68E5-1D93-4281-9FB5-27C80A031D55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6D25DE7-ED53-4EF3-A11B-51FE3B097218}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07BD6831-D9DF-443D-BED0-FAB4B9985575}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40F5F2C5-6936-4086-A602-2812FC5554DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C0E2CA-7C93-479D-B340-6B1FA0A84D17}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>ינואר</t>
   </si>
@@ -76,10 +76,13 @@
     <t>פטירות של תושבי ישראל, לפי שנה וחודש, 2020-2000 - בני 70 ומעלה</t>
   </si>
   <si>
-    <t>מעודכן ל-13 בספטמבר</t>
+    <t>מעודכן ל-20 בספטמבר</t>
   </si>
   <si>
-    <t>הנתונים הופקו בתחום בריאות ותנועה טבעית, 13/9/2020</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום בריאות ותנועה טבעית, 21/9/2020</t>
   </si>
 </sst>
 </file>
@@ -90,7 +93,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +161,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -445,7 +456,7 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -479,6 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AN46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1111,7 +1123,7 @@
         <v>4316</v>
       </c>
       <c r="V12" s="21">
-        <v>4172</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1179,7 +1191,7 @@
         <v>3812</v>
       </c>
       <c r="V13" s="21">
-        <v>3912</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1315,7 +1327,7 @@
         <v>3338</v>
       </c>
       <c r="V15" s="21">
-        <v>3401</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1383,10 +1395,10 @@
         <v>3433</v>
       </c>
       <c r="V16" s="21">
-        <v>3674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
@@ -1450,9 +1462,11 @@
       <c r="U17" s="20">
         <v>3495</v>
       </c>
-      <c r="V17" s="21"/>
-    </row>
-    <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V17" s="29">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -1518,7 +1532,7 @@
       </c>
       <c r="V18" s="21"/>
     </row>
-    <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>9</v>
       </c>
@@ -1584,7 +1598,7 @@
       </c>
       <c r="V19" s="21"/>
     </row>
-    <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
@@ -1650,7 +1664,7 @@
       </c>
       <c r="V20" s="21"/>
     </row>
-    <row r="21" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -1716,7 +1730,7 @@
       </c>
       <c r="V21" s="24"/>
     </row>
-    <row r="22" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>12</v>
       </c>
@@ -1802,15 +1816,15 @@
       </c>
       <c r="V22" s="26"/>
     </row>
-    <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="9">
         <v>2000</v>
@@ -1876,7 +1890,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -1944,7 +1958,7 @@
         <v>3464</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
@@ -2012,7 +2026,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
@@ -2077,10 +2091,10 @@
         <v>3246</v>
       </c>
       <c r="V30" s="21">
-        <v>3188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
@@ -2148,7 +2162,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -2214,6 +2228,9 @@
       </c>
       <c r="V32" s="21">
         <v>2926</v>
+      </c>
+      <c r="X32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2281,7 +2298,7 @@
         <v>2469</v>
       </c>
       <c r="V33" s="21">
-        <v>2521</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2349,7 +2366,7 @@
         <v>2522</v>
       </c>
       <c r="V34" s="21">
-        <v>2758</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2416,7 +2433,9 @@
       <c r="U35" s="20">
         <v>2540</v>
       </c>
-      <c r="V35" s="21"/>
+      <c r="V35" s="29">
+        <v>2888</v>
+      </c>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
@@ -2776,7 +2795,7 @@
     </row>
     <row r="43" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2838,8 +2857,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00776BC5533B746B4DA895265925393F0F" ma:contentTypeVersion="71" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="e33ac7c05f0474a92d6bc67ed303f599">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af45c461164966bb811fc546d9103d89" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00776BC5533B746B4DA895265925393F0F" ma:contentTypeVersion="71" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="589ab5045b287ebae7f9ef7733eea684">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="247cffd475b0aea5a9737db21df97627" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
     <xsd:element name="properties">
@@ -3143,16 +3162,16 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <PublishingRollupImage xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2020-09-20T21:00:00+00:00</ArticleStartDate>
+    <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocSubject xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsDataSource xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <VariationsItemGroupID xmlns="http://schemas.microsoft.com/sharepoint/v3">f237d0e9-0598-4deb-ada7-f1c0a69147a4</VariationsItemGroupID>
     <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
       <UserInfo>
@@ -3162,8 +3181,8 @@
       </UserInfo>
     </RatedBy>
     <CbsMadadPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-09-13T21:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-09-21T10:00:00+00:00</CbsDataPublishDate>
     <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
       <UserInfo>
@@ -3172,8 +3191,6 @@
         <AccountType/>
       </UserInfo>
     </LikedBy>
-    <CbsOrderField xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsEnglishTitle xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <badce114fb994f27a777030e336d1efa xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
         <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
@@ -3182,18 +3199,20 @@
         </TermInfo>
       </Terms>
     </badce114fb994f27a777030e336d1efa>
+    <CbsOrderField xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsEnglishTitle xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F30E68E5-1D93-4281-9FB5-27C80A031D55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6355E7D3-6B07-4BC6-B91D-75E65EC412EB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07BD6831-D9DF-443D-BED0-FAB4B9985575}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A185F9-5B03-4731-BB2F-B0C058ACC65E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C0E2CA-7C93-479D-B340-6B1FA0A84D17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9881491F-25F7-45EC-BCB5-9C5CCB9008F0}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -76,13 +76,13 @@
     <t>פטירות של תושבי ישראל, לפי שנה וחודש, 2020-2000 - בני 70 ומעלה</t>
   </si>
   <si>
-    <t>מעודכן ל-20 בספטמבר</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>הנתונים הופקו בתחום בריאות ותנועה טבעית, 21/9/2020</t>
+    <t>מעודכן ל-30 בספטמבר</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום בריאות ותנועה טבעית, 30/9/2020</t>
   </si>
 </sst>
 </file>
@@ -487,10 +487,10 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AN46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -852,7 +852,7 @@
     </row>
     <row r="8" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V8" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1123,7 +1123,7 @@
         <v>4316</v>
       </c>
       <c r="V12" s="21">
-        <v>4176</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>3812</v>
       </c>
       <c r="V13" s="21">
-        <v>3914</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>3433</v>
       </c>
       <c r="V16" s="21">
-        <v>3678</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1462,8 +1462,8 @@
       <c r="U17" s="20">
         <v>3495</v>
       </c>
-      <c r="V17" s="29">
-        <v>3840</v>
+      <c r="V17" s="28">
+        <v>3940</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
         <v>2824</v>
       </c>
       <c r="V31" s="21">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2230,7 +2230,7 @@
         <v>2926</v>
       </c>
       <c r="X32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2366,7 +2366,7 @@
         <v>2522</v>
       </c>
       <c r="V34" s="21">
-        <v>2759</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2433,8 +2433,8 @@
       <c r="U35" s="20">
         <v>2540</v>
       </c>
-      <c r="V35" s="29">
-        <v>2888</v>
+      <c r="V35" s="28">
+        <v>2961</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2836,12 +2836,12 @@
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
     </row>
   </sheetData>
   <sortState ref="Y4:AA12">
@@ -2857,8 +2857,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00776BC5533B746B4DA895265925393F0F" ma:contentTypeVersion="71" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="589ab5045b287ebae7f9ef7733eea684">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="247cffd475b0aea5a9737db21df97627" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00776BC5533B746B4DA895265925393F0F" ma:contentTypeVersion="71" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="b42f9d29eb6751a2b5e6decbd763fd3c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ee5def32c95a87d69a4e992a02dc901" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
     <xsd:element name="properties">
@@ -3162,16 +3162,16 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2020-09-20T21:00:00+00:00</ArticleStartDate>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <PublishingRollupImage xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2020-09-20T21:00:00+00:00</ArticleStartDate>
+    <CbsPublishingDocSubject xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsPublishingDocSubject xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsDataSource xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <CbsDataSource xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <VariationsItemGroupID xmlns="http://schemas.microsoft.com/sharepoint/v3">f237d0e9-0598-4deb-ada7-f1c0a69147a4</VariationsItemGroupID>
     <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
       <UserInfo>
@@ -3181,8 +3181,8 @@
       </UserInfo>
     </RatedBy>
     <CbsMadadPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-09-30T21:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-09-21T10:00:00+00:00</CbsDataPublishDate>
     <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
       <UserInfo>
@@ -3206,13 +3206,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6355E7D3-6B07-4BC6-B91D-75E65EC412EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92769075-534A-4202-A211-F998A5CEDD9C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A185F9-5B03-4731-BB2F-B0C058ACC65E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43F955B7-6C9E-4386-AA89-D0A57F4F7CC8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9881491F-25F7-45EC-BCB5-9C5CCB9008F0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06405476-2384-4BD5-9A12-A49423ED7B8E}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -2857,8 +2857,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00776BC5533B746B4DA895265925393F0F" ma:contentTypeVersion="71" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="b42f9d29eb6751a2b5e6decbd763fd3c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ee5def32c95a87d69a4e992a02dc901" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00776BC5533B746B4DA895265925393F0F" ma:contentTypeVersion="71" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="4f53658c95047fa1a39e7a31097b45b2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a92e927f96dd972ba0f8ae9c13f9ec83" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
     <xsd:element name="properties">
@@ -3206,7 +3206,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92769075-534A-4202-A211-F998A5CEDD9C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9719FFF8-8A1C-4C7D-90A3-119867FD5406}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -79,10 +79,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>מעודכן ל-30 בספטמבר</t>
+    <t>מעודכן ל-12 באוקטובר</t>
   </si>
   <si>
-    <t>הנתונים הופקו בתחום בריאות ותנועה טבעית, 30/9/2020</t>
+    <t>הנתונים הופקו בתחום בריאות ותנועה טבעית, 12/10/2020</t>
   </si>
 </sst>
 </file>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AN46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1055,7 +1055,7 @@
         <v>4061</v>
       </c>
       <c r="V11" s="21">
-        <v>3956</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>3812</v>
       </c>
       <c r="V13" s="21">
-        <v>3915</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>3433</v>
       </c>
       <c r="V16" s="21">
-        <v>3680</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
         <v>3495</v>
       </c>
       <c r="V17" s="28">
-        <v>3940</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2023,7 +2023,7 @@
         <v>3096</v>
       </c>
       <c r="V29" s="21">
-        <v>3029</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
         <v>2824</v>
       </c>
       <c r="V31" s="21">
-        <v>3003</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2366,7 +2366,7 @@
         <v>2522</v>
       </c>
       <c r="V34" s="21">
-        <v>2761</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2434,7 +2434,7 @@
         <v>2540</v>
       </c>
       <c r="V35" s="28">
-        <v>2961</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2857,8 +2857,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00776BC5533B746B4DA895265925393F0F" ma:contentTypeVersion="71" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="4f53658c95047fa1a39e7a31097b45b2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a92e927f96dd972ba0f8ae9c13f9ec83" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="99" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="1b286c65c5cfc645747077c17aea7bb3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a04e49307545d5a9d85a837cf2c1ea7c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
     <xsd:element name="properties">
@@ -2868,28 +2868,18 @@
             <xsd:complexType>
               <xsd:all>
                 <xsd:element ref="ns2:CbsDataPublishDate" minOccurs="0"/>
-                <xsd:element ref="ns2:CbsPublishingDocSubject" minOccurs="0"/>
                 <xsd:element ref="ns2:CbsPublishingDocChapter" minOccurs="0"/>
                 <xsd:element ref="ns2:CbsDocArticleVariationRelUrl" minOccurs="0"/>
                 <xsd:element ref="ns2:CbsPublishingDocSubjectEng" minOccurs="0"/>
-                <xsd:element ref="ns2:CbsPublishingDocChapterEng" minOccurs="0"/>
                 <xsd:element ref="ns2:CbsOrderField" minOccurs="0"/>
                 <xsd:element ref="ns2:CbsHide" minOccurs="0"/>
-                <xsd:element ref="ns2:badce114fb994f27a777030e336d1efa" minOccurs="0"/>
-                <xsd:element ref="ns1:PublishingRollupImage" minOccurs="0"/>
                 <xsd:element ref="ns1:eWaveListOrderValue" minOccurs="0"/>
                 <xsd:element ref="ns2:CbsEnglishTitle" minOccurs="0"/>
                 <xsd:element ref="ns2:CbsDocArticleVariationRelUrlEng" minOccurs="0"/>
-                <xsd:element ref="ns2:CbsDataSource" minOccurs="0"/>
+                <xsd:element ref="ns2:CbsMadadPublishDate" minOccurs="0"/>
                 <xsd:element ref="ns1:ArticleStartDate" minOccurs="0"/>
-                <xsd:element ref="ns1:VariationsItemGroupID" minOccurs="0"/>
-                <xsd:element ref="ns1:AverageRating" minOccurs="0"/>
-                <xsd:element ref="ns1:RatingCount" minOccurs="0"/>
-                <xsd:element ref="ns1:RatedBy" minOccurs="0"/>
-                <xsd:element ref="ns1:Ratings" minOccurs="0"/>
-                <xsd:element ref="ns1:LikesCount" minOccurs="0"/>
-                <xsd:element ref="ns1:LikedBy" minOccurs="0"/>
-                <xsd:element ref="ns2:CbsMadadPublishDate" minOccurs="0"/>
+                <xsd:element ref="ns2:be7e4c0a87744fda8f9ec475d0d5383d" minOccurs="0"/>
+                <xsd:element ref="ns2:d8f60aace6e84187b9d8167da15a966c" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2900,83 +2890,15 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="PublishingRollupImage" ma:index="26" nillable="true" ma:displayName="תמונת סיכום" ma:description="'תמונת סיכום' הוא עמודת אתר שיוצרת תכונת הפרסום. היא משמשת בסוג תוכן הדף כתמונה של הדף באוספי תוכן כגון ה- Web Part של תוכן לפי חיפוש." ma:internalName="PublishingRollupImage">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="eWaveListOrderValue" ma:index="27" nillable="true" ma:displayName="סידור" ma:decimals="2" ma:internalName="eWaveListOrderValue" ma:readOnly="false">
+    <xsd:element name="eWaveListOrderValue" ma:index="20" nillable="true" ma:displayName="סידור" ma:decimals="2" ma:internalName="eWaveListOrderValue" ma:readOnly="false">
       <xsd:simpleType>
         <xsd:restriction base="dms:Number"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="ArticleStartDate" ma:index="34" nillable="true" ma:displayName="תאריך מאמר" ma:description="'תאריך המאמר' הוא עמודת אתר שיוצרת תכונת הפרסום. היא משמשת בסוג תוכן דף המאמר כתאריך של הדף." ma:format="DateOnly" ma:internalName="ArticleStartDate">
+    <xsd:element name="ArticleStartDate" ma:index="25" nillable="true" ma:displayName="תאריך מאמר" ma:description="'תאריך המאמר' הוא עמודת אתר שיוצרת תכונת הפרסום. היא משמשת בסוג תוכן דף המאמר כתאריך של הדף." ma:format="DateOnly" ma:internalName="ArticleStartDate">
       <xsd:simpleType>
         <xsd:restriction base="dms:DateTime"/>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="VariationsItemGroupID" ma:index="35" nillable="true" ma:displayName="מזהה קבוצת פריטים" ma:description="" ma:hidden="true" ma:internalName="VariationsItemGroupID">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="AverageRating" ma:index="36" nillable="true" ma:displayName="דירוג (0-5)" ma:decimals="2" ma:description="הערך הממוצע של כל הדירוגים שנשלחו" ma:internalName="AverageRating" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="RatingCount" ma:index="37" nillable="true" ma:displayName="מספר דירוגים" ma:decimals="0" ma:description="מספר דירוגים שנשלחו" ma:internalName="RatingCount" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="RatedBy" ma:index="38" nillable="true" ma:displayName="דורג על-ידי" ma:description="המשתמשים שדירגו את הפריט." ma:hidden="true" ma:list="UserInfo" ma:internalName="RatedBy">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="Ratings" ma:index="39" nillable="true" ma:displayName="דירוגי משתמשים" ma:description="דירוגי משתמשים עבור הפריט" ma:hidden="true" ma:internalName="Ratings">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LikesCount" ma:index="40" nillable="true" ma:displayName="מספר הערות 'אהבתי'" ma:internalName="LikesCount">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LikedBy" ma:index="41" nillable="true" ma:displayName="נוספה הערת 'אהבתי' על-ידי" ma:hidden="true" ma:list="UserInfo" ma:internalName="LikedBy">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f37fff55-d014-472b-b062-823f736a4040" elementFormDefault="qualified">
@@ -2987,67 +2909,59 @@
         <xsd:restriction base="dms:DateTime"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="CbsPublishingDocSubject" ma:index="10" nillable="true" ma:displayName="שם נושא עברית" ma:internalName="CbsPublishingDocSubject" ma:readOnly="false">
+    <xsd:element name="CbsPublishingDocChapter" ma:index="10" nillable="true" ma:displayName="שם פרק עברית" ma:internalName="CbsPublishingDocChapter" ma:readOnly="false">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="CbsPublishingDocChapter" ma:index="11" nillable="true" ma:displayName="שם פרק עברית" ma:internalName="CbsPublishingDocChapter" ma:readOnly="false">
+    <xsd:element name="CbsDocArticleVariationRelUrl" ma:index="11" nillable="true" ma:displayName="קישור מאמר עברית" ma:internalName="CbsDocArticleVariationRelUrl" ma:readOnly="false">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="CbsDocArticleVariationRelUrl" ma:index="12" nillable="true" ma:displayName="קישור מאמר עברית" ma:internalName="CbsDocArticleVariationRelUrl" ma:readOnly="false">
+    <xsd:element name="CbsPublishingDocSubjectEng" ma:index="12" nillable="true" ma:displayName="שם נושא אנגלית" ma:internalName="CbsPublishingDocSubjectEng" ma:readOnly="false">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="CbsPublishingDocSubjectEng" ma:index="13" nillable="true" ma:displayName="שם נושא אנגלית" ma:internalName="CbsPublishingDocSubjectEng" ma:readOnly="false">
+    <xsd:element name="CbsOrderField" ma:index="13" nillable="true" ma:displayName="סדר" ma:internalName="CbsOrderField" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CbsHide" ma:index="14" nillable="true" ma:displayName="הסתר" ma:internalName="CbsHide" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CbsEnglishTitle" ma:index="21" nillable="true" ma:displayName="כותרת אנגלית" ma:internalName="CbsEnglishTitle" ma:readOnly="false">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="CbsPublishingDocChapterEng" ma:index="14" nillable="true" ma:displayName="שם פרק אנגלית" ma:internalName="CbsPublishingDocChapterEng" ma:readOnly="false">
+    <xsd:element name="CbsDocArticleVariationRelUrlEng" ma:index="22" nillable="true" ma:displayName="קישור למאמר אנגלית" ma:internalName="CbsDocArticleVariationRelUrlEng" ma:readOnly="false">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="CbsOrderField" ma:index="15" nillable="true" ma:displayName="סדר" ma:internalName="CbsOrderField" ma:readOnly="false">
+    <xsd:element name="CbsMadadPublishDate" ma:index="24" nillable="true" ma:displayName="תאריך הצגה" ma:internalName="CbsMadadPublishDate" ma:readOnly="false">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
+        <xsd:restriction base="dms:DateTime"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="CbsHide" ma:index="16" nillable="true" ma:displayName="הסתר" ma:internalName="CbsHide" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="badce114fb994f27a777030e336d1efa" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="badce114fb994f27a777030e336d1efa" ma:taxonomyFieldName="CbsMMDSubjects" ma:displayName="נושאים" ma:readOnly="false" ma:fieldId="badce114-fb99-4f27-a777-030e336d1efa" ma:taxonomyMulti="true" ma:sspId="3561f26f-b765-481f-a768-7c7417e4a021" ma:termSetId="d7f67748-0ad2-4e38-bb9f-75af97b01185" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="be7e4c0a87744fda8f9ec475d0d5383d" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="be7e4c0a87744fda8f9ec475d0d5383d" ma:taxonomyFieldName="CbsMMDPublisher" ma:displayName="גוף מפרסם" ma:readOnly="false" ma:fieldId="{be7e4c0a-8774-4fda-8f9e-c475d0d5383d}" ma:taxonomyMulti="true" ma:sspId="3561f26f-b765-481f-a768-7c7417e4a021" ma:termSetId="e47c1fe2-d624-4b76-8e50-17849740b8e6" ma:anchorId="8bb0ea15-f1ea-4010-a3c3-b6ce8447ba5d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="CbsEnglishTitle" ma:index="28" nillable="true" ma:displayName="כותרת אנגלית" ma:internalName="CbsEnglishTitle" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CbsDocArticleVariationRelUrlEng" ma:index="29" nillable="true" ma:displayName="קישור למאמר אנגלית" ma:internalName="CbsDocArticleVariationRelUrlEng" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CbsDataSource" ma:index="31" nillable="true" ma:displayName="תיקיה לדרופ דאון" ma:internalName="CbsDataSource" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CbsMadadPublishDate" ma:index="42" nillable="true" ma:displayName="תאריך הצגה" ma:internalName="CbsMadadPublishDate">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
+    <xsd:element name="d8f60aace6e84187b9d8167da15a966c" ma:index="27" nillable="true" ma:taxonomy="true" ma:internalName="d8f60aace6e84187b9d8167da15a966c" ma:taxonomyFieldName="CbsMMDGeoDistribution" ma:displayName="חלוקה גאוגרפית" ma:readOnly="false" ma:fieldId="{d8f60aac-e6e8-4187-b9d8-167da15a966c}" ma:taxonomyMulti="true" ma:sspId="3561f26f-b765-481f-a768-7c7417e4a021" ma:termSetId="e47c1fe2-d624-4b76-8e50-17849740b8e6" ma:anchorId="ff1b1232-0def-4635-a6bf-e538c8800cd8" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -3161,58 +3075,40 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2020-09-20T21:00:00+00:00</ArticleStartDate>
+    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040">false</CbsHide>
+    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2020-08-10T21:00:00+00:00</ArticleStartDate>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <PublishingRollupImage xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <CbsPublishingDocSubject xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataSource xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <VariationsItemGroupID xmlns="http://schemas.microsoft.com/sharepoint/v3">f237d0e9-0598-4deb-ada7-f1c0a69147a4</VariationsItemGroupID>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-    <CbsMadadPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-09-30T21:00:00+00:00</CbsDataPublishDate>
+    <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </d8f60aace6e84187b9d8167da15a966c>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-10-14T10:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <badce114fb994f27a777030e336d1efa xmlns="f37fff55-d014-472b-b062-823f736a4040">
+    <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
         <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">תמותה ותוחלת חיים</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">f8bf8537-f392-476d-85c7-b30df2db71af</TermId>
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">למס</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">c40914ad-3bbb-4e8d-bb24-8803a16680f5</TermId>
         </TermInfo>
       </Terms>
-    </badce114fb994f27a777030e336d1efa>
+    </be7e4c0a87744fda8f9ec475d0d5383d>
     <CbsOrderField xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsEnglishTitle xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsMadadPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-08-10T21:00:00+00:00</CbsMadadPublishDate>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9719FFF8-8A1C-4C7D-90A3-119867FD5406}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2641DF51-6E42-41F2-82ED-A195F52A3AB8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43F955B7-6C9E-4386-AA89-D0A57F4F7CC8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D443B96-A746-4F4A-8734-FA9C705C4EAE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06405476-2384-4BD5-9A12-A49423ED7B8E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FE6DC7D-92EA-486C-8F0F-D7775E45DB7B}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -79,10 +79,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>מעודכן ל-12 באוקטובר</t>
+    <t>מעודכן ל-20 באוקטובר</t>
   </si>
   <si>
-    <t>הנתונים הופקו בתחום בריאות ותנועה טבעית, 12/10/2020</t>
+    <t>הנתונים הופקו בתחום בריאות ותנועה טבעית, 20/10/2020</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -491,6 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AN46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1055,7 +1056,7 @@
         <v>4061</v>
       </c>
       <c r="V11" s="21">
-        <v>3957</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,7 +1192,7 @@
         <v>3812</v>
       </c>
       <c r="V13" s="21">
-        <v>3914</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1395,7 +1396,7 @@
         <v>3433</v>
       </c>
       <c r="V16" s="21">
-        <v>3684</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1462,8 +1463,8 @@
       <c r="U17" s="20">
         <v>3495</v>
       </c>
-      <c r="V17" s="28">
-        <v>3951</v>
+      <c r="V17" s="30">
+        <v>3987</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1530,7 +1531,9 @@
       <c r="U18" s="20">
         <v>3403</v>
       </c>
-      <c r="V18" s="21"/>
+      <c r="V18" s="28">
+        <v>3876</v>
+      </c>
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -2159,7 +2162,7 @@
         <v>2824</v>
       </c>
       <c r="V31" s="21">
-        <v>3002</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2366,7 +2369,7 @@
         <v>2522</v>
       </c>
       <c r="V34" s="21">
-        <v>2765</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2433,8 +2436,8 @@
       <c r="U35" s="20">
         <v>2540</v>
       </c>
-      <c r="V35" s="28">
-        <v>2968</v>
+      <c r="V35" s="30">
+        <v>2984</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2501,7 +2504,9 @@
       <c r="U36" s="20">
         <v>2527</v>
       </c>
-      <c r="V36" s="21"/>
+      <c r="V36" s="28">
+        <v>2965</v>
+      </c>
     </row>
     <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -2857,7 +2862,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="99" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="1b286c65c5cfc645747077c17aea7bb3">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="109" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="898ef988e1a041c66231d00d41561942">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a04e49307545d5a9d85a837cf2c1ea7c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -3076,15 +3081,15 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040">false</CbsHide>
+    <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2020-08-10T21:00:00+00:00</ArticleStartDate>
-    <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-10-14T10:00:00+00:00</CbsDataPublishDate>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-10-20T21:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
@@ -3102,13 +3107,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2641DF51-6E42-41F2-82ED-A195F52A3AB8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4BC445-64FC-4EFB-931D-38E340FE1E91}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D443B96-A746-4F4A-8734-FA9C705C4EAE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67859F42-5F8D-4394-B31E-C68F93F4F049}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FE6DC7D-92EA-486C-8F0F-D7775E45DB7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06D2450D-F9B7-42B7-9732-5E68835F12E1}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -2862,7 +2862,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="109" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="898ef988e1a041c66231d00d41561942">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="111" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="b39bf2f97abe50ca355466a3617bd507">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a04e49307545d5a9d85a837cf2c1ea7c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -3107,7 +3107,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4BC445-64FC-4EFB-931D-38E340FE1E91}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{243287E1-259C-4168-A887-696F745AD484}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -10,14 +10,14 @@
     <sheet name="פטירות לפי שנה וחודש" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$W$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$W$48</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>ינואר</t>
   </si>
@@ -79,10 +79,76 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>מעודכן ל-20 באוקטובר</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום בריאות ותנועה טבעית, 20/10/2020</t>
+    <t>Deaths of Israeli Residents, by Year and Month, 2000-2020 - All Ages</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>מעודכן ל:</t>
+  </si>
+  <si>
+    <t>Source of data: Population and Immigration Authority, Population Register</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>1. Data for 2019-2020 are not final, and data for the latest month are incomplete.</t>
+  </si>
+  <si>
+    <t>Updated to:</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>Deaths of Israeli Residents, by Year and Month, 2000-2020 - Age 70 and Up</t>
+  </si>
+  <si>
+    <t>2. Excl. deaths of Israeli residents abroad.</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 27 Oct 2020.</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 27/10/2020.</t>
   </si>
 </sst>
 </file>
@@ -93,7 +159,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +235,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +279,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -449,6 +551,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -456,7 +586,7 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -469,7 +599,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -488,10 +617,33 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,16 +984,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:AN46"/>
+  <dimension ref="A6:AN59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.125" customWidth="1"/>
-    <col min="2" max="26" width="6.875" customWidth="1"/>
+    <col min="2" max="21" width="6.875" customWidth="1"/>
+    <col min="22" max="22" width="8.25" customWidth="1"/>
+    <col min="23" max="23" width="10.875" customWidth="1"/>
+    <col min="24" max="26" width="6.875" customWidth="1"/>
     <col min="27" max="29" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -850,2010 +1005,2149 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V8" s="12" t="s">
+      <c r="V7" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="J8" s="30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="9">
+      <c r="V8" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="39">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="33">
         <v>2000</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C10" s="10">
         <v>2001</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="10">
         <v>2002</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="10">
         <v>2003</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F10" s="10">
         <v>2004</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G10" s="10">
         <v>2005</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H10" s="10">
         <v>2006</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I10" s="10">
         <v>2007</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J10" s="10">
         <v>2008</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K10" s="10">
         <v>2009</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L10" s="10">
         <v>2010</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M10" s="10">
         <v>2011</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N10" s="10">
         <v>2012</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O10" s="10">
         <v>2013</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P10" s="10">
         <v>2014</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q10" s="10">
         <v>2015</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R10" s="10">
         <v>2016</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S10" s="10">
         <v>2017</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T10" s="10">
         <v>2018</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U10" s="10">
         <v>2019</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V10" s="11">
         <v>2020</v>
       </c>
-      <c r="AN9" s="3"/>
-    </row>
-    <row r="10" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="W10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN10" s="3"/>
+    </row>
+    <row r="11" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B11" s="19">
         <v>4322</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C11" s="17">
         <v>3442</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D11" s="17">
         <v>4044</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E11" s="17">
         <v>3524</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F11" s="17">
         <v>3768</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G11" s="17">
         <v>4536</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H11" s="17">
         <v>3616</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I11" s="17">
         <v>4793</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J11" s="17">
         <v>3956</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K11" s="17">
         <v>3749</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L11" s="17">
         <v>3767</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M11" s="17">
         <v>4063</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N11" s="17">
         <v>3985</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O11" s="17">
         <v>4237</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P11" s="17">
         <v>4008</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q11" s="17">
         <v>4561</v>
       </c>
-      <c r="R10" s="18">
+      <c r="R11" s="17">
         <v>4378</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S11" s="17">
         <v>4897</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T11" s="17">
         <v>4490</v>
       </c>
-      <c r="U10" s="18">
+      <c r="U11" s="17">
         <v>4806</v>
       </c>
-      <c r="V10" s="21">
+      <c r="V11" s="20">
         <v>4583</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="19">
-        <v>3509</v>
-      </c>
-      <c r="C11" s="20">
-        <v>3283</v>
-      </c>
-      <c r="D11" s="20">
-        <v>3681</v>
-      </c>
-      <c r="E11" s="20">
-        <v>3256</v>
-      </c>
-      <c r="F11" s="20">
-        <v>3298</v>
-      </c>
-      <c r="G11" s="20">
-        <v>3691</v>
-      </c>
-      <c r="H11" s="20">
-        <v>3326</v>
-      </c>
-      <c r="I11" s="20">
-        <v>3545</v>
-      </c>
-      <c r="J11" s="20">
-        <v>3834</v>
-      </c>
-      <c r="K11" s="20">
-        <v>3249</v>
-      </c>
-      <c r="L11" s="20">
-        <v>3304</v>
-      </c>
-      <c r="M11" s="20">
-        <v>3538</v>
-      </c>
-      <c r="N11" s="20">
-        <v>4016</v>
-      </c>
-      <c r="O11" s="20">
-        <v>3785</v>
-      </c>
-      <c r="P11" s="20">
-        <v>3751</v>
-      </c>
-      <c r="Q11" s="20">
-        <v>4117</v>
-      </c>
-      <c r="R11" s="20">
-        <v>4216</v>
-      </c>
-      <c r="S11" s="20">
-        <v>4030</v>
-      </c>
-      <c r="T11" s="20">
-        <v>3905</v>
-      </c>
-      <c r="U11" s="20">
-        <v>4061</v>
-      </c>
-      <c r="V11" s="21">
-        <v>3958</v>
+      <c r="W11" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="19">
-        <v>3367</v>
-      </c>
-      <c r="C12" s="20">
-        <v>3396</v>
-      </c>
-      <c r="D12" s="20">
-        <v>3431</v>
-      </c>
-      <c r="E12" s="20">
-        <v>3629</v>
-      </c>
-      <c r="F12" s="20">
-        <v>3425</v>
-      </c>
-      <c r="G12" s="20">
-        <v>3463</v>
-      </c>
-      <c r="H12" s="20">
-        <v>3507</v>
-      </c>
-      <c r="I12" s="20">
-        <v>3736</v>
-      </c>
-      <c r="J12" s="20">
-        <v>3572</v>
-      </c>
-      <c r="K12" s="20">
-        <v>3539</v>
-      </c>
-      <c r="L12" s="20">
-        <v>3481</v>
-      </c>
-      <c r="M12" s="20">
-        <v>3683</v>
-      </c>
-      <c r="N12" s="20">
-        <v>4166</v>
-      </c>
-      <c r="O12" s="20">
-        <v>3906</v>
-      </c>
-      <c r="P12" s="20">
-        <v>3993</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>4153</v>
-      </c>
-      <c r="R12" s="20">
-        <v>3679</v>
-      </c>
-      <c r="S12" s="20">
-        <v>4067</v>
-      </c>
-      <c r="T12" s="20">
-        <v>3991</v>
-      </c>
-      <c r="U12" s="20">
-        <v>4316</v>
-      </c>
-      <c r="V12" s="21">
-        <v>4174</v>
+        <v>3509</v>
+      </c>
+      <c r="C12" s="19">
+        <v>3283</v>
+      </c>
+      <c r="D12" s="19">
+        <v>3681</v>
+      </c>
+      <c r="E12" s="19">
+        <v>3256</v>
+      </c>
+      <c r="F12" s="19">
+        <v>3298</v>
+      </c>
+      <c r="G12" s="19">
+        <v>3691</v>
+      </c>
+      <c r="H12" s="19">
+        <v>3326</v>
+      </c>
+      <c r="I12" s="19">
+        <v>3545</v>
+      </c>
+      <c r="J12" s="19">
+        <v>3834</v>
+      </c>
+      <c r="K12" s="19">
+        <v>3249</v>
+      </c>
+      <c r="L12" s="19">
+        <v>3304</v>
+      </c>
+      <c r="M12" s="19">
+        <v>3538</v>
+      </c>
+      <c r="N12" s="19">
+        <v>4016</v>
+      </c>
+      <c r="O12" s="19">
+        <v>3785</v>
+      </c>
+      <c r="P12" s="19">
+        <v>3751</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>4117</v>
+      </c>
+      <c r="R12" s="19">
+        <v>4216</v>
+      </c>
+      <c r="S12" s="19">
+        <v>4030</v>
+      </c>
+      <c r="T12" s="19">
+        <v>3905</v>
+      </c>
+      <c r="U12" s="19">
+        <v>4061</v>
+      </c>
+      <c r="V12" s="20">
+        <v>3958</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="19">
-        <v>2976</v>
-      </c>
-      <c r="C13" s="20">
-        <v>3055</v>
-      </c>
-      <c r="D13" s="20">
-        <v>3066</v>
-      </c>
-      <c r="E13" s="20">
-        <v>3111</v>
-      </c>
-      <c r="F13" s="20">
-        <v>3021</v>
-      </c>
-      <c r="G13" s="20">
-        <v>3204</v>
-      </c>
-      <c r="H13" s="20">
-        <v>3064</v>
-      </c>
-      <c r="I13" s="20">
-        <v>3327</v>
-      </c>
-      <c r="J13" s="20">
-        <v>3164</v>
-      </c>
-      <c r="K13" s="20">
-        <v>3246</v>
-      </c>
-      <c r="L13" s="20">
-        <v>3184</v>
-      </c>
-      <c r="M13" s="20">
-        <v>3455</v>
-      </c>
-      <c r="N13" s="20">
-        <v>3598</v>
-      </c>
-      <c r="O13" s="20">
-        <v>3285</v>
-      </c>
-      <c r="P13" s="20">
-        <v>3480</v>
-      </c>
-      <c r="Q13" s="20">
-        <v>3449</v>
-      </c>
-      <c r="R13" s="20">
-        <v>3664</v>
-      </c>
-      <c r="S13" s="20">
-        <v>3715</v>
-      </c>
-      <c r="T13" s="20">
-        <v>3474</v>
-      </c>
-      <c r="U13" s="20">
-        <v>3812</v>
-      </c>
-      <c r="V13" s="21">
-        <v>3913</v>
+        <v>3367</v>
+      </c>
+      <c r="C13" s="19">
+        <v>3396</v>
+      </c>
+      <c r="D13" s="19">
+        <v>3431</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3629</v>
+      </c>
+      <c r="F13" s="19">
+        <v>3425</v>
+      </c>
+      <c r="G13" s="19">
+        <v>3463</v>
+      </c>
+      <c r="H13" s="19">
+        <v>3507</v>
+      </c>
+      <c r="I13" s="19">
+        <v>3736</v>
+      </c>
+      <c r="J13" s="19">
+        <v>3572</v>
+      </c>
+      <c r="K13" s="19">
+        <v>3539</v>
+      </c>
+      <c r="L13" s="19">
+        <v>3481</v>
+      </c>
+      <c r="M13" s="19">
+        <v>3683</v>
+      </c>
+      <c r="N13" s="19">
+        <v>4166</v>
+      </c>
+      <c r="O13" s="19">
+        <v>3906</v>
+      </c>
+      <c r="P13" s="19">
+        <v>3993</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>4153</v>
+      </c>
+      <c r="R13" s="19">
+        <v>3679</v>
+      </c>
+      <c r="S13" s="19">
+        <v>4067</v>
+      </c>
+      <c r="T13" s="19">
+        <v>3991</v>
+      </c>
+      <c r="U13" s="19">
+        <v>4316</v>
+      </c>
+      <c r="V13" s="20">
+        <v>4174</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="19">
-        <v>2856</v>
-      </c>
-      <c r="C14" s="20">
-        <v>2982</v>
-      </c>
-      <c r="D14" s="20">
-        <v>3052</v>
-      </c>
-      <c r="E14" s="20">
-        <v>3126</v>
-      </c>
-      <c r="F14" s="20">
-        <v>2959</v>
-      </c>
-      <c r="G14" s="20">
-        <v>3048</v>
-      </c>
-      <c r="H14" s="20">
-        <v>3000</v>
-      </c>
-      <c r="I14" s="20">
-        <v>3083</v>
-      </c>
-      <c r="J14" s="20">
-        <v>3043</v>
-      </c>
-      <c r="K14" s="20">
-        <v>3143</v>
-      </c>
-      <c r="L14" s="20">
-        <v>3038</v>
-      </c>
-      <c r="M14" s="20">
+        <v>2976</v>
+      </c>
+      <c r="C14" s="19">
+        <v>3055</v>
+      </c>
+      <c r="D14" s="19">
+        <v>3066</v>
+      </c>
+      <c r="E14" s="19">
+        <v>3111</v>
+      </c>
+      <c r="F14" s="19">
+        <v>3021</v>
+      </c>
+      <c r="G14" s="19">
+        <v>3204</v>
+      </c>
+      <c r="H14" s="19">
+        <v>3064</v>
+      </c>
+      <c r="I14" s="19">
         <v>3327</v>
       </c>
-      <c r="N14" s="20">
-        <v>3338</v>
-      </c>
-      <c r="O14" s="20">
-        <v>3352</v>
-      </c>
-      <c r="P14" s="20">
-        <v>3334</v>
-      </c>
-      <c r="Q14" s="20">
-        <v>3530</v>
-      </c>
-      <c r="R14" s="20">
-        <v>3402</v>
-      </c>
-      <c r="S14" s="20">
-        <v>3495</v>
-      </c>
-      <c r="T14" s="20">
-        <v>3582</v>
-      </c>
-      <c r="U14" s="20">
-        <v>3788</v>
-      </c>
-      <c r="V14" s="21">
-        <v>3871</v>
+      <c r="J14" s="19">
+        <v>3164</v>
+      </c>
+      <c r="K14" s="19">
+        <v>3246</v>
+      </c>
+      <c r="L14" s="19">
+        <v>3184</v>
+      </c>
+      <c r="M14" s="19">
+        <v>3455</v>
+      </c>
+      <c r="N14" s="19">
+        <v>3598</v>
+      </c>
+      <c r="O14" s="19">
+        <v>3285</v>
+      </c>
+      <c r="P14" s="19">
+        <v>3480</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>3449</v>
+      </c>
+      <c r="R14" s="19">
+        <v>3664</v>
+      </c>
+      <c r="S14" s="19">
+        <v>3715</v>
+      </c>
+      <c r="T14" s="19">
+        <v>3474</v>
+      </c>
+      <c r="U14" s="19">
+        <v>3812</v>
+      </c>
+      <c r="V14" s="20">
+        <v>3913</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="19">
-        <v>2748</v>
-      </c>
-      <c r="C15" s="20">
-        <v>2688</v>
-      </c>
-      <c r="D15" s="20">
-        <v>2913</v>
-      </c>
-      <c r="E15" s="20">
-        <v>2892</v>
-      </c>
-      <c r="F15" s="20">
-        <v>2815</v>
-      </c>
-      <c r="G15" s="20">
-        <v>2865</v>
-      </c>
-      <c r="H15" s="20">
-        <v>2935</v>
-      </c>
-      <c r="I15" s="20">
-        <v>2842</v>
-      </c>
-      <c r="J15" s="20">
-        <v>2832</v>
-      </c>
-      <c r="K15" s="20">
-        <v>2907</v>
-      </c>
-      <c r="L15" s="20">
-        <v>2974</v>
-      </c>
-      <c r="M15" s="20">
-        <v>3056</v>
-      </c>
-      <c r="N15" s="20">
-        <v>3055</v>
-      </c>
-      <c r="O15" s="20">
-        <v>3042</v>
-      </c>
-      <c r="P15" s="20">
-        <v>3093</v>
-      </c>
-      <c r="Q15" s="20">
-        <v>3198</v>
-      </c>
-      <c r="R15" s="20">
-        <v>3259</v>
-      </c>
-      <c r="S15" s="20">
-        <v>3311</v>
-      </c>
-      <c r="T15" s="20">
-        <v>3326</v>
-      </c>
-      <c r="U15" s="20">
+        <v>2856</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2982</v>
+      </c>
+      <c r="D15" s="19">
+        <v>3052</v>
+      </c>
+      <c r="E15" s="19">
+        <v>3126</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2959</v>
+      </c>
+      <c r="G15" s="19">
+        <v>3048</v>
+      </c>
+      <c r="H15" s="19">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="19">
+        <v>3083</v>
+      </c>
+      <c r="J15" s="19">
+        <v>3043</v>
+      </c>
+      <c r="K15" s="19">
+        <v>3143</v>
+      </c>
+      <c r="L15" s="19">
+        <v>3038</v>
+      </c>
+      <c r="M15" s="19">
+        <v>3327</v>
+      </c>
+      <c r="N15" s="19">
         <v>3338</v>
       </c>
-      <c r="V15" s="21">
-        <v>3403</v>
+      <c r="O15" s="19">
+        <v>3352</v>
+      </c>
+      <c r="P15" s="19">
+        <v>3334</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>3530</v>
+      </c>
+      <c r="R15" s="19">
+        <v>3402</v>
+      </c>
+      <c r="S15" s="19">
+        <v>3495</v>
+      </c>
+      <c r="T15" s="19">
+        <v>3582</v>
+      </c>
+      <c r="U15" s="19">
+        <v>3788</v>
+      </c>
+      <c r="V15" s="20">
+        <v>3872</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="19">
+        <v>2748</v>
+      </c>
+      <c r="C16" s="19">
+        <v>2688</v>
+      </c>
+      <c r="D16" s="19">
+        <v>2913</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2892</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2815</v>
+      </c>
+      <c r="G16" s="19">
+        <v>2865</v>
+      </c>
+      <c r="H16" s="19">
+        <v>2935</v>
+      </c>
+      <c r="I16" s="19">
+        <v>2842</v>
+      </c>
+      <c r="J16" s="19">
+        <v>2832</v>
+      </c>
+      <c r="K16" s="19">
+        <v>2907</v>
+      </c>
+      <c r="L16" s="19">
+        <v>2974</v>
+      </c>
+      <c r="M16" s="19">
+        <v>3056</v>
+      </c>
+      <c r="N16" s="19">
+        <v>3055</v>
+      </c>
+      <c r="O16" s="19">
+        <v>3042</v>
+      </c>
+      <c r="P16" s="19">
+        <v>3093</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>3198</v>
+      </c>
+      <c r="R16" s="19">
+        <v>3259</v>
+      </c>
+      <c r="S16" s="19">
+        <v>3311</v>
+      </c>
+      <c r="T16" s="19">
+        <v>3326</v>
+      </c>
+      <c r="U16" s="19">
+        <v>3338</v>
+      </c>
+      <c r="V16" s="20">
+        <v>3403</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B17" s="19">
         <v>2869</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C17" s="19">
         <v>2846</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D17" s="19">
         <v>2894</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E17" s="19">
         <v>2941</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F17" s="19">
         <v>2890</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G17" s="19">
         <v>2895</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H17" s="19">
         <v>3080</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I17" s="19">
         <v>3028</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J17" s="19">
         <v>2970</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K17" s="19">
         <v>2982</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L17" s="19">
         <v>2984</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M17" s="19">
         <v>3055</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N17" s="19">
         <v>3187</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O17" s="19">
         <v>3114</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P17" s="19">
         <v>3336</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q17" s="19">
         <v>3289</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R17" s="19">
         <v>3310</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S17" s="19">
         <v>3406</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T17" s="19">
         <v>3494</v>
       </c>
-      <c r="U16" s="20">
+      <c r="U17" s="19">
         <v>3433</v>
       </c>
-      <c r="V16" s="21">
+      <c r="V17" s="20">
         <v>3688</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="W17" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B18" s="19">
         <v>2890</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C18" s="19">
         <v>3008</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D18" s="19">
         <v>3041</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E18" s="19">
         <v>2919</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F18" s="19">
         <v>2864</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G18" s="19">
         <v>2992</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H18" s="19">
         <v>3209</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I18" s="19">
         <v>2995</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J18" s="19">
         <v>3022</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K18" s="19">
         <v>3040</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L18" s="19">
         <v>3310</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M18" s="19">
         <v>3162</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N18" s="19">
         <v>3172</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O18" s="19">
         <v>3273</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P18" s="19">
         <v>3196</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q18" s="19">
         <v>3509</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R18" s="19">
         <v>3390</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S18" s="19">
         <v>3290</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T18" s="19">
         <v>3512</v>
       </c>
-      <c r="U17" s="20">
+      <c r="U18" s="19">
         <v>3495</v>
       </c>
-      <c r="V17" s="30">
+      <c r="V18" s="28">
+        <v>3999</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="19">
+        <v>2813</v>
+      </c>
+      <c r="C19" s="19">
+        <v>2818</v>
+      </c>
+      <c r="D19" s="19">
+        <v>2888</v>
+      </c>
+      <c r="E19" s="19">
+        <v>2924</v>
+      </c>
+      <c r="F19" s="19">
+        <v>2884</v>
+      </c>
+      <c r="G19" s="19">
+        <v>2853</v>
+      </c>
+      <c r="H19" s="19">
+        <v>2894</v>
+      </c>
+      <c r="I19" s="19">
+        <v>2967</v>
+      </c>
+      <c r="J19" s="19">
+        <v>3083</v>
+      </c>
+      <c r="K19" s="19">
+        <v>2860</v>
+      </c>
+      <c r="L19" s="19">
+        <v>3189</v>
+      </c>
+      <c r="M19" s="19">
+        <v>2982</v>
+      </c>
+      <c r="N19" s="19">
+        <v>3134</v>
+      </c>
+      <c r="O19" s="19">
+        <v>3112</v>
+      </c>
+      <c r="P19" s="19">
+        <v>3179</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>3308</v>
+      </c>
+      <c r="R19" s="19">
+        <v>3241</v>
+      </c>
+      <c r="S19" s="19">
+        <v>3220</v>
+      </c>
+      <c r="T19" s="19">
+        <v>3390</v>
+      </c>
+      <c r="U19" s="19">
+        <v>3403</v>
+      </c>
+      <c r="V19" s="27">
+        <v>4036</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="19">
+        <v>2906</v>
+      </c>
+      <c r="C20" s="19">
+        <v>3127</v>
+      </c>
+      <c r="D20" s="19">
+        <v>2945</v>
+      </c>
+      <c r="E20" s="19">
+        <v>3027</v>
+      </c>
+      <c r="F20" s="19">
+        <v>3038</v>
+      </c>
+      <c r="G20" s="19">
+        <v>3032</v>
+      </c>
+      <c r="H20" s="19">
+        <v>3015</v>
+      </c>
+      <c r="I20" s="19">
+        <v>3077</v>
+      </c>
+      <c r="J20" s="19">
+        <v>3086</v>
+      </c>
+      <c r="K20" s="19">
+        <v>3157</v>
+      </c>
+      <c r="L20" s="19">
+        <v>3248</v>
+      </c>
+      <c r="M20" s="19">
+        <v>3165</v>
+      </c>
+      <c r="N20" s="19">
+        <v>3283</v>
+      </c>
+      <c r="O20" s="19">
+        <v>3371</v>
+      </c>
+      <c r="P20" s="19">
+        <v>3550</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>3529</v>
+      </c>
+      <c r="R20" s="19">
+        <v>3470</v>
+      </c>
+      <c r="S20" s="19">
+        <v>3601</v>
+      </c>
+      <c r="T20" s="19">
+        <v>3692</v>
+      </c>
+      <c r="U20" s="19">
+        <v>3604</v>
+      </c>
+      <c r="V20" s="20"/>
+      <c r="W20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="19">
+        <v>3087</v>
+      </c>
+      <c r="C21" s="19">
+        <v>3111</v>
+      </c>
+      <c r="D21" s="19">
+        <v>3076</v>
+      </c>
+      <c r="E21" s="19">
+        <v>3269</v>
+      </c>
+      <c r="F21" s="19">
+        <v>2984</v>
+      </c>
+      <c r="G21" s="19">
+        <v>3188</v>
+      </c>
+      <c r="H21" s="19">
+        <v>3224</v>
+      </c>
+      <c r="I21" s="19">
+        <v>3144</v>
+      </c>
+      <c r="J21" s="19">
+        <v>3123</v>
+      </c>
+      <c r="K21" s="19">
+        <v>3191</v>
+      </c>
+      <c r="L21" s="19">
+        <v>3113</v>
+      </c>
+      <c r="M21" s="19">
+        <v>3382</v>
+      </c>
+      <c r="N21" s="19">
+        <v>3329</v>
+      </c>
+      <c r="O21" s="19">
+        <v>3235</v>
+      </c>
+      <c r="P21" s="19">
+        <v>3421</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>3595</v>
+      </c>
+      <c r="R21" s="19">
+        <v>3622</v>
+      </c>
+      <c r="S21" s="19">
+        <v>3577</v>
+      </c>
+      <c r="T21" s="19">
+        <v>3696</v>
+      </c>
+      <c r="U21" s="19">
+        <v>3687</v>
+      </c>
+      <c r="V21" s="20"/>
+      <c r="W21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="40">
+        <v>3415</v>
+      </c>
+      <c r="C22" s="22">
+        <v>3469</v>
+      </c>
+      <c r="D22" s="22">
+        <v>3294</v>
+      </c>
+      <c r="E22" s="22">
+        <v>3743</v>
+      </c>
+      <c r="F22" s="22">
+        <v>3841</v>
+      </c>
+      <c r="G22" s="22">
+        <v>3159</v>
+      </c>
+      <c r="H22" s="22">
+        <v>3830</v>
+      </c>
+      <c r="I22" s="22">
+        <v>3440</v>
+      </c>
+      <c r="J22" s="22">
+        <v>3579</v>
+      </c>
+      <c r="K22" s="22">
+        <v>3580</v>
+      </c>
+      <c r="L22" s="22">
+        <v>3859</v>
+      </c>
+      <c r="M22" s="22">
+        <v>3822</v>
+      </c>
+      <c r="N22" s="22">
+        <v>3631</v>
+      </c>
+      <c r="O22" s="22">
+        <v>3777</v>
+      </c>
+      <c r="P22" s="22">
+        <v>3837</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>4039</v>
+      </c>
+      <c r="R22" s="22">
+        <v>4340</v>
+      </c>
+      <c r="S22" s="22">
         <v>3987</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="19">
-        <v>2813</v>
-      </c>
-      <c r="C18" s="20">
-        <v>2818</v>
-      </c>
-      <c r="D18" s="20">
-        <v>2888</v>
-      </c>
-      <c r="E18" s="20">
-        <v>2924</v>
-      </c>
-      <c r="F18" s="20">
-        <v>2884</v>
-      </c>
-      <c r="G18" s="20">
-        <v>2853</v>
-      </c>
-      <c r="H18" s="20">
-        <v>2894</v>
-      </c>
-      <c r="I18" s="20">
-        <v>2967</v>
-      </c>
-      <c r="J18" s="20">
-        <v>3083</v>
-      </c>
-      <c r="K18" s="20">
-        <v>2860</v>
-      </c>
-      <c r="L18" s="20">
-        <v>3189</v>
-      </c>
-      <c r="M18" s="20">
-        <v>2982</v>
-      </c>
-      <c r="N18" s="20">
-        <v>3134</v>
-      </c>
-      <c r="O18" s="20">
-        <v>3112</v>
-      </c>
-      <c r="P18" s="20">
-        <v>3179</v>
-      </c>
-      <c r="Q18" s="20">
-        <v>3308</v>
-      </c>
-      <c r="R18" s="20">
-        <v>3241</v>
-      </c>
-      <c r="S18" s="20">
-        <v>3220</v>
-      </c>
-      <c r="T18" s="20">
-        <v>3390</v>
-      </c>
-      <c r="U18" s="20">
-        <v>3403</v>
-      </c>
-      <c r="V18" s="28">
-        <v>3876</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="19">
-        <v>2906</v>
-      </c>
-      <c r="C19" s="20">
-        <v>3127</v>
-      </c>
-      <c r="D19" s="20">
-        <v>2945</v>
-      </c>
-      <c r="E19" s="20">
-        <v>3027</v>
-      </c>
-      <c r="F19" s="20">
-        <v>3038</v>
-      </c>
-      <c r="G19" s="20">
-        <v>3032</v>
-      </c>
-      <c r="H19" s="20">
-        <v>3015</v>
-      </c>
-      <c r="I19" s="20">
-        <v>3077</v>
-      </c>
-      <c r="J19" s="20">
-        <v>3086</v>
-      </c>
-      <c r="K19" s="20">
-        <v>3157</v>
-      </c>
-      <c r="L19" s="20">
-        <v>3248</v>
-      </c>
-      <c r="M19" s="20">
-        <v>3165</v>
-      </c>
-      <c r="N19" s="20">
-        <v>3283</v>
-      </c>
-      <c r="O19" s="20">
-        <v>3371</v>
-      </c>
-      <c r="P19" s="20">
-        <v>3550</v>
-      </c>
-      <c r="Q19" s="20">
-        <v>3529</v>
-      </c>
-      <c r="R19" s="20">
-        <v>3470</v>
-      </c>
-      <c r="S19" s="20">
-        <v>3601</v>
-      </c>
-      <c r="T19" s="20">
-        <v>3692</v>
-      </c>
-      <c r="U19" s="20">
-        <v>3604</v>
-      </c>
-      <c r="V19" s="21"/>
-    </row>
-    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="19">
-        <v>3087</v>
-      </c>
-      <c r="C20" s="20">
-        <v>3111</v>
-      </c>
-      <c r="D20" s="20">
-        <v>3076</v>
-      </c>
-      <c r="E20" s="20">
-        <v>3269</v>
-      </c>
-      <c r="F20" s="20">
-        <v>2984</v>
-      </c>
-      <c r="G20" s="20">
-        <v>3188</v>
-      </c>
-      <c r="H20" s="20">
-        <v>3224</v>
-      </c>
-      <c r="I20" s="20">
-        <v>3144</v>
-      </c>
-      <c r="J20" s="20">
-        <v>3123</v>
-      </c>
-      <c r="K20" s="20">
-        <v>3191</v>
-      </c>
-      <c r="L20" s="20">
-        <v>3113</v>
-      </c>
-      <c r="M20" s="20">
-        <v>3382</v>
-      </c>
-      <c r="N20" s="20">
-        <v>3329</v>
-      </c>
-      <c r="O20" s="20">
-        <v>3235</v>
-      </c>
-      <c r="P20" s="20">
-        <v>3421</v>
-      </c>
-      <c r="Q20" s="20">
-        <v>3595</v>
-      </c>
-      <c r="R20" s="20">
-        <v>3622</v>
-      </c>
-      <c r="S20" s="20">
-        <v>3577</v>
-      </c>
-      <c r="T20" s="20">
-        <v>3696</v>
-      </c>
-      <c r="U20" s="20">
-        <v>3687</v>
-      </c>
-      <c r="V20" s="21"/>
-    </row>
-    <row r="21" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="22">
-        <v>3415</v>
-      </c>
-      <c r="C21" s="23">
-        <v>3469</v>
-      </c>
-      <c r="D21" s="23">
-        <v>3294</v>
-      </c>
-      <c r="E21" s="23">
-        <v>3743</v>
-      </c>
-      <c r="F21" s="23">
-        <v>3841</v>
-      </c>
-      <c r="G21" s="23">
-        <v>3159</v>
-      </c>
-      <c r="H21" s="23">
-        <v>3830</v>
-      </c>
-      <c r="I21" s="23">
-        <v>3440</v>
-      </c>
-      <c r="J21" s="23">
-        <v>3579</v>
-      </c>
-      <c r="K21" s="23">
-        <v>3580</v>
-      </c>
-      <c r="L21" s="23">
-        <v>3859</v>
-      </c>
-      <c r="M21" s="23">
-        <v>3822</v>
-      </c>
-      <c r="N21" s="23">
-        <v>3631</v>
-      </c>
-      <c r="O21" s="23">
-        <v>3777</v>
-      </c>
-      <c r="P21" s="23">
-        <v>3837</v>
-      </c>
-      <c r="Q21" s="23">
-        <v>4039</v>
-      </c>
-      <c r="R21" s="23">
-        <v>4340</v>
-      </c>
-      <c r="S21" s="23">
-        <v>3987</v>
-      </c>
-      <c r="T21" s="23">
+      <c r="T22" s="22">
         <v>3979</v>
       </c>
-      <c r="U21" s="23">
+      <c r="U22" s="22">
         <v>4237</v>
       </c>
-      <c r="V21" s="24"/>
-    </row>
-    <row r="22" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="V22" s="23"/>
+      <c r="W22" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="25">
-        <f>SUM(B10:B21)</f>
+      <c r="B23" s="41">
+        <f>SUM(B11:B22)</f>
         <v>37758</v>
       </c>
-      <c r="C22" s="26">
-        <f t="shared" ref="C22:U22" si="0">SUM(C10:C21)</f>
+      <c r="C23" s="25">
+        <f t="shared" ref="C23:U23" si="0">SUM(C11:C22)</f>
         <v>37225</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D23" s="25">
         <f t="shared" si="0"/>
         <v>38325</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E23" s="25">
         <f t="shared" si="0"/>
         <v>38361</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F23" s="25">
         <f t="shared" si="0"/>
         <v>37787</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G23" s="25">
         <f t="shared" si="0"/>
         <v>38926</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H23" s="25">
         <f t="shared" si="0"/>
         <v>38700</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I23" s="25">
         <f t="shared" si="0"/>
         <v>39977</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J23" s="25">
         <f t="shared" si="0"/>
         <v>39264</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K23" s="25">
         <f t="shared" si="0"/>
         <v>38643</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L23" s="25">
         <f t="shared" si="0"/>
         <v>39451</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M23" s="25">
         <f t="shared" si="0"/>
         <v>40690</v>
       </c>
-      <c r="N22" s="26">
+      <c r="N23" s="25">
         <f t="shared" si="0"/>
         <v>41894</v>
       </c>
-      <c r="O22" s="26">
+      <c r="O23" s="25">
         <f t="shared" si="0"/>
         <v>41489</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P23" s="25">
         <f t="shared" si="0"/>
         <v>42178</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="Q23" s="25">
         <f t="shared" si="0"/>
         <v>44277</v>
       </c>
-      <c r="R22" s="26">
+      <c r="R23" s="25">
         <f t="shared" si="0"/>
         <v>43971</v>
       </c>
-      <c r="S22" s="26">
+      <c r="S23" s="25">
         <f t="shared" si="0"/>
         <v>44596</v>
       </c>
-      <c r="T22" s="26">
+      <c r="T23" s="25">
         <f t="shared" si="0"/>
         <v>44531</v>
       </c>
-      <c r="U22" s="26">
+      <c r="U23" s="25">
         <f t="shared" si="0"/>
         <v>45980</v>
       </c>
-      <c r="V22" s="26"/>
-    </row>
-    <row r="23" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="V23" s="25"/>
+      <c r="W23" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="9">
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="9">
         <v>2000</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C29" s="10">
         <v>2001</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D29" s="10">
         <v>2002</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E29" s="10">
         <v>2003</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F29" s="10">
         <v>2004</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G29" s="10">
         <v>2005</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H29" s="10">
         <v>2006</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I29" s="10">
         <v>2007</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J29" s="10">
         <v>2008</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K29" s="10">
         <v>2009</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L29" s="10">
         <v>2010</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M29" s="10">
         <v>2011</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N29" s="10">
         <v>2012</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O29" s="10">
         <v>2013</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P29" s="10">
         <v>2014</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q29" s="10">
         <v>2015</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R29" s="10">
         <v>2016</v>
       </c>
-      <c r="S27" s="10">
+      <c r="S29" s="10">
         <v>2017</v>
       </c>
-      <c r="T27" s="10">
+      <c r="T29" s="10">
         <v>2018</v>
       </c>
-      <c r="U27" s="10">
+      <c r="U29" s="10">
         <v>2019</v>
       </c>
-      <c r="V27" s="11">
+      <c r="V29" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="W29" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B30" s="16">
         <v>3144</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C30" s="17">
         <v>2436</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D30" s="17">
         <v>2945</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E30" s="17">
         <v>2518</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F30" s="17">
         <v>2757</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G30" s="17">
         <v>3386</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H30" s="17">
         <v>2637</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I30" s="17">
         <v>3669</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J30" s="17">
         <v>2886</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K30" s="17">
         <v>2766</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L30" s="17">
         <v>2797</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M30" s="17">
         <v>3049</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N30" s="17">
         <v>3021</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O30" s="17">
         <v>3136</v>
       </c>
-      <c r="P28" s="18">
+      <c r="P30" s="17">
         <v>3025</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q30" s="17">
         <v>3420</v>
       </c>
-      <c r="R28" s="18">
+      <c r="R30" s="17">
         <v>3250</v>
       </c>
-      <c r="S28" s="18">
+      <c r="S30" s="17">
         <v>3720</v>
       </c>
-      <c r="T28" s="18">
+      <c r="T30" s="17">
         <v>3429</v>
       </c>
-      <c r="U28" s="18">
+      <c r="U30" s="17">
         <v>3684</v>
       </c>
-      <c r="V28" s="21">
+      <c r="V30" s="20">
         <v>3464</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="W30" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B31" s="18">
         <v>2547</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C31" s="19">
         <v>2339</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D31" s="19">
         <v>2690</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E31" s="19">
         <v>2402</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F31" s="19">
         <v>2410</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G31" s="19">
         <v>2699</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H31" s="19">
         <v>2404</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I31" s="19">
         <v>2625</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J31" s="19">
         <v>2891</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K31" s="19">
         <v>2399</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L31" s="19">
         <v>2471</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M31" s="19">
         <v>2597</v>
       </c>
-      <c r="N29" s="20">
+      <c r="N31" s="19">
         <v>3103</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O31" s="19">
         <v>2796</v>
       </c>
-      <c r="P29" s="20">
+      <c r="P31" s="19">
         <v>2864</v>
       </c>
-      <c r="Q29" s="20">
+      <c r="Q31" s="19">
         <v>3135</v>
       </c>
-      <c r="R29" s="20">
+      <c r="R31" s="19">
         <v>3142</v>
       </c>
-      <c r="S29" s="20">
+      <c r="S31" s="19">
         <v>3010</v>
       </c>
-      <c r="T29" s="20">
+      <c r="T31" s="19">
         <v>2939</v>
       </c>
-      <c r="U29" s="20">
+      <c r="U31" s="19">
         <v>3096</v>
       </c>
-      <c r="V29" s="21">
+      <c r="V31" s="20">
         <v>3030</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="W31" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B32" s="18">
         <v>2336</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C32" s="19">
         <v>2394</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D32" s="19">
         <v>2382</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E32" s="19">
         <v>2558</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F32" s="19">
         <v>2406</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G32" s="19">
         <v>2505</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H32" s="19">
         <v>2583</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I32" s="19">
         <v>2753</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J32" s="19">
         <v>2630</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K32" s="19">
         <v>2629</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L32" s="19">
         <v>2545</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M32" s="19">
         <v>2739</v>
       </c>
-      <c r="N30" s="20">
+      <c r="N32" s="19">
         <v>3106</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O32" s="19">
         <v>2863</v>
       </c>
-      <c r="P30" s="20">
+      <c r="P32" s="19">
         <v>2968</v>
       </c>
-      <c r="Q30" s="20">
+      <c r="Q32" s="19">
         <v>3077</v>
       </c>
-      <c r="R30" s="20">
+      <c r="R32" s="19">
         <v>2695</v>
       </c>
-      <c r="S30" s="20">
+      <c r="S32" s="19">
         <v>3072</v>
       </c>
-      <c r="T30" s="20">
+      <c r="T32" s="19">
         <v>2975</v>
       </c>
-      <c r="U30" s="20">
+      <c r="U32" s="19">
         <v>3246</v>
       </c>
-      <c r="V30" s="21">
+      <c r="V32" s="20">
         <v>3190</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="W32" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B33" s="18">
         <v>2140</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C33" s="19">
         <v>2149</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D33" s="19">
         <v>2124</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E33" s="19">
         <v>2239</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F33" s="19">
         <v>2188</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G33" s="19">
         <v>2324</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H33" s="19">
         <v>2223</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I33" s="19">
         <v>2443</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J33" s="19">
         <v>2292</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K33" s="19">
         <v>2396</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L33" s="19">
         <v>2347</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M33" s="19">
         <v>2596</v>
       </c>
-      <c r="N31" s="20">
+      <c r="N33" s="19">
         <v>2730</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O33" s="19">
         <v>2389</v>
       </c>
-      <c r="P31" s="20">
+      <c r="P33" s="19">
         <v>2601</v>
       </c>
-      <c r="Q31" s="20">
+      <c r="Q33" s="19">
         <v>2565</v>
       </c>
-      <c r="R31" s="20">
+      <c r="R33" s="19">
         <v>2712</v>
       </c>
-      <c r="S31" s="20">
+      <c r="S33" s="19">
         <v>2752</v>
       </c>
-      <c r="T31" s="20">
+      <c r="T33" s="19">
         <v>2557</v>
       </c>
-      <c r="U31" s="20">
+      <c r="U33" s="19">
         <v>2824</v>
       </c>
-      <c r="V31" s="21">
+      <c r="V33" s="20">
         <v>3001</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="W33" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B34" s="18">
         <v>1979</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C34" s="19">
         <v>2056</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D34" s="19">
         <v>2130</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E34" s="19">
         <v>2205</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F34" s="19">
         <v>2094</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G34" s="19">
         <v>2152</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H34" s="19">
         <v>2155</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I34" s="19">
         <v>2233</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J34" s="19">
         <v>2174</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K34" s="19">
         <v>2292</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L34" s="19">
         <v>2187</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M34" s="19">
         <v>2426</v>
       </c>
-      <c r="N32" s="20">
+      <c r="N34" s="19">
         <v>2428</v>
       </c>
-      <c r="O32" s="20">
+      <c r="O34" s="19">
         <v>2489</v>
       </c>
-      <c r="P32" s="20">
+      <c r="P34" s="19">
         <v>2391</v>
       </c>
-      <c r="Q32" s="20">
+      <c r="Q34" s="19">
         <v>2573</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R34" s="19">
         <v>2458</v>
       </c>
-      <c r="S32" s="20">
+      <c r="S34" s="19">
         <v>2579</v>
       </c>
-      <c r="T32" s="20">
+      <c r="T34" s="19">
         <v>2645</v>
       </c>
-      <c r="U32" s="20">
+      <c r="U34" s="19">
         <v>2822</v>
       </c>
-      <c r="V32" s="21">
-        <v>2926</v>
-      </c>
-      <c r="X32" t="s">
+      <c r="V34" s="20">
+        <v>2927</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="X34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B35" s="18">
         <v>1836</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C35" s="19">
         <v>1834</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D35" s="19">
         <v>2035</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E35" s="19">
         <v>2018</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F35" s="19">
         <v>1977</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G35" s="19">
         <v>2034</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H35" s="19">
         <v>2063</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I35" s="19">
         <v>2024</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J35" s="19">
         <v>2044</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K35" s="19">
         <v>2133</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L35" s="19">
         <v>2138</v>
       </c>
-      <c r="M33" s="20">
+      <c r="M35" s="19">
         <v>2198</v>
       </c>
-      <c r="N33" s="20">
+      <c r="N35" s="19">
         <v>2252</v>
       </c>
-      <c r="O33" s="20">
+      <c r="O35" s="19">
         <v>2241</v>
       </c>
-      <c r="P33" s="20">
+      <c r="P35" s="19">
         <v>2214</v>
       </c>
-      <c r="Q33" s="20">
+      <c r="Q35" s="19">
         <v>2342</v>
       </c>
-      <c r="R33" s="20">
+      <c r="R35" s="19">
         <v>2345</v>
       </c>
-      <c r="S33" s="20">
+      <c r="S35" s="19">
         <v>2360</v>
       </c>
-      <c r="T33" s="20">
+      <c r="T35" s="19">
         <v>2433</v>
       </c>
-      <c r="U33" s="20">
+      <c r="U35" s="19">
         <v>2469</v>
       </c>
-      <c r="V33" s="21">
+      <c r="V35" s="20">
         <v>2522</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="W35" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B36" s="18">
         <v>1993</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C36" s="19">
         <v>1911</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D36" s="19">
         <v>1974</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E36" s="19">
         <v>2023</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F36" s="19">
         <v>2014</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G36" s="19">
         <v>2087</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H36" s="19">
         <v>2128</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I36" s="19">
         <v>2119</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J36" s="19">
         <v>2151</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K36" s="19">
         <v>2105</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L36" s="19">
         <v>2151</v>
       </c>
-      <c r="M34" s="20">
+      <c r="M36" s="19">
         <v>2227</v>
       </c>
-      <c r="N34" s="20">
+      <c r="N36" s="19">
         <v>2318</v>
       </c>
-      <c r="O34" s="20">
+      <c r="O36" s="19">
         <v>2215</v>
       </c>
-      <c r="P34" s="20">
+      <c r="P36" s="19">
         <v>2351</v>
       </c>
-      <c r="Q34" s="20">
+      <c r="Q36" s="19">
         <v>2378</v>
       </c>
-      <c r="R34" s="20">
+      <c r="R36" s="19">
         <v>2361</v>
       </c>
-      <c r="S34" s="20">
+      <c r="S36" s="19">
         <v>2456</v>
       </c>
-      <c r="T34" s="20">
+      <c r="T36" s="19">
         <v>2544</v>
       </c>
-      <c r="U34" s="27">
+      <c r="U36" s="26">
         <v>2522</v>
       </c>
-      <c r="V34" s="21">
+      <c r="V36" s="20">
         <v>2766</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="W36" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B37" s="18">
         <v>2012</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C37" s="19">
         <v>2111</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D37" s="19">
         <v>2082</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E37" s="19">
         <v>2030</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F37" s="19">
         <v>2012</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G37" s="19">
         <v>2102</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H37" s="19">
         <v>2241</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I37" s="19">
         <v>2131</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J37" s="19">
         <v>2199</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K37" s="19">
         <v>2176</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L37" s="19">
         <v>2373</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M37" s="19">
         <v>2251</v>
       </c>
-      <c r="N35" s="20">
+      <c r="N37" s="19">
         <v>2307</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O37" s="19">
         <v>2323</v>
       </c>
-      <c r="P35" s="20">
+      <c r="P37" s="19">
         <v>2313</v>
       </c>
-      <c r="Q35" s="20">
+      <c r="Q37" s="19">
         <v>2538</v>
       </c>
-      <c r="R35" s="20">
+      <c r="R37" s="19">
         <v>2504</v>
       </c>
-      <c r="S35" s="20">
+      <c r="S37" s="19">
         <v>2365</v>
       </c>
-      <c r="T35" s="20">
+      <c r="T37" s="19">
         <v>2570</v>
       </c>
-      <c r="U35" s="20">
+      <c r="U37" s="19">
         <v>2540</v>
       </c>
-      <c r="V35" s="30">
-        <v>2984</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="V37" s="28">
+        <v>2990</v>
+      </c>
+      <c r="W37" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B38" s="18">
         <v>1877</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C38" s="19">
         <v>1956</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D38" s="19">
         <v>2046</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E38" s="19">
         <v>2043</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F38" s="19">
         <v>2019</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G38" s="19">
         <v>1994</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H38" s="19">
         <v>2086</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I38" s="19">
         <v>2103</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J38" s="19">
         <v>2218</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K38" s="19">
         <v>2065</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L38" s="19">
         <v>2335</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M38" s="19">
         <v>2101</v>
       </c>
-      <c r="N36" s="20">
+      <c r="N38" s="19">
         <v>2331</v>
       </c>
-      <c r="O36" s="20">
+      <c r="O38" s="19">
         <v>2240</v>
       </c>
-      <c r="P36" s="20">
+      <c r="P38" s="19">
         <v>2306</v>
       </c>
-      <c r="Q36" s="20">
+      <c r="Q38" s="19">
         <v>2409</v>
       </c>
-      <c r="R36" s="20">
+      <c r="R38" s="19">
         <v>2334</v>
       </c>
-      <c r="S36" s="20">
+      <c r="S38" s="19">
         <v>2355</v>
       </c>
-      <c r="T36" s="20">
+      <c r="T38" s="19">
         <v>2496</v>
       </c>
-      <c r="U36" s="20">
+      <c r="U38" s="19">
         <v>2527</v>
       </c>
-      <c r="V36" s="28">
-        <v>2965</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="V38" s="27">
+        <v>3078</v>
+      </c>
+      <c r="W38" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B39" s="18">
         <v>2014</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C39" s="19">
         <v>2173</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D39" s="19">
         <v>2044</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E39" s="19">
         <v>2169</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F39" s="19">
         <v>2113</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G39" s="19">
         <v>2151</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H39" s="19">
         <v>2146</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I39" s="19">
         <v>2233</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J39" s="19">
         <v>2258</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K39" s="19">
         <v>2233</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L39" s="19">
         <v>2368</v>
       </c>
-      <c r="M37" s="20">
+      <c r="M39" s="19">
         <v>2331</v>
       </c>
-      <c r="N37" s="20">
+      <c r="N39" s="19">
         <v>2356</v>
       </c>
-      <c r="O37" s="20">
+      <c r="O39" s="19">
         <v>2445</v>
       </c>
-      <c r="P37" s="20">
+      <c r="P39" s="19">
         <v>2612</v>
       </c>
-      <c r="Q37" s="20">
+      <c r="Q39" s="19">
         <v>2547</v>
       </c>
-      <c r="R37" s="20">
+      <c r="R39" s="19">
         <v>2552</v>
       </c>
-      <c r="S37" s="20">
+      <c r="S39" s="19">
         <v>2649</v>
       </c>
-      <c r="T37" s="20">
+      <c r="T39" s="19">
         <v>2669</v>
       </c>
-      <c r="U37" s="20">
+      <c r="U39" s="19">
         <v>2695</v>
       </c>
-      <c r="V37" s="21"/>
-    </row>
-    <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="V39" s="20"/>
+      <c r="W39" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B40" s="18">
         <v>2166</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C40" s="19">
         <v>2170</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D40" s="19">
         <v>2153</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E40" s="19">
         <v>2380</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F40" s="19">
         <v>2171</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G40" s="19">
         <v>2263</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H40" s="19">
         <v>2309</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I40" s="19">
         <v>2281</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J40" s="19">
         <v>2287</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K40" s="19">
         <v>2339</v>
       </c>
-      <c r="L38" s="20">
+      <c r="L40" s="19">
         <v>2278</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M40" s="19">
         <v>2460</v>
       </c>
-      <c r="N38" s="20">
+      <c r="N40" s="19">
         <v>2431</v>
       </c>
-      <c r="O38" s="20">
+      <c r="O40" s="19">
         <v>2346</v>
       </c>
-      <c r="P38" s="20">
+      <c r="P40" s="19">
         <v>2470</v>
       </c>
-      <c r="Q38" s="20">
+      <c r="Q40" s="19">
         <v>2637</v>
       </c>
-      <c r="R38" s="20">
+      <c r="R40" s="19">
         <v>2662</v>
       </c>
-      <c r="S38" s="20">
+      <c r="S40" s="19">
         <v>2615</v>
       </c>
-      <c r="T38" s="20">
+      <c r="T40" s="19">
         <v>2744</v>
       </c>
-      <c r="U38" s="20">
+      <c r="U40" s="19">
         <v>2740</v>
       </c>
-      <c r="V38" s="21"/>
-    </row>
-    <row r="39" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="V40" s="20"/>
+      <c r="W40" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B41" s="21">
         <v>2355</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C41" s="22">
         <v>2427</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D41" s="22">
         <v>2372</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E41" s="22">
         <v>2706</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F41" s="22">
         <v>2781</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G41" s="22">
         <v>2228</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H41" s="22">
         <v>2852</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I41" s="22">
         <v>2518</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J41" s="22">
         <v>2607</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K41" s="22">
         <v>2643</v>
       </c>
-      <c r="L39" s="23">
+      <c r="L41" s="22">
         <v>2823</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M41" s="22">
         <v>2878</v>
       </c>
-      <c r="N39" s="23">
+      <c r="N41" s="22">
         <v>2638</v>
       </c>
-      <c r="O39" s="23">
+      <c r="O41" s="22">
         <v>2819</v>
       </c>
-      <c r="P39" s="23">
+      <c r="P41" s="22">
         <v>2837</v>
       </c>
-      <c r="Q39" s="23">
+      <c r="Q41" s="22">
         <v>2937</v>
       </c>
-      <c r="R39" s="23">
+      <c r="R41" s="22">
         <v>3290</v>
       </c>
-      <c r="S39" s="23">
+      <c r="S41" s="22">
         <v>3026</v>
       </c>
-      <c r="T39" s="23">
+      <c r="T41" s="22">
         <v>2920</v>
       </c>
-      <c r="U39" s="23">
+      <c r="U41" s="22">
         <v>3152</v>
       </c>
-      <c r="V39" s="24"/>
-    </row>
-    <row r="40" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="V41" s="23"/>
+      <c r="W41" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="25">
-        <f>SUM(B28:B39)</f>
+      <c r="B42" s="24">
+        <f>SUM(B30:B41)</f>
         <v>26399</v>
       </c>
-      <c r="C40" s="26">
-        <f t="shared" ref="C40:U40" si="1">SUM(C28:C39)</f>
+      <c r="C42" s="25">
+        <f t="shared" ref="C42:U42" si="1">SUM(C30:C41)</f>
         <v>25956</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D42" s="25">
         <f t="shared" si="1"/>
         <v>26977</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E42" s="25">
         <f t="shared" si="1"/>
         <v>27291</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F42" s="25">
         <f t="shared" si="1"/>
         <v>26942</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G42" s="25">
         <f t="shared" si="1"/>
         <v>27925</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H42" s="25">
         <f t="shared" si="1"/>
         <v>27827</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I42" s="25">
         <f t="shared" si="1"/>
         <v>29132</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J42" s="25">
         <f t="shared" si="1"/>
         <v>28637</v>
       </c>
-      <c r="K40" s="26">
+      <c r="K42" s="25">
         <f t="shared" si="1"/>
         <v>28176</v>
       </c>
-      <c r="L40" s="26">
+      <c r="L42" s="25">
         <f t="shared" si="1"/>
         <v>28813</v>
       </c>
-      <c r="M40" s="26">
+      <c r="M42" s="25">
         <f t="shared" si="1"/>
         <v>29853</v>
       </c>
-      <c r="N40" s="26">
+      <c r="N42" s="25">
         <f t="shared" si="1"/>
         <v>31021</v>
       </c>
-      <c r="O40" s="26">
+      <c r="O42" s="25">
         <f t="shared" si="1"/>
         <v>30302</v>
       </c>
-      <c r="P40" s="26">
+      <c r="P42" s="25">
         <f t="shared" si="1"/>
         <v>30952</v>
       </c>
-      <c r="Q40" s="26">
+      <c r="Q42" s="25">
         <f t="shared" si="1"/>
         <v>32558</v>
       </c>
-      <c r="R40" s="26">
+      <c r="R42" s="25">
         <f t="shared" si="1"/>
         <v>32305</v>
       </c>
-      <c r="S40" s="26">
+      <c r="S42" s="25">
         <f t="shared" si="1"/>
         <v>32959</v>
       </c>
-      <c r="T40" s="26">
+      <c r="T42" s="25">
         <f t="shared" si="1"/>
         <v>32921</v>
       </c>
-      <c r="U40" s="26">
+      <c r="U42" s="25">
         <f t="shared" si="1"/>
         <v>34317</v>
       </c>
-      <c r="V40" s="26"/>
-    </row>
-    <row r="41" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="V42" s="25"/>
+      <c r="W42" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-    </row>
-    <row r="44" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="W44" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="W45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="W46" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="W47" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="W48" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+    </row>
+    <row r="57" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="L57" s="36"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="38"/>
     </row>
   </sheetData>
   <sortState ref="Y4:AA12">
     <sortCondition ref="Y4:Y12"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
@@ -2862,7 +3156,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="111" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="b39bf2f97abe50ca355466a3617bd507">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="117" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="43d195cc25794a7ebd46194385941c0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a04e49307545d5a9d85a837cf2c1ea7c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -3081,16 +3375,16 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040">false</CbsHide>
+    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2020-08-10T21:00:00+00:00</ArticleStartDate>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2020-08-10T21:00:00+00:00</ArticleStartDate>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-10-20T21:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-10-27T22:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
         <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
@@ -3107,13 +3401,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{243287E1-259C-4168-A887-696F745AD484}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A59369-51A5-4C33-AD17-D927AD51F98D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67859F42-5F8D-4394-B31E-C68F93F4F049}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA6D0F6-28D6-4461-AF78-2C93EC21D740}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06D2450D-F9B7-42B7-9732-5E68835F12E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E734520E-8883-407B-AC27-4E681C33083C}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -3156,7 +3156,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="117" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="43d195cc25794a7ebd46194385941c0b">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="119" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="b939e24c99c7b087b4fe98c965b62f87">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a04e49307545d5a9d85a837cf2c1ea7c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -3401,7 +3401,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A59369-51A5-4C33-AD17-D927AD51F98D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F518F1-306D-4E63-BBF2-234744DCD12C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="18195" windowHeight="11070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="פטירות לפי שנה וחודש" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_01.12.20">'פטירות לפי שנה וחודש'!$V$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$W$48</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -67,9 +68,6 @@
     <t>2. הנתונים אינם כוללים פטירות בחו"ל.</t>
   </si>
   <si>
-    <t>1. נתוני 2020-2019 אינם סופיים, ונתוני החודש האחרון אינם מלאים.</t>
-  </si>
-  <si>
     <t>פטירות של תושבי ישראל, לפי שנה וחודש, 2020-2000 - כל הגילים</t>
   </si>
   <si>
@@ -130,9 +128,6 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>1. Data for 2019-2020 are not final, and data for the latest month are incomplete.</t>
-  </si>
-  <si>
     <t>Updated to:</t>
   </si>
   <si>
@@ -145,10 +140,52 @@
     <t>2. Excl. deaths of Israeli residents abroad.</t>
   </si>
   <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 27 Oct 2020.</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 27/10/2020.</t>
+    <r>
+      <t xml:space="preserve">1. נתוני 2020-2019 אינם סופיים, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ונתוני החודש האחרון אינם מלאים. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Data for 2019-2020 are not final,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data for the latest month are incomplete.</t>
+    </r>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 12/01/2021.</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 12/01/2021.</t>
   </si>
 </sst>
 </file>
@@ -159,7 +196,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,14 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,6 +292,30 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -586,7 +639,7 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -609,19 +662,15 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -629,18 +678,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
@@ -654,6 +705,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -671,7 +725,13 @@
     <xdr:ext cx="2181224" cy="904410"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -986,15 +1046,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AN59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.125" customWidth="1"/>
     <col min="2" max="21" width="6.875" customWidth="1"/>
-    <col min="22" max="22" width="8.25" customWidth="1"/>
+    <col min="22" max="22" width="8.875" customWidth="1"/>
     <col min="23" max="23" width="10.875" customWidth="1"/>
     <col min="24" max="26" width="6.875" customWidth="1"/>
     <col min="27" max="29" width="7.125" customWidth="1"/>
@@ -1003,35 +1063,35 @@
     <row r="6" spans="1:40" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V7" s="31" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="J8" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="V8" s="31" t="s">
-        <v>38</v>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="J8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="V9" s="39">
-        <v>44131</v>
+      <c r="V9" s="37">
+        <v>44208</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="33">
+      <c r="B10" s="29">
         <v>2000</v>
       </c>
       <c r="C10" s="10">
@@ -1095,7 +1155,7 @@
         <v>2020</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AN10" s="3"/>
     </row>
@@ -1163,11 +1223,11 @@
       <c r="U11" s="17">
         <v>4806</v>
       </c>
-      <c r="V11" s="20">
-        <v>4583</v>
+      <c r="V11" s="19">
+        <v>4588</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,11 +1294,11 @@
       <c r="U12" s="19">
         <v>4061</v>
       </c>
-      <c r="V12" s="20">
-        <v>3958</v>
+      <c r="V12" s="19">
+        <v>3956</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1305,11 +1365,11 @@
       <c r="U13" s="19">
         <v>4316</v>
       </c>
-      <c r="V13" s="20">
-        <v>4174</v>
+      <c r="V13" s="19">
+        <v>4177</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1376,11 +1436,11 @@
       <c r="U14" s="19">
         <v>3812</v>
       </c>
-      <c r="V14" s="20">
-        <v>3913</v>
+      <c r="V14" s="19">
+        <v>3916</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1447,11 +1507,11 @@
       <c r="U15" s="19">
         <v>3788</v>
       </c>
-      <c r="V15" s="20">
-        <v>3872</v>
+      <c r="V15" s="19">
+        <v>3876</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1518,11 +1578,11 @@
       <c r="U16" s="19">
         <v>3338</v>
       </c>
-      <c r="V16" s="20">
-        <v>3403</v>
+      <c r="V16" s="19">
+        <v>3412</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1589,11 +1649,11 @@
       <c r="U17" s="19">
         <v>3433</v>
       </c>
-      <c r="V17" s="20">
-        <v>3688</v>
+      <c r="V17" s="19">
+        <v>3695</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1660,11 +1720,11 @@
       <c r="U18" s="19">
         <v>3495</v>
       </c>
-      <c r="V18" s="28">
-        <v>3999</v>
+      <c r="V18" s="19">
+        <v>4019</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1731,11 +1791,11 @@
       <c r="U19" s="19">
         <v>3403</v>
       </c>
-      <c r="V19" s="27">
-        <v>4036</v>
+      <c r="V19" s="19">
+        <v>4150</v>
       </c>
       <c r="W19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1802,9 +1862,11 @@
       <c r="U20" s="19">
         <v>3604</v>
       </c>
-      <c r="V20" s="20"/>
+      <c r="V20" s="24">
+        <v>4629</v>
+      </c>
       <c r="W20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1871,179 +1933,181 @@
       <c r="U21" s="19">
         <v>3687</v>
       </c>
-      <c r="V21" s="20"/>
+      <c r="V21" s="38">
+        <v>3789</v>
+      </c>
       <c r="W21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="35">
         <v>3415</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>3469</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>3294</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <v>3743</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="21">
         <v>3841</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="21">
         <v>3159</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="21">
         <v>3830</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="21">
         <v>3440</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="21">
         <v>3579</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <v>3580</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="21">
         <v>3859</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="21">
         <v>3822</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="21">
         <v>3631</v>
       </c>
-      <c r="O22" s="22">
+      <c r="O22" s="21">
         <v>3777</v>
       </c>
-      <c r="P22" s="22">
+      <c r="P22" s="21">
         <v>3837</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="21">
         <v>4039</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="21">
         <v>4340</v>
       </c>
-      <c r="S22" s="22">
+      <c r="S22" s="21">
         <v>3987</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="21">
         <v>3979</v>
       </c>
-      <c r="U22" s="22">
+      <c r="U22" s="21">
         <v>4237</v>
       </c>
-      <c r="V22" s="23"/>
+      <c r="V22" s="39"/>
       <c r="W22" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="36">
         <f>SUM(B11:B22)</f>
         <v>37758</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="23">
         <f t="shared" ref="C23:U23" si="0">SUM(C11:C22)</f>
         <v>37225</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="23">
         <f t="shared" si="0"/>
         <v>38325</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="23">
         <f t="shared" si="0"/>
         <v>38361</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="23">
         <f t="shared" si="0"/>
         <v>37787</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="23">
         <f t="shared" si="0"/>
         <v>38926</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="23">
         <f t="shared" si="0"/>
         <v>38700</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="23">
         <f t="shared" si="0"/>
         <v>39977</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="23">
         <f t="shared" si="0"/>
         <v>39264</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="23">
         <f t="shared" si="0"/>
         <v>38643</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="23">
         <f t="shared" si="0"/>
         <v>39451</v>
       </c>
-      <c r="M23" s="25">
+      <c r="M23" s="23">
         <f t="shared" si="0"/>
         <v>40690</v>
       </c>
-      <c r="N23" s="25">
+      <c r="N23" s="23">
         <f t="shared" si="0"/>
         <v>41894</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="23">
         <f t="shared" si="0"/>
         <v>41489</v>
       </c>
-      <c r="P23" s="25">
+      <c r="P23" s="23">
         <f t="shared" si="0"/>
         <v>42178</v>
       </c>
-      <c r="Q23" s="25">
+      <c r="Q23" s="23">
         <f t="shared" si="0"/>
         <v>44277</v>
       </c>
-      <c r="R23" s="25">
+      <c r="R23" s="23">
         <f t="shared" si="0"/>
         <v>43971</v>
       </c>
-      <c r="S23" s="25">
+      <c r="S23" s="23">
         <f t="shared" si="0"/>
         <v>44596</v>
       </c>
-      <c r="T23" s="25">
+      <c r="T23" s="23">
         <f t="shared" si="0"/>
         <v>44531</v>
       </c>
-      <c r="U23" s="25">
+      <c r="U23" s="23">
         <f t="shared" si="0"/>
         <v>45980</v>
       </c>
-      <c r="V23" s="25"/>
+      <c r="V23" s="23"/>
       <c r="W23" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K27" s="32" t="s">
-        <v>40</v>
+      <c r="K27" s="28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2113,7 +2177,7 @@
         <v>2020</v>
       </c>
       <c r="W29" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2180,11 +2244,11 @@
       <c r="U30" s="17">
         <v>3684</v>
       </c>
-      <c r="V30" s="20">
-        <v>3464</v>
+      <c r="V30" s="19">
+        <v>3466</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2251,11 +2315,11 @@
       <c r="U31" s="19">
         <v>3096</v>
       </c>
-      <c r="V31" s="20">
-        <v>3030</v>
+      <c r="V31" s="19">
+        <v>3028</v>
       </c>
       <c r="W31" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2322,11 +2386,11 @@
       <c r="U32" s="19">
         <v>3246</v>
       </c>
-      <c r="V32" s="20">
-        <v>3190</v>
+      <c r="V32" s="19">
+        <v>3192</v>
       </c>
       <c r="W32" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2393,11 +2457,11 @@
       <c r="U33" s="19">
         <v>2824</v>
       </c>
-      <c r="V33" s="20">
-        <v>3001</v>
+      <c r="V33" s="19">
+        <v>3003</v>
       </c>
       <c r="W33" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2464,14 +2528,14 @@
       <c r="U34" s="19">
         <v>2822</v>
       </c>
-      <c r="V34" s="20">
-        <v>2927</v>
+      <c r="V34" s="19">
+        <v>2930</v>
       </c>
       <c r="W34" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2538,11 +2602,11 @@
       <c r="U35" s="19">
         <v>2469</v>
       </c>
-      <c r="V35" s="20">
-        <v>2522</v>
+      <c r="V35" s="19">
+        <v>2525</v>
       </c>
       <c r="W35" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2606,14 +2670,14 @@
       <c r="T36" s="19">
         <v>2544</v>
       </c>
-      <c r="U36" s="26">
+      <c r="U36" s="24">
         <v>2522</v>
       </c>
-      <c r="V36" s="20">
-        <v>2766</v>
+      <c r="V36" s="19">
+        <v>2770</v>
       </c>
       <c r="W36" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2680,11 +2744,11 @@
       <c r="U37" s="19">
         <v>2540</v>
       </c>
-      <c r="V37" s="28">
-        <v>2990</v>
+      <c r="V37" s="19">
+        <v>3006</v>
       </c>
       <c r="W37" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2751,11 +2815,11 @@
       <c r="U38" s="19">
         <v>2527</v>
       </c>
-      <c r="V38" s="27">
-        <v>3078</v>
+      <c r="V38" s="19">
+        <v>3160</v>
       </c>
       <c r="W38" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2822,9 +2886,11 @@
       <c r="U39" s="19">
         <v>2695</v>
       </c>
-      <c r="V39" s="20"/>
+      <c r="V39" s="24">
+        <v>3542</v>
+      </c>
       <c r="W39" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2891,167 +2957,169 @@
       <c r="U40" s="19">
         <v>2740</v>
       </c>
-      <c r="V40" s="20"/>
+      <c r="V40" s="38">
+        <v>2827</v>
+      </c>
       <c r="W40" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="20">
         <v>2355</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="21">
         <v>2427</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <v>2372</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="21">
         <v>2706</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="21">
         <v>2781</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="21">
         <v>2228</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="21">
         <v>2852</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="21">
         <v>2518</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="21">
         <v>2607</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="21">
         <v>2643</v>
       </c>
-      <c r="L41" s="22">
+      <c r="L41" s="21">
         <v>2823</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="21">
         <v>2878</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N41" s="21">
         <v>2638</v>
       </c>
-      <c r="O41" s="22">
+      <c r="O41" s="21">
         <v>2819</v>
       </c>
-      <c r="P41" s="22">
+      <c r="P41" s="21">
         <v>2837</v>
       </c>
-      <c r="Q41" s="22">
+      <c r="Q41" s="21">
         <v>2937</v>
       </c>
-      <c r="R41" s="22">
+      <c r="R41" s="21">
         <v>3290</v>
       </c>
-      <c r="S41" s="22">
+      <c r="S41" s="21">
         <v>3026</v>
       </c>
-      <c r="T41" s="22">
+      <c r="T41" s="21">
         <v>2920</v>
       </c>
-      <c r="U41" s="22">
+      <c r="U41" s="21">
         <v>3152</v>
       </c>
-      <c r="V41" s="23"/>
+      <c r="V41" s="39"/>
       <c r="W41" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="22">
         <f>SUM(B30:B41)</f>
         <v>26399</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="23">
         <f t="shared" ref="C42:U42" si="1">SUM(C30:C41)</f>
         <v>25956</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="23">
         <f t="shared" si="1"/>
         <v>26977</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="23">
         <f t="shared" si="1"/>
         <v>27291</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="23">
         <f t="shared" si="1"/>
         <v>26942</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="23">
         <f t="shared" si="1"/>
         <v>27925</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="23">
         <f t="shared" si="1"/>
         <v>27827</v>
       </c>
-      <c r="I42" s="25">
+      <c r="I42" s="23">
         <f t="shared" si="1"/>
         <v>29132</v>
       </c>
-      <c r="J42" s="25">
+      <c r="J42" s="23">
         <f t="shared" si="1"/>
         <v>28637</v>
       </c>
-      <c r="K42" s="25">
+      <c r="K42" s="23">
         <f t="shared" si="1"/>
         <v>28176</v>
       </c>
-      <c r="L42" s="25">
+      <c r="L42" s="23">
         <f t="shared" si="1"/>
         <v>28813</v>
       </c>
-      <c r="M42" s="25">
+      <c r="M42" s="23">
         <f t="shared" si="1"/>
         <v>29853</v>
       </c>
-      <c r="N42" s="25">
+      <c r="N42" s="23">
         <f t="shared" si="1"/>
         <v>31021</v>
       </c>
-      <c r="O42" s="25">
+      <c r="O42" s="23">
         <f t="shared" si="1"/>
         <v>30302</v>
       </c>
-      <c r="P42" s="25">
+      <c r="P42" s="23">
         <f t="shared" si="1"/>
         <v>30952</v>
       </c>
-      <c r="Q42" s="25">
+      <c r="Q42" s="23">
         <f t="shared" si="1"/>
         <v>32558</v>
       </c>
-      <c r="R42" s="25">
+      <c r="R42" s="23">
         <f t="shared" si="1"/>
         <v>32305</v>
       </c>
-      <c r="S42" s="25">
+      <c r="S42" s="23">
         <f t="shared" si="1"/>
         <v>32959</v>
       </c>
-      <c r="T42" s="25">
+      <c r="T42" s="23">
         <f t="shared" si="1"/>
         <v>32921</v>
       </c>
-      <c r="U42" s="25">
+      <c r="U42" s="23">
         <f t="shared" si="1"/>
         <v>34317</v>
       </c>
-      <c r="V42" s="25"/>
-      <c r="W42" s="33" t="s">
-        <v>32</v>
+      <c r="V42" s="23"/>
+      <c r="W42" s="29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3059,8 +3127,8 @@
       <c r="A44" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="W44" s="37" t="s">
-        <v>35</v>
+      <c r="W44" s="33" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3095,13 +3163,13 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="W46" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W46" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -3110,37 +3178,37 @@
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
-      <c r="W47" s="35" t="s">
-        <v>37</v>
+      <c r="W47" s="31" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="W48" s="34" t="s">
-        <v>41</v>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="W48" s="30" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="3:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
     </row>
     <row r="57" spans="3:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="L57" s="36"/>
+      <c r="L57" s="32"/>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="L59" s="38"/>
+      <c r="L59" s="34"/>
     </row>
   </sheetData>
   <sortState ref="Y4:AA12">
@@ -3156,7 +3224,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="119" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="b939e24c99c7b087b4fe98c965b62f87">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="177" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="e9b9b9a9b14b0356d476978efa1b0640">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a04e49307545d5a9d85a837cf2c1ea7c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -3375,7 +3443,7 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040">false</CbsHide>
-    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2020-08-10T21:00:00+00:00</ArticleStartDate>
+    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2020-11-25T22:00:00+00:00</ArticleStartDate>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
@@ -3383,8 +3451,8 @@
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2021-01-12T22:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-10-27T22:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
         <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
@@ -3394,20 +3462,20 @@
       </Terms>
     </be7e4c0a87744fda8f9ec475d0d5383d>
     <CbsOrderField xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsEnglishTitle xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsMadadPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-08-10T21:00:00+00:00</CbsMadadPublishDate>
+    <CbsEnglishTitle xmlns="f37fff55-d014-472b-b062-823f736a4040">Deaths of Israeli Residents, by Year and Month, 2000-2020 - All Ages</CbsEnglishTitle>
+    <CbsMadadPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-11-26T11:00:00+00:00</CbsMadadPublishDate>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F518F1-306D-4E63-BBF2-234744DCD12C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE285ADA-C15F-42EB-8E57-692462699404}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA6D0F6-28D6-4461-AF78-2C93EC21D740}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84863BA9-6DA6-4F19-B8A3-9F9F8EFDCF7C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E734520E-8883-407B-AC27-4E681C33083C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BDFE613-1334-49FB-BFE1-C1D542D4AB68}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -3224,7 +3224,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="177" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="e9b9b9a9b14b0356d476978efa1b0640">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="179" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="aeb903e2938398d9d2defa256011ea98">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a04e49307545d5a9d85a837cf2c1ea7c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -3469,7 +3469,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE285ADA-C15F-42EB-8E57-692462699404}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30A546E4-F357-4AA8-8EF0-E70F02066366}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -13,7 +13,7 @@
     <definedName name="_01.12.20">'פטירות לפי שנה וחודש'!$V$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$W$48</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -182,10 +182,10 @@
     </r>
   </si>
   <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 12/01/2021.</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 12/01/2021.</t>
+    <t>The data were produced by the Health and Vital Statistics Sector on 19/01/2021.</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 19/01/2021.</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +265,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,23 +307,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -668,9 +659,9 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -678,20 +669,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
@@ -1046,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AN59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1086,7 +1077,7 @@
     </row>
     <row r="9" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="V9" s="37">
-        <v>44208</v>
+        <v>44215</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1650,7 +1641,7 @@
         <v>3433</v>
       </c>
       <c r="V17" s="19">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>25</v>
@@ -1721,7 +1712,7 @@
         <v>3495</v>
       </c>
       <c r="V18" s="19">
-        <v>4019</v>
+        <v>4020</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>26</v>
@@ -1792,7 +1783,7 @@
         <v>3403</v>
       </c>
       <c r="V19" s="19">
-        <v>4150</v>
+        <v>4156</v>
       </c>
       <c r="W19" s="6" t="s">
         <v>27</v>
@@ -1863,7 +1854,7 @@
         <v>3604</v>
       </c>
       <c r="V20" s="24">
-        <v>4629</v>
+        <v>4630</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>28</v>
@@ -1934,7 +1925,7 @@
         <v>3687</v>
       </c>
       <c r="V21" s="38">
-        <v>3789</v>
+        <v>3794</v>
       </c>
       <c r="W21" s="5" t="s">
         <v>29</v>
@@ -2004,7 +1995,9 @@
       <c r="U22" s="21">
         <v>4237</v>
       </c>
-      <c r="V22" s="39"/>
+      <c r="V22" s="39">
+        <v>4284</v>
+      </c>
       <c r="W22" s="7" t="s">
         <v>30</v>
       </c>
@@ -2674,7 +2667,7 @@
         <v>2522</v>
       </c>
       <c r="V36" s="19">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="W36" s="6" t="s">
         <v>25</v>
@@ -2816,7 +2809,7 @@
         <v>2527</v>
       </c>
       <c r="V38" s="19">
-        <v>3160</v>
+        <v>3163</v>
       </c>
       <c r="W38" s="6" t="s">
         <v>27</v>
@@ -2958,7 +2951,7 @@
         <v>2740</v>
       </c>
       <c r="V40" s="38">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="W40" s="5" t="s">
         <v>29</v>
@@ -3028,7 +3021,9 @@
       <c r="U41" s="21">
         <v>3152</v>
       </c>
-      <c r="V41" s="39"/>
+      <c r="V41" s="39">
+        <v>3289</v>
+      </c>
       <c r="W41" s="7" t="s">
         <v>30</v>
       </c>
@@ -3224,7 +3219,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="179" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="aeb903e2938398d9d2defa256011ea98">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="183" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="27e81f58a1b065e26de992b4702716f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a04e49307545d5a9d85a837cf2c1ea7c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -3451,8 +3446,8 @@
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2021-01-12T22:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2021-01-20T22:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
         <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
@@ -3469,13 +3464,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30A546E4-F357-4AA8-8EF0-E70F02066366}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50226D5D-5102-4354-90BA-8D2E9D3AA8DB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84863BA9-6DA6-4F19-B8A3-9F9F8EFDCF7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8BC6490-8EB9-4C4B-9077-4E9F8F1878EF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BDFE613-1334-49FB-BFE1-C1D542D4AB68}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F26BEDA7-2EBF-47F9-A86F-5D3EA6C4FF1A}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -3219,7 +3219,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="183" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="27e81f58a1b065e26de992b4702716f0">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="187" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="c78880d748e1f26e4d90d68e22b2d655">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a04e49307545d5a9d85a837cf2c1ea7c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -3464,7 +3464,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50226D5D-5102-4354-90BA-8D2E9D3AA8DB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57699275-FAEF-4971-B5EF-A531CD48B58B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -3219,7 +3219,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="187" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="c78880d748e1f26e4d90d68e22b2d655">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="189" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="1ba087e74b224ffbbcf2f6b4c34f95b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a04e49307545d5a9d85a837cf2c1ea7c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -3464,7 +3464,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57699275-FAEF-4971-B5EF-A531CD48B58B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94AFC307-CCE3-431F-8153-A57083A0EFE2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Irene\Avoda_MiHaBayt\16_03_21\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456E5D3D-26E5-4073-9952-EA4E65E3879F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="8490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="פטירות לפי שנה וחודש" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_01.12.20">'פטירות לפי שנה וחודש'!$V$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$W$48</definedName>
+    <definedName name="_01.12.20">'פטירות לפי שנה וחודש'!$W$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$X$48</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>ינואר</t>
   </si>
@@ -68,18 +74,9 @@
     <t>2. הנתונים אינם כוללים פטירות בחו"ל.</t>
   </si>
   <si>
-    <t>פטירות של תושבי ישראל, לפי שנה וחודש, 2020-2000 - כל הגילים</t>
-  </si>
-  <si>
-    <t>פטירות של תושבי ישראל, לפי שנה וחודש, 2020-2000 - בני 70 ומעלה</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Deaths of Israeli Residents, by Year and Month, 2000-2020 - All Ages</t>
-  </si>
-  <si>
     <t>January</t>
   </si>
   <si>
@@ -134,21 +131,18 @@
     <t>February</t>
   </si>
   <si>
-    <t>Deaths of Israeli Residents, by Year and Month, 2000-2020 - Age 70 and Up</t>
-  </si>
-  <si>
     <t>2. Excl. deaths of Israeli residents abroad.</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. נתוני 2020-2019 אינם סופיים, </t>
+      <t xml:space="preserve">1. נתוני 2021-2019 אינם סופיים, </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -157,13 +151,13 @@
   </si>
   <si>
     <r>
-      <t>1. Data for 2019-2020 are not final,</t>
+      <t>1. Data for 2019-2021 are not final,</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +168,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -182,25 +176,43 @@
     </r>
   </si>
   <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 19/01/2021.</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 19/01/2021.</t>
+    <t>פטירות של תושבי ישראל, לפי שנה וחודש, 2021-2000 - כל הגילים</t>
+  </si>
+  <si>
+    <t>פטירות של תושבי ישראל, לפי שנה וחודש, 2021-2000 - בני 70 ומעלה</t>
+  </si>
+  <si>
+    <t>Deaths of Israeli Residents, by Year and Month, 2000-2021 - All Ages</t>
+  </si>
+  <si>
+    <t>Deaths of Israeli Residents, by Year and Month, 2000-2021 - Age 70 and Up</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 16/03/2021.</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 16/03/2021.</t>
+  </si>
+  <si>
+    <t>*4374</t>
+  </si>
+  <si>
+    <t>*3310</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -209,7 +221,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -217,7 +229,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -236,14 +248,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -252,7 +264,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -260,7 +272,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -268,7 +280,7 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -276,7 +288,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -284,7 +296,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -292,21 +304,48 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -330,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -623,6 +662,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -630,7 +708,7 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -682,14 +760,26 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Text_e" xfId="1"/>
+    <cellStyle name="Text_e" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -719,7 +809,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -791,7 +881,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,9 +914,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -859,6 +966,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1034,33 +1158,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:AN59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A6:AO59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.125" customWidth="1"/>
-    <col min="2" max="21" width="6.875" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
-    <col min="23" max="23" width="10.875" customWidth="1"/>
-    <col min="24" max="26" width="6.875" customWidth="1"/>
-    <col min="27" max="29" width="7.125" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="22" width="6.88671875" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" customWidth="1"/>
+    <col min="25" max="27" width="6.88671875" customWidth="1"/>
+    <col min="28" max="30" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:40" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="6.75" customHeight="1"/>
+    <row r="7" spans="1:41" ht="18" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V7" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="18" customHeight="1">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -1069,18 +1193,18 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="J8" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="V9" s="37">
-        <v>44215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="18" customHeight="1" thickBot="1">
+      <c r="W9" s="37">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="18" customHeight="1" thickBot="1">
       <c r="A10" s="4"/>
       <c r="B10" s="29">
         <v>2000</v>
@@ -1142,15 +1266,18 @@
       <c r="U10" s="10">
         <v>2019</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="42">
         <v>2020</v>
       </c>
-      <c r="W10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN10" s="3"/>
-    </row>
-    <row r="11" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="11">
+        <v>2021</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO10" s="3"/>
+    </row>
+    <row r="11" spans="1:41" ht="18" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
@@ -1215,13 +1342,16 @@
         <v>4806</v>
       </c>
       <c r="V11" s="19">
-        <v>4588</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4584</v>
+      </c>
+      <c r="W11" s="46">
+        <v>5439</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="18" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
@@ -1288,11 +1418,14 @@
       <c r="V12" s="19">
         <v>3956</v>
       </c>
-      <c r="W12" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W12" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="18" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1357,13 +1490,14 @@
         <v>4316</v>
       </c>
       <c r="V13" s="19">
-        <v>4177</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4178</v>
+      </c>
+      <c r="W13" s="19"/>
+      <c r="X13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="18" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1430,11 +1564,12 @@
       <c r="V14" s="19">
         <v>3916</v>
       </c>
-      <c r="W14" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="19"/>
+      <c r="X14" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="18" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1501,11 +1636,12 @@
       <c r="V15" s="19">
         <v>3876</v>
       </c>
-      <c r="W15" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="19"/>
+      <c r="X15" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="18" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
@@ -1570,13 +1706,14 @@
         <v>3338</v>
       </c>
       <c r="V16" s="19">
-        <v>3412</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3413</v>
+      </c>
+      <c r="W16" s="19"/>
+      <c r="X16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="18" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1641,13 +1778,14 @@
         <v>3433</v>
       </c>
       <c r="V17" s="19">
-        <v>3696</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3697</v>
+      </c>
+      <c r="W17" s="19"/>
+      <c r="X17" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="18" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
@@ -1712,13 +1850,14 @@
         <v>3495</v>
       </c>
       <c r="V18" s="19">
-        <v>4020</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4023</v>
+      </c>
+      <c r="W18" s="19"/>
+      <c r="X18" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="18" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -1783,13 +1922,14 @@
         <v>3403</v>
       </c>
       <c r="V19" s="19">
-        <v>4156</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4159</v>
+      </c>
+      <c r="W19" s="19"/>
+      <c r="X19" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="18" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1854,13 +1994,14 @@
         <v>3604</v>
       </c>
       <c r="V20" s="24">
-        <v>4630</v>
-      </c>
-      <c r="W20" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4638</v>
+      </c>
+      <c r="W20" s="24"/>
+      <c r="X20" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="18" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -1924,14 +2065,15 @@
       <c r="U21" s="19">
         <v>3687</v>
       </c>
-      <c r="V21" s="38">
-        <v>3794</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V21" s="43">
+        <v>3817</v>
+      </c>
+      <c r="W21" s="39"/>
+      <c r="X21" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="18" customHeight="1" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
@@ -1995,14 +2137,15 @@
       <c r="U22" s="21">
         <v>4237</v>
       </c>
-      <c r="V22" s="39">
-        <v>4284</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V22" s="44">
+        <v>4462</v>
+      </c>
+      <c r="W22" s="40"/>
+      <c r="X22" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="18" customHeight="1" thickBot="1">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -2086,25 +2229,29 @@
         <f t="shared" si="0"/>
         <v>45980</v>
       </c>
-      <c r="V23" s="23"/>
-      <c r="W23" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V23" s="41">
+        <f t="shared" ref="V23" si="1">SUM(V11:V22)</f>
+        <v>48719</v>
+      </c>
+      <c r="W23" s="41"/>
+      <c r="X23" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="18" customHeight="1"/>
+    <row r="25" spans="1:24" ht="11.25" customHeight="1"/>
+    <row r="26" spans="1:24" ht="18" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="18" customHeight="1">
       <c r="K27" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="18" customHeight="1" thickBot="1"/>
+    <row r="29" spans="1:24" ht="18" customHeight="1" thickBot="1">
       <c r="A29" s="4"/>
       <c r="B29" s="9">
         <v>2000</v>
@@ -2166,14 +2313,17 @@
       <c r="U29" s="10">
         <v>2019</v>
       </c>
-      <c r="V29" s="11">
+      <c r="V29" s="42">
         <v>2020</v>
       </c>
-      <c r="W29" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W29" s="11">
+        <v>2021</v>
+      </c>
+      <c r="X29" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="18" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
@@ -2238,13 +2388,16 @@
         <v>3684</v>
       </c>
       <c r="V30" s="19">
-        <v>3466</v>
-      </c>
-      <c r="W30" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3464</v>
+      </c>
+      <c r="W30" s="46">
+        <v>4240</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="18" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
@@ -2311,11 +2464,14 @@
       <c r="V31" s="19">
         <v>3028</v>
       </c>
-      <c r="W31" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W31" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="18" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
@@ -2380,13 +2536,14 @@
         <v>3246</v>
       </c>
       <c r="V32" s="19">
-        <v>3192</v>
-      </c>
-      <c r="W32" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3193</v>
+      </c>
+      <c r="W32" s="19"/>
+      <c r="X32" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="18" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
@@ -2453,11 +2610,12 @@
       <c r="V33" s="19">
         <v>3003</v>
       </c>
-      <c r="W33" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W33" s="19"/>
+      <c r="X33" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="18" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -2524,14 +2682,15 @@
       <c r="V34" s="19">
         <v>2930</v>
       </c>
-      <c r="W34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="X34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W34" s="19"/>
+      <c r="X34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="18" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
@@ -2598,11 +2757,12 @@
       <c r="V35" s="19">
         <v>2525</v>
       </c>
-      <c r="W35" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W35" s="19"/>
+      <c r="X35" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="18" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2669,11 +2829,12 @@
       <c r="V36" s="19">
         <v>2771</v>
       </c>
-      <c r="W36" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W36" s="19"/>
+      <c r="X36" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="18" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>7</v>
       </c>
@@ -2738,13 +2899,14 @@
         <v>2540</v>
       </c>
       <c r="V37" s="19">
-        <v>3006</v>
-      </c>
-      <c r="W37" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3007</v>
+      </c>
+      <c r="W37" s="19"/>
+      <c r="X37" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="18" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
@@ -2809,13 +2971,14 @@
         <v>2527</v>
       </c>
       <c r="V38" s="19">
-        <v>3163</v>
-      </c>
-      <c r="W38" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3164</v>
+      </c>
+      <c r="W38" s="19"/>
+      <c r="X38" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="18" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>9</v>
       </c>
@@ -2880,13 +3043,14 @@
         <v>2695</v>
       </c>
       <c r="V39" s="24">
-        <v>3542</v>
-      </c>
-      <c r="W39" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3547</v>
+      </c>
+      <c r="W39" s="24"/>
+      <c r="X39" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="18" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>10</v>
       </c>
@@ -2950,14 +3114,15 @@
       <c r="U40" s="19">
         <v>2740</v>
       </c>
-      <c r="V40" s="38">
-        <v>2829</v>
-      </c>
-      <c r="W40" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V40" s="45">
+        <v>2840</v>
+      </c>
+      <c r="W40" s="38"/>
+      <c r="X40" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
@@ -3021,14 +3186,15 @@
       <c r="U41" s="21">
         <v>3152</v>
       </c>
-      <c r="V41" s="39">
-        <v>3289</v>
-      </c>
-      <c r="W41" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V41" s="44">
+        <v>3401</v>
+      </c>
+      <c r="W41" s="40"/>
+      <c r="X41" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="18" customHeight="1" thickBot="1">
       <c r="A42" s="8" t="s">
         <v>12</v>
       </c>
@@ -3037,98 +3203,102 @@
         <v>26399</v>
       </c>
       <c r="C42" s="23">
-        <f t="shared" ref="C42:U42" si="1">SUM(C30:C41)</f>
+        <f t="shared" ref="C42:U42" si="2">SUM(C30:C41)</f>
         <v>25956</v>
       </c>
       <c r="D42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26977</v>
       </c>
       <c r="E42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27291</v>
       </c>
       <c r="F42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26942</v>
       </c>
       <c r="G42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27925</v>
       </c>
       <c r="H42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27827</v>
       </c>
       <c r="I42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29132</v>
       </c>
       <c r="J42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28637</v>
       </c>
       <c r="K42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28176</v>
       </c>
       <c r="L42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28813</v>
       </c>
       <c r="M42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29853</v>
       </c>
       <c r="N42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31021</v>
       </c>
       <c r="O42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30302</v>
       </c>
       <c r="P42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30952</v>
       </c>
       <c r="Q42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32558</v>
       </c>
       <c r="R42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32305</v>
       </c>
       <c r="S42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32959</v>
       </c>
       <c r="T42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32921</v>
       </c>
       <c r="U42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34317</v>
       </c>
-      <c r="V42" s="23"/>
-      <c r="W42" s="29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V42" s="41">
+        <f t="shared" ref="V42" si="3">SUM(V30:V41)</f>
+        <v>36873</v>
+      </c>
+      <c r="W42" s="41"/>
+      <c r="X42" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="18" customHeight="1"/>
+    <row r="44" spans="1:25" ht="18" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="W44" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X44" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="18" customHeight="1">
       <c r="A45" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -3143,11 +3313,12 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
-      <c r="W45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V45" s="2"/>
+      <c r="X45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="18" customHeight="1">
       <c r="A46" s="13" t="s">
         <v>13</v>
       </c>
@@ -3158,13 +3329,13 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="W46" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X46" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="18" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -3173,22 +3344,22 @@
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
-      <c r="W47" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="40" t="s">
+      <c r="X47" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="18" customHeight="1">
+      <c r="A48" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="W48" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="X48" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12">
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
@@ -3199,15 +3370,15 @@
       <c r="J50" s="27"/>
       <c r="K50" s="27"/>
     </row>
-    <row r="57" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:12">
       <c r="L57" s="32"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12">
       <c r="L59" s="34"/>
     </row>
   </sheetData>
-  <sortState ref="Y4:AA12">
-    <sortCondition ref="Y4:Y12"/>
+  <sortState ref="Z4:AB12">
+    <sortCondition ref="Z4:Z12"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A48:D48"/>
@@ -3219,7 +3390,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="189" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="1ba087e74b224ffbbcf2f6b4c34f95b7">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="235" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="19ba7301d03bd13e8d49d33f30c156b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a04e49307545d5a9d85a837cf2c1ea7c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -3446,8 +3617,8 @@
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2021-03-15T22:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2021-01-20T22:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
         <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
@@ -3457,20 +3628,20 @@
       </Terms>
     </be7e4c0a87744fda8f9ec475d0d5383d>
     <CbsOrderField xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsEnglishTitle xmlns="f37fff55-d014-472b-b062-823f736a4040">Deaths of Israeli Residents, by Year and Month, 2000-2020 - All Ages</CbsEnglishTitle>
+    <CbsEnglishTitle xmlns="f37fff55-d014-472b-b062-823f736a4040">Deaths of Israeli Residents, by Year and Month, 2000-2020</CbsEnglishTitle>
     <CbsMadadPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-11-26T11:00:00+00:00</CbsMadadPublishDate>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94AFC307-CCE3-431F-8153-A57083A0EFE2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{666B7979-7021-4B70-9B67-C5F77671CB04}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8BC6490-8EB9-4C4B-9077-4E9F8F1878EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20DCE039-F259-45D8-8040-DDDB822B2479}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F26BEDA7-2EBF-47F9-A86F-5D3EA6C4FF1A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78E9560A-478F-4330-AC5E-1DCCE45D3176}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Irene\Avoda_MiHaBayt\16_03_21\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456E5D3D-26E5-4073-9952-EA4E65E3879F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="פטירות לפי שנה וחודש" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <definedName name="_01.12.20">'פטירות לפי שנה וחודש'!$W$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$X$48</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>ינואר</t>
   </si>
@@ -142,7 +136,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -157,7 +151,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -168,7 +162,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -188,31 +182,25 @@
     <t>Deaths of Israeli Residents, by Year and Month, 2000-2021 - Age 70 and Up</t>
   </si>
   <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 16/03/2021.</t>
-  </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 16/03/2021.</t>
-  </si>
-  <si>
-    <t>*4374</t>
-  </si>
-  <si>
-    <t>*3310</t>
+    <t>The data were produced by the Health and Vital Statistics Sector on 26/05/2021.</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 26/05/2021.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -221,7 +209,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -229,7 +217,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -248,14 +236,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -264,7 +252,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -272,7 +260,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -280,7 +268,7 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -288,7 +276,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -296,7 +284,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,27 +292,27 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -333,7 +321,7 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -343,7 +331,7 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -765,21 +753,21 @@
     <xf numFmtId="3" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Text_e" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Text_e" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -809,7 +797,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,7 +869,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -914,26 +902,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -966,23 +937,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1158,25 +1112,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AO59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="22" width="6.88671875" customWidth="1"/>
-    <col min="23" max="23" width="9.33203125" customWidth="1"/>
-    <col min="24" max="24" width="10.88671875" customWidth="1"/>
-    <col min="25" max="27" width="6.88671875" customWidth="1"/>
-    <col min="28" max="30" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="22" width="6.875" customWidth="1"/>
+    <col min="23" max="23" width="9.375" customWidth="1"/>
+    <col min="24" max="24" width="10.875" customWidth="1"/>
+    <col min="25" max="27" width="6.875" customWidth="1"/>
+    <col min="28" max="30" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:41" ht="6.75" customHeight="1"/>
-    <row r="7" spans="1:41" ht="18" customHeight="1">
+    <row r="6" spans="1:41" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1184,7 +1138,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="18" customHeight="1">
+    <row r="8" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -1199,12 +1153,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="18" customHeight="1" thickBot="1">
+    <row r="9" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="W9" s="37">
-        <v>44271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" ht="18" customHeight="1" thickBot="1">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="29">
         <v>2000</v>
@@ -1277,7 +1231,7 @@
       </c>
       <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:41" ht="18" customHeight="1">
+    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
@@ -1342,16 +1296,16 @@
         <v>4806</v>
       </c>
       <c r="V11" s="19">
-        <v>4584</v>
-      </c>
-      <c r="W11" s="46">
-        <v>5439</v>
+        <v>4585</v>
+      </c>
+      <c r="W11" s="44">
+        <v>5471</v>
       </c>
       <c r="X11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="18" customHeight="1">
+    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
@@ -1416,16 +1370,16 @@
         <v>4061</v>
       </c>
       <c r="V12" s="19">
-        <v>3956</v>
-      </c>
-      <c r="W12" s="48" t="s">
-        <v>44</v>
+        <v>3959</v>
+      </c>
+      <c r="W12" s="45">
+        <v>4513</v>
       </c>
       <c r="X12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="18" customHeight="1">
+    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1490,14 +1444,16 @@
         <v>4316</v>
       </c>
       <c r="V13" s="19">
-        <v>4178</v>
-      </c>
-      <c r="W13" s="19"/>
+        <v>4180</v>
+      </c>
+      <c r="W13" s="45">
+        <v>4449</v>
+      </c>
       <c r="X13" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="18" customHeight="1">
+    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1562,14 +1518,16 @@
         <v>3812</v>
       </c>
       <c r="V14" s="19">
-        <v>3916</v>
-      </c>
-      <c r="W14" s="19"/>
+        <v>3918</v>
+      </c>
+      <c r="W14" s="48">
+        <v>3935</v>
+      </c>
       <c r="X14" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="18" customHeight="1">
+    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1641,7 +1599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="18" customHeight="1">
+    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
@@ -1706,14 +1664,14 @@
         <v>3338</v>
       </c>
       <c r="V16" s="19">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="W16" s="19"/>
       <c r="X16" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="18" customHeight="1">
+    <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1778,14 +1736,14 @@
         <v>3433</v>
       </c>
       <c r="V17" s="19">
-        <v>3697</v>
+        <v>3699</v>
       </c>
       <c r="W17" s="19"/>
       <c r="X17" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="18" customHeight="1">
+    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
@@ -1857,7 +1815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="18" customHeight="1">
+    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -1922,14 +1880,14 @@
         <v>3403</v>
       </c>
       <c r="V19" s="19">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="W19" s="19"/>
       <c r="X19" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="18" customHeight="1">
+    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1994,14 +1952,14 @@
         <v>3604</v>
       </c>
       <c r="V20" s="24">
-        <v>4638</v>
+        <v>4640</v>
       </c>
       <c r="W20" s="24"/>
       <c r="X20" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="18" customHeight="1">
+    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -2066,14 +2024,14 @@
         <v>3687</v>
       </c>
       <c r="V21" s="43">
-        <v>3817</v>
+        <v>3820</v>
       </c>
       <c r="W21" s="39"/>
       <c r="X21" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="18" customHeight="1" thickBot="1">
+    <row r="22" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
@@ -2137,15 +2095,15 @@
       <c r="U22" s="21">
         <v>4237</v>
       </c>
-      <c r="V22" s="44">
-        <v>4462</v>
+      <c r="V22" s="46">
+        <v>4477</v>
       </c>
       <c r="W22" s="40"/>
       <c r="X22" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="18" customHeight="1" thickBot="1">
+    <row r="23" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -2231,27 +2189,27 @@
       </c>
       <c r="V23" s="41">
         <f t="shared" ref="V23" si="1">SUM(V11:V22)</f>
-        <v>48719</v>
+        <v>48751</v>
       </c>
       <c r="W23" s="41"/>
       <c r="X23" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="18" customHeight="1"/>
-    <row r="25" spans="1:24" ht="11.25" customHeight="1"/>
-    <row r="26" spans="1:24" ht="18" customHeight="1">
+    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="18" customHeight="1">
+    <row r="27" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K27" s="28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="18" customHeight="1" thickBot="1"/>
-    <row r="29" spans="1:24" ht="18" customHeight="1" thickBot="1">
+    <row r="28" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="9">
         <v>2000</v>
@@ -2323,7 +2281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="18" customHeight="1">
+    <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
@@ -2388,16 +2346,16 @@
         <v>3684</v>
       </c>
       <c r="V30" s="19">
-        <v>3464</v>
-      </c>
-      <c r="W30" s="46">
-        <v>4240</v>
+        <v>3465</v>
+      </c>
+      <c r="W30" s="44">
+        <v>4266</v>
       </c>
       <c r="X30" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="18" customHeight="1">
+    <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
@@ -2462,16 +2420,16 @@
         <v>3096</v>
       </c>
       <c r="V31" s="19">
-        <v>3028</v>
-      </c>
-      <c r="W31" s="48" t="s">
-        <v>45</v>
+        <v>3029</v>
+      </c>
+      <c r="W31" s="45">
+        <v>3390</v>
       </c>
       <c r="X31" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="18" customHeight="1">
+    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
@@ -2536,14 +2494,16 @@
         <v>3246</v>
       </c>
       <c r="V32" s="19">
-        <v>3193</v>
-      </c>
-      <c r="W32" s="19"/>
+        <v>3195</v>
+      </c>
+      <c r="W32" s="45">
+        <v>3385</v>
+      </c>
       <c r="X32" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="18" customHeight="1">
+    <row r="33" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
@@ -2608,14 +2568,16 @@
         <v>2824</v>
       </c>
       <c r="V33" s="19">
-        <v>3003</v>
-      </c>
-      <c r="W33" s="19"/>
+        <v>3004</v>
+      </c>
+      <c r="W33" s="48">
+        <v>2910</v>
+      </c>
       <c r="X33" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="18" customHeight="1">
+    <row r="34" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -2690,7 +2652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="18" customHeight="1">
+    <row r="35" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
@@ -2762,7 +2724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="18" customHeight="1">
+    <row r="36" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2827,14 +2789,14 @@
         <v>2522</v>
       </c>
       <c r="V36" s="19">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c r="W36" s="19"/>
       <c r="X36" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="18" customHeight="1">
+    <row r="37" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>7</v>
       </c>
@@ -2906,7 +2868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="18" customHeight="1">
+    <row r="38" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
@@ -2971,14 +2933,14 @@
         <v>2527</v>
       </c>
       <c r="V38" s="19">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="W38" s="19"/>
       <c r="X38" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="18" customHeight="1">
+    <row r="39" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>9</v>
       </c>
@@ -3043,14 +3005,14 @@
         <v>2695</v>
       </c>
       <c r="V39" s="24">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="W39" s="24"/>
       <c r="X39" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="18" customHeight="1">
+    <row r="40" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>10</v>
       </c>
@@ -3114,15 +3076,15 @@
       <c r="U40" s="19">
         <v>2740</v>
       </c>
-      <c r="V40" s="45">
-        <v>2840</v>
+      <c r="V40" s="43">
+        <v>2841</v>
       </c>
       <c r="W40" s="38"/>
       <c r="X40" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="18" customHeight="1" thickBot="1">
+    <row r="41" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
@@ -3186,15 +3148,15 @@
       <c r="U41" s="21">
         <v>3152</v>
       </c>
-      <c r="V41" s="44">
-        <v>3401</v>
+      <c r="V41" s="46">
+        <v>3412</v>
       </c>
       <c r="W41" s="40"/>
       <c r="X41" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="18" customHeight="1" thickBot="1">
+    <row r="42" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>12</v>
       </c>
@@ -3280,15 +3242,15 @@
       </c>
       <c r="V42" s="41">
         <f t="shared" ref="V42" si="3">SUM(V30:V41)</f>
-        <v>36873</v>
+        <v>36894</v>
       </c>
       <c r="W42" s="41"/>
       <c r="X42" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="18" customHeight="1"/>
-    <row r="44" spans="1:25" ht="18" customHeight="1">
+    <row r="43" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>14</v>
       </c>
@@ -3296,9 +3258,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="18" customHeight="1">
+    <row r="45" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -3315,10 +3277,10 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
       <c r="X45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" ht="18" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>13</v>
       </c>
@@ -3333,7 +3295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="18" customHeight="1">
+    <row r="47" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>36</v>
       </c>
@@ -3348,7 +3310,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="18" customHeight="1">
+    <row r="48" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="47" t="s">
         <v>15</v>
       </c>
@@ -3359,7 +3321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="3:12">
+    <row r="50" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
@@ -3370,10 +3332,10 @@
       <c r="J50" s="27"/>
       <c r="K50" s="27"/>
     </row>
-    <row r="57" spans="3:12">
+    <row r="57" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="L57" s="32"/>
     </row>
-    <row r="59" spans="3:12">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L59" s="34"/>
     </row>
   </sheetData>
@@ -3390,8 +3352,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="235" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="19ba7301d03bd13e8d49d33f30c156b0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a04e49307545d5a9d85a837cf2c1ea7c" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="274" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="38211b3c1a1463ecfef1a9fde2f35004">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a317756839b6e0739ccfa0bb85ce097f" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
     <xsd:element name="properties">
@@ -3413,6 +3375,7 @@
                 <xsd:element ref="ns1:ArticleStartDate" minOccurs="0"/>
                 <xsd:element ref="ns2:be7e4c0a87744fda8f9ec475d0d5383d" minOccurs="0"/>
                 <xsd:element ref="ns2:d8f60aace6e84187b9d8167da15a966c" minOccurs="0"/>
+                <xsd:element ref="ns2:nfa41555e3464cf4bb914e89b71e6bff" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3423,12 +3386,12 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="eWaveListOrderValue" ma:index="20" nillable="true" ma:displayName="סידור" ma:decimals="2" ma:internalName="eWaveListOrderValue" ma:readOnly="false">
+    <xsd:element name="eWaveListOrderValue" ma:index="21" nillable="true" ma:displayName="סידור" ma:decimals="2" ma:internalName="eWaveListOrderValue" ma:readOnly="false">
       <xsd:simpleType>
         <xsd:restriction base="dms:Number"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="ArticleStartDate" ma:index="25" nillable="true" ma:displayName="תאריך מאמר" ma:description="'תאריך המאמר' הוא עמודת אתר שיוצרת תכונת הפרסום. היא משמשת בסוג תוכן דף המאמר כתאריך של הדף." ma:format="DateOnly" ma:internalName="ArticleStartDate">
+    <xsd:element name="ArticleStartDate" ma:index="26" nillable="true" ma:displayName="תאריך מאמר" ma:description="'תאריך המאמר' הוא עמודת אתר שיוצרת תכונת הפרסום. היא משמשת בסוג תוכן דף המאמר כתאריך של הדף." ma:format="DateOnly" ma:internalName="ArticleStartDate">
       <xsd:simpleType>
         <xsd:restriction base="dms:DateTime"/>
       </xsd:simpleType>
@@ -3467,29 +3430,36 @@
         <xsd:restriction base="dms:Boolean"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="CbsEnglishTitle" ma:index="21" nillable="true" ma:displayName="כותרת אנגלית" ma:internalName="CbsEnglishTitle" ma:readOnly="false">
+    <xsd:element name="CbsEnglishTitle" ma:index="22" nillable="true" ma:displayName="כותרת אנגלית" ma:internalName="CbsEnglishTitle" ma:readOnly="false">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="CbsDocArticleVariationRelUrlEng" ma:index="22" nillable="true" ma:displayName="קישור למאמר אנגלית" ma:internalName="CbsDocArticleVariationRelUrlEng" ma:readOnly="false">
+    <xsd:element name="CbsDocArticleVariationRelUrlEng" ma:index="23" nillable="true" ma:displayName="קישור למאמר אנגלית" ma:internalName="CbsDocArticleVariationRelUrlEng" ma:readOnly="false">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="CbsMadadPublishDate" ma:index="24" nillable="true" ma:displayName="תאריך הצגה" ma:internalName="CbsMadadPublishDate" ma:readOnly="false">
+    <xsd:element name="CbsMadadPublishDate" ma:index="25" nillable="true" ma:displayName="תאריך הצגה" ma:internalName="CbsMadadPublishDate" ma:readOnly="false">
       <xsd:simpleType>
         <xsd:restriction base="dms:DateTime"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="be7e4c0a87744fda8f9ec475d0d5383d" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="be7e4c0a87744fda8f9ec475d0d5383d" ma:taxonomyFieldName="CbsMMDPublisher" ma:displayName="גוף מפרסם" ma:readOnly="false" ma:fieldId="{be7e4c0a-8774-4fda-8f9e-c475d0d5383d}" ma:taxonomyMulti="true" ma:sspId="3561f26f-b765-481f-a768-7c7417e4a021" ma:termSetId="e47c1fe2-d624-4b76-8e50-17849740b8e6" ma:anchorId="8bb0ea15-f1ea-4010-a3c3-b6ce8447ba5d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="be7e4c0a87744fda8f9ec475d0d5383d" ma:index="27" nillable="true" ma:taxonomy="true" ma:internalName="be7e4c0a87744fda8f9ec475d0d5383d" ma:taxonomyFieldName="CbsMMDPublisher" ma:displayName="גוף מפרסם" ma:readOnly="false" ma:fieldId="{be7e4c0a-8774-4fda-8f9e-c475d0d5383d}" ma:taxonomyMulti="true" ma:sspId="3561f26f-b765-481f-a768-7c7417e4a021" ma:termSetId="e47c1fe2-d624-4b76-8e50-17849740b8e6" ma:anchorId="8bb0ea15-f1ea-4010-a3c3-b6ce8447ba5d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="d8f60aace6e84187b9d8167da15a966c" ma:index="27" nillable="true" ma:taxonomy="true" ma:internalName="d8f60aace6e84187b9d8167da15a966c" ma:taxonomyFieldName="CbsMMDGeoDistribution" ma:displayName="חלוקה גאוגרפית" ma:readOnly="false" ma:fieldId="{d8f60aac-e6e8-4187-b9d8-167da15a966c}" ma:taxonomyMulti="true" ma:sspId="3561f26f-b765-481f-a768-7c7417e4a021" ma:termSetId="e47c1fe2-d624-4b76-8e50-17849740b8e6" ma:anchorId="ff1b1232-0def-4635-a6bf-e538c8800cd8" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="d8f60aace6e84187b9d8167da15a966c" ma:index="28" nillable="true" ma:taxonomy="true" ma:internalName="d8f60aace6e84187b9d8167da15a966c" ma:taxonomyFieldName="CbsMMDGeoDistribution" ma:displayName="חלוקה גאוגרפית" ma:readOnly="false" ma:fieldId="{d8f60aac-e6e8-4187-b9d8-167da15a966c}" ma:taxonomyMulti="true" ma:sspId="3561f26f-b765-481f-a768-7c7417e4a021" ma:termSetId="e47c1fe2-d624-4b76-8e50-17849740b8e6" ma:anchorId="ff1b1232-0def-4635-a6bf-e538c8800cd8" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="nfa41555e3464cf4bb914e89b71e6bff" ma:index="29" nillable="true" ma:taxonomy="true" ma:internalName="nfa41555e3464cf4bb914e89b71e6bff" ma:taxonomyFieldName="CbsMMDGlobalSubjects" ma:displayName="נושאים רוחביים" ma:readOnly="false" ma:default="" ma:fieldId="{7fa41555-e346-4cf4-bb91-4e89b71e6bff}" ma:taxonomyMulti="true" ma:sspId="3561f26f-b765-481f-a768-7c7417e4a021" ma:termSetId="d7f67748-0ad2-4e38-bb9f-75af97b01185" ma:anchorId="364b4c7b-10a2-4e26-a314-910a44888b56" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -3608,40 +3578,38 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040">false</CbsHide>
-    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2020-11-25T22:00:00+00:00</ArticleStartDate>
+    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <nfa41555e3464cf4bb914e89b71e6bff xmlns="f37fff55-d014-472b-b062-823f736a4040">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </nfa41555e3464cf4bb914e89b71e6bff>
+    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2021-03-15T22:00:00+00:00</CbsDataPublishDate>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2021-05-25T21:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">למס</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">c40914ad-3bbb-4e8d-bb24-8803a16680f5</TermId>
-        </TermInfo>
-      </Terms>
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
     <CbsOrderField xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsEnglishTitle xmlns="f37fff55-d014-472b-b062-823f736a4040">Deaths of Israeli Residents, by Year and Month, 2000-2020</CbsEnglishTitle>
-    <CbsMadadPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2020-11-26T11:00:00+00:00</CbsMadadPublishDate>
+    <CbsEnglishTitle xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsMadadPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{666B7979-7021-4B70-9B67-C5F77671CB04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2363C4F3-5C3D-48C0-A638-CED4FC44EA8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20DCE039-F259-45D8-8040-DDDB822B2479}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01B89B09-6BA5-462B-855E-BFAFDF3F6129}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78E9560A-478F-4330-AC5E-1DCCE45D3176}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{625D48DA-3A9A-461D-9056-A1CD0E79CC0D}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Irene\Avoda_MiHaBayt\15_02_22\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EBD7E5-2C7E-4ECE-BF26-6D453646BE23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="8490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="פטירות לפי שנה וחודש" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_01.12.20">'פטירות לפי שנה וחודש'!$W$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$X$48</definedName>
+    <definedName name="_01.12.20">'פטירות לפי שנה וחודש'!$X$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$Y$48</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -128,27 +134,33 @@
     <t>2. Excl. deaths of Israeli residents abroad.</t>
   </si>
   <si>
-    <t>פטירות של תושבי ישראל, לפי שנה וחודש, 2021-2000 - כל הגילים</t>
-  </si>
-  <si>
-    <t>פטירות של תושבי ישראל, לפי שנה וחודש, 2021-2000 - בני 70 ומעלה</t>
-  </si>
-  <si>
-    <t>Deaths of Israeli Residents, by Year and Month, 2000-2021 - All Ages</t>
-  </si>
-  <si>
-    <t>Deaths of Israeli Residents, by Year and Month, 2000-2021 - Age 70 and Up</t>
+    <t>פטירות של תושבי ישראל, לפי שנה וחודש, 2022-2000 - כל הגילים</t>
+  </si>
+  <si>
+    <t>Deaths of Israeli Residents, by Year and Month, 2000-2022 - All Ages</t>
+  </si>
+  <si>
+    <t>פטירות של תושבי ישראל, לפי שנה וחודש, 2022-2000 - בני 70 ומעלה</t>
+  </si>
+  <si>
+    <t>Deaths of Israeli Residents, by Year and Month, 2000-2022 - Age 70 and Up</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 15/02/2022.</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 15/02/2022.</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. נתוני 2021-2020 אינם סופיים, </t>
+      <t xml:space="preserve">1. נתוני 2022-2020 אינם סופיים, </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -157,13 +169,13 @@
   </si>
   <si>
     <r>
-      <t>1. Data for 2020-2021 are not final,</t>
+      <t>1. Data for 2020-2022 are not final,</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,33 +186,27 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> data for the latest month are incomplete.</t>
     </r>
   </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 14/12/2021.</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 14/12/2021.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -209,7 +215,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -217,7 +223,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -236,14 +242,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -252,7 +258,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -260,7 +266,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -268,7 +274,7 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -276,7 +282,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -284,7 +290,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -292,27 +298,27 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -321,7 +327,7 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -331,7 +337,7 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -357,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -689,6 +695,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -696,7 +767,7 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -747,27 +818,35 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Text_e" xfId="1"/>
+    <cellStyle name="Text_e" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -797,7 +876,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,7 +948,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -902,9 +981,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,6 +1033,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1112,33 +1225,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:AO59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A6:AP59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30:W39"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.125" customWidth="1"/>
-    <col min="2" max="22" width="6.875" customWidth="1"/>
-    <col min="23" max="23" width="9.375" customWidth="1"/>
-    <col min="24" max="24" width="10.875" customWidth="1"/>
-    <col min="25" max="27" width="6.875" customWidth="1"/>
-    <col min="28" max="30" width="7.125" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="23" width="6.88671875" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" customWidth="1"/>
+    <col min="25" max="25" width="10.88671875" customWidth="1"/>
+    <col min="26" max="28" width="6.88671875" customWidth="1"/>
+    <col min="29" max="31" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:41" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="6.75" customHeight="1"/>
+    <row r="7" spans="1:42" ht="18" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="27" t="s">
+      <c r="X7" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="18" customHeight="1">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -1147,18 +1260,18 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="J8" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="W8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X8" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="W9" s="37">
-        <v>44544</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1">
+      <c r="X9" s="37">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1">
       <c r="A10" s="4"/>
       <c r="B10" s="29">
         <v>2000</v>
@@ -1220,18 +1333,21 @@
       <c r="U10" s="10">
         <v>2019</v>
       </c>
-      <c r="V10" s="42">
+      <c r="V10" s="40">
         <v>2020</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="49">
         <v>2021</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="X10" s="49">
+        <v>2022</v>
+      </c>
+      <c r="Y10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AO10" s="3"/>
-    </row>
-    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP10" s="3"/>
+    </row>
+    <row r="11" spans="1:42" ht="18" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
@@ -1295,17 +1411,20 @@
       <c r="U11" s="17">
         <v>4809</v>
       </c>
-      <c r="V11" s="19">
+      <c r="V11" s="44">
         <v>4585</v>
       </c>
-      <c r="W11" s="44">
-        <v>5489</v>
-      </c>
-      <c r="X11" s="5" t="s">
+      <c r="W11" s="50">
+        <v>5492</v>
+      </c>
+      <c r="X11" s="56">
+        <v>5441</v>
+      </c>
+      <c r="Y11" s="46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" ht="18" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
@@ -1369,17 +1488,18 @@
       <c r="U12" s="19">
         <v>4062</v>
       </c>
-      <c r="V12" s="19">
-        <v>3960</v>
-      </c>
-      <c r="W12" s="45">
-        <v>4532</v>
-      </c>
-      <c r="X12" s="6" t="s">
+      <c r="V12" s="44">
+        <v>3962</v>
+      </c>
+      <c r="W12" s="51">
+        <v>4533</v>
+      </c>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="18" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1443,17 +1563,18 @@
       <c r="U13" s="19">
         <v>4316</v>
       </c>
-      <c r="V13" s="19">
+      <c r="V13" s="44">
         <v>4180</v>
       </c>
-      <c r="W13" s="45">
+      <c r="W13" s="51">
         <v>4480</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="X13" s="51"/>
+      <c r="Y13" s="47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" ht="18" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1517,17 +1638,18 @@
       <c r="U14" s="19">
         <v>3812</v>
       </c>
-      <c r="V14" s="19">
-        <v>3919</v>
-      </c>
-      <c r="W14" s="24">
-        <v>4005</v>
-      </c>
-      <c r="X14" s="6" t="s">
+      <c r="V14" s="44">
+        <v>3920</v>
+      </c>
+      <c r="W14" s="51">
+        <v>4007</v>
+      </c>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" ht="18" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1591,17 +1713,18 @@
       <c r="U15" s="19">
         <v>3790</v>
       </c>
-      <c r="V15" s="19">
+      <c r="V15" s="44">
         <v>3876</v>
       </c>
-      <c r="W15" s="24">
-        <v>3821</v>
-      </c>
-      <c r="X15" s="6" t="s">
+      <c r="W15" s="51">
+        <v>3825</v>
+      </c>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" ht="18" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
@@ -1665,17 +1788,18 @@
       <c r="U16" s="19">
         <v>3339</v>
       </c>
-      <c r="V16" s="19">
-        <v>3415</v>
-      </c>
-      <c r="W16" s="24">
-        <v>3508</v>
-      </c>
-      <c r="X16" s="6" t="s">
+      <c r="V16" s="44">
+        <v>3416</v>
+      </c>
+      <c r="W16" s="51">
+        <v>3509</v>
+      </c>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="18" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1739,17 +1863,18 @@
       <c r="U17" s="19">
         <v>3436</v>
       </c>
-      <c r="V17" s="19">
+      <c r="V17" s="44">
         <v>3701</v>
       </c>
-      <c r="W17" s="24">
-        <v>3719</v>
-      </c>
-      <c r="X17" s="6" t="s">
+      <c r="W17" s="51">
+        <v>3724</v>
+      </c>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="18" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
@@ -1813,17 +1938,18 @@
       <c r="U18" s="19">
         <v>3497</v>
       </c>
-      <c r="V18" s="19">
+      <c r="V18" s="44">
         <v>4025</v>
       </c>
-      <c r="W18" s="24">
-        <v>4492</v>
-      </c>
-      <c r="X18" s="6" t="s">
+      <c r="W18" s="51">
+        <v>4501</v>
+      </c>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="18" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -1887,17 +2013,18 @@
       <c r="U19" s="19">
         <v>3405</v>
       </c>
-      <c r="V19" s="19">
+      <c r="V19" s="44">
         <v>4162</v>
       </c>
-      <c r="W19" s="24">
-        <v>4264</v>
-      </c>
-      <c r="X19" s="6" t="s">
+      <c r="W19" s="51">
+        <v>4280</v>
+      </c>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="18" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1961,17 +2088,18 @@
       <c r="U20" s="19">
         <v>3607</v>
       </c>
-      <c r="V20" s="24">
+      <c r="V20" s="45">
         <v>4645</v>
       </c>
-      <c r="W20" s="47">
-        <v>4118</v>
-      </c>
-      <c r="X20" s="6" t="s">
+      <c r="W20" s="51">
+        <v>4154</v>
+      </c>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="18" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -2035,15 +2163,18 @@
       <c r="U21" s="19">
         <v>3691</v>
       </c>
-      <c r="V21" s="43">
-        <v>3824</v>
-      </c>
-      <c r="W21" s="39"/>
-      <c r="X21" s="5" t="s">
+      <c r="V21" s="41">
+        <v>3825</v>
+      </c>
+      <c r="W21" s="51">
+        <v>3801</v>
+      </c>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="18" customHeight="1" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
@@ -2107,15 +2238,18 @@
       <c r="U22" s="21">
         <v>4240</v>
       </c>
-      <c r="V22" s="46">
+      <c r="V22" s="43">
         <v>4486</v>
       </c>
-      <c r="W22" s="40"/>
-      <c r="X22" s="7" t="s">
+      <c r="W22" s="52">
+        <v>4340</v>
+      </c>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="48" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="18" customHeight="1" thickBot="1">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -2199,29 +2333,33 @@
         <f t="shared" si="0"/>
         <v>46004</v>
       </c>
-      <c r="V23" s="41">
-        <f t="shared" ref="V23" si="1">SUM(V11:V22)</f>
-        <v>48778</v>
-      </c>
-      <c r="W23" s="41"/>
-      <c r="X23" s="8" t="s">
+      <c r="V23" s="39">
+        <f t="shared" ref="V23:X23" si="1">SUM(V11:V22)</f>
+        <v>48783</v>
+      </c>
+      <c r="W23" s="39">
+        <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
+        <v>50646</v>
+      </c>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="18" customHeight="1"/>
+    <row r="25" spans="1:25" ht="11.25" customHeight="1"/>
+    <row r="26" spans="1:25" ht="18" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="18" customHeight="1">
       <c r="K27" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="18" customHeight="1" thickBot="1"/>
+    <row r="29" spans="1:25" ht="18" customHeight="1" thickBot="1">
       <c r="A29" s="4"/>
       <c r="B29" s="9">
         <v>2000</v>
@@ -2283,17 +2421,20 @@
       <c r="U29" s="10">
         <v>2019</v>
       </c>
-      <c r="V29" s="42">
+      <c r="V29" s="40">
         <v>2020</v>
       </c>
       <c r="W29" s="11">
         <v>2021</v>
       </c>
-      <c r="X29" s="11" t="s">
+      <c r="X29" s="11">
+        <v>2022</v>
+      </c>
+      <c r="Y29" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="18" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
@@ -2360,14 +2501,17 @@
       <c r="V30" s="19">
         <v>3465</v>
       </c>
-      <c r="W30" s="44">
-        <v>4278</v>
-      </c>
-      <c r="X30" s="5" t="s">
+      <c r="W30" s="42">
+        <v>4280</v>
+      </c>
+      <c r="X30" s="55">
+        <v>4253</v>
+      </c>
+      <c r="Y30" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="18" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
@@ -2434,14 +2578,15 @@
       <c r="V31" s="19">
         <v>3029</v>
       </c>
-      <c r="W31" s="45">
+      <c r="W31" s="42">
         <v>3404</v>
       </c>
-      <c r="X31" s="6" t="s">
+      <c r="X31" s="42"/>
+      <c r="Y31" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="18" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
@@ -2508,14 +2653,15 @@
       <c r="V32" s="19">
         <v>3194</v>
       </c>
-      <c r="W32" s="45">
+      <c r="W32" s="42">
         <v>3405</v>
       </c>
-      <c r="X32" s="6" t="s">
+      <c r="X32" s="42"/>
+      <c r="Y32" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="18" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
@@ -2583,13 +2729,14 @@
         <v>3005</v>
       </c>
       <c r="W33" s="24">
-        <v>2957</v>
-      </c>
-      <c r="X33" s="6" t="s">
+        <v>2959</v>
+      </c>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="18" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -2657,16 +2804,17 @@
         <v>2930</v>
       </c>
       <c r="W34" s="24">
-        <v>2878</v>
-      </c>
-      <c r="X34" s="6" t="s">
+        <v>2881</v>
+      </c>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="18" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
@@ -2736,11 +2884,12 @@
       <c r="W35" s="24">
         <v>2589</v>
       </c>
-      <c r="X35" s="6" t="s">
+      <c r="X35" s="24"/>
+      <c r="Y35" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="18" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2808,13 +2957,14 @@
         <v>2773</v>
       </c>
       <c r="W36" s="24">
-        <v>2839</v>
-      </c>
-      <c r="X36" s="6" t="s">
+        <v>2842</v>
+      </c>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="18" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>7</v>
       </c>
@@ -2882,13 +3032,14 @@
         <v>3009</v>
       </c>
       <c r="W37" s="24">
-        <v>3456</v>
-      </c>
-      <c r="X37" s="6" t="s">
+        <v>3464</v>
+      </c>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="18" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
@@ -2956,13 +3107,14 @@
         <v>3166</v>
       </c>
       <c r="W38" s="24">
-        <v>3138</v>
-      </c>
-      <c r="X38" s="6" t="s">
+        <v>3147</v>
+      </c>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="18" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>9</v>
       </c>
@@ -3029,14 +3181,15 @@
       <c r="V39" s="24">
         <v>3552</v>
       </c>
-      <c r="W39" s="47">
-        <v>3061</v>
-      </c>
-      <c r="X39" s="6" t="s">
+      <c r="W39" s="24">
+        <v>3082</v>
+      </c>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="18" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>10</v>
       </c>
@@ -3100,15 +3253,18 @@
       <c r="U40" s="19">
         <v>2752</v>
       </c>
-      <c r="V40" s="43">
+      <c r="V40" s="41">
         <v>2844</v>
       </c>
-      <c r="W40" s="38"/>
-      <c r="X40" s="5" t="s">
+      <c r="W40" s="53">
+        <v>2867</v>
+      </c>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
@@ -3172,15 +3328,18 @@
       <c r="U41" s="21">
         <v>3162</v>
       </c>
-      <c r="V41" s="46">
+      <c r="V41" s="43">
         <v>3417</v>
       </c>
-      <c r="W41" s="40"/>
-      <c r="X41" s="7" t="s">
+      <c r="W41" s="38">
+        <v>3347</v>
+      </c>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="18" customHeight="1" thickBot="1">
       <c r="A42" s="8" t="s">
         <v>12</v>
       </c>
@@ -3189,102 +3348,106 @@
         <v>26399</v>
       </c>
       <c r="C42" s="23">
-        <f t="shared" ref="C42:U42" si="2">SUM(C30:C41)</f>
+        <f t="shared" ref="C42:U42" si="3">SUM(C30:C41)</f>
         <v>25956</v>
       </c>
       <c r="D42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26977</v>
       </c>
       <c r="E42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27291</v>
       </c>
       <c r="F42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26942</v>
       </c>
       <c r="G42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27925</v>
       </c>
       <c r="H42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27827</v>
       </c>
       <c r="I42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29132</v>
       </c>
       <c r="J42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28637</v>
       </c>
       <c r="K42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28176</v>
       </c>
       <c r="L42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28813</v>
       </c>
       <c r="M42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29853</v>
       </c>
       <c r="N42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31021</v>
       </c>
       <c r="O42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30302</v>
       </c>
       <c r="P42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30952</v>
       </c>
       <c r="Q42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32558</v>
       </c>
       <c r="R42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32305</v>
       </c>
       <c r="S42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32959</v>
       </c>
       <c r="T42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32921</v>
       </c>
       <c r="U42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34477</v>
       </c>
-      <c r="V42" s="41">
-        <f t="shared" ref="V42" si="3">SUM(V30:V41)</f>
+      <c r="V42" s="39">
+        <f t="shared" ref="V42:X42" si="4">SUM(V30:V41)</f>
         <v>36910</v>
       </c>
-      <c r="W42" s="41"/>
-      <c r="X42" s="29" t="s">
+      <c r="W42" s="39">
+        <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
+        <v>38267</v>
+      </c>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="18" customHeight="1"/>
+    <row r="44" spans="1:26" ht="18" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="X44" s="33" t="s">
+      <c r="Y44" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="18" customHeight="1">
       <c r="A45" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -3300,11 +3463,12 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-      <c r="X45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W45" s="2"/>
+      <c r="Y45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="18" customHeight="1">
       <c r="A46" s="13" t="s">
         <v>13</v>
       </c>
@@ -3315,13 +3479,13 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="X46" s="33" t="s">
+      <c r="Y46" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="18" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -3330,22 +3494,22 @@
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
-      <c r="X47" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="48" t="s">
+      <c r="Y47" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="18" customHeight="1">
+      <c r="A48" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="X48" s="30" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="Y48" s="30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:12">
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
@@ -3356,15 +3520,15 @@
       <c r="J50" s="27"/>
       <c r="K50" s="27"/>
     </row>
-    <row r="57" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:12">
       <c r="L57" s="32"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12">
       <c r="L59" s="34"/>
     </row>
   </sheetData>
-  <sortState ref="Z4:AB12">
-    <sortCondition ref="Z4:Z12"/>
+  <sortState ref="AA4:AC12">
+    <sortCondition ref="AA4:AA12"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A48:D48"/>
@@ -3376,7 +3540,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="402" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="ad4700eac8d720e53cc5a4b1022989ff">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="448" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="09b7e1d00e7f0fcbb33ab6ba7b7381ec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -3622,7 +3786,7 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2021-12-13T22:00:00+00:00</CbsDataPublishDate>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-02-14T22:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -3634,13 +3798,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE77CCEE-1172-4981-BF4C-502B06360149}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806FD39D-91F9-4CEA-8218-EF3BAD168BAF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A69AEC8-FFF8-4A93-832A-6BDCC6A797FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2692CBAA-90EE-4E5E-A06B-6B19A1570B42}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD6852F8-03DA-4EBF-A1C3-9FA7B97B3338}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A9F0ED2-B6F3-4ED2-B565-DD9856F07185}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Irene\Avoda_MiHaBayt\15_02_22\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EBD7E5-2C7E-4ECE-BF26-6D453646BE23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="פטירות לפי שנה וחודש" sheetId="1" r:id="rId1"/>
+    <sheet name="עודף תמותה" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_01.12.20">'פטירות לפי שנה וחודש'!$X$9</definedName>
+    <definedName name="name_change">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$Y$48</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>ינואר</t>
   </si>
@@ -144,12 +144,6 @@
   </si>
   <si>
     <t>Deaths of Israeli Residents, by Year and Month, 2000-2022 - Age 70 and Up</t>
-  </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 15/02/2022.</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 15/02/2022.</t>
   </si>
   <si>
     <r>
@@ -160,7 +154,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -175,7 +169,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -186,27 +180,159 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> data for the latest month are incomplete.</t>
     </r>
   </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 01/03/2022.</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 01/03/2022.</t>
+  </si>
+  <si>
+    <t>עודף תמותה בתקופת הקורונה</t>
+  </si>
+  <si>
+    <t>עודכן: 01.03.2022</t>
+  </si>
+  <si>
+    <t>הסברים</t>
+  </si>
+  <si>
+    <t>בסיס הנתונים לצורך חישוב מודל החיזוי הוא נתוני פטירות לפי חודש בשנים 2015 עד 2019.</t>
+  </si>
+  <si>
+    <t>בוצעה רגרסיה לינארית (ריבועים פחותים). המשתנה המוסבר הוא סך הפטירות בחודש,</t>
+  </si>
+  <si>
+    <t>והמשתנים המסבירים הם שנת הפטירה ו-11 משתני דמה עבור 11 חודשים (כל 11 המשתנים הם יחסית לחודש ינואר).</t>
+  </si>
+  <si>
+    <t>מקדמי השיפועים של מודל זה הופעלו על השנים 2020, 2021 ו-2022 לצורך חישוב "תחזית מספר נפטרים בחודש".</t>
+  </si>
+  <si>
+    <t>עודף התמותה מחושב לפי המודל כהפרש (באחוזים) בין התמותה בפועל ובין התמותה הצפויה.</t>
+  </si>
+  <si>
+    <t>תקופה</t>
+  </si>
+  <si>
+    <t>עודף תמותה
+(אחוזים)</t>
+  </si>
+  <si>
+    <t>פטירות עודפות</t>
+  </si>
+  <si>
+    <t>כל שנת 2020</t>
+  </si>
+  <si>
+    <t>מרץ עד דצמבר 2020</t>
+  </si>
+  <si>
+    <t>כל שנת 2021</t>
+  </si>
+  <si>
+    <t>ינואר 2022</t>
+  </si>
+  <si>
+    <t>מרץ 2020 עד ינואר 2022</t>
+  </si>
+  <si>
+    <t>לפי גלי הקורונה:</t>
+  </si>
+  <si>
+    <t>מרץ עד מאי 2020</t>
+  </si>
+  <si>
+    <t>יולי עד אוקטובר 2020</t>
+  </si>
+  <si>
+    <t>דצמבר 2020 עד מרץ 2021</t>
+  </si>
+  <si>
+    <t>יולי עד אוקטובר 2021</t>
+  </si>
+  <si>
+    <r>
+      <t>אחוז השונות המוסברת של מודל זה הוא 92.1% (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R-Square=0.921</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>פטירות מקורונה</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> נתוני משרד הבריאות. הנתונים כוללים בעלי תעודת זהות בלבד.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -215,7 +341,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -223,7 +349,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -242,14 +368,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -258,7 +384,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -266,7 +392,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -274,7 +400,7 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -282,7 +408,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -290,7 +416,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -298,27 +424,27 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -327,7 +453,7 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -337,13 +463,64 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,8 +539,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -760,6 +943,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -767,7 +1041,7 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -836,17 +1110,99 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Text_e" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Text_e" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -859,6 +1215,877 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="he-IL" sz="1500"/>
+              <a:t>תמותה צפויה ותמותה בפועל,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL" sz="1500" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL" sz="1500"/>
+              <a:t>לפי חודש</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500"/>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1500"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="he-IL" sz="1500"/>
+              <a:t> 2020</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL" sz="1500" baseline="0"/>
+              <a:t> עד ינואר 2022</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL" sz="1500"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35076930501154163"/>
+          <c:y val="3.2935123615877131E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9759168255142768E-2"/>
+          <c:y val="0.14950773282814686"/>
+          <c:w val="0.88114724066150474"/>
+          <c:h val="0.52578604889578673"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>סך פטירות בחודש</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$B$2:$C$26</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="25"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ינואר</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>פברואר</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>מרץ </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>אפריל</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>מאי</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>יוני</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>יולי</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>אוגוסט</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>ספטמבר</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>אוקטובר</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>נובמבר</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>דצמבר</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>ינואר</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>פברואר</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>מרץ </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>אפריל</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>מאי</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>יוני</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>יולי</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>אוגוסט</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>ספטמבר</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>אוקטובר</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>נובמבר</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>דצמבר</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>ינואר</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3920</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3876</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3825</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4487</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5491</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4534</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4480</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3826</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3510</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3725</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4504</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4284</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4155</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3802</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4348</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B9C6-4C2D-A7D1-E47B21FD7DC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="261765760"/>
+        <c:axId val="261767552"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>תחזית פטירות לחודש</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4727.3499999999913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4166.3499999999922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4141.5499999999911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3723.1499999999924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3660.1499999999924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3386.9499999999921</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3487.3499999999926</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3539.9499999999916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3413.1499999999915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3680.1499999999924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3736.549999999992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4217.3499999999922</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4760.8000000000029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4199.8000000000038</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4175.0000000000027</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3756.600000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3693.600000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3420.4000000000037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3520.8000000000043</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3573.4000000000033</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3446.6000000000031</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4251</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4794.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B9C6-4C2D-A7D1-E47B21FD7DC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>פטירות מקורונה</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$G$2:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D19-4CBF-A849-BE9CBB4A00C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>פטירות עודפות</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-142.34999999999127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-200.34999999999218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.450000000008913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>196.85000000000764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.85000000000764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.050000000007913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213.65000000000737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>485.05000000000837</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>748.85000000000855</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>964.85000000000764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88.450000000008004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>269.65000000000782</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>730.19999999999709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>334.19999999999618</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>304.99999999999727</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250.399999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132.399999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89.599999999996271</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>204.19999999999573</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>930.59999999999673</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>837.39999999999691</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>791.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D19-4CBF-A849-BE9CBB4A00C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="261771264"/>
+        <c:axId val="261769472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="261765760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261767552"/>
+        <c:crossesAt val="-1000"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="300"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="261767552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="he-IL" sz="1100">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>מספר פטירות</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261765760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261769472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="261771264"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="261771264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="261769472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11448534714570278"/>
+          <c:y val="0.88722831179362771"/>
+          <c:w val="0.78823289070480096"/>
+          <c:h val="0.1127716882063723"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -876,7 +2103,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -903,6 +2130,538 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="תרשים 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="תחזית 20-29"/>
+      <sheetName val="גיליון12"/>
+      <sheetName val="גילאי 20-29"/>
+      <sheetName val="תחזית 70+"/>
+      <sheetName val="גיליון9"/>
+      <sheetName val="70+"/>
+      <sheetName val="תוצאת רגרסיה"/>
+      <sheetName val="כל הגילאים"/>
+      <sheetName val="תחזית כל הגילאים"/>
+      <sheetName val="גיליון14"/>
+      <sheetName val="תמותה צפויה ובפועל 2020-2021"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10">
+        <row r="1">
+          <cell r="D1" t="str">
+            <v>סך פטירות בחודש</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>תחזית פטירות לחודש</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>פטירות עודפות</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>פטירות מקורונה</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>2020</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>ינואר</v>
+          </cell>
+          <cell r="D2">
+            <v>4585</v>
+          </cell>
+          <cell r="E2">
+            <v>4727.3499999999913</v>
+          </cell>
+          <cell r="F2">
+            <v>-142.34999999999127</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>פברואר</v>
+          </cell>
+          <cell r="D3">
+            <v>3966</v>
+          </cell>
+          <cell r="E3">
+            <v>4166.3499999999922</v>
+          </cell>
+          <cell r="F3">
+            <v>-200.34999999999218</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v xml:space="preserve">מרץ </v>
+          </cell>
+          <cell r="D4">
+            <v>4180</v>
+          </cell>
+          <cell r="E4">
+            <v>4141.5499999999911</v>
+          </cell>
+          <cell r="F4">
+            <v>38.450000000008913</v>
+          </cell>
+          <cell r="G4">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>אפריל</v>
+          </cell>
+          <cell r="D5">
+            <v>3920</v>
+          </cell>
+          <cell r="E5">
+            <v>3723.1499999999924</v>
+          </cell>
+          <cell r="F5">
+            <v>196.85000000000764</v>
+          </cell>
+          <cell r="G5">
+            <v>204</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>מאי</v>
+          </cell>
+          <cell r="D6">
+            <v>3876</v>
+          </cell>
+          <cell r="E6">
+            <v>3660.1499999999924</v>
+          </cell>
+          <cell r="F6">
+            <v>215.85000000000764</v>
+          </cell>
+          <cell r="G6">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>יוני</v>
+          </cell>
+          <cell r="D7">
+            <v>3416</v>
+          </cell>
+          <cell r="E7">
+            <v>3386.9499999999921</v>
+          </cell>
+          <cell r="F7">
+            <v>29.050000000007913</v>
+          </cell>
+          <cell r="G7">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>יולי</v>
+          </cell>
+          <cell r="D8">
+            <v>3701</v>
+          </cell>
+          <cell r="E8">
+            <v>3487.3499999999926</v>
+          </cell>
+          <cell r="F8">
+            <v>213.65000000000737</v>
+          </cell>
+          <cell r="G8">
+            <v>235</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>אוגוסט</v>
+          </cell>
+          <cell r="D9">
+            <v>4025</v>
+          </cell>
+          <cell r="E9">
+            <v>3539.9499999999916</v>
+          </cell>
+          <cell r="F9">
+            <v>485.05000000000837</v>
+          </cell>
+          <cell r="G9">
+            <v>394</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>ספטמבר</v>
+          </cell>
+          <cell r="D10">
+            <v>4162</v>
+          </cell>
+          <cell r="E10">
+            <v>3413.1499999999915</v>
+          </cell>
+          <cell r="F10">
+            <v>748.85000000000855</v>
+          </cell>
+          <cell r="G10">
+            <v>644</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>אוקטובר</v>
+          </cell>
+          <cell r="D11">
+            <v>4645</v>
+          </cell>
+          <cell r="E11">
+            <v>3680.1499999999924</v>
+          </cell>
+          <cell r="F11">
+            <v>964.85000000000764</v>
+          </cell>
+          <cell r="G11">
+            <v>949</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>נובמבר</v>
+          </cell>
+          <cell r="D12">
+            <v>3825</v>
+          </cell>
+          <cell r="E12">
+            <v>3736.549999999992</v>
+          </cell>
+          <cell r="F12">
+            <v>88.450000000008004</v>
+          </cell>
+          <cell r="G12">
+            <v>311</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>דצמבר</v>
+          </cell>
+          <cell r="D13">
+            <v>4487</v>
+          </cell>
+          <cell r="E13">
+            <v>4217.3499999999922</v>
+          </cell>
+          <cell r="F13">
+            <v>269.65000000000782</v>
+          </cell>
+          <cell r="G13">
+            <v>478</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>2021</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>ינואר</v>
+          </cell>
+          <cell r="D14">
+            <v>5491</v>
+          </cell>
+          <cell r="E14">
+            <v>4760.8000000000029</v>
+          </cell>
+          <cell r="F14">
+            <v>730.19999999999709</v>
+          </cell>
+          <cell r="G14">
+            <v>1430</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>פברואר</v>
+          </cell>
+          <cell r="D15">
+            <v>4534</v>
+          </cell>
+          <cell r="E15">
+            <v>4199.8000000000038</v>
+          </cell>
+          <cell r="F15">
+            <v>334.19999999999618</v>
+          </cell>
+          <cell r="G15">
+            <v>940</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v xml:space="preserve">מרץ </v>
+          </cell>
+          <cell r="D16">
+            <v>4480</v>
+          </cell>
+          <cell r="E16">
+            <v>4175.0000000000027</v>
+          </cell>
+          <cell r="F16">
+            <v>304.99999999999727</v>
+          </cell>
+          <cell r="G16">
+            <v>428</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>אפריל</v>
+          </cell>
+          <cell r="D17">
+            <v>4007</v>
+          </cell>
+          <cell r="E17">
+            <v>3756.600000000004</v>
+          </cell>
+          <cell r="F17">
+            <v>250.399999999996</v>
+          </cell>
+          <cell r="G17">
+            <v>159</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>מאי</v>
+          </cell>
+          <cell r="D18">
+            <v>3826</v>
+          </cell>
+          <cell r="E18">
+            <v>3693.600000000004</v>
+          </cell>
+          <cell r="F18">
+            <v>132.399999999996</v>
+          </cell>
+          <cell r="G18">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>יוני</v>
+          </cell>
+          <cell r="D19">
+            <v>3510</v>
+          </cell>
+          <cell r="E19">
+            <v>3420.4000000000037</v>
+          </cell>
+          <cell r="F19">
+            <v>89.599999999996271</v>
+          </cell>
+          <cell r="G19">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>יולי</v>
+          </cell>
+          <cell r="D20">
+            <v>3725</v>
+          </cell>
+          <cell r="E20">
+            <v>3520.8000000000043</v>
+          </cell>
+          <cell r="F20">
+            <v>204.19999999999573</v>
+          </cell>
+          <cell r="G20">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>אוגוסט</v>
+          </cell>
+          <cell r="D21">
+            <v>4504</v>
+          </cell>
+          <cell r="E21">
+            <v>3573.4000000000033</v>
+          </cell>
+          <cell r="F21">
+            <v>930.59999999999673</v>
+          </cell>
+          <cell r="G21">
+            <v>634</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>ספטמבר</v>
+          </cell>
+          <cell r="D22">
+            <v>4284</v>
+          </cell>
+          <cell r="E22">
+            <v>3446.6000000000031</v>
+          </cell>
+          <cell r="F22">
+            <v>837.39999999999691</v>
+          </cell>
+          <cell r="G22">
+            <v>663</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>אוקטובר</v>
+          </cell>
+          <cell r="D23">
+            <v>4155</v>
+          </cell>
+          <cell r="E23">
+            <v>3714</v>
+          </cell>
+          <cell r="F23">
+            <v>441</v>
+          </cell>
+          <cell r="G23">
+            <v>307</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>נובמבר</v>
+          </cell>
+          <cell r="D24">
+            <v>3802</v>
+          </cell>
+          <cell r="E24">
+            <v>3770</v>
+          </cell>
+          <cell r="F24">
+            <v>32</v>
+          </cell>
+          <cell r="G24">
+            <v>83</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>דצמבר</v>
+          </cell>
+          <cell r="D25">
+            <v>4348</v>
+          </cell>
+          <cell r="E25">
+            <v>4251</v>
+          </cell>
+          <cell r="F25">
+            <v>97</v>
+          </cell>
+          <cell r="G25">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>2022</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>ינואר</v>
+          </cell>
+          <cell r="D26">
+            <v>5586</v>
+          </cell>
+          <cell r="E26">
+            <v>4794.25</v>
+          </cell>
+          <cell r="F26">
+            <v>791.75</v>
+          </cell>
+          <cell r="G26">
+            <v>725</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -948,7 +2707,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -981,26 +2740,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1033,23 +2775,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1224,26 +2949,307 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AP59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="23" width="6.88671875" customWidth="1"/>
-    <col min="24" max="24" width="9.33203125" customWidth="1"/>
-    <col min="25" max="25" width="10.88671875" customWidth="1"/>
-    <col min="26" max="28" width="6.88671875" customWidth="1"/>
-    <col min="29" max="31" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="23" width="6.875" customWidth="1"/>
+    <col min="24" max="24" width="9.375" customWidth="1"/>
+    <col min="25" max="25" width="10.875" customWidth="1"/>
+    <col min="26" max="28" width="6.875" customWidth="1"/>
+    <col min="29" max="31" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:42" ht="6.75" customHeight="1"/>
-    <row r="7" spans="1:42" ht="18" customHeight="1">
+    <row r="6" spans="1:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1251,7 +3257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="18" customHeight="1">
+    <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -1266,12 +3272,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1">
+    <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="X9" s="37">
-        <v>44607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="29">
         <v>2000</v>
@@ -1347,7 +3353,7 @@
       </c>
       <c r="AP10" s="3"/>
     </row>
-    <row r="11" spans="1:42" ht="18" customHeight="1">
+    <row r="11" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
@@ -1415,16 +3421,16 @@
         <v>4585</v>
       </c>
       <c r="W11" s="50">
-        <v>5492</v>
-      </c>
-      <c r="X11" s="56">
-        <v>5441</v>
+        <v>5491</v>
+      </c>
+      <c r="X11" s="55">
+        <v>5586</v>
       </c>
       <c r="Y11" s="46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="18" customHeight="1">
+    <row r="12" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
@@ -1489,17 +3495,17 @@
         <v>4062</v>
       </c>
       <c r="V12" s="44">
-        <v>3962</v>
+        <v>3966</v>
       </c>
       <c r="W12" s="51">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="X12" s="51"/>
       <c r="Y12" s="47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="18" customHeight="1">
+    <row r="13" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1574,7 +3580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="18" customHeight="1">
+    <row r="14" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1649,7 +3655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="18" customHeight="1">
+    <row r="15" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1717,14 +3723,14 @@
         <v>3876</v>
       </c>
       <c r="W15" s="51">
-        <v>3825</v>
+        <v>3826</v>
       </c>
       <c r="X15" s="51"/>
       <c r="Y15" s="47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="18" customHeight="1">
+    <row r="16" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
@@ -1792,14 +3798,14 @@
         <v>3416</v>
       </c>
       <c r="W16" s="51">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="X16" s="51"/>
       <c r="Y16" s="47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="18" customHeight="1">
+    <row r="17" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1867,14 +3873,14 @@
         <v>3701</v>
       </c>
       <c r="W17" s="51">
-        <v>3724</v>
+        <v>3725</v>
       </c>
       <c r="X17" s="51"/>
       <c r="Y17" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="18" customHeight="1">
+    <row r="18" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
@@ -1942,14 +3948,14 @@
         <v>4025</v>
       </c>
       <c r="W18" s="51">
-        <v>4501</v>
+        <v>4504</v>
       </c>
       <c r="X18" s="51"/>
       <c r="Y18" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="18" customHeight="1">
+    <row r="19" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -2017,14 +4023,14 @@
         <v>4162</v>
       </c>
       <c r="W19" s="51">
-        <v>4280</v>
+        <v>4284</v>
       </c>
       <c r="X19" s="51"/>
       <c r="Y19" s="47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="18" customHeight="1">
+    <row r="20" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
@@ -2092,14 +4098,14 @@
         <v>4645</v>
       </c>
       <c r="W20" s="51">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="X20" s="51"/>
       <c r="Y20" s="47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="18" customHeight="1">
+    <row r="21" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -2167,14 +4173,14 @@
         <v>3825</v>
       </c>
       <c r="W21" s="51">
-        <v>3801</v>
+        <v>3802</v>
       </c>
       <c r="X21" s="51"/>
       <c r="Y21" s="46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="18" customHeight="1" thickBot="1">
+    <row r="22" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
@@ -2239,17 +4245,17 @@
         <v>4240</v>
       </c>
       <c r="V22" s="43">
-        <v>4486</v>
-      </c>
-      <c r="W22" s="52">
-        <v>4340</v>
+        <v>4487</v>
+      </c>
+      <c r="W22" s="56">
+        <v>4348</v>
       </c>
       <c r="X22" s="52"/>
       <c r="Y22" s="48" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="18" customHeight="1" thickBot="1">
+    <row r="23" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -2334,32 +4340,32 @@
         <v>46004</v>
       </c>
       <c r="V23" s="39">
-        <f t="shared" ref="V23:X23" si="1">SUM(V11:V22)</f>
-        <v>48783</v>
+        <f t="shared" ref="V23" si="1">SUM(V11:V22)</f>
+        <v>48788</v>
       </c>
       <c r="W23" s="39">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50646</v>
+        <v>50666</v>
       </c>
       <c r="X23" s="39"/>
       <c r="Y23" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="18" customHeight="1"/>
-    <row r="25" spans="1:25" ht="11.25" customHeight="1"/>
-    <row r="26" spans="1:25" ht="18" customHeight="1">
+    <row r="24" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="18" customHeight="1">
+    <row r="27" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K27" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="18" customHeight="1" thickBot="1"/>
-    <row r="29" spans="1:25" ht="18" customHeight="1" thickBot="1">
+    <row r="28" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="9">
         <v>2000</v>
@@ -2434,7 +4440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="18" customHeight="1">
+    <row r="30" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
@@ -2502,16 +4508,16 @@
         <v>3465</v>
       </c>
       <c r="W30" s="42">
-        <v>4280</v>
-      </c>
-      <c r="X30" s="55">
-        <v>4253</v>
+        <v>4279</v>
+      </c>
+      <c r="X30" s="54">
+        <v>4367</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="18" customHeight="1">
+    <row r="31" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
@@ -2576,7 +4582,7 @@
         <v>3109</v>
       </c>
       <c r="V31" s="19">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="W31" s="42">
         <v>3404</v>
@@ -2586,7 +4592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="18" customHeight="1">
+    <row r="32" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
@@ -2661,7 +4667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="18" customHeight="1">
+    <row r="33" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
@@ -2736,7 +4742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="18" customHeight="1">
+    <row r="34" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -2804,7 +4810,7 @@
         <v>2930</v>
       </c>
       <c r="W34" s="24">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="X34" s="24"/>
       <c r="Y34" s="6" t="s">
@@ -2814,7 +4820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="18" customHeight="1">
+    <row r="35" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
@@ -2889,7 +4895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="18" customHeight="1">
+    <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2964,7 +4970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="18" customHeight="1">
+    <row r="37" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>7</v>
       </c>
@@ -3032,14 +5038,14 @@
         <v>3009</v>
       </c>
       <c r="W37" s="24">
-        <v>3464</v>
+        <v>3466</v>
       </c>
       <c r="X37" s="24"/>
       <c r="Y37" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="18" customHeight="1">
+    <row r="38" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
@@ -3107,14 +5113,14 @@
         <v>3166</v>
       </c>
       <c r="W38" s="24">
-        <v>3147</v>
+        <v>3150</v>
       </c>
       <c r="X38" s="24"/>
       <c r="Y38" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="18" customHeight="1">
+    <row r="39" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>9</v>
       </c>
@@ -3182,14 +5188,14 @@
         <v>3552</v>
       </c>
       <c r="W39" s="24">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="X39" s="24"/>
       <c r="Y39" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="18" customHeight="1">
+    <row r="40" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>10</v>
       </c>
@@ -3264,7 +5270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="18" customHeight="1" thickBot="1">
+    <row r="41" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
@@ -3329,17 +5335,17 @@
         <v>3162</v>
       </c>
       <c r="V41" s="43">
-        <v>3417</v>
-      </c>
-      <c r="W41" s="38">
-        <v>3347</v>
+        <v>3418</v>
+      </c>
+      <c r="W41" s="57">
+        <v>3352</v>
       </c>
       <c r="X41" s="38"/>
       <c r="Y41" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="18" customHeight="1" thickBot="1">
+    <row r="42" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>12</v>
       </c>
@@ -3424,20 +5430,20 @@
         <v>34477</v>
       </c>
       <c r="V42" s="39">
-        <f t="shared" ref="V42:X42" si="4">SUM(V30:V41)</f>
-        <v>36910</v>
+        <f t="shared" ref="V42" si="4">SUM(V30:V41)</f>
+        <v>36912</v>
       </c>
       <c r="W42" s="39">
         <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
-        <v>38267</v>
+        <v>38278</v>
       </c>
       <c r="X42" s="39"/>
       <c r="Y42" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="18" customHeight="1"/>
-    <row r="44" spans="1:26" ht="18" customHeight="1">
+    <row r="43" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>14</v>
       </c>
@@ -3445,9 +5451,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="18" customHeight="1">
+    <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -3465,10 +5471,10 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="Y45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" ht="18" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>13</v>
       </c>
@@ -3483,9 +5489,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="18" customHeight="1">
+    <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -3495,21 +5501,21 @@
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="Y47" s="31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" ht="18" customHeight="1">
-      <c r="A48" s="54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
       <c r="Y48" s="30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="3:12">
+    <row r="50" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
@@ -3520,10 +5526,10 @@
       <c r="J50" s="27"/>
       <c r="K50" s="27"/>
     </row>
-    <row r="57" spans="3:12">
+    <row r="57" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="L57" s="32"/>
     </row>
-    <row r="59" spans="3:12">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L59" s="34"/>
     </row>
   </sheetData>
@@ -3539,8 +5545,435 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P63"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" s="61" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="68"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="67"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="71"/>
+    </row>
+    <row r="30" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+    </row>
+    <row r="31" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="72"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="71"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="72"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="71"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="72"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="71"/>
+    </row>
+    <row r="43" spans="1:5" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="77"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="79">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C44" s="80">
+        <v>2908</v>
+      </c>
+      <c r="D44" s="81">
+        <v>3338</v>
+      </c>
+      <c r="E44" s="77"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="79">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C45" s="80">
+        <v>3251</v>
+      </c>
+      <c r="D45" s="83">
+        <v>3338</v>
+      </c>
+      <c r="E45" s="77"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="79">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C46" s="80">
+        <v>4384</v>
+      </c>
+      <c r="D46" s="83">
+        <v>4793</v>
+      </c>
+      <c r="E46" s="77"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="79">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="C47" s="80">
+        <v>792</v>
+      </c>
+      <c r="D47" s="83">
+        <v>725</v>
+      </c>
+      <c r="E47" s="77"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="85"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="77"/>
+    </row>
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="79">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C49" s="80">
+        <v>8426</v>
+      </c>
+      <c r="D49" s="83">
+        <v>8856</v>
+      </c>
+      <c r="E49" s="87"/>
+    </row>
+    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="78"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="90"/>
+    </row>
+    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="88"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="91"/>
+    </row>
+    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="92">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C52" s="80">
+        <v>451</v>
+      </c>
+      <c r="D52" s="83">
+        <v>288</v>
+      </c>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+    </row>
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="92">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C53" s="80">
+        <v>2412.4000000000324</v>
+      </c>
+      <c r="D53" s="83">
+        <v>2222</v>
+      </c>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+    </row>
+    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="93">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C54" s="80">
+        <v>1639.0499999999993</v>
+      </c>
+      <c r="D54" s="83">
+        <v>3276</v>
+      </c>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+    </row>
+    <row r="55" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="95">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="C55" s="96">
+        <v>2413.1999999999898</v>
+      </c>
+      <c r="D55" s="97">
+        <v>1660</v>
+      </c>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+    </row>
+    <row r="56" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="66"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="67"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="65"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="67"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="448" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="09b7e1d00e7f0fcbb33ab6ba7b7381ec">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="454" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="56bbfaf0711b7966d5d803e3b5ffefb3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -3772,21 +6205,21 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <nfa41555e3464cf4bb914e89b71e6bff xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
-    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-03-01T22:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-02-14T22:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -3798,13 +6231,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806FD39D-91F9-4CEA-8218-EF3BAD168BAF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80C76504-A161-4060-9193-76B95F6759E8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2692CBAA-90EE-4E5E-A06B-6B19A1570B42}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{103783B7-4262-4F78-B292-C4AF5C01B495}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A9F0ED2-B6F3-4ED2-B565-DD9856F07185}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6772FC8-0C59-41D6-97BB-0AB961AE2BCE}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="פטירות לפי שנה וחודש" sheetId="1" r:id="rId1"/>
     <sheet name="עודף תמותה" sheetId="3" r:id="rId2"/>
+    <sheet name="Excess mortality" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
   <si>
     <t>ינואר</t>
   </si>
@@ -188,16 +188,7 @@
     </r>
   </si>
   <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 01/03/2022.</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 01/03/2022.</t>
-  </si>
-  <si>
     <t>עודף תמותה בתקופת הקורונה</t>
-  </si>
-  <si>
-    <t>עודכן: 01.03.2022</t>
   </si>
   <si>
     <t>הסברים</t>
@@ -235,12 +226,6 @@
   </si>
   <si>
     <t>כל שנת 2021</t>
-  </si>
-  <si>
-    <t>ינואר 2022</t>
-  </si>
-  <si>
-    <t>מרץ 2020 עד ינואר 2022</t>
   </si>
   <si>
     <t>לפי גלי הקורונה:</t>
@@ -318,6 +303,219 @@
       <t xml:space="preserve"> נתוני משרד הבריאות. הנתונים כוללים בעלי תעודת זהות בלבד.</t>
     </r>
   </si>
+  <si>
+    <t>מודל החיזוי מבוסס על המודל של (Karlinsky &amp;Kobak (2021 בתוספת אמידת תחזיות חודשיות:</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7554/eLife.69336</t>
+  </si>
+  <si>
+    <t>Excess Mortality During the Coronavirus (COVID-19) Pandemic</t>
+  </si>
+  <si>
+    <t>Explanations</t>
+  </si>
+  <si>
+    <t>The database used for calculation of the prediction model was death data by month during 2015 through 2019.</t>
+  </si>
+  <si>
+    <r>
+      <t>Least squares linear regression was performed. The explained variable was the total number of deaths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>per</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>month,</t>
+    </r>
+  </si>
+  <si>
+    <t>and the explanatory variables were year of death and 11 dummy variables for 11 months (all 11 variables were relative to January).</t>
+  </si>
+  <si>
+    <r>
+      <t>The explained variance for this model was 92.1% (R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= 0.921).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The slope coefficients of this model were </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>applied to the years 2020, 2021, and 2022 in order to calculate the "prediction of the number of deaths per month".</t>
+    </r>
+  </si>
+  <si>
+    <t>The prediction model is based on that of Karlinsky and Kobak (2021) with the addition of estimation of monthly predictions:</t>
+  </si>
+  <si>
+    <t>Excess mortality was calculated according to the model as the difference (in percentage) between the actual mortality and the predicted mortality.</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Excess mortality (percentages)</t>
+  </si>
+  <si>
+    <t>Excess deaths</t>
+  </si>
+  <si>
+    <r>
+      <t>Deaths from COVID-19</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>All of 2020</t>
+  </si>
+  <si>
+    <t>March-Dec. 2020</t>
+  </si>
+  <si>
+    <t>All of 2021</t>
+  </si>
+  <si>
+    <t>March 2020-Jan. 2022</t>
+  </si>
+  <si>
+    <t>During COVID-19 waves:</t>
+  </si>
+  <si>
+    <t>March-May 2020</t>
+  </si>
+  <si>
+    <t>July-Oct. 2020</t>
+  </si>
+  <si>
+    <t>Dec. 2020-March 2021</t>
+  </si>
+  <si>
+    <t>July-Oct. 2021</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Source of data: Ministry of Health. Data include only holders of Israeli ID cards.</t>
+    </r>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 15/03/2022.</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 15/03/2022.</t>
+  </si>
+  <si>
+    <t>עודכן: 15.03.2022</t>
+  </si>
+  <si>
+    <t>מרץ 2020 עד פברואר 2022</t>
+  </si>
+  <si>
+    <t>ינואר-פברואר 2022</t>
+  </si>
+  <si>
+    <t>Updated: 15 March 2022</t>
+  </si>
+  <si>
+    <t>Jan.-Feb. 2022</t>
+  </si>
+  <si>
+    <t>ינואר עד פברואר 2022</t>
+  </si>
 </sst>
 </file>
 
@@ -328,7 +526,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,13 +694,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <vertAlign val="superscript"/>
       <sz val="11"/>
@@ -514,6 +705,48 @@
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -546,7 +779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -986,12 +1219,19 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -1004,9 +1244,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -1017,9 +1255,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -1027,21 +1263,54 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="double">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1116,9 +1385,6 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1136,11 +1402,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1188,19 +1450,61 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Text_e" xfId="1"/>
   </cellStyles>
@@ -1215,877 +1519,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="he-IL" sz="1500"/>
-              <a:t>תמותה צפויה ותמותה בפועל,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="he-IL" sz="1500" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="he-IL" sz="1500"/>
-              <a:t>לפי חודש</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1500"/>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-US" sz="1500"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="he-IL" sz="1500"/>
-              <a:t> 2020</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="he-IL" sz="1500" baseline="0"/>
-              <a:t> עד ינואר 2022</a:t>
-            </a:r>
-            <a:endParaRPr lang="he-IL" sz="1500"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35076930501154163"/>
-          <c:y val="3.2935123615877131E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.9759168255142768E-2"/>
-          <c:y val="0.14950773282814686"/>
-          <c:w val="0.88114724066150474"/>
-          <c:h val="0.52578604889578673"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סך פטירות בחודש</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$B$2:$C$26</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="25"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ינואר</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>פברואר</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>מרץ </c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>אפריל</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>מאי</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>יוני</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>יולי</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>אוגוסט</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>ספטמבר</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>אוקטובר</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>נובמבר</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>דצמבר</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>ינואר</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>פברואר</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>מרץ </c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>אפריל</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>מאי</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>יוני</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>יולי</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>אוגוסט</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>ספטמבר</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>אוקטובר</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>נובמבר</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>דצמבר</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>ינואר</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2020</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2021</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2022</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$D$2:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>4585</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3966</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4180</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3920</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3876</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3416</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3701</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4025</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4162</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4645</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3825</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4487</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5491</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4534</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4480</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4007</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3826</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3510</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3725</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4504</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4284</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4155</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3802</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4348</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5586</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B9C6-4C2D-A7D1-E47B21FD7DC4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="261765760"/>
-        <c:axId val="261767552"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>תחזית פטירות לחודש</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$B$2:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$E$2:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>4727.3499999999913</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4166.3499999999922</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4141.5499999999911</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3723.1499999999924</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3660.1499999999924</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3386.9499999999921</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3487.3499999999926</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3539.9499999999916</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3413.1499999999915</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3680.1499999999924</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3736.549999999992</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4217.3499999999922</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4760.8000000000029</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4199.8000000000038</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4175.0000000000027</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3756.600000000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3693.600000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3420.4000000000037</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3520.8000000000043</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3573.4000000000033</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3446.6000000000031</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3714</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3770</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4251</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4794.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B9C6-4C2D-A7D1-E47B21FD7DC4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>פטירות מקורונה</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$B$2:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$G$2:$G$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>644</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>949</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>478</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1430</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>940</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>428</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>634</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>663</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>725</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7D19-4CBF-A849-BE9CBB4A00C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>פטירות עודפות</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]תמותה צפויה ובפועל 2020-2021'!$F$2:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>-142.34999999999127</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-200.34999999999218</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>38.450000000008913</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>196.85000000000764</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>215.85000000000764</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.050000000007913</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>213.65000000000737</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>485.05000000000837</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>748.85000000000855</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>964.85000000000764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88.450000000008004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>269.65000000000782</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>730.19999999999709</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>334.19999999999618</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>304.99999999999727</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>250.399999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>132.399999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>89.599999999996271</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>204.19999999999573</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>930.59999999999673</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>837.39999999999691</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>441</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>791.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7D19-4CBF-A849-BE9CBB4A00C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="261771264"/>
-        <c:axId val="261769472"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="261765760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="261767552"/>
-        <c:crossesAt val="-1000"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="300"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="261767552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100">
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="he-IL" sz="1100">
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>מספר פטירות</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="261765760"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="261769472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261771264"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="261771264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261769472"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11448534714570278"/>
-          <c:y val="0.88722831179362771"/>
-          <c:w val="0.78823289070480096"/>
-          <c:h val="0.1127716882063723"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2103,7 +1536,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2134,36 +1567,85 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>29440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11228155725" y="3143250"/>
+          <a:ext cx="9058275" cy="5449165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>290890</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="תרשים 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="3009900"/>
+          <a:ext cx="8930065" cy="5648325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2194,9 +1676,7 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
+      <sheetData sheetId="8">
         <row r="1">
           <cell r="D1" t="str">
             <v>סך פטירות בחודש</v>
@@ -2212,211 +1692,568 @@
           </cell>
         </row>
         <row r="2">
+          <cell r="D2">
+            <v>4585</v>
+          </cell>
+          <cell r="E2">
+            <v>4727.3499999999913</v>
+          </cell>
+          <cell r="F2">
+            <v>-142.34999999999127</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3">
+            <v>3966</v>
+          </cell>
+          <cell r="E3">
+            <v>4166.3499999999922</v>
+          </cell>
+          <cell r="F3">
+            <v>-200.34999999999218</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>4180</v>
+          </cell>
+          <cell r="E4">
+            <v>4141.5499999999911</v>
+          </cell>
+          <cell r="F4">
+            <v>38.450000000008913</v>
+          </cell>
+          <cell r="G4">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>3920</v>
+          </cell>
+          <cell r="E5">
+            <v>3723.1499999999924</v>
+          </cell>
+          <cell r="F5">
+            <v>196.85000000000764</v>
+          </cell>
+          <cell r="G5">
+            <v>204</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>3876</v>
+          </cell>
+          <cell r="E6">
+            <v>3660.1499999999924</v>
+          </cell>
+          <cell r="F6">
+            <v>215.85000000000764</v>
+          </cell>
+          <cell r="G6">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>3416</v>
+          </cell>
+          <cell r="E7">
+            <v>3386.9499999999921</v>
+          </cell>
+          <cell r="F7">
+            <v>29.050000000007913</v>
+          </cell>
+          <cell r="G7">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>3701</v>
+          </cell>
+          <cell r="E8">
+            <v>3487.3499999999926</v>
+          </cell>
+          <cell r="F8">
+            <v>213.65000000000737</v>
+          </cell>
+          <cell r="G8">
+            <v>235</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>4025</v>
+          </cell>
+          <cell r="E9">
+            <v>3539.9499999999916</v>
+          </cell>
+          <cell r="F9">
+            <v>485.05000000000837</v>
+          </cell>
+          <cell r="G9">
+            <v>394</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>4162</v>
+          </cell>
+          <cell r="E10">
+            <v>3413.1499999999915</v>
+          </cell>
+          <cell r="F10">
+            <v>748.85000000000855</v>
+          </cell>
+          <cell r="G10">
+            <v>644</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>4645</v>
+          </cell>
+          <cell r="E11">
+            <v>3680.1499999999924</v>
+          </cell>
+          <cell r="F11">
+            <v>964.85000000000764</v>
+          </cell>
+          <cell r="G11">
+            <v>949</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>3825</v>
+          </cell>
+          <cell r="E12">
+            <v>3736.549999999992</v>
+          </cell>
+          <cell r="F12">
+            <v>88.450000000008004</v>
+          </cell>
+          <cell r="G12">
+            <v>311</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>4487</v>
+          </cell>
+          <cell r="E13">
+            <v>4217.3499999999922</v>
+          </cell>
+          <cell r="F13">
+            <v>269.65000000000782</v>
+          </cell>
+          <cell r="G13">
+            <v>478</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>5491</v>
+          </cell>
+          <cell r="E14">
+            <v>4760.8000000000029</v>
+          </cell>
+          <cell r="F14">
+            <v>730.19999999999709</v>
+          </cell>
+          <cell r="G14">
+            <v>1430</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>4533</v>
+          </cell>
+          <cell r="E15">
+            <v>4199.8000000000038</v>
+          </cell>
+          <cell r="F15">
+            <v>333.19999999999618</v>
+          </cell>
+          <cell r="G15">
+            <v>940</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>4480</v>
+          </cell>
+          <cell r="E16">
+            <v>4175.0000000000027</v>
+          </cell>
+          <cell r="F16">
+            <v>304.99999999999727</v>
+          </cell>
+          <cell r="G16">
+            <v>428</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>4007</v>
+          </cell>
+          <cell r="E17">
+            <v>3756.600000000004</v>
+          </cell>
+          <cell r="F17">
+            <v>250.399999999996</v>
+          </cell>
+          <cell r="G17">
+            <v>159</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>3826</v>
+          </cell>
+          <cell r="E18">
+            <v>3693.600000000004</v>
+          </cell>
+          <cell r="F18">
+            <v>132.399999999996</v>
+          </cell>
+          <cell r="G18">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>3509</v>
+          </cell>
+          <cell r="E19">
+            <v>3420.4000000000037</v>
+          </cell>
+          <cell r="F19">
+            <v>88.599999999996271</v>
+          </cell>
+          <cell r="G19">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>3725</v>
+          </cell>
+          <cell r="E20">
+            <v>3520.8000000000043</v>
+          </cell>
+          <cell r="F20">
+            <v>204.19999999999573</v>
+          </cell>
+          <cell r="G20">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>4504</v>
+          </cell>
+          <cell r="E21">
+            <v>3573.4000000000033</v>
+          </cell>
+          <cell r="F21">
+            <v>930.59999999999673</v>
+          </cell>
+          <cell r="G21">
+            <v>634</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>4284</v>
+          </cell>
+          <cell r="E22">
+            <v>3446.6000000000031</v>
+          </cell>
+          <cell r="F22">
+            <v>837.39999999999691</v>
+          </cell>
+          <cell r="G22">
+            <v>663</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>4155</v>
+          </cell>
+          <cell r="E23">
+            <v>3714</v>
+          </cell>
+          <cell r="F23">
+            <v>441</v>
+          </cell>
+          <cell r="G23">
+            <v>307</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>3802</v>
+          </cell>
+          <cell r="E24">
+            <v>3770</v>
+          </cell>
+          <cell r="F24">
+            <v>32</v>
+          </cell>
+          <cell r="G24">
+            <v>83</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>4351</v>
+          </cell>
+          <cell r="E25">
+            <v>4251</v>
+          </cell>
+          <cell r="F25">
+            <v>100</v>
+          </cell>
+          <cell r="G25">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>5600</v>
+          </cell>
+          <cell r="E26">
+            <v>4794.25</v>
+          </cell>
+          <cell r="F26">
+            <v>805.75</v>
+          </cell>
+          <cell r="G26">
+            <v>725</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="D56" t="str">
+            <v>Total deaths per month</v>
+          </cell>
+          <cell r="E56" t="str">
+            <v>Predicted deaths per month</v>
+          </cell>
+          <cell r="F56" t="str">
+            <v>Excess deaths</v>
+          </cell>
+          <cell r="G56" t="str">
+            <v>Deaths from COVID-19</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>2020</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>January</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58" t="str">
+            <v>February</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59" t="str">
+            <v>March</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60" t="str">
+            <v>April</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61" t="str">
+            <v>May</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62" t="str">
+            <v>June</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63" t="str">
+            <v>July</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64" t="str">
+            <v>August</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65" t="str">
+            <v>September</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66" t="str">
+            <v>October</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67" t="str">
+            <v>November</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68" t="str">
+            <v>December</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>2021</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>January</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70" t="str">
+            <v>February</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71" t="str">
+            <v>March</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72" t="str">
+            <v>April</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73" t="str">
+            <v>May</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74" t="str">
+            <v>June</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75" t="str">
+            <v>July</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76" t="str">
+            <v>August</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77" t="str">
+            <v>September</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78" t="str">
+            <v>October</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79" t="str">
+            <v>November</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80" t="str">
+            <v>December</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>2022</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>January</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10">
+        <row r="2">
           <cell r="B2">
             <v>2020</v>
           </cell>
           <cell r="C2" t="str">
             <v>ינואר</v>
-          </cell>
-          <cell r="D2">
-            <v>4585</v>
-          </cell>
-          <cell r="E2">
-            <v>4727.3499999999913</v>
-          </cell>
-          <cell r="F2">
-            <v>-142.34999999999127</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="C3" t="str">
             <v>פברואר</v>
           </cell>
-          <cell r="D3">
-            <v>3966</v>
-          </cell>
-          <cell r="E3">
-            <v>4166.3499999999922</v>
-          </cell>
-          <cell r="F3">
-            <v>-200.34999999999218</v>
-          </cell>
-          <cell r="G3">
-            <v>0</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="C4" t="str">
             <v xml:space="preserve">מרץ </v>
           </cell>
-          <cell r="D4">
-            <v>4180</v>
-          </cell>
-          <cell r="E4">
-            <v>4141.5499999999911</v>
-          </cell>
-          <cell r="F4">
-            <v>38.450000000008913</v>
-          </cell>
-          <cell r="G4">
-            <v>21</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="C5" t="str">
             <v>אפריל</v>
           </cell>
-          <cell r="D5">
-            <v>3920</v>
-          </cell>
-          <cell r="E5">
-            <v>3723.1499999999924</v>
-          </cell>
-          <cell r="F5">
-            <v>196.85000000000764</v>
-          </cell>
-          <cell r="G5">
-            <v>204</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="C6" t="str">
             <v>מאי</v>
           </cell>
-          <cell r="D6">
-            <v>3876</v>
-          </cell>
-          <cell r="E6">
-            <v>3660.1499999999924</v>
-          </cell>
-          <cell r="F6">
-            <v>215.85000000000764</v>
-          </cell>
-          <cell r="G6">
-            <v>62</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="C7" t="str">
             <v>יוני</v>
           </cell>
-          <cell r="D7">
-            <v>3416</v>
-          </cell>
-          <cell r="E7">
-            <v>3386.9499999999921</v>
-          </cell>
-          <cell r="F7">
-            <v>29.050000000007913</v>
-          </cell>
-          <cell r="G7">
-            <v>40</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="C8" t="str">
             <v>יולי</v>
           </cell>
-          <cell r="D8">
-            <v>3701</v>
-          </cell>
-          <cell r="E8">
-            <v>3487.3499999999926</v>
-          </cell>
-          <cell r="F8">
-            <v>213.65000000000737</v>
-          </cell>
-          <cell r="G8">
-            <v>235</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="C9" t="str">
             <v>אוגוסט</v>
           </cell>
-          <cell r="D9">
-            <v>4025</v>
-          </cell>
-          <cell r="E9">
-            <v>3539.9499999999916</v>
-          </cell>
-          <cell r="F9">
-            <v>485.05000000000837</v>
-          </cell>
-          <cell r="G9">
-            <v>394</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="C10" t="str">
             <v>ספטמבר</v>
           </cell>
-          <cell r="D10">
-            <v>4162</v>
-          </cell>
-          <cell r="E10">
-            <v>3413.1499999999915</v>
-          </cell>
-          <cell r="F10">
-            <v>748.85000000000855</v>
-          </cell>
-          <cell r="G10">
-            <v>644</v>
-          </cell>
         </row>
         <row r="11">
           <cell r="C11" t="str">
             <v>אוקטובר</v>
           </cell>
-          <cell r="D11">
-            <v>4645</v>
-          </cell>
-          <cell r="E11">
-            <v>3680.1499999999924</v>
-          </cell>
-          <cell r="F11">
-            <v>964.85000000000764</v>
-          </cell>
-          <cell r="G11">
-            <v>949</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="C12" t="str">
             <v>נובמבר</v>
           </cell>
-          <cell r="D12">
-            <v>3825</v>
-          </cell>
-          <cell r="E12">
-            <v>3736.549999999992</v>
-          </cell>
-          <cell r="F12">
-            <v>88.450000000008004</v>
-          </cell>
-          <cell r="G12">
-            <v>311</v>
-          </cell>
         </row>
         <row r="13">
           <cell r="C13" t="str">
             <v>דצמבר</v>
           </cell>
-          <cell r="D13">
-            <v>4487</v>
-          </cell>
-          <cell r="E13">
-            <v>4217.3499999999922</v>
-          </cell>
-          <cell r="F13">
-            <v>269.65000000000782</v>
-          </cell>
-          <cell r="G13">
-            <v>478</v>
-          </cell>
         </row>
         <row r="14">
           <cell r="B14">
@@ -2425,205 +2262,61 @@
           <cell r="C14" t="str">
             <v>ינואר</v>
           </cell>
-          <cell r="D14">
-            <v>5491</v>
-          </cell>
-          <cell r="E14">
-            <v>4760.8000000000029</v>
-          </cell>
-          <cell r="F14">
-            <v>730.19999999999709</v>
-          </cell>
-          <cell r="G14">
-            <v>1430</v>
-          </cell>
         </row>
         <row r="15">
           <cell r="C15" t="str">
             <v>פברואר</v>
           </cell>
-          <cell r="D15">
-            <v>4534</v>
-          </cell>
-          <cell r="E15">
-            <v>4199.8000000000038</v>
-          </cell>
-          <cell r="F15">
-            <v>334.19999999999618</v>
-          </cell>
-          <cell r="G15">
-            <v>940</v>
-          </cell>
         </row>
         <row r="16">
           <cell r="C16" t="str">
             <v xml:space="preserve">מרץ </v>
           </cell>
-          <cell r="D16">
-            <v>4480</v>
-          </cell>
-          <cell r="E16">
-            <v>4175.0000000000027</v>
-          </cell>
-          <cell r="F16">
-            <v>304.99999999999727</v>
-          </cell>
-          <cell r="G16">
-            <v>428</v>
-          </cell>
         </row>
         <row r="17">
           <cell r="C17" t="str">
             <v>אפריל</v>
           </cell>
-          <cell r="D17">
-            <v>4007</v>
-          </cell>
-          <cell r="E17">
-            <v>3756.600000000004</v>
-          </cell>
-          <cell r="F17">
-            <v>250.399999999996</v>
-          </cell>
-          <cell r="G17">
-            <v>159</v>
-          </cell>
         </row>
         <row r="18">
           <cell r="C18" t="str">
             <v>מאי</v>
           </cell>
-          <cell r="D18">
-            <v>3826</v>
-          </cell>
-          <cell r="E18">
-            <v>3693.600000000004</v>
-          </cell>
-          <cell r="F18">
-            <v>132.399999999996</v>
-          </cell>
-          <cell r="G18">
-            <v>33</v>
-          </cell>
         </row>
         <row r="19">
           <cell r="C19" t="str">
             <v>יוני</v>
           </cell>
-          <cell r="D19">
-            <v>3510</v>
-          </cell>
-          <cell r="E19">
-            <v>3420.4000000000037</v>
-          </cell>
-          <cell r="F19">
-            <v>89.599999999996271</v>
-          </cell>
-          <cell r="G19">
-            <v>11</v>
-          </cell>
         </row>
         <row r="20">
           <cell r="C20" t="str">
             <v>יולי</v>
           </cell>
-          <cell r="D20">
-            <v>3725</v>
-          </cell>
-          <cell r="E20">
-            <v>3520.8000000000043</v>
-          </cell>
-          <cell r="F20">
-            <v>204.19999999999573</v>
-          </cell>
-          <cell r="G20">
-            <v>56</v>
-          </cell>
         </row>
         <row r="21">
           <cell r="C21" t="str">
             <v>אוגוסט</v>
           </cell>
-          <cell r="D21">
-            <v>4504</v>
-          </cell>
-          <cell r="E21">
-            <v>3573.4000000000033</v>
-          </cell>
-          <cell r="F21">
-            <v>930.59999999999673</v>
-          </cell>
-          <cell r="G21">
-            <v>634</v>
-          </cell>
         </row>
         <row r="22">
           <cell r="C22" t="str">
             <v>ספטמבר</v>
           </cell>
-          <cell r="D22">
-            <v>4284</v>
-          </cell>
-          <cell r="E22">
-            <v>3446.6000000000031</v>
-          </cell>
-          <cell r="F22">
-            <v>837.39999999999691</v>
-          </cell>
-          <cell r="G22">
-            <v>663</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
             <v>אוקטובר</v>
           </cell>
-          <cell r="D23">
-            <v>4155</v>
-          </cell>
-          <cell r="E23">
-            <v>3714</v>
-          </cell>
-          <cell r="F23">
-            <v>441</v>
-          </cell>
-          <cell r="G23">
-            <v>307</v>
-          </cell>
         </row>
         <row r="24">
           <cell r="C24" t="str">
             <v>נובמבר</v>
           </cell>
-          <cell r="D24">
-            <v>3802</v>
-          </cell>
-          <cell r="E24">
-            <v>3770</v>
-          </cell>
-          <cell r="F24">
-            <v>32</v>
-          </cell>
-          <cell r="G24">
-            <v>83</v>
-          </cell>
         </row>
         <row r="25">
           <cell r="C25" t="str">
             <v>דצמבר</v>
           </cell>
-          <cell r="D25">
-            <v>4348</v>
-          </cell>
-          <cell r="E25">
-            <v>4251</v>
-          </cell>
-          <cell r="F25">
-            <v>97</v>
-          </cell>
-          <cell r="G25">
-            <v>49</v>
-          </cell>
         </row>
         <row r="26">
           <cell r="B26">
@@ -2632,33 +2325,8 @@
           <cell r="C26" t="str">
             <v>ינואר</v>
           </cell>
-          <cell r="D26">
-            <v>5586</v>
-          </cell>
-          <cell r="E26">
-            <v>4794.25</v>
-          </cell>
-          <cell r="F26">
-            <v>791.75</v>
-          </cell>
-          <cell r="G26">
-            <v>725</v>
-          </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2949,293 +2617,12 @@
 </a:theme>
 </file>
 
-<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="1F497D"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="EEECE1"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4F81BD"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="C0504D"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="9BBB59"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="8064A2"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="4BACC6"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="F79646"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0000FF"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="800080"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Cambria"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="35000">
-            <a:schemeClr val="phClr">
-              <a:tint val="37000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="15000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="1"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:shade val="51000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="80000">
-            <a:schemeClr val="phClr">
-              <a:shade val="93000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="94000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-            <a:satMod val="105000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront">
-            <a:rot lat="0" lon="0" rev="0"/>
-          </a:camera>
-          <a:lightRig rig="threePt" dir="t">
-            <a:rot lat="0" lon="0" rev="1200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="63500" h="25400"/>
-        </a:sp3d>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="40000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="40000">
-            <a:schemeClr val="phClr">
-              <a:tint val="45000"/>
-              <a:shade val="99000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="20000"/>
-              <a:satMod val="255000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="80000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="30000"/>
-              <a:satMod val="200000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AP59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3274,7 +2661,7 @@
     </row>
     <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="X9" s="37">
-        <v>44621</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3424,7 +2811,7 @@
         <v>5491</v>
       </c>
       <c r="X11" s="55">
-        <v>5586</v>
+        <v>5636</v>
       </c>
       <c r="Y11" s="46" t="s">
         <v>17</v>
@@ -3498,9 +2885,11 @@
         <v>3966</v>
       </c>
       <c r="W12" s="51">
-        <v>4534</v>
-      </c>
-      <c r="X12" s="51"/>
+        <v>4535</v>
+      </c>
+      <c r="X12" s="51">
+        <v>5083</v>
+      </c>
       <c r="Y12" s="47" t="s">
         <v>34</v>
       </c>
@@ -3648,7 +3037,7 @@
         <v>3920</v>
       </c>
       <c r="W14" s="51">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="X14" s="51"/>
       <c r="Y14" s="47" t="s">
@@ -4098,7 +3487,7 @@
         <v>4645</v>
       </c>
       <c r="W20" s="51">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="X20" s="51"/>
       <c r="Y20" s="47" t="s">
@@ -4173,7 +3562,7 @@
         <v>3825</v>
       </c>
       <c r="W21" s="51">
-        <v>3802</v>
+        <v>3803</v>
       </c>
       <c r="X21" s="51"/>
       <c r="Y21" s="46" t="s">
@@ -4248,7 +3637,7 @@
         <v>4487</v>
       </c>
       <c r="W22" s="56">
-        <v>4348</v>
+        <v>4365</v>
       </c>
       <c r="X22" s="52"/>
       <c r="Y22" s="48" t="s">
@@ -4345,7 +3734,7 @@
       </c>
       <c r="W23" s="39">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50666</v>
+        <v>50687</v>
       </c>
       <c r="X23" s="39"/>
       <c r="Y23" s="8" t="s">
@@ -4511,7 +3900,7 @@
         <v>4279</v>
       </c>
       <c r="X30" s="54">
-        <v>4367</v>
+        <v>4402</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>17</v>
@@ -4587,7 +3976,9 @@
       <c r="W31" s="42">
         <v>3404</v>
       </c>
-      <c r="X31" s="42"/>
+      <c r="X31" s="42">
+        <v>4061</v>
+      </c>
       <c r="Y31" s="6" t="s">
         <v>34</v>
       </c>
@@ -5338,7 +4729,7 @@
         <v>3418</v>
       </c>
       <c r="W41" s="57">
-        <v>3352</v>
+        <v>3364</v>
       </c>
       <c r="X41" s="38"/>
       <c r="Y41" s="7" t="s">
@@ -5435,7 +4826,7 @@
       </c>
       <c r="W42" s="39">
         <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
-        <v>38278</v>
+        <v>38290</v>
       </c>
       <c r="X42" s="39"/>
       <c r="Y42" s="29" t="s">
@@ -5453,7 +4844,7 @@
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -5471,7 +4862,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="Y45" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5505,12 +4896,12 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
       <c r="Y48" s="30" t="s">
         <v>35</v>
       </c>
@@ -5547,10 +4938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P63"/>
+  <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5560,420 +4951,732 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="64" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="64" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" s="61" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+    </row>
+    <row r="12" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="93"/>
+    </row>
+    <row r="13" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="93"/>
+    </row>
+    <row r="14" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="96"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="93"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="65" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+    </row>
+    <row r="32" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+    </row>
+    <row r="33" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="69"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="68"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="69"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="68"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="69"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="68"/>
+    </row>
+    <row r="48" spans="1:5" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="65" t="s">
+      <c r="B48" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
+      <c r="C48" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="71"/>
-    </row>
-    <row r="30" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
-    </row>
-    <row r="31" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="64"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="72"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="71"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="72"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="71"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="72"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="71"/>
-    </row>
-    <row r="43" spans="1:5" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="74" t="s">
+      <c r="D48" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="74"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="75" t="s">
+      <c r="B49" s="76">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C49" s="77">
+        <v>2908</v>
+      </c>
+      <c r="D49" s="78">
+        <v>3338</v>
+      </c>
+      <c r="E49" s="74"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="B50" s="76">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C50" s="77">
+        <v>3251</v>
+      </c>
+      <c r="D50" s="80">
+        <v>3338</v>
+      </c>
+      <c r="E50" s="74"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="77"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="78" t="s">
+      <c r="B51" s="76">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C51" s="77">
+        <v>4405</v>
+      </c>
+      <c r="D51" s="80">
+        <v>4828</v>
+      </c>
+      <c r="E51" s="74"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="76">
+        <v>0.187</v>
+      </c>
+      <c r="C52" s="77">
+        <v>1692</v>
+      </c>
+      <c r="D52" s="80">
+        <v>1972</v>
+      </c>
+      <c r="E52" s="74"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="82"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="74"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="76">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="C54" s="77">
+        <v>9347</v>
+      </c>
+      <c r="D54" s="80">
+        <v>10243</v>
+      </c>
+      <c r="E54" s="84"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="75"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="87"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="79">
-        <v>6.3E-2</v>
-      </c>
-      <c r="C44" s="80">
-        <v>2908</v>
-      </c>
-      <c r="D44" s="81">
-        <v>3338</v>
-      </c>
-      <c r="E44" s="77"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="82" t="s">
+      <c r="B56" s="85"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="88"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="79">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="C45" s="80">
-        <v>3251</v>
-      </c>
-      <c r="D45" s="83">
-        <v>3338</v>
-      </c>
-      <c r="E45" s="77"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="78" t="s">
+      <c r="B57" s="89">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C57" s="77">
+        <v>451</v>
+      </c>
+      <c r="D57" s="80">
+        <v>287</v>
+      </c>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="79">
+      <c r="B58" s="89">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C58" s="77">
+        <v>2412.4000000000324</v>
+      </c>
+      <c r="D58" s="80">
+        <v>2222</v>
+      </c>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="90">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C46" s="80">
-        <v>4384</v>
-      </c>
-      <c r="D46" s="83">
-        <v>4793</v>
-      </c>
-      <c r="E46" s="77"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="79">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="C47" s="80">
-        <v>792</v>
-      </c>
-      <c r="D47" s="83">
-        <v>725</v>
-      </c>
-      <c r="E47" s="77"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="85"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="77"/>
-    </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="86" t="s">
+      <c r="C59" s="77">
+        <v>1640</v>
+      </c>
+      <c r="D59" s="80">
+        <v>3294</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="79">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="C49" s="80">
-        <v>8426</v>
-      </c>
-      <c r="D49" s="83">
-        <v>8856</v>
-      </c>
-      <c r="E49" s="87"/>
-    </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="90"/>
-    </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="88"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="91"/>
-    </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="92">
-        <v>3.9E-2</v>
-      </c>
-      <c r="C52" s="80">
-        <v>451</v>
-      </c>
-      <c r="D52" s="83">
-        <v>288</v>
-      </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-    </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="78" t="s">
+      <c r="B60" s="111">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="C60" s="112">
+        <v>2414</v>
+      </c>
+      <c r="D60" s="113">
+        <v>1675</v>
+      </c>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="107">
+        <v>0.187</v>
+      </c>
+      <c r="C61" s="108">
+        <v>1692</v>
+      </c>
+      <c r="D61" s="109">
+        <v>1972</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="92">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="C53" s="80">
-        <v>2412.4000000000324</v>
-      </c>
-      <c r="D53" s="83">
-        <v>2222</v>
-      </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-    </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="93">
-        <v>9.4E-2</v>
-      </c>
-      <c r="C54" s="80">
-        <v>1639.0499999999993</v>
-      </c>
-      <c r="D54" s="83">
-        <v>3276</v>
-      </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="95">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="C55" s="96">
-        <v>2413.1999999999898</v>
-      </c>
-      <c r="D55" s="97">
-        <v>1660</v>
-      </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-    </row>
-    <row r="56" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="66"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="67"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="65"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="67"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="65"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="66"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="64"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="66"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="99" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="100" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="76">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C50" s="77">
+        <v>2908</v>
+      </c>
+      <c r="D50" s="78">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="76">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C51" s="77">
+        <v>3251</v>
+      </c>
+      <c r="D51" s="80">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="76">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C52" s="77">
+        <v>4405</v>
+      </c>
+      <c r="D52" s="80">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="76">
+        <v>0.187</v>
+      </c>
+      <c r="C53" s="77">
+        <v>1692</v>
+      </c>
+      <c r="D53" s="80">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="102"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="80"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="76">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="C55" s="77">
+        <v>9347</v>
+      </c>
+      <c r="D55" s="80">
+        <v>10243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="75"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="78"/>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="85"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="78"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="89">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C58" s="77">
+        <v>451</v>
+      </c>
+      <c r="D58" s="80">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="89">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C59" s="77">
+        <v>2412.4000000000324</v>
+      </c>
+      <c r="D59" s="80">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="90">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C60" s="77">
+        <v>1640</v>
+      </c>
+      <c r="D60" s="80">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="111">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="C61" s="112">
+        <v>2413.1999999999898</v>
+      </c>
+      <c r="D61" s="113">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="107">
+        <v>0.187</v>
+      </c>
+      <c r="C62" s="108">
+        <v>1692</v>
+      </c>
+      <c r="D62" s="109">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="65"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="454" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="56bbfaf0711b7966d5d803e3b5ffefb3">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="466" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="9312bf9e8ddf2a458dd36a9f97357687">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -6209,17 +5912,17 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
     <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-03-01T22:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-03-14T22:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -6231,13 +5934,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80C76504-A161-4060-9193-76B95F6759E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4CCA91E-0474-466C-9DE0-499774664F67}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{103783B7-4262-4F78-B292-C4AF5C01B495}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56888A1E-255B-4F20-8A5C-02B09E8C353B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6772FC8-0C59-41D6-97BB-0AB961AE2BCE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F76D19-997C-42EB-8DD0-08E2324DB0EA}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -5676,7 +5676,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="466" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="9312bf9e8ddf2a458dd36a9f97357687">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="468" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="b875181064d5184f532e1d1d440ef472">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -5934,7 +5934,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4CCA91E-0474-466C-9DE0-499774664F67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{316FDCD2-4E95-4086-B87E-79E9C9E10DBE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Irene\מפנימי\2022\MAR-22-22\לאתר\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="8490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="פטירות לפי שנה וחודש" sheetId="1" r:id="rId1"/>
     <sheet name="עודף תמותה" sheetId="3" r:id="rId2"/>
     <sheet name="Excess mortality" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_01.12.20">'פטירות לפי שנה וחודש'!$X$9</definedName>
     <definedName name="name_change">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$Y$48</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -493,34 +495,34 @@
     </r>
   </si>
   <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 15/03/2022.</t>
-  </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 15/03/2022.</t>
-  </si>
-  <si>
-    <t>עודכן: 15.03.2022</t>
-  </si>
-  <si>
     <t>מרץ 2020 עד פברואר 2022</t>
   </si>
   <si>
     <t>ינואר-פברואר 2022</t>
   </si>
   <si>
-    <t>Updated: 15 March 2022</t>
-  </si>
-  <si>
     <t>Jan.-Feb. 2022</t>
   </si>
   <si>
     <t>ינואר עד פברואר 2022</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 22/03/2022.</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 22/03/2022.</t>
+  </si>
+  <si>
+    <t>עודכן: 22.03.2022</t>
+  </si>
+  <si>
+    <t>Updated: 22 March 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
@@ -1310,7 +1312,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1379,10 +1381,6 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1480,9 +1478,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1501,6 +1496,14 @@
     </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1536,7 +1539,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,14 +1574,57 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>115239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11228270025" y="3105150"/>
+          <a:ext cx="8943975" cy="5392089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>404258</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>29440</xdr:rowOff>
+      <xdr:rowOff>144124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1595,8 +1641,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11228155725" y="3143250"/>
-          <a:ext cx="9058275" cy="5449165"/>
+          <a:off x="66675" y="2943225"/>
+          <a:ext cx="8986283" cy="5620999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1606,730 +1652,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>290890</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="3009900"/>
-          <a:ext cx="8930065" cy="5648325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="תחזית 20-29"/>
-      <sheetName val="גיליון12"/>
-      <sheetName val="גילאי 20-29"/>
-      <sheetName val="תחזית 70+"/>
-      <sheetName val="גיליון9"/>
-      <sheetName val="70+"/>
-      <sheetName val="תוצאת רגרסיה"/>
-      <sheetName val="כל הגילאים"/>
-      <sheetName val="תחזית כל הגילאים"/>
-      <sheetName val="גיליון14"/>
-      <sheetName val="תמותה צפויה ובפועל 2020-2021"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>סך פטירות בחודש</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>תחזית פטירות לחודש</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>פטירות עודפות</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>פטירות מקורונה</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="D2">
-            <v>4585</v>
-          </cell>
-          <cell r="E2">
-            <v>4727.3499999999913</v>
-          </cell>
-          <cell r="F2">
-            <v>-142.34999999999127</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>3966</v>
-          </cell>
-          <cell r="E3">
-            <v>4166.3499999999922</v>
-          </cell>
-          <cell r="F3">
-            <v>-200.34999999999218</v>
-          </cell>
-          <cell r="G3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>4180</v>
-          </cell>
-          <cell r="E4">
-            <v>4141.5499999999911</v>
-          </cell>
-          <cell r="F4">
-            <v>38.450000000008913</v>
-          </cell>
-          <cell r="G4">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>3920</v>
-          </cell>
-          <cell r="E5">
-            <v>3723.1499999999924</v>
-          </cell>
-          <cell r="F5">
-            <v>196.85000000000764</v>
-          </cell>
-          <cell r="G5">
-            <v>204</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>3876</v>
-          </cell>
-          <cell r="E6">
-            <v>3660.1499999999924</v>
-          </cell>
-          <cell r="F6">
-            <v>215.85000000000764</v>
-          </cell>
-          <cell r="G6">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>3416</v>
-          </cell>
-          <cell r="E7">
-            <v>3386.9499999999921</v>
-          </cell>
-          <cell r="F7">
-            <v>29.050000000007913</v>
-          </cell>
-          <cell r="G7">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>3701</v>
-          </cell>
-          <cell r="E8">
-            <v>3487.3499999999926</v>
-          </cell>
-          <cell r="F8">
-            <v>213.65000000000737</v>
-          </cell>
-          <cell r="G8">
-            <v>235</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>4025</v>
-          </cell>
-          <cell r="E9">
-            <v>3539.9499999999916</v>
-          </cell>
-          <cell r="F9">
-            <v>485.05000000000837</v>
-          </cell>
-          <cell r="G9">
-            <v>394</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>4162</v>
-          </cell>
-          <cell r="E10">
-            <v>3413.1499999999915</v>
-          </cell>
-          <cell r="F10">
-            <v>748.85000000000855</v>
-          </cell>
-          <cell r="G10">
-            <v>644</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>4645</v>
-          </cell>
-          <cell r="E11">
-            <v>3680.1499999999924</v>
-          </cell>
-          <cell r="F11">
-            <v>964.85000000000764</v>
-          </cell>
-          <cell r="G11">
-            <v>949</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>3825</v>
-          </cell>
-          <cell r="E12">
-            <v>3736.549999999992</v>
-          </cell>
-          <cell r="F12">
-            <v>88.450000000008004</v>
-          </cell>
-          <cell r="G12">
-            <v>311</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>4487</v>
-          </cell>
-          <cell r="E13">
-            <v>4217.3499999999922</v>
-          </cell>
-          <cell r="F13">
-            <v>269.65000000000782</v>
-          </cell>
-          <cell r="G13">
-            <v>478</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>5491</v>
-          </cell>
-          <cell r="E14">
-            <v>4760.8000000000029</v>
-          </cell>
-          <cell r="F14">
-            <v>730.19999999999709</v>
-          </cell>
-          <cell r="G14">
-            <v>1430</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>4533</v>
-          </cell>
-          <cell r="E15">
-            <v>4199.8000000000038</v>
-          </cell>
-          <cell r="F15">
-            <v>333.19999999999618</v>
-          </cell>
-          <cell r="G15">
-            <v>940</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>4480</v>
-          </cell>
-          <cell r="E16">
-            <v>4175.0000000000027</v>
-          </cell>
-          <cell r="F16">
-            <v>304.99999999999727</v>
-          </cell>
-          <cell r="G16">
-            <v>428</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>4007</v>
-          </cell>
-          <cell r="E17">
-            <v>3756.600000000004</v>
-          </cell>
-          <cell r="F17">
-            <v>250.399999999996</v>
-          </cell>
-          <cell r="G17">
-            <v>159</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>3826</v>
-          </cell>
-          <cell r="E18">
-            <v>3693.600000000004</v>
-          </cell>
-          <cell r="F18">
-            <v>132.399999999996</v>
-          </cell>
-          <cell r="G18">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>3509</v>
-          </cell>
-          <cell r="E19">
-            <v>3420.4000000000037</v>
-          </cell>
-          <cell r="F19">
-            <v>88.599999999996271</v>
-          </cell>
-          <cell r="G19">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>3725</v>
-          </cell>
-          <cell r="E20">
-            <v>3520.8000000000043</v>
-          </cell>
-          <cell r="F20">
-            <v>204.19999999999573</v>
-          </cell>
-          <cell r="G20">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>4504</v>
-          </cell>
-          <cell r="E21">
-            <v>3573.4000000000033</v>
-          </cell>
-          <cell r="F21">
-            <v>930.59999999999673</v>
-          </cell>
-          <cell r="G21">
-            <v>634</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>4284</v>
-          </cell>
-          <cell r="E22">
-            <v>3446.6000000000031</v>
-          </cell>
-          <cell r="F22">
-            <v>837.39999999999691</v>
-          </cell>
-          <cell r="G22">
-            <v>663</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>4155</v>
-          </cell>
-          <cell r="E23">
-            <v>3714</v>
-          </cell>
-          <cell r="F23">
-            <v>441</v>
-          </cell>
-          <cell r="G23">
-            <v>307</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>3802</v>
-          </cell>
-          <cell r="E24">
-            <v>3770</v>
-          </cell>
-          <cell r="F24">
-            <v>32</v>
-          </cell>
-          <cell r="G24">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>4351</v>
-          </cell>
-          <cell r="E25">
-            <v>4251</v>
-          </cell>
-          <cell r="F25">
-            <v>100</v>
-          </cell>
-          <cell r="G25">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>5600</v>
-          </cell>
-          <cell r="E26">
-            <v>4794.25</v>
-          </cell>
-          <cell r="F26">
-            <v>805.75</v>
-          </cell>
-          <cell r="G26">
-            <v>725</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="D56" t="str">
-            <v>Total deaths per month</v>
-          </cell>
-          <cell r="E56" t="str">
-            <v>Predicted deaths per month</v>
-          </cell>
-          <cell r="F56" t="str">
-            <v>Excess deaths</v>
-          </cell>
-          <cell r="G56" t="str">
-            <v>Deaths from COVID-19</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>2020</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>January</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58" t="str">
-            <v>February</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59" t="str">
-            <v>March</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60" t="str">
-            <v>April</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61" t="str">
-            <v>May</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62" t="str">
-            <v>June</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63" t="str">
-            <v>July</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64" t="str">
-            <v>August</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65" t="str">
-            <v>September</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66" t="str">
-            <v>October</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67" t="str">
-            <v>November</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68" t="str">
-            <v>December</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>2021</v>
-          </cell>
-          <cell r="C69" t="str">
-            <v>January</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70" t="str">
-            <v>February</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71" t="str">
-            <v>March</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72" t="str">
-            <v>April</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73" t="str">
-            <v>May</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74" t="str">
-            <v>June</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75" t="str">
-            <v>July</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76" t="str">
-            <v>August</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77" t="str">
-            <v>September</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78" t="str">
-            <v>October</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79" t="str">
-            <v>November</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80" t="str">
-            <v>December</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>2022</v>
-          </cell>
-          <cell r="C81" t="str">
-            <v>January</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="2">
-          <cell r="B2">
-            <v>2020</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>ינואר</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>פברואר</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v xml:space="preserve">מרץ </v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>אפריל</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>מאי</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>יוני</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>יולי</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>אוגוסט</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>ספטמבר</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>אוקטובר</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>נובמבר</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>דצמבר</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>2021</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>ינואר</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>פברואר</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16" t="str">
-            <v xml:space="preserve">מרץ </v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>אפריל</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>מאי</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>יוני</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>יולי</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>אוגוסט</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22" t="str">
-            <v>ספטמבר</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>אוקטובר</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>נובמבר</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25" t="str">
-            <v>דצמבר</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>2022</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>ינואר</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2375,7 +1697,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2410,7 +1732,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2621,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AP59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2661,7 +1983,7 @@
     </row>
     <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="X9" s="37">
-        <v>44635</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2810,8 +2132,8 @@
       <c r="W11" s="50">
         <v>5491</v>
       </c>
-      <c r="X11" s="55">
-        <v>5636</v>
+      <c r="X11" s="114">
+        <v>5651</v>
       </c>
       <c r="Y11" s="46" t="s">
         <v>17</v>
@@ -2887,8 +2209,8 @@
       <c r="W12" s="51">
         <v>4535</v>
       </c>
-      <c r="X12" s="51">
-        <v>5083</v>
+      <c r="X12" s="112">
+        <v>5280</v>
       </c>
       <c r="Y12" s="47" t="s">
         <v>34</v>
@@ -3562,7 +2884,7 @@
         <v>3825</v>
       </c>
       <c r="W21" s="51">
-        <v>3803</v>
+        <v>3806</v>
       </c>
       <c r="X21" s="51"/>
       <c r="Y21" s="46" t="s">
@@ -3636,8 +2958,8 @@
       <c r="V22" s="43">
         <v>4487</v>
       </c>
-      <c r="W22" s="56">
-        <v>4365</v>
+      <c r="W22" s="54">
+        <v>4367</v>
       </c>
       <c r="X22" s="52"/>
       <c r="Y22" s="48" t="s">
@@ -3734,7 +3056,7 @@
       </c>
       <c r="W23" s="39">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50687</v>
+        <v>50692</v>
       </c>
       <c r="X23" s="39"/>
       <c r="Y23" s="8" t="s">
@@ -3899,8 +3221,8 @@
       <c r="W30" s="42">
         <v>4279</v>
       </c>
-      <c r="X30" s="54">
-        <v>4402</v>
+      <c r="X30" s="42">
+        <v>4415</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>17</v>
@@ -3976,8 +3298,8 @@
       <c r="W31" s="42">
         <v>3404</v>
       </c>
-      <c r="X31" s="42">
-        <v>4061</v>
+      <c r="X31" s="113">
+        <v>4219</v>
       </c>
       <c r="Y31" s="6" t="s">
         <v>34</v>
@@ -4654,7 +3976,7 @@
         <v>2844</v>
       </c>
       <c r="W40" s="53">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="X40" s="53"/>
       <c r="Y40" s="5" t="s">
@@ -4728,8 +4050,8 @@
       <c r="V41" s="43">
         <v>3418</v>
       </c>
-      <c r="W41" s="57">
-        <v>3364</v>
+      <c r="W41" s="55">
+        <v>3366</v>
       </c>
       <c r="X41" s="38"/>
       <c r="Y41" s="7" t="s">
@@ -4826,7 +4148,7 @@
       </c>
       <c r="W42" s="39">
         <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
-        <v>38290</v>
+        <v>38294</v>
       </c>
       <c r="X42" s="39"/>
       <c r="Y42" s="29" t="s">
@@ -4844,7 +4166,7 @@
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4862,7 +4184,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="Y45" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4896,12 +4218,12 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="105" t="s">
+      <c r="A48" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
       <c r="Y48" s="30" t="s">
         <v>35</v>
       </c>
@@ -4940,8 +4262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4951,354 +4273,354 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
+      <c r="A4" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" s="58" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-    </row>
-    <row r="12" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+    </row>
+    <row r="12" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="93"/>
-    </row>
-    <row r="13" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="95" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="91"/>
+    </row>
+    <row r="13" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="93"/>
-    </row>
-    <row r="14" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="96"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="93"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="91"/>
+    </row>
+    <row r="14" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="94"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="91"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
-    </row>
-    <row r="32" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-    </row>
-    <row r="33" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+    </row>
+    <row r="32" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
+    </row>
+    <row r="33" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="61"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="69"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="68"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="69"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="66"/>
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="68"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="66"/>
     </row>
     <row r="48" spans="1:5" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="73" t="s">
+      <c r="D48" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="74"/>
+      <c r="E48" s="72"/>
     </row>
     <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="76">
+      <c r="B49" s="74">
         <v>6.3E-2</v>
       </c>
-      <c r="C49" s="77">
+      <c r="C49" s="75">
         <v>2908</v>
       </c>
-      <c r="D49" s="78">
-        <v>3338</v>
-      </c>
-      <c r="E49" s="74"/>
+      <c r="D49" s="76">
+        <v>3354</v>
+      </c>
+      <c r="E49" s="72"/>
     </row>
     <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="79" t="s">
+      <c r="A50" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="76">
+      <c r="B50" s="74">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="C50" s="77">
+      <c r="C50" s="75">
         <v>3251</v>
       </c>
-      <c r="D50" s="80">
-        <v>3338</v>
-      </c>
-      <c r="E50" s="74"/>
+      <c r="D50" s="78">
+        <v>3354</v>
+      </c>
+      <c r="E50" s="72"/>
     </row>
     <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="75" t="s">
+      <c r="A51" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="76">
+      <c r="B51" s="74">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C51" s="77">
-        <v>4405</v>
-      </c>
-      <c r="D51" s="80">
+      <c r="C51" s="75">
+        <v>4410</v>
+      </c>
+      <c r="D51" s="78">
         <v>4828</v>
       </c>
-      <c r="E51" s="74"/>
+      <c r="E51" s="72"/>
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="76">
-        <v>0.187</v>
-      </c>
-      <c r="C52" s="77">
-        <v>1692</v>
-      </c>
-      <c r="D52" s="80">
-        <v>1972</v>
-      </c>
-      <c r="E52" s="74"/>
+      <c r="A52" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="74">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C52" s="75">
+        <v>1904</v>
+      </c>
+      <c r="D52" s="78">
+        <v>1975</v>
+      </c>
+      <c r="E52" s="72"/>
     </row>
     <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="82"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="74"/>
+      <c r="A53" s="80"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="72"/>
     </row>
     <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="76">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="C54" s="77">
-        <v>9347</v>
-      </c>
-      <c r="D54" s="80">
-        <v>10243</v>
-      </c>
-      <c r="E54" s="84"/>
+      <c r="A54" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="74">
+        <v>0.104</v>
+      </c>
+      <c r="C54" s="75">
+        <v>9564</v>
+      </c>
+      <c r="D54" s="78">
+        <v>10246</v>
+      </c>
+      <c r="E54" s="82"/>
     </row>
     <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="75"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="87"/>
+      <c r="A55" s="73"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="85"/>
     </row>
     <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="75" t="s">
+      <c r="A56" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="85"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="88"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="86"/>
     </row>
     <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="89">
+      <c r="B57" s="87">
         <v>3.9E-2</v>
       </c>
-      <c r="C57" s="77">
+      <c r="C57" s="75">
         <v>451</v>
       </c>
-      <c r="D57" s="80">
-        <v>287</v>
+      <c r="D57" s="78">
+        <v>288</v>
       </c>
       <c r="F57" s="27"/>
       <c r="G57" s="27"/>
     </row>
     <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="75" t="s">
+      <c r="A58" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="89">
+      <c r="B58" s="87">
         <v>0.17100000000000001</v>
       </c>
-      <c r="C58" s="77">
+      <c r="C58" s="75">
         <v>2412.4000000000324</v>
       </c>
-      <c r="D58" s="80">
-        <v>2222</v>
+      <c r="D58" s="78">
+        <v>2231</v>
       </c>
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
     </row>
     <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="75" t="s">
+      <c r="A59" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="90">
+      <c r="B59" s="88">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C59" s="77">
+      <c r="C59" s="75">
         <v>1640</v>
       </c>
-      <c r="D59" s="80">
-        <v>3294</v>
+      <c r="D59" s="78">
+        <v>3298</v>
       </c>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
     </row>
     <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="110" t="s">
+      <c r="A60" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="111">
+      <c r="B60" s="108">
         <v>0.16900000000000001</v>
       </c>
-      <c r="C60" s="112">
+      <c r="C60" s="109">
         <v>2414</v>
       </c>
-      <c r="D60" s="113">
+      <c r="D60" s="110">
         <v>1675</v>
       </c>
       <c r="F60" s="27"/>
       <c r="G60" s="27"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="106" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61" s="107">
-        <v>0.187</v>
-      </c>
-      <c r="C61" s="108">
-        <v>1692</v>
-      </c>
-      <c r="D61" s="109">
-        <v>1972</v>
+      <c r="A61" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="104">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C61" s="105">
+        <v>1904</v>
+      </c>
+      <c r="D61" s="106">
+        <v>1975</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
     </row>
     <row r="62" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="91" t="s">
+      <c r="A62" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="66"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="66"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="64"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="64"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="66"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="64"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
@@ -5404,8 +4726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5416,21 +4738,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="A3" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
@@ -5458,7 +4780,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="97" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5468,7 +4790,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="98" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5479,192 +4801,192 @@
     </row>
     <row r="48" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="71" t="s">
+      <c r="A49" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="72" t="s">
+      <c r="C49" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="73" t="s">
+      <c r="D49" s="71" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="76">
+      <c r="B50" s="74">
         <v>6.3E-2</v>
       </c>
-      <c r="C50" s="77">
+      <c r="C50" s="75">
         <v>2908</v>
       </c>
-      <c r="D50" s="78">
-        <v>3338</v>
+      <c r="D50" s="76">
+        <v>3354</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="79" t="s">
+      <c r="A51" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="76">
+      <c r="B51" s="74">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="C51" s="77">
+      <c r="C51" s="75">
         <v>3251</v>
       </c>
-      <c r="D51" s="80">
-        <v>3338</v>
+      <c r="D51" s="78">
+        <v>3354</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="75" t="s">
+      <c r="A52" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="76">
+      <c r="B52" s="74">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C52" s="77">
-        <v>4405</v>
-      </c>
-      <c r="D52" s="80">
+      <c r="C52" s="75">
+        <v>4410</v>
+      </c>
+      <c r="D52" s="78">
         <v>4828</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="101" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="76">
-        <v>0.187</v>
-      </c>
-      <c r="C53" s="77">
-        <v>1692</v>
-      </c>
-      <c r="D53" s="80">
-        <v>1972</v>
+      <c r="A53" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="74">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C53" s="75">
+        <v>1904</v>
+      </c>
+      <c r="D53" s="78">
+        <v>1975</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="102"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="80"/>
+      <c r="A54" s="100"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="78"/>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="103" t="s">
+      <c r="A55" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="76">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="C55" s="77">
-        <v>9347</v>
-      </c>
-      <c r="D55" s="80">
-        <v>10243</v>
+      <c r="B55" s="74">
+        <v>0.104</v>
+      </c>
+      <c r="C55" s="75">
+        <v>9564</v>
+      </c>
+      <c r="D55" s="78">
+        <v>10246</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="75"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="78"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="76"/>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="85"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="78"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="76"/>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="75" t="s">
+      <c r="A58" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="89">
+      <c r="B58" s="87">
         <v>3.9E-2</v>
       </c>
-      <c r="C58" s="77">
+      <c r="C58" s="75">
         <v>451</v>
       </c>
-      <c r="D58" s="80">
+      <c r="D58" s="78">
         <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="75" t="s">
+      <c r="A59" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="89">
+      <c r="B59" s="87">
         <v>0.17100000000000001</v>
       </c>
-      <c r="C59" s="77">
+      <c r="C59" s="75">
         <v>2412.4000000000324</v>
       </c>
-      <c r="D59" s="80">
-        <v>2222</v>
+      <c r="D59" s="78">
+        <v>2231</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="90">
+      <c r="B60" s="88">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C60" s="77">
+      <c r="C60" s="75">
         <v>1640</v>
       </c>
-      <c r="D60" s="80">
-        <v>3294</v>
+      <c r="D60" s="78">
+        <v>3298</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="111">
+      <c r="B61" s="108">
         <v>0.16900000000000001</v>
       </c>
-      <c r="C61" s="112">
-        <v>2413.1999999999898</v>
-      </c>
-      <c r="D61" s="113">
-        <v>1660</v>
+      <c r="C61" s="109">
+        <v>2414</v>
+      </c>
+      <c r="D61" s="110">
+        <v>1675</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" s="107">
-        <v>0.187</v>
-      </c>
-      <c r="C62" s="108">
-        <v>1692</v>
-      </c>
-      <c r="D62" s="109">
-        <v>1972</v>
+      <c r="A62" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="104">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C62" s="105">
+        <v>1904</v>
+      </c>
+      <c r="D62" s="106">
+        <v>1975</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="104" t="s">
+      <c r="A63" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="66"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="65"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5676,7 +4998,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="468" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="b875181064d5184f532e1d1d440ef472">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="472" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="192f35a04da4c4111efe688a7f9ac372">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -5908,21 +5230,21 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <nfa41555e3464cf4bb914e89b71e6bff xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
-    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-03-21T22:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-03-14T22:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -5934,13 +5256,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{316FDCD2-4E95-4086-B87E-79E9C9E10DBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A33252C-228A-49F6-AC15-6129E2022174}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56888A1E-255B-4F20-8A5C-02B09E8C353B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86EC39D4-73BE-44BA-8E86-EF4705A71826}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F76D19-997C-42EB-8DD0-08E2324DB0EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8E877F-010D-45A3-AC4E-7E5FF12B83FF}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Irene\מפנימי\2022\MAR-22-22\לאתר\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8220"/>
   </bookViews>
@@ -21,7 +16,7 @@
     <definedName name="name_change">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$Y$48</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -507,22 +502,22 @@
     <t>ינואר עד פברואר 2022</t>
   </si>
   <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 22/03/2022.</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 22/03/2022.</t>
-  </si>
-  <si>
-    <t>עודכן: 22.03.2022</t>
-  </si>
-  <si>
-    <t>Updated: 22 March 2022</t>
+    <t>The data were produced by the Health and Vital Statistics Sector on 29/03/2022.</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 29/03/2022.</t>
+  </si>
+  <si>
+    <t>עודכן: 29.03.2022</t>
+  </si>
+  <si>
+    <t>Updated: 29 March 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
@@ -1539,7 +1534,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,15 +1568,58 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>115239</xdr:rowOff>
+      <xdr:colOff>508272</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152089</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11228095128" y="3152775"/>
+          <a:ext cx="9004572" cy="5200339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>145588</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1598,51 +1636,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11228270025" y="3105150"/>
-          <a:ext cx="8943975" cy="5392089"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>404258</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>144124</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="66675" y="2943225"/>
-          <a:ext cx="8986283" cy="5620999"/>
+          <a:off x="152400" y="2990851"/>
+          <a:ext cx="9327688" cy="5543550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1697,7 +1692,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1732,7 +1727,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1943,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AP59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1983,7 +1978,7 @@
     </row>
     <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="X9" s="37">
-        <v>44642</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2133,7 +2128,7 @@
         <v>5491</v>
       </c>
       <c r="X11" s="114">
-        <v>5651</v>
+        <v>5667</v>
       </c>
       <c r="Y11" s="46" t="s">
         <v>17</v>
@@ -2204,13 +2199,13 @@
         <v>4062</v>
       </c>
       <c r="V12" s="44">
-        <v>3966</v>
+        <v>3963</v>
       </c>
       <c r="W12" s="51">
         <v>4535</v>
       </c>
       <c r="X12" s="112">
-        <v>5280</v>
+        <v>5371</v>
       </c>
       <c r="Y12" s="47" t="s">
         <v>34</v>
@@ -2356,7 +2351,7 @@
         <v>3812</v>
       </c>
       <c r="V14" s="44">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="W14" s="51">
         <v>4008</v>
@@ -2509,7 +2504,7 @@
         <v>3416</v>
       </c>
       <c r="W16" s="51">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="X16" s="51"/>
       <c r="Y16" s="47" t="s">
@@ -2881,10 +2876,10 @@
         <v>3691</v>
       </c>
       <c r="V21" s="41">
-        <v>3825</v>
+        <v>3826</v>
       </c>
       <c r="W21" s="51">
-        <v>3806</v>
+        <v>3808</v>
       </c>
       <c r="X21" s="51"/>
       <c r="Y21" s="46" t="s">
@@ -3052,11 +3047,11 @@
       </c>
       <c r="V23" s="39">
         <f t="shared" ref="V23" si="1">SUM(V11:V22)</f>
-        <v>48788</v>
+        <v>48787</v>
       </c>
       <c r="W23" s="39">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50692</v>
+        <v>50695</v>
       </c>
       <c r="X23" s="39"/>
       <c r="Y23" s="8" t="s">
@@ -3222,7 +3217,7 @@
         <v>4279</v>
       </c>
       <c r="X30" s="42">
-        <v>4415</v>
+        <v>4431</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>17</v>
@@ -3293,13 +3288,13 @@
         <v>3109</v>
       </c>
       <c r="V31" s="19">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="W31" s="42">
         <v>3404</v>
       </c>
       <c r="X31" s="113">
-        <v>4219</v>
+        <v>4266</v>
       </c>
       <c r="Y31" s="6" t="s">
         <v>34</v>
@@ -3445,7 +3440,7 @@
         <v>2837</v>
       </c>
       <c r="V33" s="19">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="W33" s="24">
         <v>2959</v>
@@ -3601,7 +3596,7 @@
         <v>2526</v>
       </c>
       <c r="W35" s="24">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="X35" s="24"/>
       <c r="Y35" s="6" t="s">
@@ -3973,10 +3968,10 @@
         <v>2752</v>
       </c>
       <c r="V40" s="41">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="W40" s="53">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="X40" s="53"/>
       <c r="Y40" s="5" t="s">
@@ -4144,11 +4139,11 @@
       </c>
       <c r="V42" s="39">
         <f t="shared" ref="V42" si="4">SUM(V30:V41)</f>
-        <v>36912</v>
+        <v>36913</v>
       </c>
       <c r="W42" s="39">
         <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
-        <v>38294</v>
+        <v>38297</v>
       </c>
       <c r="X42" s="39"/>
       <c r="Y42" s="29" t="s">
@@ -4262,8 +4257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4459,7 +4454,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C51" s="75">
-        <v>4410</v>
+        <v>4413</v>
       </c>
       <c r="D51" s="78">
         <v>4828</v>
@@ -4471,13 +4466,13 @@
         <v>89</v>
       </c>
       <c r="B52" s="74">
-        <v>0.21099999999999999</v>
+        <v>0.223</v>
       </c>
       <c r="C52" s="75">
-        <v>1904</v>
+        <v>2011</v>
       </c>
       <c r="D52" s="78">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="E52" s="72"/>
     </row>
@@ -4493,10 +4488,10 @@
         <v>88</v>
       </c>
       <c r="B54" s="74">
-        <v>0.104</v>
+        <v>0.105</v>
       </c>
       <c r="C54" s="75">
-        <v>9564</v>
+        <v>9676</v>
       </c>
       <c r="D54" s="78">
         <v>10246</v>
@@ -4588,13 +4583,13 @@
         <v>91</v>
       </c>
       <c r="B61" s="104">
-        <v>0.21099999999999999</v>
+        <v>0.223</v>
       </c>
       <c r="C61" s="105">
-        <v>1904</v>
+        <v>2011</v>
       </c>
       <c r="D61" s="106">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
@@ -4726,8 +4721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4850,7 +4845,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C52" s="75">
-        <v>4410</v>
+        <v>4413</v>
       </c>
       <c r="D52" s="78">
         <v>4828</v>
@@ -4861,13 +4856,13 @@
         <v>90</v>
       </c>
       <c r="B53" s="74">
-        <v>0.21099999999999999</v>
+        <v>0.223</v>
       </c>
       <c r="C53" s="75">
-        <v>1904</v>
+        <v>2011</v>
       </c>
       <c r="D53" s="78">
-        <v>1975</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4881,10 +4876,10 @@
         <v>81</v>
       </c>
       <c r="B55" s="74">
-        <v>0.104</v>
+        <v>0.105</v>
       </c>
       <c r="C55" s="75">
-        <v>9564</v>
+        <v>9676</v>
       </c>
       <c r="D55" s="78">
         <v>10246</v>
@@ -4965,13 +4960,13 @@
         <v>90</v>
       </c>
       <c r="B62" s="104">
-        <v>0.21099999999999999</v>
+        <v>0.223</v>
       </c>
       <c r="C62" s="105">
-        <v>1904</v>
+        <v>2011</v>
       </c>
       <c r="D62" s="106">
-        <v>1975</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -4998,7 +4993,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="472" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="192f35a04da4c4111efe688a7f9ac372">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="476" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="952a8e183c6d5d4bbaa9ed7df11deb10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -5234,17 +5229,17 @@
     <nfa41555e3464cf4bb914e89b71e6bff xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
+    <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-03-21T22:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-03-28T21:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -5256,13 +5251,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A33252C-228A-49F6-AC15-6129E2022174}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D16A2A5C-20A3-4669-97A5-DD9BDD8E5BD0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86EC39D4-73BE-44BA-8E86-EF4705A71826}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D44CE823-CA83-48BF-881D-88838F10F0A1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8E877F-010D-45A3-AC4E-7E5FF12B83FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC1C410A-D3B1-497D-935C-BD3E045B21A4}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -502,16 +502,16 @@
     <t>ינואר עד פברואר 2022</t>
   </si>
   <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 29/03/2022.</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 29/03/2022.</t>
-  </si>
-  <si>
-    <t>עודכן: 29.03.2022</t>
-  </si>
-  <si>
-    <t>Updated: 29 March 2022</t>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 12/04/2022.</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 12/04/2022.</t>
+  </si>
+  <si>
+    <t>עודכן: 12/04/22</t>
+  </si>
+  <si>
+    <t>Updated: 12 April 2022</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +749,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1307,7 +1315,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1497,6 +1505,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
@@ -1568,19 +1577,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>508272</xdr:colOff>
+      <xdr:colOff>393972</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>152089</xdr:rowOff>
+      <xdr:rowOff>133039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1593,7 +1602,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11228095128" y="3152775"/>
+          <a:off x="11228209428" y="3133725"/>
           <a:ext cx="9004572" cy="5200339"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1611,15 +1620,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>145588</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>678988</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>10774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1636,8 +1645,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="2990851"/>
-          <a:ext cx="9327688" cy="5543550"/>
+          <a:off x="0" y="2990850"/>
+          <a:ext cx="9327688" cy="5620999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1936,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:AP59"/>
+  <dimension ref="A2:AP59"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1952,6 +1961,9 @@
     <col min="29" max="31" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:42" ht="30" x14ac:dyDescent="0.4">
+      <c r="M2" s="115"/>
+    </row>
     <row r="6" spans="1:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1978,7 +1990,7 @@
     </row>
     <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="X9" s="37">
-        <v>44649</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2125,10 +2137,10 @@
         <v>4585</v>
       </c>
       <c r="W11" s="50">
-        <v>5491</v>
+        <v>5489</v>
       </c>
       <c r="X11" s="114">
-        <v>5667</v>
+        <v>5690</v>
       </c>
       <c r="Y11" s="46" t="s">
         <v>17</v>
@@ -2205,7 +2217,7 @@
         <v>4535</v>
       </c>
       <c r="X12" s="112">
-        <v>5371</v>
+        <v>5408</v>
       </c>
       <c r="Y12" s="47" t="s">
         <v>34</v>
@@ -2579,7 +2591,7 @@
         <v>3701</v>
       </c>
       <c r="W17" s="51">
-        <v>3725</v>
+        <v>3726</v>
       </c>
       <c r="X17" s="51"/>
       <c r="Y17" s="47" t="s">
@@ -2726,7 +2738,7 @@
         <v>3405</v>
       </c>
       <c r="V19" s="44">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="W19" s="51">
         <v>4284</v>
@@ -2879,7 +2891,7 @@
         <v>3826</v>
       </c>
       <c r="W21" s="51">
-        <v>3808</v>
+        <v>3810</v>
       </c>
       <c r="X21" s="51"/>
       <c r="Y21" s="46" t="s">
@@ -2954,7 +2966,7 @@
         <v>4487</v>
       </c>
       <c r="W22" s="54">
-        <v>4367</v>
+        <v>4371</v>
       </c>
       <c r="X22" s="52"/>
       <c r="Y22" s="48" t="s">
@@ -3047,11 +3059,11 @@
       </c>
       <c r="V23" s="39">
         <f t="shared" ref="V23" si="1">SUM(V11:V22)</f>
-        <v>48787</v>
+        <v>48788</v>
       </c>
       <c r="W23" s="39">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50695</v>
+        <v>50700</v>
       </c>
       <c r="X23" s="39"/>
       <c r="Y23" s="8" t="s">
@@ -3214,10 +3226,10 @@
         <v>3465</v>
       </c>
       <c r="W30" s="42">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="X30" s="42">
-        <v>4431</v>
+        <v>4447</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>17</v>
@@ -3294,7 +3306,7 @@
         <v>3404</v>
       </c>
       <c r="X31" s="113">
-        <v>4266</v>
+        <v>4290</v>
       </c>
       <c r="Y31" s="6" t="s">
         <v>34</v>
@@ -3671,7 +3683,7 @@
         <v>2773</v>
       </c>
       <c r="W36" s="24">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="X36" s="24"/>
       <c r="Y36" s="6" t="s">
@@ -3971,7 +3983,7 @@
         <v>2845</v>
       </c>
       <c r="W40" s="53">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="X40" s="53"/>
       <c r="Y40" s="5" t="s">
@@ -4046,7 +4058,7 @@
         <v>3418</v>
       </c>
       <c r="W41" s="55">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="X41" s="38"/>
       <c r="Y41" s="7" t="s">
@@ -4143,7 +4155,7 @@
       </c>
       <c r="W42" s="39">
         <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
-        <v>38297</v>
+        <v>38300</v>
       </c>
       <c r="X42" s="39"/>
       <c r="Y42" s="29" t="s">
@@ -4161,7 +4173,7 @@
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4179,7 +4191,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="Y45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4213,12 +4225,12 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="115" t="s">
+      <c r="A48" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
       <c r="Y48" s="30" t="s">
         <v>35</v>
       </c>
@@ -4257,8 +4269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4439,7 +4451,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="C50" s="75">
-        <v>3251</v>
+        <v>3254</v>
       </c>
       <c r="D50" s="78">
         <v>3354</v>
@@ -4454,7 +4466,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C51" s="75">
-        <v>4413</v>
+        <v>4418</v>
       </c>
       <c r="D51" s="78">
         <v>4828</v>
@@ -4466,13 +4478,13 @@
         <v>89</v>
       </c>
       <c r="B52" s="74">
-        <v>0.223</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="C52" s="75">
-        <v>2011</v>
+        <v>2071</v>
       </c>
       <c r="D52" s="78">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="E52" s="72"/>
     </row>
@@ -4488,13 +4500,13 @@
         <v>88</v>
       </c>
       <c r="B54" s="74">
-        <v>0.105</v>
+        <v>0.106</v>
       </c>
       <c r="C54" s="75">
-        <v>9676</v>
+        <v>9742</v>
       </c>
       <c r="D54" s="78">
-        <v>10246</v>
+        <v>10251</v>
       </c>
       <c r="E54" s="82"/>
     </row>
@@ -4522,7 +4534,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="C57" s="75">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D57" s="78">
         <v>288</v>
@@ -4538,7 +4550,7 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="C58" s="75">
-        <v>2412.4000000000324</v>
+        <v>2413</v>
       </c>
       <c r="D58" s="78">
         <v>2231</v>
@@ -4551,10 +4563,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="88">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="C59" s="75">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D59" s="78">
         <v>3298</v>
@@ -4570,7 +4582,7 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="C60" s="109">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="D60" s="110">
         <v>1675</v>
@@ -4583,13 +4595,13 @@
         <v>91</v>
       </c>
       <c r="B61" s="104">
-        <v>0.223</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="C61" s="105">
-        <v>2011</v>
+        <v>2071</v>
       </c>
       <c r="D61" s="106">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
@@ -4721,8 +4733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4831,7 +4843,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="C51" s="75">
-        <v>3251</v>
+        <v>3254</v>
       </c>
       <c r="D51" s="78">
         <v>3354</v>
@@ -4845,7 +4857,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C52" s="75">
-        <v>4413</v>
+        <v>4418</v>
       </c>
       <c r="D52" s="78">
         <v>4828</v>
@@ -4856,13 +4868,13 @@
         <v>90</v>
       </c>
       <c r="B53" s="74">
-        <v>0.223</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="C53" s="75">
-        <v>2011</v>
+        <v>2071</v>
       </c>
       <c r="D53" s="78">
-        <v>1977</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4876,13 +4888,13 @@
         <v>81</v>
       </c>
       <c r="B55" s="74">
-        <v>0.105</v>
+        <v>0.106</v>
       </c>
       <c r="C55" s="75">
-        <v>9676</v>
+        <v>9742</v>
       </c>
       <c r="D55" s="78">
-        <v>10246</v>
+        <v>10251</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4907,7 +4919,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="C58" s="75">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D58" s="78">
         <v>288</v>
@@ -4921,7 +4933,7 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="C59" s="75">
-        <v>2412.4000000000324</v>
+        <v>2413</v>
       </c>
       <c r="D59" s="78">
         <v>2231</v>
@@ -4932,10 +4944,10 @@
         <v>85</v>
       </c>
       <c r="B60" s="88">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="C60" s="75">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D60" s="78">
         <v>3298</v>
@@ -4949,7 +4961,7 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="C61" s="109">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="D61" s="110">
         <v>1675</v>
@@ -4960,13 +4972,13 @@
         <v>90</v>
       </c>
       <c r="B62" s="104">
-        <v>0.223</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="C62" s="105">
-        <v>2011</v>
+        <v>2071</v>
       </c>
       <c r="D62" s="106">
-        <v>1977</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -4993,7 +5005,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="476" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="952a8e183c6d5d4bbaa9ed7df11deb10">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="482" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="9de456bc29b38ee9c2a4f9a2d83c3b14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -5229,17 +5241,17 @@
     <nfa41555e3464cf4bb914e89b71e6bff xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
+    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-03-28T21:00:00+00:00</CbsDataPublishDate>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-04-11T21:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -5251,13 +5263,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D16A2A5C-20A3-4669-97A5-DD9BDD8E5BD0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{050C38DC-811F-47B2-9FA1-8B9F83D0B82A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D44CE823-CA83-48BF-881D-88838F10F0A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F37F8D0F-777C-40C2-96C2-965A41242086}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC1C410A-D3B1-497D-935C-BD3E045B21A4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89B723AF-0B17-4121-8064-1A4612F08C43}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Irene\מפנימי\2022\APRIL-26-22\לאתר\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8220"/>
   </bookViews>
@@ -16,7 +21,7 @@
     <definedName name="name_change">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$Y$48</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -449,9 +454,6 @@
     <t>All of 2021</t>
   </si>
   <si>
-    <t>March 2020-Jan. 2022</t>
-  </si>
-  <si>
     <t>During COVID-19 waves:</t>
   </si>
   <si>
@@ -490,34 +492,37 @@
     </r>
   </si>
   <si>
-    <t>מרץ 2020 עד פברואר 2022</t>
-  </si>
-  <si>
-    <t>ינואר-פברואר 2022</t>
-  </si>
-  <si>
-    <t>Jan.-Feb. 2022</t>
-  </si>
-  <si>
-    <t>ינואר עד פברואר 2022</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 12/04/2022.</t>
-  </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 12/04/2022.</t>
-  </si>
-  <si>
-    <t>עודכן: 12/04/22</t>
-  </si>
-  <si>
-    <t>Updated: 12 April 2022</t>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 26/04/2022.</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 26/04/2022.</t>
+  </si>
+  <si>
+    <t>עודכן: 26/04/22</t>
+  </si>
+  <si>
+    <t>Updated: 26 April 2022</t>
+  </si>
+  <si>
+    <t>ינואר-מרץ 2022</t>
+  </si>
+  <si>
+    <t>מרץ 2020 עד מרץ 2022</t>
+  </si>
+  <si>
+    <t>ינואר עד מרץ 2022</t>
+  </si>
+  <si>
+    <t>Jan.-March 2022</t>
+  </si>
+  <si>
+    <t>March 2020-March 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
@@ -1543,7 +1548,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,11 +1590,11 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>393972</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>133039</xdr:rowOff>
+      <xdr:rowOff>145232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1603,7 +1608,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11228209428" y="3133725"/>
-          <a:ext cx="9004572" cy="5200339"/>
+          <a:ext cx="9004572" cy="5212532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1620,19 +1625,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>678988</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>174163</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>10774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1645,7 +1650,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2990850"/>
+          <a:off x="180975" y="2990850"/>
           <a:ext cx="9327688" cy="5620999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1701,7 +1706,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1736,7 +1741,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1947,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AP59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1990,7 +1995,7 @@
     </row>
     <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="X9" s="37">
-        <v>44663</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2137,10 +2142,10 @@
         <v>4585</v>
       </c>
       <c r="W11" s="50">
-        <v>5489</v>
+        <v>5490</v>
       </c>
       <c r="X11" s="114">
-        <v>5690</v>
+        <v>5699</v>
       </c>
       <c r="Y11" s="46" t="s">
         <v>17</v>
@@ -2217,7 +2222,7 @@
         <v>4535</v>
       </c>
       <c r="X12" s="112">
-        <v>5408</v>
+        <v>5416</v>
       </c>
       <c r="Y12" s="47" t="s">
         <v>34</v>
@@ -2293,7 +2298,9 @@
       <c r="W13" s="51">
         <v>4480</v>
       </c>
-      <c r="X13" s="51"/>
+      <c r="X13" s="112">
+        <v>4487</v>
+      </c>
       <c r="Y13" s="47" t="s">
         <v>18</v>
       </c>
@@ -2966,7 +2973,7 @@
         <v>4487</v>
       </c>
       <c r="W22" s="54">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="X22" s="52"/>
       <c r="Y22" s="48" t="s">
@@ -3063,7 +3070,7 @@
       </c>
       <c r="W23" s="39">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50700</v>
+        <v>50702</v>
       </c>
       <c r="X23" s="39"/>
       <c r="Y23" s="8" t="s">
@@ -3229,7 +3236,7 @@
         <v>4278</v>
       </c>
       <c r="X30" s="42">
-        <v>4447</v>
+        <v>4453</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>17</v>
@@ -3306,7 +3313,7 @@
         <v>3404</v>
       </c>
       <c r="X31" s="113">
-        <v>4290</v>
+        <v>4297</v>
       </c>
       <c r="Y31" s="6" t="s">
         <v>34</v>
@@ -3382,7 +3389,9 @@
       <c r="W32" s="42">
         <v>3405</v>
       </c>
-      <c r="X32" s="42"/>
+      <c r="X32" s="113">
+        <v>3421</v>
+      </c>
       <c r="Y32" s="6" t="s">
         <v>18</v>
       </c>
@@ -4173,7 +4182,7 @@
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4191,7 +4200,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="Y45" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4269,8 +4278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4286,7 +4295,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="57" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4463,10 +4472,10 @@
         <v>54</v>
       </c>
       <c r="B51" s="74">
-        <v>9.5000000000000001E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="C51" s="75">
-        <v>4418</v>
+        <v>4420</v>
       </c>
       <c r="D51" s="78">
         <v>4828</v>
@@ -4475,16 +4484,16 @@
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="79" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="74">
-        <v>0.22900000000000001</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="C52" s="75">
-        <v>2071</v>
+        <v>2366</v>
       </c>
       <c r="D52" s="78">
-        <v>1980</v>
+        <v>2275</v>
       </c>
       <c r="E52" s="72"/>
     </row>
@@ -4497,16 +4506,16 @@
     </row>
     <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="81" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B54" s="74">
-        <v>0.106</v>
+        <v>0.104</v>
       </c>
       <c r="C54" s="75">
-        <v>9742</v>
+        <v>10040</v>
       </c>
       <c r="D54" s="78">
-        <v>10251</v>
+        <v>10457</v>
       </c>
       <c r="E54" s="82"/>
     </row>
@@ -4566,7 +4575,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="C59" s="75">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="D59" s="78">
         <v>3298</v>
@@ -4592,16 +4601,16 @@
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="103" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="104">
-        <v>0.22900000000000001</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="C61" s="105">
-        <v>2071</v>
+        <v>2366</v>
       </c>
       <c r="D61" s="106">
-        <v>1979</v>
+        <v>2275</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
@@ -4733,8 +4742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4756,7 +4765,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -4854,10 +4863,10 @@
         <v>80</v>
       </c>
       <c r="B52" s="74">
-        <v>9.5000000000000001E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="C52" s="75">
-        <v>4418</v>
+        <v>4420</v>
       </c>
       <c r="D52" s="78">
         <v>4828</v>
@@ -4865,16 +4874,16 @@
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="99" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B53" s="74">
-        <v>0.22900000000000001</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="C53" s="75">
-        <v>2071</v>
+        <v>2366</v>
       </c>
       <c r="D53" s="78">
-        <v>1980</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4885,16 +4894,16 @@
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="101" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B55" s="74">
-        <v>0.106</v>
+        <v>0.104</v>
       </c>
       <c r="C55" s="75">
-        <v>9742</v>
+        <v>10040</v>
       </c>
       <c r="D55" s="78">
-        <v>10251</v>
+        <v>10457</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4905,7 +4914,7 @@
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="83"/>
       <c r="C57" s="84"/>
@@ -4913,7 +4922,7 @@
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58" s="87">
         <v>3.9E-2</v>
@@ -4927,7 +4936,7 @@
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" s="87">
         <v>0.17100000000000001</v>
@@ -4941,7 +4950,7 @@
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="88">
         <v>9.4E-2</v>
@@ -4955,7 +4964,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="107" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" s="108">
         <v>0.16900000000000001</v>
@@ -4969,21 +4978,21 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="111" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B62" s="104">
-        <v>0.22900000000000001</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="C62" s="105">
-        <v>2071</v>
+        <v>2366</v>
       </c>
       <c r="D62" s="106">
-        <v>1980</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A63" s="102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B63" s="64"/>
       <c r="C63" s="64"/>
@@ -5005,7 +5014,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="482" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="9de456bc29b38ee9c2a4f9a2d83c3b14">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="486" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="df173f21c3eda53612c0d81490181a8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -5237,21 +5246,21 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <nfa41555e3464cf4bb914e89b71e6bff xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
+    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-04-11T21:00:00+00:00</CbsDataPublishDate>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-04-25T21:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -5263,13 +5272,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{050C38DC-811F-47B2-9FA1-8B9F83D0B82A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{203608F3-1D58-4B37-9899-2FD7EB136927}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F37F8D0F-777C-40C2-96C2-965A41242086}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0921CF19-3B44-4252-8396-2899EC2F6F45}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89B723AF-0B17-4121-8064-1A4612F08C43}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E14D8DD-B543-4A82-A15E-DFC77C073D96}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Irene\מפנימי\2022\APRIL-26-22\לאתר\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8220"/>
   </bookViews>
@@ -21,7 +16,7 @@
     <definedName name="name_change">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$Y$48</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -492,18 +487,6 @@
     </r>
   </si>
   <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 26/04/2022.</t>
-  </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 26/04/2022.</t>
-  </si>
-  <si>
-    <t>עודכן: 26/04/22</t>
-  </si>
-  <si>
-    <t>Updated: 26 April 2022</t>
-  </si>
-  <si>
     <t>ינואר-מרץ 2022</t>
   </si>
   <si>
@@ -517,12 +500,24 @@
   </si>
   <si>
     <t>March 2020-March 2022</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 03/05/2022.</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 03/05/2022.</t>
+  </si>
+  <si>
+    <t>Updated: 03 May 2022</t>
+  </si>
+  <si>
+    <t>עודכן: 03/05/22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
@@ -1320,7 +1315,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1511,6 +1506,7 @@
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
@@ -1548,7 +1544,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1594,7 +1590,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1625,19 +1621,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>174163</xdr:colOff>
+      <xdr:colOff>345613</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>10774</xdr:rowOff>
+      <xdr:rowOff>1249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1650,7 +1646,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180975" y="2990850"/>
+          <a:off x="352425" y="2981325"/>
           <a:ext cx="9327688" cy="5620999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1706,7 +1702,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1741,7 +1737,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1952,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AP59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1995,7 +1991,7 @@
     </row>
     <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="X9" s="37">
-        <v>44677</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2145,7 +2141,7 @@
         <v>5490</v>
       </c>
       <c r="X11" s="114">
-        <v>5699</v>
+        <v>5704</v>
       </c>
       <c r="Y11" s="46" t="s">
         <v>17</v>
@@ -2221,8 +2217,8 @@
       <c r="W12" s="51">
         <v>4535</v>
       </c>
-      <c r="X12" s="112">
-        <v>5416</v>
+      <c r="X12" s="116">
+        <v>5423</v>
       </c>
       <c r="Y12" s="47" t="s">
         <v>34</v>
@@ -2296,10 +2292,10 @@
         <v>4180</v>
       </c>
       <c r="W13" s="51">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="X13" s="112">
-        <v>4487</v>
+        <v>4563</v>
       </c>
       <c r="Y13" s="47" t="s">
         <v>18</v>
@@ -2373,7 +2369,7 @@
         <v>3921</v>
       </c>
       <c r="W14" s="51">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="X14" s="51"/>
       <c r="Y14" s="47" t="s">
@@ -2823,7 +2819,7 @@
         <v>4645</v>
       </c>
       <c r="W20" s="51">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="X20" s="51"/>
       <c r="Y20" s="47" t="s">
@@ -2898,7 +2894,7 @@
         <v>3826</v>
       </c>
       <c r="W21" s="51">
-        <v>3810</v>
+        <v>3811</v>
       </c>
       <c r="X21" s="51"/>
       <c r="Y21" s="46" t="s">
@@ -3070,7 +3066,7 @@
       </c>
       <c r="W23" s="39">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50702</v>
+        <v>50706</v>
       </c>
       <c r="X23" s="39"/>
       <c r="Y23" s="8" t="s">
@@ -3236,7 +3232,7 @@
         <v>4278</v>
       </c>
       <c r="X30" s="42">
-        <v>4453</v>
+        <v>4456</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>17</v>
@@ -3312,8 +3308,8 @@
       <c r="W31" s="42">
         <v>3404</v>
       </c>
-      <c r="X31" s="113">
-        <v>4297</v>
+      <c r="X31" s="42">
+        <v>4304</v>
       </c>
       <c r="Y31" s="6" t="s">
         <v>34</v>
@@ -3390,7 +3386,7 @@
         <v>3405</v>
       </c>
       <c r="X32" s="113">
-        <v>3421</v>
+        <v>3481</v>
       </c>
       <c r="Y32" s="6" t="s">
         <v>18</v>
@@ -3464,7 +3460,7 @@
         <v>3006</v>
       </c>
       <c r="W33" s="24">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="X33" s="24"/>
       <c r="Y33" s="6" t="s">
@@ -3917,7 +3913,7 @@
         <v>3552</v>
       </c>
       <c r="W39" s="24">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="X39" s="24"/>
       <c r="Y39" s="6" t="s">
@@ -3992,7 +3988,7 @@
         <v>2845</v>
       </c>
       <c r="W40" s="53">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="X40" s="53"/>
       <c r="Y40" s="5" t="s">
@@ -4164,7 +4160,7 @@
       </c>
       <c r="W42" s="39">
         <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
-        <v>38300</v>
+        <v>38303</v>
       </c>
       <c r="X42" s="39"/>
       <c r="Y42" s="29" t="s">
@@ -4182,7 +4178,7 @@
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4200,7 +4196,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="Y45" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4234,12 +4230,12 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="116" t="s">
+      <c r="A48" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
       <c r="Y48" s="30" t="s">
         <v>35</v>
       </c>
@@ -4278,8 +4274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4295,7 +4291,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="57" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4475,25 +4471,25 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C51" s="75">
-        <v>4420</v>
+        <v>4424</v>
       </c>
       <c r="D51" s="78">
-        <v>4828</v>
+        <v>4827</v>
       </c>
       <c r="E51" s="72"/>
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="79" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B52" s="74">
-        <v>0.17899999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="C52" s="75">
-        <v>2366</v>
+        <v>2454</v>
       </c>
       <c r="D52" s="78">
-        <v>2275</v>
+        <v>2289</v>
       </c>
       <c r="E52" s="72"/>
     </row>
@@ -4506,16 +4502,16 @@
     </row>
     <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="81" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B54" s="74">
-        <v>0.104</v>
+        <v>0.105</v>
       </c>
       <c r="C54" s="75">
-        <v>10040</v>
+        <v>10132</v>
       </c>
       <c r="D54" s="78">
-        <v>10457</v>
+        <v>10470</v>
       </c>
       <c r="E54" s="82"/>
     </row>
@@ -4572,10 +4568,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="88">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C59" s="75">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="D59" s="78">
         <v>3298</v>
@@ -4588,29 +4584,29 @@
         <v>59</v>
       </c>
       <c r="B60" s="108">
-        <v>0.16900000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="C60" s="109">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="D60" s="110">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F60" s="27"/>
       <c r="G60" s="27"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B61" s="104">
-        <v>0.17899999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="C61" s="105">
-        <v>2366</v>
+        <v>2454</v>
       </c>
       <c r="D61" s="106">
-        <v>2275</v>
+        <v>2289</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
@@ -4742,8 +4738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4765,7 +4761,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -4866,24 +4862,24 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C52" s="75">
-        <v>4420</v>
+        <v>4424</v>
       </c>
       <c r="D52" s="78">
-        <v>4828</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="99" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B53" s="74">
-        <v>0.17899999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="C53" s="75">
-        <v>2366</v>
+        <v>2454</v>
       </c>
       <c r="D53" s="78">
-        <v>2275</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4894,16 +4890,16 @@
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="101" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B55" s="74">
-        <v>0.104</v>
+        <v>0.105</v>
       </c>
       <c r="C55" s="75">
-        <v>10040</v>
+        <v>10132</v>
       </c>
       <c r="D55" s="78">
-        <v>10457</v>
+        <v>10470</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4953,10 +4949,10 @@
         <v>84</v>
       </c>
       <c r="B60" s="88">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C60" s="75">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="D60" s="78">
         <v>3298</v>
@@ -4967,27 +4963,27 @@
         <v>85</v>
       </c>
       <c r="B61" s="108">
-        <v>0.16900000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="C61" s="109">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="D61" s="110">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="111" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B62" s="104">
-        <v>0.17899999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="C62" s="105">
-        <v>2366</v>
+        <v>2454</v>
       </c>
       <c r="D62" s="106">
-        <v>2275</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -5014,7 +5010,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="486" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="df173f21c3eda53612c0d81490181a8c">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="492" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="8c96f1dd521197a7b8a5fd5ac181a3d8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -5246,21 +5242,21 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <nfa41555e3464cf4bb914e89b71e6bff xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
-    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-04-25T21:00:00+00:00</CbsDataPublishDate>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-05-03T21:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -5272,13 +5268,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{203608F3-1D58-4B37-9899-2FD7EB136927}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF73CD65-B313-43FA-9BB5-F60306278FAE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0921CF19-3B44-4252-8396-2899EC2F6F45}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D7ECBAE-F3F0-417E-B1D0-0E8944EA92BD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E14D8DD-B543-4A82-A15E-DFC77C073D96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D3B285-CC79-4F57-8EFB-E0DDA1DDCDF3}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
   <si>
     <t>ינואר</t>
   </si>
@@ -487,31 +487,34 @@
     </r>
   </si>
   <si>
-    <t>ינואר-מרץ 2022</t>
-  </si>
-  <si>
-    <t>מרץ 2020 עד מרץ 2022</t>
-  </si>
-  <si>
     <t>ינואר עד מרץ 2022</t>
   </si>
   <si>
     <t>Jan.-March 2022</t>
   </si>
   <si>
-    <t>March 2020-March 2022</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 03/05/2022.</t>
-  </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 03/05/2022.</t>
-  </si>
-  <si>
-    <t>Updated: 03 May 2022</t>
-  </si>
-  <si>
-    <t>עודכן: 03/05/22</t>
+    <t>Updated: 17 May 2022</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 24/05/2022.</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 24/05/2022.</t>
+  </si>
+  <si>
+    <t>עודכן: 24/05/22</t>
+  </si>
+  <si>
+    <t>ינואר עד אפריל 2022</t>
+  </si>
+  <si>
+    <t>מרץ 2020 עד אפריל 2022</t>
+  </si>
+  <si>
+    <t>Jan.-April 2022</t>
+  </si>
+  <si>
+    <t>March 2020-April 2022</t>
   </si>
 </sst>
 </file>
@@ -1501,12 +1504,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
@@ -1544,7 +1545,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,15 +1579,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>393972</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>145232</xdr:rowOff>
+      <xdr:colOff>536847</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>11882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1603,7 +1604,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11228209428" y="3133725"/>
+          <a:off x="11228066553" y="3181350"/>
           <a:ext cx="9004572" cy="5212532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1621,19 +1622,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>345613</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>1249</xdr:rowOff>
+      <xdr:colOff>97963</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>87735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1646,8 +1647,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="2981325"/>
-          <a:ext cx="9327688" cy="5620999"/>
+          <a:off x="257175" y="2905125"/>
+          <a:ext cx="9327688" cy="5602710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1949,7 +1950,7 @@
   <dimension ref="A2:AP59"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1963,7 +1964,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:42" ht="30" x14ac:dyDescent="0.4">
-      <c r="M2" s="115"/>
+      <c r="M2" s="114"/>
     </row>
     <row r="6" spans="1:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1991,7 +1992,7 @@
     </row>
     <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="X9" s="37">
-        <v>44684</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2138,10 +2139,10 @@
         <v>4585</v>
       </c>
       <c r="W11" s="50">
-        <v>5490</v>
-      </c>
-      <c r="X11" s="114">
-        <v>5704</v>
+        <v>5491</v>
+      </c>
+      <c r="X11" s="113">
+        <v>5707</v>
       </c>
       <c r="Y11" s="46" t="s">
         <v>17</v>
@@ -2217,8 +2218,8 @@
       <c r="W12" s="51">
         <v>4535</v>
       </c>
-      <c r="X12" s="116">
-        <v>5423</v>
+      <c r="X12" s="115">
+        <v>5437</v>
       </c>
       <c r="Y12" s="47" t="s">
         <v>34</v>
@@ -2294,8 +2295,8 @@
       <c r="W13" s="51">
         <v>4481</v>
       </c>
-      <c r="X13" s="112">
-        <v>4563</v>
+      <c r="X13" s="115">
+        <v>4613</v>
       </c>
       <c r="Y13" s="47" t="s">
         <v>18</v>
@@ -2369,9 +2370,11 @@
         <v>3921</v>
       </c>
       <c r="W14" s="51">
-        <v>4009</v>
-      </c>
-      <c r="X14" s="51"/>
+        <v>4008</v>
+      </c>
+      <c r="X14" s="112">
+        <v>4036</v>
+      </c>
       <c r="Y14" s="47" t="s">
         <v>19</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>4163</v>
       </c>
       <c r="W19" s="51">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="X19" s="51"/>
       <c r="Y19" s="47" t="s">
@@ -2894,7 +2897,7 @@
         <v>3826</v>
       </c>
       <c r="W21" s="51">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="X21" s="51"/>
       <c r="Y21" s="46" t="s">
@@ -2969,7 +2972,7 @@
         <v>4487</v>
       </c>
       <c r="W22" s="54">
-        <v>4372</v>
+        <v>4378</v>
       </c>
       <c r="X22" s="52"/>
       <c r="Y22" s="48" t="s">
@@ -3066,7 +3069,7 @@
       </c>
       <c r="W23" s="39">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50706</v>
+        <v>50712</v>
       </c>
       <c r="X23" s="39"/>
       <c r="Y23" s="8" t="s">
@@ -3229,10 +3232,10 @@
         <v>3465</v>
       </c>
       <c r="W30" s="42">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="X30" s="42">
-        <v>4456</v>
+        <v>4460</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>17</v>
@@ -3309,7 +3312,7 @@
         <v>3404</v>
       </c>
       <c r="X31" s="42">
-        <v>4304</v>
+        <v>4315</v>
       </c>
       <c r="Y31" s="6" t="s">
         <v>34</v>
@@ -3385,8 +3388,8 @@
       <c r="W32" s="42">
         <v>3405</v>
       </c>
-      <c r="X32" s="113">
-        <v>3481</v>
+      <c r="X32" s="42">
+        <v>3509</v>
       </c>
       <c r="Y32" s="6" t="s">
         <v>18</v>
@@ -3460,9 +3463,11 @@
         <v>3006</v>
       </c>
       <c r="W33" s="24">
-        <v>2960</v>
-      </c>
-      <c r="X33" s="24"/>
+        <v>2959</v>
+      </c>
+      <c r="X33" s="116">
+        <v>3111</v>
+      </c>
       <c r="Y33" s="6" t="s">
         <v>19</v>
       </c>
@@ -3988,7 +3993,7 @@
         <v>2845</v>
       </c>
       <c r="W40" s="53">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="X40" s="53"/>
       <c r="Y40" s="5" t="s">
@@ -4063,7 +4068,7 @@
         <v>3418</v>
       </c>
       <c r="W41" s="55">
-        <v>3368</v>
+        <v>3372</v>
       </c>
       <c r="X41" s="38"/>
       <c r="Y41" s="7" t="s">
@@ -4160,7 +4165,7 @@
       </c>
       <c r="W42" s="39">
         <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
-        <v>38303</v>
+        <v>38306</v>
       </c>
       <c r="X42" s="39"/>
       <c r="Y42" s="29" t="s">
@@ -4178,7 +4183,7 @@
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4196,7 +4201,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="Y45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4274,8 +4279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4291,7 +4296,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4471,25 +4476,25 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C51" s="75">
-        <v>4424</v>
+        <v>4430</v>
       </c>
       <c r="D51" s="78">
-        <v>4827</v>
+        <v>4829</v>
       </c>
       <c r="E51" s="72"/>
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="79" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B52" s="74">
-        <v>0.185</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="C52" s="75">
-        <v>2454</v>
+        <v>2767</v>
       </c>
       <c r="D52" s="78">
-        <v>2289</v>
+        <v>2496</v>
       </c>
       <c r="E52" s="72"/>
     </row>
@@ -4502,16 +4507,16 @@
     </row>
     <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="81" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B54" s="74">
-        <v>0.105</v>
+        <v>0.104</v>
       </c>
       <c r="C54" s="75">
-        <v>10132</v>
+        <v>10451</v>
       </c>
       <c r="D54" s="78">
-        <v>10470</v>
+        <v>10679</v>
       </c>
       <c r="E54" s="82"/>
     </row>
@@ -4571,7 +4576,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C59" s="75">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="D59" s="78">
         <v>3298</v>
@@ -4587,26 +4592,26 @@
         <v>0.17</v>
       </c>
       <c r="C60" s="109">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="D60" s="110">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="F60" s="27"/>
       <c r="G60" s="27"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="103" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B61" s="104">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="C61" s="105">
-        <v>2454</v>
+        <v>2521</v>
       </c>
       <c r="D61" s="106">
-        <v>2289</v>
+        <v>2294</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
@@ -4739,14 +4744,15 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
@@ -4761,7 +4767,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -4862,24 +4868,24 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C52" s="75">
-        <v>4424</v>
+        <v>4430</v>
       </c>
       <c r="D52" s="78">
-        <v>4827</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="99" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B53" s="74">
-        <v>0.185</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="C53" s="75">
-        <v>2454</v>
+        <v>2767</v>
       </c>
       <c r="D53" s="78">
-        <v>2289</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4890,16 +4896,16 @@
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="101" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B55" s="74">
-        <v>0.105</v>
+        <v>0.104</v>
       </c>
       <c r="C55" s="75">
-        <v>10132</v>
+        <v>10451</v>
       </c>
       <c r="D55" s="78">
-        <v>10470</v>
+        <v>10679</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4952,7 +4958,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C60" s="75">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="D60" s="78">
         <v>3298</v>
@@ -4966,24 +4972,24 @@
         <v>0.17</v>
       </c>
       <c r="C61" s="109">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="D61" s="110">
-        <v>1674</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="111" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B62" s="104">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="C62" s="105">
-        <v>2454</v>
+        <v>2521</v>
       </c>
       <c r="D62" s="106">
-        <v>2289</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -5010,7 +5016,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="492" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="8c96f1dd521197a7b8a5fd5ac181a3d8">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="512" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="69306ea063928cb1542fb1a47d04db72">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -5242,13 +5248,13 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <nfa41555e3464cf4bb914e89b71e6bff xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
-    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
@@ -5256,7 +5262,7 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-05-03T21:00:00+00:00</CbsDataPublishDate>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-05-23T21:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -5268,13 +5274,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF73CD65-B313-43FA-9BB5-F60306278FAE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF7EE5CD-66EC-4DD2-8746-8E1ED25D77A6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D7ECBAE-F3F0-417E-B1D0-0E8944EA92BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78D9044-B5F2-427F-91BE-361F54E7C693}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D3B285-CC79-4F57-8EFB-E0DDA1DDCDF3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A381087C-5D28-464A-B043-8F2622A529A5}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -493,28 +493,28 @@
     <t>Jan.-March 2022</t>
   </si>
   <si>
-    <t>Updated: 17 May 2022</t>
-  </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 24/05/2022.</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 24/05/2022.</t>
-  </si>
-  <si>
-    <t>עודכן: 24/05/22</t>
-  </si>
-  <si>
-    <t>ינואר עד אפריל 2022</t>
-  </si>
-  <si>
-    <t>מרץ 2020 עד אפריל 2022</t>
-  </si>
-  <si>
-    <t>Jan.-April 2022</t>
-  </si>
-  <si>
-    <t>March 2020-April 2022</t>
+    <t>ינואר עד מאי 2022</t>
+  </si>
+  <si>
+    <t>מרץ 2020 עד מאי 2022</t>
+  </si>
+  <si>
+    <t>Jan.-May 2022</t>
+  </si>
+  <si>
+    <t>March 2020-May 2022</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 05/07/2022.</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 05/07/2022.</t>
+  </si>
+  <si>
+    <t>עודכן: 05/07/22</t>
+  </si>
+  <si>
+    <t>Updated: 5 July 2022</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +760,23 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1318,7 +1335,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1438,14 +1455,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1508,6 +1519,21 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="30" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
@@ -1579,19 +1605,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>536847</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>11882</xdr:rowOff>
+      <xdr:colOff>641622</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>175328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1604,8 +1630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11228066553" y="3181350"/>
-          <a:ext cx="9004572" cy="5212532"/>
+          <a:off x="11227961778" y="3200400"/>
+          <a:ext cx="9004572" cy="5175953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1622,19 +1648,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>97963</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>87735</xdr:rowOff>
+      <xdr:colOff>278938</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>30585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1647,7 +1673,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257175" y="2905125"/>
+          <a:off x="438150" y="3028950"/>
           <a:ext cx="9327688" cy="5602710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1950,7 +1976,7 @@
   <dimension ref="A2:AP59"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1964,7 +1990,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:42" ht="30" x14ac:dyDescent="0.4">
-      <c r="M2" s="114"/>
+      <c r="M2" s="112"/>
     </row>
     <row r="6" spans="1:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1992,7 +2018,7 @@
     </row>
     <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="X9" s="37">
-        <v>44705</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2139,10 +2165,10 @@
         <v>4585</v>
       </c>
       <c r="W11" s="50">
-        <v>5491</v>
-      </c>
-      <c r="X11" s="113">
-        <v>5707</v>
+        <v>5492</v>
+      </c>
+      <c r="X11" s="111">
+        <v>5715</v>
       </c>
       <c r="Y11" s="46" t="s">
         <v>17</v>
@@ -2216,10 +2242,10 @@
         <v>3963</v>
       </c>
       <c r="W12" s="51">
-        <v>4535</v>
-      </c>
-      <c r="X12" s="115">
-        <v>5437</v>
+        <v>4534</v>
+      </c>
+      <c r="X12" s="113">
+        <v>5452</v>
       </c>
       <c r="Y12" s="47" t="s">
         <v>34</v>
@@ -2290,13 +2316,13 @@
         <v>4316</v>
       </c>
       <c r="V13" s="44">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="W13" s="51">
         <v>4481</v>
       </c>
-      <c r="X13" s="115">
-        <v>4613</v>
+      <c r="X13" s="113">
+        <v>4638</v>
       </c>
       <c r="Y13" s="47" t="s">
         <v>18</v>
@@ -2370,10 +2396,10 @@
         <v>3921</v>
       </c>
       <c r="W14" s="51">
-        <v>4008</v>
-      </c>
-      <c r="X14" s="112">
-        <v>4036</v>
+        <v>4007</v>
+      </c>
+      <c r="X14" s="113">
+        <v>4113</v>
       </c>
       <c r="Y14" s="47" t="s">
         <v>19</v>
@@ -2444,12 +2470,14 @@
         <v>3790</v>
       </c>
       <c r="V15" s="44">
-        <v>3876</v>
+        <v>3877</v>
       </c>
       <c r="W15" s="51">
-        <v>3826</v>
-      </c>
-      <c r="X15" s="51"/>
+        <v>3825</v>
+      </c>
+      <c r="X15" s="110">
+        <v>3873</v>
+      </c>
       <c r="Y15" s="47" t="s">
         <v>20</v>
       </c>
@@ -2747,7 +2775,7 @@
         <v>4163</v>
       </c>
       <c r="W19" s="51">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="X19" s="51"/>
       <c r="Y19" s="47" t="s">
@@ -2822,7 +2850,7 @@
         <v>4645</v>
       </c>
       <c r="W20" s="51">
-        <v>4157</v>
+        <v>4162</v>
       </c>
       <c r="X20" s="51"/>
       <c r="Y20" s="47" t="s">
@@ -2897,7 +2925,7 @@
         <v>3826</v>
       </c>
       <c r="W21" s="51">
-        <v>3810</v>
+        <v>3814</v>
       </c>
       <c r="X21" s="51"/>
       <c r="Y21" s="46" t="s">
@@ -2969,10 +2997,10 @@
         <v>4240</v>
       </c>
       <c r="V22" s="43">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="W22" s="54">
-        <v>4378</v>
+        <v>4385</v>
       </c>
       <c r="X22" s="52"/>
       <c r="Y22" s="48" t="s">
@@ -3065,11 +3093,11 @@
       </c>
       <c r="V23" s="39">
         <f t="shared" ref="V23" si="1">SUM(V11:V22)</f>
-        <v>48788</v>
+        <v>48791</v>
       </c>
       <c r="W23" s="39">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50712</v>
+        <v>50727</v>
       </c>
       <c r="X23" s="39"/>
       <c r="Y23" s="8" t="s">
@@ -3235,7 +3263,7 @@
         <v>4279</v>
       </c>
       <c r="X30" s="42">
-        <v>4460</v>
+        <v>4463</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>17</v>
@@ -3309,10 +3337,10 @@
         <v>3029</v>
       </c>
       <c r="W31" s="42">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="X31" s="42">
-        <v>4315</v>
+        <v>4325</v>
       </c>
       <c r="Y31" s="6" t="s">
         <v>34</v>
@@ -3383,13 +3411,13 @@
         <v>3259</v>
       </c>
       <c r="V32" s="19">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="W32" s="42">
         <v>3405</v>
       </c>
       <c r="X32" s="42">
-        <v>3509</v>
+        <v>3524</v>
       </c>
       <c r="Y32" s="6" t="s">
         <v>18</v>
@@ -3463,10 +3491,10 @@
         <v>3006</v>
       </c>
       <c r="W33" s="24">
-        <v>2959</v>
-      </c>
-      <c r="X33" s="116">
-        <v>3111</v>
+        <v>2958</v>
+      </c>
+      <c r="X33" s="24">
+        <v>3167</v>
       </c>
       <c r="Y33" s="6" t="s">
         <v>19</v>
@@ -3542,7 +3570,9 @@
       <c r="W34" s="24">
         <v>2882</v>
       </c>
-      <c r="X34" s="24"/>
+      <c r="X34" s="114">
+        <v>2905</v>
+      </c>
       <c r="Y34" s="6" t="s">
         <v>20</v>
       </c>
@@ -3843,7 +3873,7 @@
         <v>3166</v>
       </c>
       <c r="W38" s="24">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="X38" s="24"/>
       <c r="Y38" s="6" t="s">
@@ -3918,7 +3948,7 @@
         <v>3552</v>
       </c>
       <c r="W39" s="24">
-        <v>3084</v>
+        <v>3087</v>
       </c>
       <c r="X39" s="24"/>
       <c r="Y39" s="6" t="s">
@@ -3993,7 +4023,7 @@
         <v>2845</v>
       </c>
       <c r="W40" s="53">
-        <v>2872</v>
+        <v>2875</v>
       </c>
       <c r="X40" s="53"/>
       <c r="Y40" s="5" t="s">
@@ -4065,10 +4095,10 @@
         <v>3162</v>
       </c>
       <c r="V41" s="43">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="W41" s="55">
-        <v>3372</v>
+        <v>3377</v>
       </c>
       <c r="X41" s="38"/>
       <c r="Y41" s="7" t="s">
@@ -4161,11 +4191,11 @@
       </c>
       <c r="V42" s="39">
         <f t="shared" ref="V42" si="4">SUM(V30:V41)</f>
-        <v>36913</v>
+        <v>36915</v>
       </c>
       <c r="W42" s="39">
         <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
-        <v>38306</v>
+        <v>38318</v>
       </c>
       <c r="X42" s="39"/>
       <c r="Y42" s="29" t="s">
@@ -4183,7 +4213,7 @@
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4201,7 +4231,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="Y45" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4235,12 +4265,12 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="117" t="s">
+      <c r="A48" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="117"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="117"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
       <c r="Y48" s="30" t="s">
         <v>35</v>
       </c>
@@ -4279,8 +4309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4296,7 +4326,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4354,30 +4384,30 @@
       <c r="D11" s="63"/>
       <c r="E11" s="64"/>
     </row>
-    <row r="12" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="65"/>
-      <c r="E12" s="91"/>
-    </row>
-    <row r="13" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="93" t="s">
+      <c r="E12" s="89"/>
+    </row>
+    <row r="13" spans="1:5" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="65"/>
-      <c r="E13" s="91"/>
-    </row>
-    <row r="14" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
+      <c r="E13" s="89"/>
+    </row>
+    <row r="14" spans="1:5" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="92"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="65"/>
-      <c r="E14" s="91"/>
+      <c r="E14" s="89"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="62" t="s">
@@ -4446,7 +4476,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="C49" s="75">
-        <v>2908</v>
+        <v>2911</v>
       </c>
       <c r="D49" s="76">
         <v>3354</v>
@@ -4461,7 +4491,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="C50" s="75">
-        <v>3254</v>
+        <v>3257</v>
       </c>
       <c r="D50" s="78">
         <v>3354</v>
@@ -4476,75 +4506,75 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C51" s="75">
-        <v>4430</v>
+        <v>4445</v>
       </c>
       <c r="D51" s="78">
-        <v>4829</v>
+        <v>4832</v>
       </c>
       <c r="E51" s="72"/>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="74">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="C52" s="75">
-        <v>2767</v>
-      </c>
-      <c r="D52" s="78">
-        <v>2496</v>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="116">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="C52" s="117">
+        <v>3038</v>
+      </c>
+      <c r="D52" s="118">
+        <v>2595</v>
       </c>
       <c r="E52" s="72"/>
     </row>
     <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="80"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="74"/>
       <c r="C53" s="75"/>
       <c r="D53" s="78"/>
       <c r="E53" s="72"/>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="74">
-        <v>0.104</v>
-      </c>
-      <c r="C54" s="75">
-        <v>10451</v>
-      </c>
-      <c r="D54" s="78">
-        <v>10679</v>
-      </c>
-      <c r="E54" s="82"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="116">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="C54" s="117">
+        <v>10740</v>
+      </c>
+      <c r="D54" s="118">
+        <v>10781</v>
+      </c>
+      <c r="E54" s="80"/>
     </row>
     <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="73"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="84"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="82"/>
       <c r="D55" s="76"/>
-      <c r="E55" s="85"/>
+      <c r="E55" s="83"/>
     </row>
     <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="83"/>
-      <c r="C56" s="84"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="82"/>
       <c r="D56" s="76"/>
-      <c r="E56" s="86"/>
+      <c r="E56" s="84"/>
     </row>
     <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="87">
+      <c r="B57" s="85">
         <v>3.9E-2</v>
       </c>
       <c r="C57" s="75">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D57" s="78">
         <v>288</v>
@@ -4556,7 +4586,7 @@
       <c r="A58" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="87">
+      <c r="B58" s="85">
         <v>0.17100000000000001</v>
       </c>
       <c r="C58" s="75">
@@ -4572,52 +4602,52 @@
       <c r="A59" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="88">
+      <c r="B59" s="86">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C59" s="75">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="D59" s="78">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
     </row>
     <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="108">
+      <c r="B60" s="106">
         <v>0.17</v>
       </c>
-      <c r="C60" s="109">
-        <v>2417</v>
-      </c>
-      <c r="D60" s="110">
-        <v>1676</v>
+      <c r="C60" s="107">
+        <v>2323</v>
+      </c>
+      <c r="D60" s="108">
+        <v>1678</v>
       </c>
       <c r="F60" s="27"/>
       <c r="G60" s="27"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="103" t="s">
+      <c r="A61" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="B61" s="104">
-        <v>0.19</v>
-      </c>
-      <c r="C61" s="105">
-        <v>2521</v>
-      </c>
-      <c r="D61" s="106">
-        <v>2294</v>
+      <c r="B61" s="102">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C61" s="103">
+        <v>2569</v>
+      </c>
+      <c r="D61" s="104">
+        <v>2303</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
     </row>
     <row r="62" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="89" t="s">
+      <c r="A62" s="87" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="64"/>
@@ -4734,8 +4764,8 @@
     <hyperlink ref="A13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4743,8 +4773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4756,18 +4786,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -4798,7 +4828,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="95" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4808,7 +4838,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="96" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4840,7 +4870,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="C50" s="75">
-        <v>2908</v>
+        <v>2911</v>
       </c>
       <c r="D50" s="76">
         <v>3354</v>
@@ -4854,7 +4884,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="C51" s="75">
-        <v>3254</v>
+        <v>3257</v>
       </c>
       <c r="D51" s="78">
         <v>3354</v>
@@ -4868,69 +4898,69 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C52" s="75">
-        <v>4430</v>
+        <v>4445</v>
       </c>
       <c r="D52" s="78">
-        <v>4829</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="74">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="C53" s="75">
-        <v>2767</v>
-      </c>
-      <c r="D53" s="78">
-        <v>2496</v>
+      <c r="A53" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="116">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="C53" s="117">
+        <v>3038</v>
+      </c>
+      <c r="D53" s="118">
+        <v>2595</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="100"/>
-      <c r="B54" s="74"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="78"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="118"/>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="101" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="74">
-        <v>0.104</v>
-      </c>
-      <c r="C55" s="75">
-        <v>10451</v>
-      </c>
-      <c r="D55" s="78">
-        <v>10679</v>
+      <c r="A55" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="116">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="C55" s="117">
+        <v>10740</v>
+      </c>
+      <c r="D55" s="118">
+        <v>10781</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="73"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="84"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="82"/>
       <c r="D56" s="76"/>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="83"/>
-      <c r="C57" s="84"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="76"/>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="87">
+      <c r="B58" s="85">
         <v>3.9E-2</v>
       </c>
       <c r="C58" s="75">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D58" s="78">
         <v>288</v>
@@ -4940,7 +4970,7 @@
       <c r="A59" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="87">
+      <c r="B59" s="85">
         <v>0.17100000000000001</v>
       </c>
       <c r="C59" s="75">
@@ -4954,46 +4984,46 @@
       <c r="A60" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="88">
+      <c r="B60" s="86">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C60" s="75">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="D60" s="78">
-        <v>3298</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="107" t="s">
+      <c r="A61" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="108">
+      <c r="B61" s="106">
         <v>0.17</v>
       </c>
-      <c r="C61" s="109">
-        <v>2417</v>
-      </c>
-      <c r="D61" s="110">
-        <v>1676</v>
+      <c r="C61" s="107">
+        <v>2423</v>
+      </c>
+      <c r="D61" s="108">
+        <v>1678</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="111" t="s">
+      <c r="A62" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="B62" s="104">
-        <v>0.19</v>
-      </c>
-      <c r="C62" s="105">
-        <v>2521</v>
-      </c>
-      <c r="D62" s="106">
-        <v>2294</v>
+      <c r="B62" s="102">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C62" s="103">
+        <v>2569</v>
+      </c>
+      <c r="D62" s="104">
+        <v>2303</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="102" t="s">
+      <c r="A63" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="64"/>
@@ -5011,12 +5041,13 @@
     <hyperlink ref="A13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="512" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="69306ea063928cb1542fb1a47d04db72">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="542" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="b8230e5cc20ca42759b0a6e2af5bd600">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -5252,9 +5283,9 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
     <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
@@ -5262,7 +5293,7 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-05-23T21:00:00+00:00</CbsDataPublishDate>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-07-04T21:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -5274,13 +5305,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF7EE5CD-66EC-4DD2-8746-8E1ED25D77A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9DDBFDD-DA90-4D09-BC66-E3887F15BB30}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78D9044-B5F2-427F-91BE-361F54E7C693}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC2BD9D-5B77-4D27-A518-496BF8903F8B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A381087C-5D28-464A-B043-8F2622A529A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B34D28D-50B1-4824-9F7E-3840D2F197C6}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -505,16 +505,16 @@
     <t>March 2020-May 2022</t>
   </si>
   <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 05/07/2022.</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 05/07/2022.</t>
-  </si>
-  <si>
-    <t>עודכן: 05/07/22</t>
-  </si>
-  <si>
-    <t>Updated: 5 July 2022</t>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 12/07/2022.</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 12/07/2022.</t>
+  </si>
+  <si>
+    <t>עודכן: 12/07/22</t>
+  </si>
+  <si>
+    <t>Updated: 12 July 2022</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1571,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,19 +1605,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>641622</xdr:colOff>
+      <xdr:colOff>622572</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>175328</xdr:rowOff>
+      <xdr:rowOff>140656</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1630,8 +1630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11227961778" y="3200400"/>
-          <a:ext cx="9004572" cy="5175953"/>
+          <a:off x="11227980828" y="3171825"/>
+          <a:ext cx="9004572" cy="5169856"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1648,19 +1648,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>278938</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>30585</xdr:rowOff>
+      <xdr:colOff>202738</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>144885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1673,7 +1673,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="438150" y="3028950"/>
+          <a:off x="361950" y="2962275"/>
           <a:ext cx="9327688" cy="5602710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1976,7 +1976,7 @@
   <dimension ref="A2:AP59"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="X9" s="37">
-        <v>44747</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2168,7 +2168,7 @@
         <v>5492</v>
       </c>
       <c r="X11" s="111">
-        <v>5715</v>
+        <v>5716</v>
       </c>
       <c r="Y11" s="46" t="s">
         <v>17</v>
@@ -2245,7 +2245,7 @@
         <v>4534</v>
       </c>
       <c r="X12" s="113">
-        <v>5452</v>
+        <v>5455</v>
       </c>
       <c r="Y12" s="47" t="s">
         <v>34</v>
@@ -2319,7 +2319,7 @@
         <v>4181</v>
       </c>
       <c r="W13" s="51">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="X13" s="113">
         <v>4638</v>
@@ -2399,7 +2399,7 @@
         <v>4007</v>
       </c>
       <c r="X14" s="113">
-        <v>4113</v>
+        <v>4123</v>
       </c>
       <c r="Y14" s="47" t="s">
         <v>19</v>
@@ -2476,7 +2476,7 @@
         <v>3825</v>
       </c>
       <c r="X15" s="110">
-        <v>3873</v>
+        <v>3885</v>
       </c>
       <c r="Y15" s="47" t="s">
         <v>20</v>
@@ -2625,7 +2625,7 @@
         <v>3701</v>
       </c>
       <c r="W17" s="51">
-        <v>3726</v>
+        <v>3727</v>
       </c>
       <c r="X17" s="51"/>
       <c r="Y17" s="47" t="s">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="W23" s="39">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50727</v>
+        <v>50729</v>
       </c>
       <c r="X23" s="39"/>
       <c r="Y23" s="8" t="s">
@@ -3263,7 +3263,7 @@
         <v>4279</v>
       </c>
       <c r="X30" s="42">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>17</v>
@@ -3340,7 +3340,7 @@
         <v>3405</v>
       </c>
       <c r="X31" s="42">
-        <v>4325</v>
+        <v>4327</v>
       </c>
       <c r="Y31" s="6" t="s">
         <v>34</v>
@@ -3494,7 +3494,7 @@
         <v>2958</v>
       </c>
       <c r="X33" s="24">
-        <v>3167</v>
+        <v>3176</v>
       </c>
       <c r="Y33" s="6" t="s">
         <v>19</v>
@@ -3571,7 +3571,7 @@
         <v>2882</v>
       </c>
       <c r="X34" s="114">
-        <v>2905</v>
+        <v>2912</v>
       </c>
       <c r="Y34" s="6" t="s">
         <v>20</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4231,7 +4231,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="Y45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4309,8 +4309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:C61"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4506,7 +4506,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C51" s="75">
-        <v>4445</v>
+        <v>4447</v>
       </c>
       <c r="D51" s="78">
         <v>4832</v>
@@ -4518,10 +4518,10 @@
         <v>89</v>
       </c>
       <c r="B52" s="116">
-        <v>0.14599999999999999</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="C52" s="117">
-        <v>3038</v>
+        <v>3064</v>
       </c>
       <c r="D52" s="118">
         <v>2595</v>
@@ -4540,10 +4540,10 @@
         <v>90</v>
       </c>
       <c r="B54" s="116">
-        <v>0.10299999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="C54" s="117">
-        <v>10740</v>
+        <v>10768</v>
       </c>
       <c r="D54" s="118">
         <v>10781</v>
@@ -4606,7 +4606,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C59" s="75">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="D59" s="78">
         <v>3299</v>
@@ -4622,7 +4622,7 @@
         <v>0.17</v>
       </c>
       <c r="C60" s="107">
-        <v>2323</v>
+        <v>2424</v>
       </c>
       <c r="D60" s="108">
         <v>1678</v>
@@ -4638,7 +4638,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="C61" s="103">
-        <v>2569</v>
+        <v>2573</v>
       </c>
       <c r="D61" s="104">
         <v>2303</v>
@@ -4773,8 +4773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4898,7 +4898,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C52" s="75">
-        <v>4445</v>
+        <v>4447</v>
       </c>
       <c r="D52" s="78">
         <v>4832</v>
@@ -4909,10 +4909,10 @@
         <v>91</v>
       </c>
       <c r="B53" s="116">
-        <v>0.14599999999999999</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="C53" s="117">
-        <v>3038</v>
+        <v>3064</v>
       </c>
       <c r="D53" s="118">
         <v>2595</v>
@@ -4929,10 +4929,10 @@
         <v>92</v>
       </c>
       <c r="B55" s="116">
-        <v>0.10299999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="C55" s="117">
-        <v>10740</v>
+        <v>10768</v>
       </c>
       <c r="D55" s="118">
         <v>10781</v>
@@ -4988,7 +4988,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C60" s="75">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="D60" s="78">
         <v>3299</v>
@@ -5002,7 +5002,7 @@
         <v>0.17</v>
       </c>
       <c r="C61" s="107">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="D61" s="108">
         <v>1678</v>
@@ -5016,7 +5016,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="C62" s="103">
-        <v>2569</v>
+        <v>2573</v>
       </c>
       <c r="D62" s="104">
         <v>2303</v>
@@ -5047,7 +5047,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="542" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="b8230e5cc20ca42759b0a6e2af5bd600">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="564" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="9fde17a863016ff53f1032de937f1463">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -5279,10 +5279,10 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <nfa41555e3464cf4bb914e89b71e6bff xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
-    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -5293,7 +5293,7 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-07-04T21:00:00+00:00</CbsDataPublishDate>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-07-11T21:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -5305,13 +5305,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9DDBFDD-DA90-4D09-BC66-E3887F15BB30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DE299DF-C75D-4BC6-8DD1-62C6CD09910C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC2BD9D-5B77-4D27-A518-496BF8903F8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B86BBE5-143F-4DD2-BC0F-7B73CF701AF4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B34D28D-50B1-4824-9F7E-3840D2F197C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BAFD3C7-E3BF-43A0-B3DA-A5B2784E0B5D}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -487,34 +487,34 @@
     </r>
   </si>
   <si>
-    <t>ינואר עד מרץ 2022</t>
-  </si>
-  <si>
-    <t>Jan.-March 2022</t>
-  </si>
-  <si>
-    <t>ינואר עד מאי 2022</t>
-  </si>
-  <si>
-    <t>מרץ 2020 עד מאי 2022</t>
-  </si>
-  <si>
-    <t>Jan.-May 2022</t>
-  </si>
-  <si>
-    <t>March 2020-May 2022</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 12/07/2022.</t>
-  </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 12/07/2022.</t>
-  </si>
-  <si>
-    <t>עודכן: 12/07/22</t>
-  </si>
-  <si>
-    <t>Updated: 12 July 2022</t>
+    <t>ינואר עד יוני 2022</t>
+  </si>
+  <si>
+    <t>מרץ 2020 עד יוני 2022</t>
+  </si>
+  <si>
+    <t>Jan.-June 2022</t>
+  </si>
+  <si>
+    <t>March 2020-June 2022</t>
+  </si>
+  <si>
+    <t>ינואר עד אפריל 2022</t>
+  </si>
+  <si>
+    <t>Jan.-April 2022</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 09/08/2022.</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 09/08/2022.</t>
+  </si>
+  <si>
+    <t>עודכן: 09/08/22</t>
+  </si>
+  <si>
+    <t>Updated: 09 August 2022</t>
   </si>
 </sst>
 </file>
@@ -1605,15 +1605,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>622572</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>140656</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>125778</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>111707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1630,8 +1630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11227980828" y="3171825"/>
-          <a:ext cx="9004572" cy="5169856"/>
+          <a:off x="11227791822" y="3181350"/>
+          <a:ext cx="9345978" cy="5255207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1648,15 +1648,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>202738</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582978</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>144885</xdr:rowOff>
+      <xdr:rowOff>160119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1673,8 +1673,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="2962275"/>
-          <a:ext cx="9327688" cy="5602710"/>
+          <a:off x="152400" y="2933700"/>
+          <a:ext cx="9345978" cy="5541744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1976,7 +1976,7 @@
   <dimension ref="A2:AP59"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1989,10 +1989,10 @@
     <col min="29" max="31" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:42" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:42" ht="30" x14ac:dyDescent="0.5">
       <c r="M2" s="112"/>
     </row>
-    <row r="6" spans="1:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
@@ -2001,7 +2001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -2016,9 +2016,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="X9" s="37">
-        <v>44754</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2168,7 +2168,7 @@
         <v>5492</v>
       </c>
       <c r="X11" s="111">
-        <v>5716</v>
+        <v>5719</v>
       </c>
       <c r="Y11" s="46" t="s">
         <v>17</v>
@@ -2245,7 +2245,7 @@
         <v>4534</v>
       </c>
       <c r="X12" s="113">
-        <v>5455</v>
+        <v>5454</v>
       </c>
       <c r="Y12" s="47" t="s">
         <v>34</v>
@@ -2322,7 +2322,7 @@
         <v>4482</v>
       </c>
       <c r="X13" s="113">
-        <v>4638</v>
+        <v>4641</v>
       </c>
       <c r="Y13" s="47" t="s">
         <v>18</v>
@@ -2399,7 +2399,7 @@
         <v>4007</v>
       </c>
       <c r="X14" s="113">
-        <v>4123</v>
+        <v>4132</v>
       </c>
       <c r="Y14" s="47" t="s">
         <v>19</v>
@@ -2470,13 +2470,13 @@
         <v>3790</v>
       </c>
       <c r="V15" s="44">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="W15" s="51">
         <v>3825</v>
       </c>
-      <c r="X15" s="110">
-        <v>3885</v>
+      <c r="X15" s="113">
+        <v>3909</v>
       </c>
       <c r="Y15" s="47" t="s">
         <v>20</v>
@@ -2552,7 +2552,9 @@
       <c r="W16" s="51">
         <v>3511</v>
       </c>
-      <c r="X16" s="51"/>
+      <c r="X16" s="110">
+        <v>3622</v>
+      </c>
       <c r="Y16" s="47" t="s">
         <v>21</v>
       </c>
@@ -2622,10 +2624,10 @@
         <v>3436</v>
       </c>
       <c r="V17" s="44">
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="W17" s="51">
-        <v>3727</v>
+        <v>3728</v>
       </c>
       <c r="X17" s="51"/>
       <c r="Y17" s="47" t="s">
@@ -2700,7 +2702,7 @@
         <v>4025</v>
       </c>
       <c r="W18" s="51">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="X18" s="51"/>
       <c r="Y18" s="47" t="s">
@@ -2925,7 +2927,7 @@
         <v>3826</v>
       </c>
       <c r="W21" s="51">
-        <v>3814</v>
+        <v>3815</v>
       </c>
       <c r="X21" s="51"/>
       <c r="Y21" s="46" t="s">
@@ -3000,7 +3002,7 @@
         <v>4488</v>
       </c>
       <c r="W22" s="54">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="X22" s="52"/>
       <c r="Y22" s="48" t="s">
@@ -3093,11 +3095,11 @@
       </c>
       <c r="V23" s="39">
         <f t="shared" ref="V23" si="1">SUM(V11:V22)</f>
-        <v>48791</v>
+        <v>48793</v>
       </c>
       <c r="W23" s="39">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50729</v>
+        <v>50733</v>
       </c>
       <c r="X23" s="39"/>
       <c r="Y23" s="8" t="s">
@@ -3263,7 +3265,7 @@
         <v>4279</v>
       </c>
       <c r="X30" s="42">
-        <v>4464</v>
+        <v>4467</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>17</v>
@@ -3340,7 +3342,7 @@
         <v>3405</v>
       </c>
       <c r="X31" s="42">
-        <v>4327</v>
+        <v>4325</v>
       </c>
       <c r="Y31" s="6" t="s">
         <v>34</v>
@@ -3417,7 +3419,7 @@
         <v>3405</v>
       </c>
       <c r="X32" s="42">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="Y32" s="6" t="s">
         <v>18</v>
@@ -3494,7 +3496,7 @@
         <v>2958</v>
       </c>
       <c r="X33" s="24">
-        <v>3176</v>
+        <v>3183</v>
       </c>
       <c r="Y33" s="6" t="s">
         <v>19</v>
@@ -3570,8 +3572,8 @@
       <c r="W34" s="24">
         <v>2882</v>
       </c>
-      <c r="X34" s="114">
-        <v>2912</v>
+      <c r="X34" s="24">
+        <v>2930</v>
       </c>
       <c r="Y34" s="6" t="s">
         <v>20</v>
@@ -3650,7 +3652,9 @@
       <c r="W35" s="24">
         <v>2590</v>
       </c>
-      <c r="X35" s="24"/>
+      <c r="X35" s="114">
+        <v>2721</v>
+      </c>
       <c r="Y35" s="6" t="s">
         <v>21</v>
       </c>
@@ -3798,7 +3802,7 @@
         <v>3009</v>
       </c>
       <c r="W37" s="24">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="X37" s="24"/>
       <c r="Y37" s="6" t="s">
@@ -4022,8 +4026,8 @@
       <c r="V40" s="41">
         <v>2845</v>
       </c>
-      <c r="W40" s="53">
-        <v>2875</v>
+      <c r="W40" s="24">
+        <v>2876</v>
       </c>
       <c r="X40" s="53"/>
       <c r="Y40" s="5" t="s">
@@ -4098,7 +4102,7 @@
         <v>3419</v>
       </c>
       <c r="W41" s="55">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="X41" s="38"/>
       <c r="Y41" s="7" t="s">
@@ -4195,7 +4199,7 @@
       </c>
       <c r="W42" s="39">
         <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
-        <v>38318</v>
+        <v>38321</v>
       </c>
       <c r="X42" s="39"/>
       <c r="Y42" s="29" t="s">
@@ -4309,7 +4313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -4329,7 +4333,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:5" s="58" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" s="58" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
         <v>43</v>
@@ -4393,7 +4397,7 @@
       <c r="D12" s="65"/>
       <c r="E12" s="89"/>
     </row>
-    <row r="13" spans="1:5" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="90" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A13" s="91" t="s">
         <v>64</v>
       </c>
@@ -4402,7 +4406,7 @@
       <c r="D13" s="65"/>
       <c r="E13" s="89"/>
     </row>
-    <row r="14" spans="1:5" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="90" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A14" s="92"/>
       <c r="B14" s="88"/>
       <c r="C14" s="88"/>
@@ -4418,42 +4422,42 @@
       <c r="D15" s="65"/>
       <c r="E15" s="66"/>
     </row>
-    <row r="32" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="58" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
       <c r="C32" s="60"/>
       <c r="D32" s="60"/>
       <c r="E32" s="61"/>
     </row>
-    <row r="33" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="58" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
       <c r="C33" s="60"/>
       <c r="D33" s="60"/>
       <c r="E33" s="61"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A45" s="67"/>
       <c r="B45" s="64"/>
       <c r="C45" s="68"/>
       <c r="D45" s="65"/>
       <c r="E45" s="66"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A46" s="67"/>
       <c r="B46" s="64"/>
       <c r="C46" s="68"/>
       <c r="D46" s="65"/>
       <c r="E46" s="66"/>
     </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="67"/>
       <c r="B47" s="64"/>
       <c r="C47" s="68"/>
       <c r="D47" s="65"/>
       <c r="E47" s="66"/>
     </row>
-    <row r="48" spans="1:5" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A48" s="69" t="s">
         <v>49</v>
       </c>
@@ -4467,8 +4471,17 @@
         <v>61</v>
       </c>
       <c r="E48" s="72"/>
-    </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="73" t="s">
         <v>52</v>
       </c>
@@ -4476,14 +4489,23 @@
         <v>6.3E-2</v>
       </c>
       <c r="C49" s="75">
-        <v>2911</v>
+        <v>2913</v>
       </c>
       <c r="D49" s="76">
         <v>3354</v>
       </c>
       <c r="E49" s="72"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="77" t="s">
         <v>53</v>
       </c>
@@ -4491,14 +4513,23 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="C50" s="75">
-        <v>3257</v>
+        <v>3259</v>
       </c>
       <c r="D50" s="78">
         <v>3354</v>
       </c>
       <c r="E50" s="72"/>
-    </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="73" t="s">
         <v>54</v>
       </c>
@@ -4506,58 +4537,103 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C51" s="75">
-        <v>4447</v>
+        <v>4451</v>
       </c>
       <c r="D51" s="78">
         <v>4832</v>
       </c>
       <c r="E51" s="72"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="115" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B52" s="116">
-        <v>0.14799999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C52" s="117">
-        <v>3064</v>
+        <v>3270</v>
       </c>
       <c r="D52" s="118">
-        <v>2595</v>
+        <v>2736</v>
       </c>
       <c r="E52" s="72"/>
-    </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="79"/>
       <c r="B53" s="74"/>
       <c r="C53" s="75"/>
       <c r="D53" s="78"/>
       <c r="E53" s="72"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="119" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B54" s="116">
-        <v>0.104</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C54" s="117">
-        <v>10768</v>
+        <v>10980</v>
       </c>
       <c r="D54" s="118">
-        <v>10781</v>
+        <v>10922</v>
       </c>
       <c r="E54" s="80"/>
-    </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="73"/>
       <c r="B55" s="81"/>
       <c r="C55" s="82"/>
       <c r="D55" s="76"/>
       <c r="E55" s="83"/>
-    </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="73" t="s">
         <v>55</v>
       </c>
@@ -4565,8 +4641,17 @@
       <c r="C56" s="82"/>
       <c r="D56" s="76"/>
       <c r="E56" s="84"/>
-    </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="73" t="s">
         <v>56</v>
       </c>
@@ -4574,15 +4659,22 @@
         <v>3.9E-2</v>
       </c>
       <c r="C57" s="75">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D57" s="78">
         <v>288</v>
       </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-    </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="73" t="s">
         <v>57</v>
       </c>
@@ -4590,15 +4682,22 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="C58" s="75">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="D58" s="78">
         <v>2231</v>
       </c>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-    </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="73" t="s">
         <v>58</v>
       </c>
@@ -4611,10 +4710,17 @@
       <c r="D59" s="78">
         <v>3299</v>
       </c>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-    </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="105" t="s">
         <v>59</v>
       </c>
@@ -4622,31 +4728,45 @@
         <v>0.17</v>
       </c>
       <c r="C60" s="107">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="D60" s="108">
         <v>1678</v>
       </c>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="101" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B61" s="102">
-        <v>0.19400000000000001</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="C61" s="103">
-        <v>2573</v>
+        <v>2920</v>
       </c>
       <c r="D61" s="104">
-        <v>2303</v>
-      </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-    </row>
-    <row r="62" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+        <v>2506</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A62" s="87" t="s">
         <v>62</v>
       </c>
@@ -4654,15 +4774,24 @@
       <c r="C62" s="64"/>
       <c r="D62" s="64"/>
       <c r="E62" s="64"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="63"/>
       <c r="B63" s="63"/>
       <c r="C63" s="63"/>
       <c r="D63" s="63"/>
       <c r="E63" s="64"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="62"/>
       <c r="B64" s="63"/>
       <c r="C64" s="63"/>
@@ -4773,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4783,9 +4912,10 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17.45" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="s">
         <v>65</v>
       </c>
@@ -4795,54 +4925,54 @@
       <c r="E1" s="94"/>
       <c r="F1" s="94"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A11" s="95" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -4870,7 +5000,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="C50" s="75">
-        <v>2911</v>
+        <v>2913</v>
       </c>
       <c r="D50" s="76">
         <v>3354</v>
@@ -4884,7 +5014,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="C51" s="75">
-        <v>3257</v>
+        <v>3259</v>
       </c>
       <c r="D51" s="78">
         <v>3354</v>
@@ -4898,7 +5028,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C52" s="75">
-        <v>4447</v>
+        <v>4451</v>
       </c>
       <c r="D52" s="78">
         <v>4832</v>
@@ -4906,16 +5036,16 @@
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="97" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B53" s="116">
-        <v>0.14799999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C53" s="117">
-        <v>3064</v>
+        <v>3270</v>
       </c>
       <c r="D53" s="118">
-        <v>2595</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -4926,16 +5056,16 @@
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B55" s="116">
-        <v>0.104</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C55" s="117">
-        <v>10768</v>
+        <v>10980</v>
       </c>
       <c r="D55" s="118">
-        <v>10781</v>
+        <v>10922</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4960,7 +5090,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="C58" s="75">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D58" s="78">
         <v>288</v>
@@ -4974,7 +5104,7 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="C59" s="75">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="D59" s="78">
         <v>2231</v>
@@ -5002,7 +5132,7 @@
         <v>0.17</v>
       </c>
       <c r="C61" s="107">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="D61" s="108">
         <v>1678</v>
@@ -5010,16 +5140,16 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="109" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B62" s="102">
-        <v>0.19400000000000001</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="C62" s="103">
-        <v>2573</v>
+        <v>2920</v>
       </c>
       <c r="D62" s="104">
-        <v>2303</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -5047,7 +5177,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="564" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="9fde17a863016ff53f1032de937f1463">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="648" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="6fe76592073f86b0c01d83b0ad124545">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -5286,14 +5416,14 @@
     <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-08-09T21:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-07-11T21:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -5305,13 +5435,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DE299DF-C75D-4BC6-8DD1-62C6CD09910C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB90D10F-791D-40A3-877D-BF8E0DBD5EA4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B86BBE5-143F-4DD2-BC0F-7B73CF701AF4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DB8E588-A7E3-4CDD-BE46-E5DC264E24F8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BAFD3C7-E3BF-43A0-B3DA-A5B2784E0B5D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2335E3DE-D849-4C62-BBC8-3424A1DACAD3}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -11,6 +11,9 @@
     <sheet name="עודף תמותה" sheetId="3" r:id="rId2"/>
     <sheet name="Excess mortality" sheetId="4" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_01.12.20">'פטירות לפי שנה וחודש'!$X$9</definedName>
     <definedName name="name_change">#REF!</definedName>
@@ -141,48 +144,6 @@
   </si>
   <si>
     <t>Deaths of Israeli Residents, by Year and Month, 2000-2022 - Age 70 and Up</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. נתוני 2022-2020 אינם סופיים, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ונתוני החודש האחרון אינם מלאים. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. Data for 2020-2022 are not final,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> data for the latest month are incomplete.</t>
-    </r>
   </si>
   <si>
     <t>עודף תמותה בתקופת הקורונה</t>
@@ -505,16 +466,58 @@
     <t>Jan.-April 2022</t>
   </si>
   <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 09/08/2022.</t>
-  </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 09/08/2022.</t>
-  </si>
-  <si>
-    <t>עודכן: 09/08/22</t>
-  </si>
-  <si>
-    <t>Updated: 09 August 2022</t>
+    <r>
+      <t xml:space="preserve">1. נתוני 2022-2021 אינם סופיים, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ונתוני החודש האחרון אינם מלאים. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Data for 2021-2022 are not final,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data for the latest month are incomplete.</t>
+    </r>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 16/08/2022.</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 16/08/2022.</t>
+  </si>
+  <si>
+    <t>עודכן: 16/08/22</t>
+  </si>
+  <si>
+    <t>Updated: 16 August 2022</t>
   </si>
 </sst>
 </file>
@@ -804,7 +807,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -871,21 +874,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1341,27 +1329,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1383,28 +1371,26 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1433,29 +1419,29 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1465,7 +1451,7 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1483,43 +1469,43 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="30" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="30" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1528,12 +1514,14 @@
     <xf numFmtId="3" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
@@ -1556,6 +1544,1469 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Predicted, Actual and Excess Mortality, by Month </a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Jaunuary 2020 Through June 2022 </a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6527776658419223E-2"/>
+          <c:y val="0.13894615298780813"/>
+          <c:w val="0.83237432066129913"/>
+          <c:h val="0.61574689239794389"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]תחזית כל הגילאים'!$D$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total deaths per month</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'[1]תחזית כל הגילאים'!$B$57:$C$86</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>January</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>February</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>March</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>April</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>June</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>July</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>August</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>September</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>October</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>November</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>December</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>January</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>February</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>March</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>April</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>June</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>July</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>August</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>September</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>October</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>November</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>December</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>January</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>February</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>March</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>April</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>June</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]תחזית כל הגילאים'!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>4585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3878</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4163</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3827</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4489</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5492</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4534</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4482</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3825</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3511</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3729</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4505</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4286</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4162</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3815</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4386</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5720</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5456</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4642</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4134</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3912</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]תחזית כל הגילאים'!$E$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted deaths per month</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'[1]תחזית כל הגילאים'!$B$57:$C$86</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>January</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>February</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>March</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>April</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>June</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>July</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>August</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>September</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>October</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>November</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>December</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>January</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>February</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>March</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>April</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>June</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>July</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>August</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>September</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>October</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>November</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>December</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>January</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>February</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>March</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>April</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>June</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]תחזית כל הגילאים'!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>4727.3499999999913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4166.3499999999922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4141.5499999999911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3723.1499999999924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3660.1499999999924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3386.9499999999921</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3487.3499999999926</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3539.9499999999916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3413.1499999999915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3680.1499999999924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3736.549999999992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4217.3499999999922</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4760.8000000000029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4199.8000000000038</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4175.0000000000027</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3756.600000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3693.600000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3420.4000000000037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3520.8000000000043</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3573.4000000000033</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3446.6000000000031</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4251</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4794.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4233.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4208.45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3790.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3727.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3453.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]תחזית כל הגילאים'!$F$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Excess deaths</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'[1]תחזית כל הגילאים'!$B$57:$C$86</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>January</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>February</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>March</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>April</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>June</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>July</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>August</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>September</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>October</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>November</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>December</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>January</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>February</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>March</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>April</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>June</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>July</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>August</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>September</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>October</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>November</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>December</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>January</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>February</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>March</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>April</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>June</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]תחזית כל הגילאים'!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-142.34999999999127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-203.34999999999218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.450000000008913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>197.85000000000764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217.85000000000764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.050000000007913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213.65000000000737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>486.05000000000837</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>749.85000000000855</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>964.85000000000764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.450000000008004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>271.65000000000782</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>731.19999999999709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>334.19999999999618</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>306.99999999999727</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250.399999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131.399999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.599999999996271</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>208.19999999999573</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>931.59999999999673</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>839.39999999999691</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>925.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1222.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>433.55000000000018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>343.94999999999982</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>184.94999999999982</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>180.15000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]תחזית כל הגילאים'!$G$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deaths from COVID-19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'[1]תחזית כל הגילאים'!$B$57:$C$86</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>January</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>February</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>March</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>April</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>June</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>July</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>August</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>September</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>October</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>November</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>December</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>January</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>February</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>March</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>April</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>June</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>July</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>August</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>September</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>October</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>November</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>December</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>January</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>February</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>March</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>April</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>June</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]תחזית כל הגילאים'!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1257</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="135486464"/>
+        <c:axId val="156997504"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]תחזית כל הגילאים'!$H$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Excess mortality (percents)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'[1]תחזית כל הגילאים'!$B$57:$C$85</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="29"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>January</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>February</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>March</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>April</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>June</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>July</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>August</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>September</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>October</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>November</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>December</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>January</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>February</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>March</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>April</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>June</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>July</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>August</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>September</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>October</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>November</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>December</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>January</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>February</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>March</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>April</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>May</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]תחזית כל הגילאים'!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-3.0112007784486345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.8807709385911542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95254192271031368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3140485878895038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9519418603064933</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91675401172169602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1264283768479739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.730419921185597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.969441718061333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.217681344510673</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4206821800861276</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.441248651404516</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.358763233070002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.9575217867516521</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3532934131735823</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.6656018740349179</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5575048732942349</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6488130043268674</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9134287661893739</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.070409134157828</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.354436256020314</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.062466343564889</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1936339522546418</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1757233592095977</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.309589612556707</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.884426858796431</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.301892620798636</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0750781651957055</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.9623697025797835</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.2159184677968096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="177128960"/>
+        <c:axId val="168715392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="135486464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="156997504"/>
+        <c:crossesAt val="-1000"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="156997504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Number of deaths</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.9788951662516077E-3"/>
+              <c:y val="0.37158766546586741"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135486464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="168715392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Excess mortality (percents)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177128960"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="177128960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168715392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.9223451725647905E-2"/>
+          <c:y val="0.91752727766700137"/>
+          <c:w val="0.95451016422333079"/>
+          <c:h val="7.4580852994115113E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -1571,7 +3022,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,19 +3056,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>125778</xdr:colOff>
+      <xdr:colOff>240078</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>111707</xdr:rowOff>
+      <xdr:rowOff>149807</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1630,7 +3081,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11227791822" y="3181350"/>
+          <a:off x="11227677522" y="3219450"/>
           <a:ext cx="9345978" cy="5255207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1645,45 +3096,759 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>582978</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>277283</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>160119</xdr:rowOff>
+      <xdr:rowOff>100541</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="2933700"/>
-          <a:ext cx="9345978" cy="5541744"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="תחזית 20-29"/>
+      <sheetName val="גיליון12"/>
+      <sheetName val="גילאי 20-29"/>
+      <sheetName val="תחזית 70+"/>
+      <sheetName val="גיליון9"/>
+      <sheetName val="70+"/>
+      <sheetName val="תוצאת רגרסיה"/>
+      <sheetName val="כל הגילאים"/>
+      <sheetName val="תחזית כל הגילאים"/>
+      <sheetName val="גיליון14"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="2">
+          <cell r="D2">
+            <v>4585</v>
+          </cell>
+          <cell r="E2">
+            <v>4727.3499999999913</v>
+          </cell>
+          <cell r="F2">
+            <v>-142.34999999999127</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>-3.0112007784486345</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3">
+            <v>3963</v>
+          </cell>
+          <cell r="E3">
+            <v>4166.3499999999922</v>
+          </cell>
+          <cell r="F3">
+            <v>-203.34999999999218</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+          <cell r="H3">
+            <v>-4.8807709385911542</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>4181</v>
+          </cell>
+          <cell r="E4">
+            <v>4141.5499999999911</v>
+          </cell>
+          <cell r="F4">
+            <v>39.450000000008913</v>
+          </cell>
+          <cell r="G4">
+            <v>21</v>
+          </cell>
+          <cell r="H4">
+            <v>0.95254192271031368</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>3921</v>
+          </cell>
+          <cell r="E5">
+            <v>3723.1499999999924</v>
+          </cell>
+          <cell r="F5">
+            <v>197.85000000000764</v>
+          </cell>
+          <cell r="G5">
+            <v>205</v>
+          </cell>
+          <cell r="H5">
+            <v>5.3140485878895038</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>3878</v>
+          </cell>
+          <cell r="E6">
+            <v>3660.1499999999924</v>
+          </cell>
+          <cell r="F6">
+            <v>217.85000000000764</v>
+          </cell>
+          <cell r="G6">
+            <v>62</v>
+          </cell>
+          <cell r="H6">
+            <v>5.9519418603064933</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>3418</v>
+          </cell>
+          <cell r="E7">
+            <v>3386.9499999999921</v>
+          </cell>
+          <cell r="F7">
+            <v>31.050000000007913</v>
+          </cell>
+          <cell r="G7">
+            <v>40</v>
+          </cell>
+          <cell r="H7">
+            <v>0.91675401172169602</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>3701</v>
+          </cell>
+          <cell r="E8">
+            <v>3487.3499999999926</v>
+          </cell>
+          <cell r="F8">
+            <v>213.65000000000737</v>
+          </cell>
+          <cell r="G8">
+            <v>236</v>
+          </cell>
+          <cell r="H8">
+            <v>6.1264283768479739</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>4026</v>
+          </cell>
+          <cell r="E9">
+            <v>3539.9499999999916</v>
+          </cell>
+          <cell r="F9">
+            <v>486.05000000000837</v>
+          </cell>
+          <cell r="G9">
+            <v>396</v>
+          </cell>
+          <cell r="H9">
+            <v>13.730419921185597</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>4163</v>
+          </cell>
+          <cell r="E10">
+            <v>3413.1499999999915</v>
+          </cell>
+          <cell r="F10">
+            <v>749.85000000000855</v>
+          </cell>
+          <cell r="G10">
+            <v>646</v>
+          </cell>
+          <cell r="H10">
+            <v>21.969441718061333</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>4645</v>
+          </cell>
+          <cell r="E11">
+            <v>3680.1499999999924</v>
+          </cell>
+          <cell r="F11">
+            <v>964.85000000000764</v>
+          </cell>
+          <cell r="G11">
+            <v>952</v>
+          </cell>
+          <cell r="H11">
+            <v>26.217681344510673</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>3827</v>
+          </cell>
+          <cell r="E12">
+            <v>3736.549999999992</v>
+          </cell>
+          <cell r="F12">
+            <v>90.450000000008004</v>
+          </cell>
+          <cell r="G12">
+            <v>313</v>
+          </cell>
+          <cell r="H12">
+            <v>2.4206821800861276</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>4489</v>
+          </cell>
+          <cell r="E13">
+            <v>4217.3499999999922</v>
+          </cell>
+          <cell r="F13">
+            <v>271.65000000000782</v>
+          </cell>
+          <cell r="G13">
+            <v>482</v>
+          </cell>
+          <cell r="H13">
+            <v>6.441248651404516</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>5492</v>
+          </cell>
+          <cell r="E14">
+            <v>4760.8000000000029</v>
+          </cell>
+          <cell r="F14">
+            <v>731.19999999999709</v>
+          </cell>
+          <cell r="G14">
+            <v>1439</v>
+          </cell>
+          <cell r="H14">
+            <v>15.358763233070002</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>4534</v>
+          </cell>
+          <cell r="E15">
+            <v>4199.8000000000038</v>
+          </cell>
+          <cell r="F15">
+            <v>334.19999999999618</v>
+          </cell>
+          <cell r="G15">
+            <v>942</v>
+          </cell>
+          <cell r="H15">
+            <v>7.9575217867516521</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>4482</v>
+          </cell>
+          <cell r="E16">
+            <v>4175.0000000000027</v>
+          </cell>
+          <cell r="F16">
+            <v>306.99999999999727</v>
+          </cell>
+          <cell r="G16">
+            <v>436</v>
+          </cell>
+          <cell r="H16">
+            <v>7.3532934131735823</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>4007</v>
+          </cell>
+          <cell r="E17">
+            <v>3756.600000000004</v>
+          </cell>
+          <cell r="F17">
+            <v>250.399999999996</v>
+          </cell>
+          <cell r="G17">
+            <v>160</v>
+          </cell>
+          <cell r="H17">
+            <v>6.6656018740349179</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>3825</v>
+          </cell>
+          <cell r="E18">
+            <v>3693.600000000004</v>
+          </cell>
+          <cell r="F18">
+            <v>131.399999999996</v>
+          </cell>
+          <cell r="G18">
+            <v>33</v>
+          </cell>
+          <cell r="H18">
+            <v>3.5575048732942349</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>3511</v>
+          </cell>
+          <cell r="E19">
+            <v>3420.4000000000037</v>
+          </cell>
+          <cell r="F19">
+            <v>90.599999999996271</v>
+          </cell>
+          <cell r="G19">
+            <v>11</v>
+          </cell>
+          <cell r="H19">
+            <v>2.6488130043268674</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>3729</v>
+          </cell>
+          <cell r="E20">
+            <v>3520.8000000000043</v>
+          </cell>
+          <cell r="F20">
+            <v>208.19999999999573</v>
+          </cell>
+          <cell r="G20">
+            <v>57</v>
+          </cell>
+          <cell r="H20">
+            <v>5.9134287661893739</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>4505</v>
+          </cell>
+          <cell r="E21">
+            <v>3573.4000000000033</v>
+          </cell>
+          <cell r="F21">
+            <v>931.59999999999673</v>
+          </cell>
+          <cell r="G21">
+            <v>640</v>
+          </cell>
+          <cell r="H21">
+            <v>26.070409134157828</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>4286</v>
+          </cell>
+          <cell r="E22">
+            <v>3446.6000000000031</v>
+          </cell>
+          <cell r="F22">
+            <v>839.39999999999691</v>
+          </cell>
+          <cell r="G22">
+            <v>670</v>
+          </cell>
+          <cell r="H22">
+            <v>24.354436256020314</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>4162</v>
+          </cell>
+          <cell r="E23">
+            <v>3714</v>
+          </cell>
+          <cell r="F23">
+            <v>448</v>
+          </cell>
+          <cell r="G23">
+            <v>311</v>
+          </cell>
+          <cell r="H23">
+            <v>12.062466343564889</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>3815</v>
+          </cell>
+          <cell r="E24">
+            <v>3770</v>
+          </cell>
+          <cell r="F24">
+            <v>45</v>
+          </cell>
+          <cell r="G24">
+            <v>84</v>
+          </cell>
+          <cell r="H24">
+            <v>1.1936339522546418</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>4386</v>
+          </cell>
+          <cell r="E25">
+            <v>4251</v>
+          </cell>
+          <cell r="F25">
+            <v>135</v>
+          </cell>
+          <cell r="G25">
+            <v>49</v>
+          </cell>
+          <cell r="H25">
+            <v>3.1757233592095977</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>5720</v>
+          </cell>
+          <cell r="E26">
+            <v>4794.25</v>
+          </cell>
+          <cell r="F26">
+            <v>925.75</v>
+          </cell>
+          <cell r="G26">
+            <v>734</v>
+          </cell>
+          <cell r="H26">
+            <v>19.309589612556707</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>5456</v>
+          </cell>
+          <cell r="E27">
+            <v>4233.25</v>
+          </cell>
+          <cell r="F27">
+            <v>1222.75</v>
+          </cell>
+          <cell r="G27">
+            <v>1257</v>
+          </cell>
+          <cell r="H27">
+            <v>28.884426858796431</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>4642</v>
+          </cell>
+          <cell r="E28">
+            <v>4208.45</v>
+          </cell>
+          <cell r="F28">
+            <v>433.55000000000018</v>
+          </cell>
+          <cell r="G28">
+            <v>311</v>
+          </cell>
+          <cell r="H28">
+            <v>10.301892620798636</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29">
+            <v>4134</v>
+          </cell>
+          <cell r="E29">
+            <v>3790.05</v>
+          </cell>
+          <cell r="F29">
+            <v>343.94999999999982</v>
+          </cell>
+          <cell r="G29">
+            <v>204</v>
+          </cell>
+          <cell r="H29">
+            <v>9.0750781651957055</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>3912</v>
+          </cell>
+          <cell r="E30">
+            <v>3727.05</v>
+          </cell>
+          <cell r="F30">
+            <v>184.94999999999982</v>
+          </cell>
+          <cell r="G30">
+            <v>88</v>
+          </cell>
+          <cell r="H30">
+            <v>4.9623697025797835</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31">
+            <v>3634</v>
+          </cell>
+          <cell r="E31">
+            <v>3453.85</v>
+          </cell>
+          <cell r="F31">
+            <v>180.15000000000009</v>
+          </cell>
+          <cell r="G31">
+            <v>142</v>
+          </cell>
+          <cell r="H31">
+            <v>5.2159184677968096</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="D56" t="str">
+            <v>Total deaths per month</v>
+          </cell>
+          <cell r="E56" t="str">
+            <v>Predicted deaths per month</v>
+          </cell>
+          <cell r="F56" t="str">
+            <v>Excess deaths</v>
+          </cell>
+          <cell r="G56" t="str">
+            <v>Deaths from COVID-19</v>
+          </cell>
+          <cell r="H56" t="str">
+            <v>Excess mortality (percents)</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>2020</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>January</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58" t="str">
+            <v>February</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59" t="str">
+            <v>March</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60" t="str">
+            <v>April</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61" t="str">
+            <v>May</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62" t="str">
+            <v>June</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63" t="str">
+            <v>July</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64" t="str">
+            <v>August</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65" t="str">
+            <v>September</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66" t="str">
+            <v>October</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67" t="str">
+            <v>November</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68" t="str">
+            <v>December</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>2021</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>January</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70" t="str">
+            <v>February</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71" t="str">
+            <v>March</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72" t="str">
+            <v>April</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73" t="str">
+            <v>May</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74" t="str">
+            <v>June</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75" t="str">
+            <v>July</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76" t="str">
+            <v>August</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77" t="str">
+            <v>September</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78" t="str">
+            <v>October</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79" t="str">
+            <v>November</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80" t="str">
+            <v>December</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>2022</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>January</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82" t="str">
+            <v>February</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83" t="str">
+            <v>March</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84" t="str">
+            <v>April</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="C85" t="str">
+            <v>May</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86" t="str">
+            <v>June</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1976,7 +4141,7 @@
   <dimension ref="A2:AP59"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1990,7 +4155,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:42" ht="30" x14ac:dyDescent="0.5">
-      <c r="M2" s="112"/>
+      <c r="M2" s="110"/>
     </row>
     <row r="6" spans="1:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2018,7 +4183,7 @@
     </row>
     <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="X9" s="37">
-        <v>44782</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2083,13 +4248,13 @@
       <c r="U10" s="10">
         <v>2019</v>
       </c>
-      <c r="V10" s="40">
+      <c r="V10" s="39">
         <v>2020</v>
       </c>
-      <c r="W10" s="49">
+      <c r="W10" s="48">
         <v>2021</v>
       </c>
-      <c r="X10" s="49">
+      <c r="X10" s="48">
         <v>2022</v>
       </c>
       <c r="Y10" s="11" t="s">
@@ -2161,16 +4326,16 @@
       <c r="U11" s="17">
         <v>4809</v>
       </c>
-      <c r="V11" s="44">
+      <c r="V11" s="43">
         <v>4585</v>
       </c>
-      <c r="W11" s="50">
+      <c r="W11" s="49">
         <v>5492</v>
       </c>
-      <c r="X11" s="111">
-        <v>5719</v>
-      </c>
-      <c r="Y11" s="46" t="s">
+      <c r="X11" s="109">
+        <v>5720</v>
+      </c>
+      <c r="Y11" s="45" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2238,16 +4403,16 @@
       <c r="U12" s="19">
         <v>4062</v>
       </c>
-      <c r="V12" s="44">
+      <c r="V12" s="43">
         <v>3963</v>
       </c>
-      <c r="W12" s="51">
+      <c r="W12" s="50">
         <v>4534</v>
       </c>
-      <c r="X12" s="113">
-        <v>5454</v>
-      </c>
-      <c r="Y12" s="47" t="s">
+      <c r="X12" s="111">
+        <v>5456</v>
+      </c>
+      <c r="Y12" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2315,16 +4480,16 @@
       <c r="U13" s="19">
         <v>4316</v>
       </c>
-      <c r="V13" s="44">
+      <c r="V13" s="43">
         <v>4181</v>
       </c>
-      <c r="W13" s="51">
+      <c r="W13" s="50">
         <v>4482</v>
       </c>
-      <c r="X13" s="113">
-        <v>4641</v>
-      </c>
-      <c r="Y13" s="47" t="s">
+      <c r="X13" s="111">
+        <v>4642</v>
+      </c>
+      <c r="Y13" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2392,16 +4557,16 @@
       <c r="U14" s="19">
         <v>3812</v>
       </c>
-      <c r="V14" s="44">
+      <c r="V14" s="43">
         <v>3921</v>
       </c>
-      <c r="W14" s="51">
+      <c r="W14" s="50">
         <v>4007</v>
       </c>
-      <c r="X14" s="113">
-        <v>4132</v>
-      </c>
-      <c r="Y14" s="47" t="s">
+      <c r="X14" s="111">
+        <v>4134</v>
+      </c>
+      <c r="Y14" s="46" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2469,16 +4634,16 @@
       <c r="U15" s="19">
         <v>3790</v>
       </c>
-      <c r="V15" s="44">
+      <c r="V15" s="43">
         <v>3878</v>
       </c>
-      <c r="W15" s="51">
+      <c r="W15" s="50">
         <v>3825</v>
       </c>
-      <c r="X15" s="113">
-        <v>3909</v>
-      </c>
-      <c r="Y15" s="47" t="s">
+      <c r="X15" s="111">
+        <v>3912</v>
+      </c>
+      <c r="Y15" s="46" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2546,16 +4711,16 @@
       <c r="U16" s="19">
         <v>3339</v>
       </c>
-      <c r="V16" s="44">
-        <v>3416</v>
-      </c>
-      <c r="W16" s="51">
+      <c r="V16" s="43">
+        <v>3418</v>
+      </c>
+      <c r="W16" s="50">
         <v>3511</v>
       </c>
-      <c r="X16" s="110">
-        <v>3622</v>
-      </c>
-      <c r="Y16" s="47" t="s">
+      <c r="X16" s="108">
+        <v>3634</v>
+      </c>
+      <c r="Y16" s="46" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2623,14 +4788,16 @@
       <c r="U17" s="19">
         <v>3436</v>
       </c>
-      <c r="V17" s="44">
-        <v>3702</v>
-      </c>
-      <c r="W17" s="51">
-        <v>3728</v>
-      </c>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="47" t="s">
+      <c r="V17" s="43">
+        <v>3701</v>
+      </c>
+      <c r="W17" s="50">
+        <v>3729</v>
+      </c>
+      <c r="X17" s="50">
+        <v>3972</v>
+      </c>
+      <c r="Y17" s="46" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2698,14 +4865,16 @@
       <c r="U18" s="19">
         <v>3497</v>
       </c>
-      <c r="V18" s="44">
-        <v>4025</v>
-      </c>
-      <c r="W18" s="51">
+      <c r="V18" s="43">
+        <v>4026</v>
+      </c>
+      <c r="W18" s="50">
         <v>4505</v>
       </c>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="47" t="s">
+      <c r="X18" s="50">
+        <v>676</v>
+      </c>
+      <c r="Y18" s="46" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2773,14 +4942,14 @@
       <c r="U19" s="19">
         <v>3405</v>
       </c>
-      <c r="V19" s="44">
+      <c r="V19" s="43">
         <v>4163</v>
       </c>
-      <c r="W19" s="51">
+      <c r="W19" s="50">
         <v>4286</v>
       </c>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="47" t="s">
+      <c r="X19" s="50"/>
+      <c r="Y19" s="46" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2848,14 +5017,14 @@
       <c r="U20" s="19">
         <v>3607</v>
       </c>
-      <c r="V20" s="45">
+      <c r="V20" s="44">
         <v>4645</v>
       </c>
-      <c r="W20" s="51">
+      <c r="W20" s="50">
         <v>4162</v>
       </c>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="47" t="s">
+      <c r="X20" s="50"/>
+      <c r="Y20" s="46" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2923,14 +5092,14 @@
       <c r="U21" s="19">
         <v>3691</v>
       </c>
-      <c r="V21" s="41">
-        <v>3826</v>
-      </c>
-      <c r="W21" s="51">
+      <c r="V21" s="40">
+        <v>3827</v>
+      </c>
+      <c r="W21" s="50">
         <v>3815</v>
       </c>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="46" t="s">
+      <c r="X21" s="50"/>
+      <c r="Y21" s="45" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2998,14 +5167,14 @@
       <c r="U22" s="21">
         <v>4240</v>
       </c>
-      <c r="V22" s="43">
-        <v>4488</v>
-      </c>
-      <c r="W22" s="54">
+      <c r="V22" s="42">
+        <v>4489</v>
+      </c>
+      <c r="W22" s="53">
         <v>4386</v>
       </c>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="48" t="s">
+      <c r="X22" s="51"/>
+      <c r="Y22" s="47" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3093,15 +5262,15 @@
         <f t="shared" si="0"/>
         <v>46004</v>
       </c>
-      <c r="V23" s="39">
+      <c r="V23" s="38">
         <f t="shared" ref="V23" si="1">SUM(V11:V22)</f>
-        <v>48793</v>
-      </c>
-      <c r="W23" s="39">
+        <v>48797</v>
+      </c>
+      <c r="W23" s="38">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50733</v>
-      </c>
-      <c r="X23" s="39"/>
+        <v>50734</v>
+      </c>
+      <c r="X23" s="38"/>
       <c r="Y23" s="8" t="s">
         <v>28</v>
       </c>
@@ -3181,7 +5350,7 @@
       <c r="U29" s="10">
         <v>2019</v>
       </c>
-      <c r="V29" s="40">
+      <c r="V29" s="39">
         <v>2020</v>
       </c>
       <c r="W29" s="11">
@@ -3259,13 +5428,13 @@
         <v>3706</v>
       </c>
       <c r="V30" s="19">
-        <v>3465</v>
-      </c>
-      <c r="W30" s="42">
+        <v>3476</v>
+      </c>
+      <c r="W30" s="41">
         <v>4279</v>
       </c>
-      <c r="X30" s="42">
-        <v>4467</v>
+      <c r="X30" s="41">
+        <v>4468</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>17</v>
@@ -3336,13 +5505,13 @@
         <v>3109</v>
       </c>
       <c r="V31" s="19">
-        <v>3029</v>
-      </c>
-      <c r="W31" s="42">
+        <v>3040</v>
+      </c>
+      <c r="W31" s="41">
         <v>3405</v>
       </c>
-      <c r="X31" s="42">
-        <v>4325</v>
+      <c r="X31" s="41">
+        <v>4326</v>
       </c>
       <c r="Y31" s="6" t="s">
         <v>34</v>
@@ -3413,13 +5582,13 @@
         <v>3259</v>
       </c>
       <c r="V32" s="19">
-        <v>3195</v>
-      </c>
-      <c r="W32" s="42">
+        <v>3209</v>
+      </c>
+      <c r="W32" s="41">
         <v>3405</v>
       </c>
-      <c r="X32" s="42">
-        <v>3526</v>
+      <c r="X32" s="41">
+        <v>3527</v>
       </c>
       <c r="Y32" s="6" t="s">
         <v>18</v>
@@ -3490,13 +5659,13 @@
         <v>2837</v>
       </c>
       <c r="V33" s="19">
-        <v>3006</v>
+        <v>3019</v>
       </c>
       <c r="W33" s="24">
         <v>2958</v>
       </c>
       <c r="X33" s="24">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="Y33" s="6" t="s">
         <v>19</v>
@@ -3567,13 +5736,13 @@
         <v>2829</v>
       </c>
       <c r="V34" s="19">
-        <v>2930</v>
+        <v>2938</v>
       </c>
       <c r="W34" s="24">
         <v>2882</v>
       </c>
       <c r="X34" s="24">
-        <v>2930</v>
+        <v>2932</v>
       </c>
       <c r="Y34" s="6" t="s">
         <v>20</v>
@@ -3647,13 +5816,13 @@
         <v>2482</v>
       </c>
       <c r="V35" s="19">
-        <v>2526</v>
+        <v>2533</v>
       </c>
       <c r="W35" s="24">
         <v>2590</v>
       </c>
-      <c r="X35" s="114">
-        <v>2721</v>
+      <c r="X35" s="112">
+        <v>2729</v>
       </c>
       <c r="Y35" s="6" t="s">
         <v>21</v>
@@ -3724,12 +5893,14 @@
         <v>2538</v>
       </c>
       <c r="V36" s="19">
-        <v>2773</v>
+        <v>2778</v>
       </c>
       <c r="W36" s="24">
         <v>2843</v>
       </c>
-      <c r="X36" s="24"/>
+      <c r="X36" s="24">
+        <v>3102</v>
+      </c>
       <c r="Y36" s="6" t="s">
         <v>22</v>
       </c>
@@ -3799,12 +5970,14 @@
         <v>2554</v>
       </c>
       <c r="V37" s="19">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="W37" s="24">
         <v>3467</v>
       </c>
-      <c r="X37" s="24"/>
+      <c r="X37" s="24">
+        <v>540</v>
+      </c>
       <c r="Y37" s="6" t="s">
         <v>23</v>
       </c>
@@ -3874,7 +6047,7 @@
         <v>2537</v>
       </c>
       <c r="V38" s="19">
-        <v>3166</v>
+        <v>3172</v>
       </c>
       <c r="W38" s="24">
         <v>3151</v>
@@ -3949,7 +6122,7 @@
         <v>2712</v>
       </c>
       <c r="V39" s="24">
-        <v>3552</v>
+        <v>3562</v>
       </c>
       <c r="W39" s="24">
         <v>3087</v>
@@ -4023,13 +6196,13 @@
       <c r="U40" s="19">
         <v>2752</v>
       </c>
-      <c r="V40" s="41">
-        <v>2845</v>
+      <c r="V40" s="40">
+        <v>2853</v>
       </c>
       <c r="W40" s="24">
         <v>2876</v>
       </c>
-      <c r="X40" s="53"/>
+      <c r="X40" s="52"/>
       <c r="Y40" s="5" t="s">
         <v>26</v>
       </c>
@@ -4098,13 +6271,13 @@
       <c r="U41" s="21">
         <v>3162</v>
       </c>
-      <c r="V41" s="43">
-        <v>3419</v>
-      </c>
-      <c r="W41" s="55">
+      <c r="V41" s="42">
+        <v>3429</v>
+      </c>
+      <c r="W41" s="119">
         <v>3378</v>
       </c>
-      <c r="X41" s="38"/>
+      <c r="X41" s="118"/>
       <c r="Y41" s="7" t="s">
         <v>27</v>
       </c>
@@ -4193,15 +6366,15 @@
         <f t="shared" si="3"/>
         <v>34477</v>
       </c>
-      <c r="V42" s="39">
+      <c r="V42" s="38">
         <f t="shared" ref="V42" si="4">SUM(V30:V41)</f>
-        <v>36915</v>
-      </c>
-      <c r="W42" s="39">
+        <v>37020</v>
+      </c>
+      <c r="W42" s="38">
         <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
         <v>38321</v>
       </c>
-      <c r="X42" s="39"/>
+      <c r="X42" s="38"/>
       <c r="Y42" s="29" t="s">
         <v>28</v>
       </c>
@@ -4255,7 +6428,7 @@
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -4265,7 +6438,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="Y47" s="31" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4313,8 +6486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4324,153 +6497,153 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="56" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="56" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="60" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="58" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" s="58" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+    </row>
+    <row r="12" spans="1:5" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="87"/>
+    </row>
+    <row r="13" spans="1:5" s="88" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="87"/>
+    </row>
+    <row r="14" spans="1:5" s="88" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A14" s="90"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="87"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+    </row>
+    <row r="32" spans="1:5" s="56" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
+    </row>
+    <row r="33" spans="1:14" s="56" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+    </row>
+    <row r="45" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A45" s="65"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="64"/>
+    </row>
+    <row r="46" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A46" s="65"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="64"/>
+    </row>
+    <row r="47" spans="1:14" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="65"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="64"/>
+    </row>
+    <row r="48" spans="1:14" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
-    </row>
-    <row r="12" spans="1:5" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="89"/>
-    </row>
-    <row r="13" spans="1:5" s="90" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="89"/>
-    </row>
-    <row r="14" spans="1:5" s="90" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="89"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="B48" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-    </row>
-    <row r="32" spans="1:5" s="58" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="61"/>
-    </row>
-    <row r="33" spans="1:14" s="58" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="61"/>
-    </row>
-    <row r="45" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
-    </row>
-    <row r="46" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
-    </row>
-    <row r="47" spans="1:14" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="66"/>
-    </row>
-    <row r="48" spans="1:14" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="69" t="s">
+      <c r="C48" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="72"/>
+      <c r="D48" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="70"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -4482,19 +6655,19 @@
       <c r="N48" s="2"/>
     </row>
     <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="74">
-        <v>6.3E-2</v>
-      </c>
-      <c r="C49" s="75">
-        <v>2913</v>
-      </c>
-      <c r="D49" s="76">
-        <v>3354</v>
-      </c>
-      <c r="E49" s="72"/>
+      <c r="A49" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="72">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C49" s="73">
+        <v>2917</v>
+      </c>
+      <c r="D49" s="74">
+        <v>3353</v>
+      </c>
+      <c r="E49" s="70"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -4506,19 +6679,19 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="74">
+      <c r="A50" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="72">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="C50" s="75">
-        <v>3259</v>
-      </c>
-      <c r="D50" s="78">
-        <v>3354</v>
-      </c>
-      <c r="E50" s="72"/>
+      <c r="C50" s="73">
+        <v>2263</v>
+      </c>
+      <c r="D50" s="76">
+        <v>3353</v>
+      </c>
+      <c r="E50" s="70"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -4530,19 +6703,19 @@
       <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="74">
+      <c r="A51" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="72">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="C51" s="75">
-        <v>4451</v>
-      </c>
-      <c r="D51" s="78">
+      <c r="C51" s="73">
+        <v>4452</v>
+      </c>
+      <c r="D51" s="76">
         <v>4832</v>
       </c>
-      <c r="E51" s="72"/>
+      <c r="E51" s="70"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -4554,19 +6727,19 @@
       <c r="N51" s="2"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="116">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="C52" s="117">
-        <v>3270</v>
-      </c>
-      <c r="D52" s="118">
+      <c r="A52" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="114">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C52" s="115">
+        <v>3291</v>
+      </c>
+      <c r="D52" s="116">
         <v>2736</v>
       </c>
-      <c r="E52" s="72"/>
+      <c r="E52" s="70"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -4578,11 +6751,11 @@
       <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="79"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="72"/>
+      <c r="A53" s="77"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="70"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -4594,19 +6767,19 @@
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="119" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="116">
+      <c r="A54" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="114">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C54" s="117">
-        <v>10980</v>
-      </c>
-      <c r="D54" s="118">
-        <v>10922</v>
-      </c>
-      <c r="E54" s="80"/>
+      <c r="C54" s="115">
+        <v>11006</v>
+      </c>
+      <c r="D54" s="116">
+        <v>1021</v>
+      </c>
+      <c r="E54" s="78"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -4618,11 +6791,11 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="73"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="83"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="81"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -4634,13 +6807,13 @@
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="84"/>
+      <c r="A56" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="79"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -4652,16 +6825,16 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="85">
+      <c r="A57" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="83">
         <v>3.9E-2</v>
       </c>
-      <c r="C57" s="75">
+      <c r="C57" s="73">
         <v>455</v>
       </c>
-      <c r="D57" s="78">
+      <c r="D57" s="76">
         <v>288</v>
       </c>
       <c r="F57" s="2"/>
@@ -4675,17 +6848,17 @@
       <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="85">
+      <c r="A58" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="83">
         <v>0.17100000000000001</v>
       </c>
-      <c r="C58" s="75">
+      <c r="C58" s="73">
         <v>2414</v>
       </c>
-      <c r="D58" s="78">
-        <v>2231</v>
+      <c r="D58" s="76">
+        <v>2230</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -4698,16 +6871,16 @@
       <c r="N58" s="2"/>
     </row>
     <row r="59" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="86">
+      <c r="A59" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="84">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C59" s="75">
-        <v>1643</v>
-      </c>
-      <c r="D59" s="78">
+      <c r="C59" s="73">
+        <v>1644</v>
+      </c>
+      <c r="D59" s="76">
         <v>3299</v>
       </c>
       <c r="F59" s="2"/>
@@ -4721,16 +6894,16 @@
       <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="106">
+      <c r="A60" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="104">
         <v>0.17</v>
       </c>
-      <c r="C60" s="107">
-        <v>2426</v>
-      </c>
-      <c r="D60" s="108">
+      <c r="C60" s="105">
+        <v>2427</v>
+      </c>
+      <c r="D60" s="106">
         <v>1678</v>
       </c>
       <c r="F60" s="2"/>
@@ -4744,16 +6917,16 @@
       <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="101" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="102">
+      <c r="A61" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="100">
         <v>0.17199999999999999</v>
       </c>
-      <c r="C61" s="103">
-        <v>2920</v>
-      </c>
-      <c r="D61" s="104">
+      <c r="C61" s="101">
+        <v>2926</v>
+      </c>
+      <c r="D61" s="102">
         <v>2506</v>
       </c>
       <c r="F61" s="2"/>
@@ -4767,13 +6940,13 @@
       <c r="N61" s="2"/>
     </row>
     <row r="62" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
+      <c r="A62" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -4785,18 +6958,18 @@
       <c r="N62" s="2"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="63"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="64"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="62"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="62"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="64"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="62"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
@@ -4902,8 +7075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4916,255 +7089,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
+      <c r="A1" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
     </row>
     <row r="3" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
-        <v>71</v>
+      <c r="A11" s="93" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
-        <v>64</v>
+      <c r="A13" s="94" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="69" t="s">
+      <c r="A49" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="70" t="s">
+      <c r="D49" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="70" t="s">
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="71" t="s">
+      <c r="B50" s="72">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C50" s="73">
+        <v>2917</v>
+      </c>
+      <c r="D50" s="74">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="73" t="s">
+      <c r="B51" s="72">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C51" s="73">
+        <v>3263</v>
+      </c>
+      <c r="D51" s="76">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="74">
-        <v>6.3E-2</v>
-      </c>
-      <c r="C50" s="75">
-        <v>2913</v>
-      </c>
-      <c r="D50" s="76">
-        <v>3354</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="77" t="s">
+      <c r="B52" s="72">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C52" s="73">
+        <v>4452</v>
+      </c>
+      <c r="D52" s="76">
+        <v>4832</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="114">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C53" s="115">
+        <v>3291</v>
+      </c>
+      <c r="D53" s="116">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="96"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="116"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="114">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C55" s="115">
+        <v>11006</v>
+      </c>
+      <c r="D55" s="116">
+        <v>10921</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="71"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="74"/>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="74">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="C51" s="75">
-        <v>3259</v>
-      </c>
-      <c r="D51" s="78">
-        <v>3354</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="73" t="s">
+      <c r="B57" s="79"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="74"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="74">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="C52" s="75">
-        <v>4451</v>
-      </c>
-      <c r="D52" s="78">
-        <v>4832</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="116">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="C53" s="117">
-        <v>3270</v>
-      </c>
-      <c r="D53" s="118">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="98"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="118"/>
-    </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="99" t="s">
+      <c r="B58" s="83">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C58" s="73">
+        <v>455</v>
+      </c>
+      <c r="D58" s="76">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="83">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C59" s="73">
+        <v>2414</v>
+      </c>
+      <c r="D59" s="76">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="84">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C60" s="73">
+        <v>1644</v>
+      </c>
+      <c r="D60" s="76">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="104">
+        <v>0.17</v>
+      </c>
+      <c r="C61" s="105">
+        <v>2427</v>
+      </c>
+      <c r="D61" s="106">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="116">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="C55" s="117">
-        <v>10980</v>
-      </c>
-      <c r="D55" s="118">
-        <v>10922</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="73"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="76"/>
-    </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="B57" s="81"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="76"/>
-    </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" s="85">
-        <v>3.9E-2</v>
-      </c>
-      <c r="C58" s="75">
-        <v>455</v>
-      </c>
-      <c r="D58" s="78">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" s="85">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="C59" s="75">
-        <v>2414</v>
-      </c>
-      <c r="D59" s="78">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="73" t="s">
+      <c r="B62" s="100">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C62" s="101">
+        <v>2926</v>
+      </c>
+      <c r="D62" s="102">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="86">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C60" s="75">
-        <v>1643</v>
-      </c>
-      <c r="D60" s="78">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="105" t="s">
-        <v>85</v>
-      </c>
-      <c r="B61" s="106">
-        <v>0.17</v>
-      </c>
-      <c r="C61" s="107">
-        <v>2426</v>
-      </c>
-      <c r="D61" s="108">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="109" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="102">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="C62" s="103">
-        <v>2920</v>
-      </c>
-      <c r="D62" s="104">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="100" t="s">
-        <v>86</v>
-      </c>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="63"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5177,7 +7350,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="648" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="6fe76592073f86b0c01d83b0ad124545">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="654" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="51aaa1c5229e0668931741fe9d299b93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -5409,21 +7582,21 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <nfa41555e3464cf4bb914e89b71e6bff xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
+    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-08-09T21:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-08-15T21:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -5435,13 +7608,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB90D10F-791D-40A3-877D-BF8E0DBD5EA4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E00A9CC1-3CC0-49F5-B4D3-39D31EAF8E36}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DB8E588-A7E3-4CDD-BE46-E5DC264E24F8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C6276A-7CE3-454E-9279-0E0783EE1FB1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2335E3DE-D849-4C62-BBC8-3424A1DACAD3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8814592B-87CC-4144-8388-D2E139FA82CD}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
   <si>
     <t>ינואר</t>
   </si>
@@ -448,12 +448,6 @@
     </r>
   </si>
   <si>
-    <t>ינואר עד יוני 2022</t>
-  </si>
-  <si>
-    <t>מרץ 2020 עד יוני 2022</t>
-  </si>
-  <si>
     <t>Jan.-June 2022</t>
   </si>
   <si>
@@ -508,16 +502,25 @@
     </r>
   </si>
   <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 16/08/2022.</t>
-  </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 16/08/2022.</t>
-  </si>
-  <si>
-    <t>עודכן: 16/08/22</t>
-  </si>
-  <si>
-    <t>Updated: 16 August 2022</t>
+    <t>R2020</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 24/08/2022.</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 24/08/2022.</t>
+  </si>
+  <si>
+    <t>Updated: 24 August 2022</t>
+  </si>
+  <si>
+    <t>עודכן: 24/08/22</t>
+  </si>
+  <si>
+    <t>ינואר עד יולי 2022</t>
+  </si>
+  <si>
+    <t>מרץ 2020 עד יולי 2022</t>
   </si>
 </sst>
 </file>
@@ -1544,1469 +1547,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Predicted, Actual and Excess Mortality, by Month </a:t>
-            </a:r>
-            <a:endParaRPr lang="he-IL">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> Jaunuary 2020 Through June 2022 </a:t>
-            </a:r>
-            <a:endParaRPr lang="he-IL"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.6527776658419223E-2"/>
-          <c:y val="0.13894615298780813"/>
-          <c:w val="0.83237432066129913"/>
-          <c:h val="0.61574689239794389"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]תחזית כל הגילאים'!$D$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total deaths per month</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'[1]תחזית כל הגילאים'!$B$57:$C$86</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>January</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>February</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>March</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>April</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>June</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>July</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>August</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>September</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>October</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>November</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>December</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>January</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>February</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>March</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>April</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>June</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>July</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>August</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>September</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>October</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>November</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>December</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>January</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>February</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>March</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>April</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>June</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2020</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2021</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2022</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]תחזית כל הגילאים'!$D$2:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>4585</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3963</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4181</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3921</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3878</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3418</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3701</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4163</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4645</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3827</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4489</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5492</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4534</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4482</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4007</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3825</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3511</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3729</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4505</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4286</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4162</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3815</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4386</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5720</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5456</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4642</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4134</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3912</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3634</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]תחזית כל הגילאים'!$E$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Predicted deaths per month</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'[1]תחזית כל הגילאים'!$B$57:$C$86</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>January</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>February</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>March</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>April</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>June</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>July</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>August</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>September</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>October</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>November</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>December</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>January</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>February</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>March</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>April</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>June</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>July</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>August</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>September</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>October</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>November</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>December</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>January</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>February</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>March</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>April</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>June</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2020</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2021</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2022</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]תחזית כל הגילאים'!$E$2:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>4727.3499999999913</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4166.3499999999922</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4141.5499999999911</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3723.1499999999924</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3660.1499999999924</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3386.9499999999921</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3487.3499999999926</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3539.9499999999916</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3413.1499999999915</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3680.1499999999924</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3736.549999999992</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4217.3499999999922</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4760.8000000000029</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4199.8000000000038</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4175.0000000000027</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3756.600000000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3693.600000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3420.4000000000037</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3520.8000000000043</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3573.4000000000033</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3446.6000000000031</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3714</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3770</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4251</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4794.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4233.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4208.45</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3790.05</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3727.05</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3453.85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]תחזית כל הגילאים'!$F$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Excess deaths</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'[1]תחזית כל הגילאים'!$B$57:$C$86</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>January</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>February</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>March</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>April</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>June</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>July</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>August</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>September</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>October</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>November</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>December</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>January</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>February</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>March</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>April</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>June</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>July</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>August</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>September</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>October</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>November</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>December</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>January</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>February</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>March</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>April</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>June</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2020</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2021</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2022</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]תחזית כל הגילאים'!$F$2:$F$31</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>-142.34999999999127</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-203.34999999999218</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.450000000008913</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>197.85000000000764</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>217.85000000000764</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31.050000000007913</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>213.65000000000737</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>486.05000000000837</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>749.85000000000855</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>964.85000000000764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>90.450000000008004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>271.65000000000782</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>731.19999999999709</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>334.19999999999618</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>306.99999999999727</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>250.399999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>131.399999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90.599999999996271</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>208.19999999999573</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>931.59999999999673</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>839.39999999999691</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>925.75</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1222.75</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>433.55000000000018</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>343.94999999999982</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>184.94999999999982</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>180.15000000000009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]תחזית כל הגילאים'!$G$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Deaths from COVID-19</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'[1]תחזית כל הגילאים'!$B$57:$C$86</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>January</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>February</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>March</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>April</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>June</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>July</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>August</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>September</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>October</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>November</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>December</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>January</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>February</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>March</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>April</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>June</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>July</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>August</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>September</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>October</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>November</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>December</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>January</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>February</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>March</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>April</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>June</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2020</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2021</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2022</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]תחזית כל הגילאים'!$G$2:$G$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>646</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>952</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1439</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>942</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>436</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>670</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>734</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1257</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>142</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="135486464"/>
-        <c:axId val="156997504"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]תחזית כל הגילאים'!$H$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Excess mortality (percents)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'[1]תחזית כל הגילאים'!$B$57:$C$85</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="29"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>January</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>February</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>March</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>April</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>June</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>July</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>August</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>September</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>October</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>November</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>December</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>January</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>February</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>March</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>April</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>June</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>July</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>August</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>September</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>October</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>November</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>December</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>January</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>February</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>March</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>April</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>May</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2020</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2021</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2022</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]תחזית כל הגילאים'!$H$2:$H$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>-3.0112007784486345</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.8807709385911542</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95254192271031368</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.3140485878895038</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.9519418603064933</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91675401172169602</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.1264283768479739</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.730419921185597</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.969441718061333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.217681344510673</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.4206821800861276</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.441248651404516</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.358763233070002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.9575217867516521</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.3532934131735823</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.6656018740349179</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.5575048732942349</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.6488130043268674</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.9134287661893739</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>26.070409134157828</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>24.354436256020314</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12.062466343564889</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.1936339522546418</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.1757233592095977</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19.309589612556707</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>28.884426858796431</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10.301892620798636</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.0750781651957055</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.9623697025797835</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.2159184677968096</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="177128960"/>
-        <c:axId val="168715392"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="135486464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="156997504"/>
-        <c:crossesAt val="-1000"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="156997504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Number of deaths</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="7.9788951662516077E-3"/>
-              <c:y val="0.37158766546586741"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="135486464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="168715392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Excess mortality (percents)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="177128960"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="177128960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168715392"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="1.9223451725647905E-2"/>
-          <c:y val="0.91752727766700137"/>
-          <c:w val="0.95451016422333079"/>
-          <c:h val="7.4580852994115113E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="1"/>
-          </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -3022,7 +1562,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3056,19 +1596,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>240078</xdr:colOff>
+      <xdr:colOff>268653</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>149807</xdr:rowOff>
+      <xdr:rowOff>73607</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3081,7 +1621,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11227677522" y="3219450"/>
+          <a:off x="11227648947" y="3143250"/>
           <a:ext cx="9345978" cy="5255207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3096,36 +1636,42 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>277283</xdr:colOff>
+      <xdr:colOff>201978</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>100541</xdr:rowOff>
+      <xdr:rowOff>102969</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="2876550"/>
+          <a:ext cx="9345978" cy="5541744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3244,53 +1790,53 @@
         </row>
         <row r="7">
           <cell r="D7">
-            <v>3418</v>
+            <v>3416</v>
           </cell>
           <cell r="E7">
             <v>3386.9499999999921</v>
           </cell>
           <cell r="F7">
-            <v>31.050000000007913</v>
+            <v>29.050000000007913</v>
           </cell>
           <cell r="G7">
             <v>40</v>
           </cell>
           <cell r="H7">
-            <v>0.91675401172169602</v>
+            <v>0.85770383383303506</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>3701</v>
+            <v>3702</v>
           </cell>
           <cell r="E8">
             <v>3487.3499999999926</v>
           </cell>
           <cell r="F8">
-            <v>213.65000000000737</v>
+            <v>214.65000000000737</v>
           </cell>
           <cell r="G8">
-            <v>236</v>
+            <v>237</v>
           </cell>
           <cell r="H8">
-            <v>6.1264283768479739</v>
+            <v>6.1551034453096998</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>4026</v>
+            <v>4025</v>
           </cell>
           <cell r="E9">
             <v>3539.9499999999916</v>
           </cell>
           <cell r="F9">
-            <v>486.05000000000837</v>
+            <v>485.05000000000837</v>
           </cell>
           <cell r="G9">
             <v>396</v>
           </cell>
           <cell r="H9">
-            <v>13.730419921185597</v>
+            <v>13.702170934617989</v>
           </cell>
         </row>
         <row r="10">
@@ -3329,36 +1875,36 @@
         </row>
         <row r="12">
           <cell r="D12">
-            <v>3827</v>
+            <v>3826</v>
           </cell>
           <cell r="E12">
             <v>3736.549999999992</v>
           </cell>
           <cell r="F12">
-            <v>90.450000000008004</v>
+            <v>89.450000000008004</v>
           </cell>
           <cell r="G12">
             <v>313</v>
           </cell>
           <cell r="H12">
-            <v>2.4206821800861276</v>
+            <v>2.3939195246954594</v>
           </cell>
         </row>
         <row r="13">
           <cell r="D13">
-            <v>4489</v>
+            <v>4488</v>
           </cell>
           <cell r="E13">
             <v>4217.3499999999922</v>
           </cell>
           <cell r="F13">
-            <v>271.65000000000782</v>
+            <v>270.65000000000782</v>
           </cell>
           <cell r="G13">
             <v>482</v>
           </cell>
           <cell r="H13">
-            <v>6.441248651404516</v>
+            <v>6.4175370789715895</v>
           </cell>
         </row>
         <row r="14">
@@ -3465,19 +2011,19 @@
         </row>
         <row r="20">
           <cell r="D20">
-            <v>3729</v>
+            <v>3728</v>
           </cell>
           <cell r="E20">
             <v>3520.8000000000043</v>
           </cell>
           <cell r="F20">
-            <v>208.19999999999573</v>
+            <v>207.19999999999573</v>
           </cell>
           <cell r="G20">
             <v>57</v>
           </cell>
           <cell r="H20">
-            <v>5.9134287661893739</v>
+            <v>5.8850261304247748</v>
           </cell>
         </row>
         <row r="21">
@@ -3567,104 +2113,104 @@
         </row>
         <row r="26">
           <cell r="D26">
-            <v>5720</v>
+            <v>5719</v>
           </cell>
           <cell r="E26">
             <v>4794.25</v>
           </cell>
           <cell r="F26">
-            <v>925.75</v>
+            <v>924.75</v>
           </cell>
           <cell r="G26">
             <v>734</v>
           </cell>
           <cell r="H26">
-            <v>19.309589612556707</v>
+            <v>19.288731292694372</v>
           </cell>
         </row>
         <row r="27">
           <cell r="D27">
-            <v>5456</v>
+            <v>5454</v>
           </cell>
           <cell r="E27">
             <v>4233.25</v>
           </cell>
           <cell r="F27">
-            <v>1222.75</v>
+            <v>1220.75</v>
           </cell>
           <cell r="G27">
             <v>1257</v>
           </cell>
           <cell r="H27">
-            <v>28.884426858796431</v>
+            <v>28.837181834288078</v>
           </cell>
         </row>
         <row r="28">
           <cell r="D28">
-            <v>4642</v>
+            <v>4641</v>
           </cell>
           <cell r="E28">
             <v>4208.45</v>
           </cell>
           <cell r="F28">
-            <v>433.55000000000018</v>
+            <v>432.55000000000018</v>
           </cell>
           <cell r="G28">
             <v>311</v>
           </cell>
           <cell r="H28">
-            <v>10.301892620798636</v>
+            <v>10.278130903301696</v>
           </cell>
         </row>
         <row r="29">
           <cell r="D29">
-            <v>4134</v>
+            <v>4132</v>
           </cell>
           <cell r="E29">
             <v>3790.05</v>
           </cell>
           <cell r="F29">
-            <v>343.94999999999982</v>
+            <v>341.94999999999982</v>
           </cell>
           <cell r="G29">
             <v>204</v>
           </cell>
           <cell r="H29">
-            <v>9.0750781651957055</v>
+            <v>9.0223084128177664</v>
           </cell>
         </row>
         <row r="30">
           <cell r="D30">
-            <v>3912</v>
+            <v>3909</v>
           </cell>
           <cell r="E30">
             <v>3727.05</v>
           </cell>
           <cell r="F30">
-            <v>184.94999999999982</v>
+            <v>181.94999999999982</v>
           </cell>
           <cell r="G30">
             <v>88</v>
           </cell>
           <cell r="H30">
-            <v>4.9623697025797835</v>
+            <v>4.8818770877771911</v>
           </cell>
         </row>
         <row r="31">
           <cell r="D31">
-            <v>3634</v>
+            <v>3622</v>
           </cell>
           <cell r="E31">
             <v>3453.85</v>
           </cell>
           <cell r="F31">
-            <v>180.15000000000009</v>
+            <v>168.15000000000009</v>
           </cell>
           <cell r="G31">
             <v>142</v>
           </cell>
           <cell r="H31">
-            <v>5.2159184677968096</v>
+            <v>4.8684801019152566</v>
           </cell>
         </row>
         <row r="56">
@@ -3693,56 +2239,67 @@
           </cell>
         </row>
         <row r="58">
+          <cell r="B58"/>
           <cell r="C58" t="str">
             <v>February</v>
           </cell>
         </row>
         <row r="59">
+          <cell r="B59"/>
           <cell r="C59" t="str">
             <v>March</v>
           </cell>
         </row>
         <row r="60">
+          <cell r="B60"/>
           <cell r="C60" t="str">
             <v>April</v>
           </cell>
         </row>
         <row r="61">
+          <cell r="B61"/>
           <cell r="C61" t="str">
             <v>May</v>
           </cell>
         </row>
         <row r="62">
+          <cell r="B62"/>
           <cell r="C62" t="str">
             <v>June</v>
           </cell>
         </row>
         <row r="63">
+          <cell r="B63"/>
           <cell r="C63" t="str">
             <v>July</v>
           </cell>
         </row>
         <row r="64">
+          <cell r="B64"/>
           <cell r="C64" t="str">
             <v>August</v>
           </cell>
         </row>
         <row r="65">
+          <cell r="B65"/>
           <cell r="C65" t="str">
             <v>September</v>
           </cell>
         </row>
         <row r="66">
+          <cell r="B66"/>
           <cell r="C66" t="str">
             <v>October</v>
           </cell>
         </row>
         <row r="67">
+          <cell r="B67"/>
           <cell r="C67" t="str">
             <v>November</v>
           </cell>
         </row>
         <row r="68">
+          <cell r="B68"/>
           <cell r="C68" t="str">
             <v>December</v>
           </cell>
@@ -3756,56 +2313,67 @@
           </cell>
         </row>
         <row r="70">
+          <cell r="B70"/>
           <cell r="C70" t="str">
             <v>February</v>
           </cell>
         </row>
         <row r="71">
+          <cell r="B71"/>
           <cell r="C71" t="str">
             <v>March</v>
           </cell>
         </row>
         <row r="72">
+          <cell r="B72"/>
           <cell r="C72" t="str">
             <v>April</v>
           </cell>
         </row>
         <row r="73">
+          <cell r="B73"/>
           <cell r="C73" t="str">
             <v>May</v>
           </cell>
         </row>
         <row r="74">
+          <cell r="B74"/>
           <cell r="C74" t="str">
             <v>June</v>
           </cell>
         </row>
         <row r="75">
+          <cell r="B75"/>
           <cell r="C75" t="str">
             <v>July</v>
           </cell>
         </row>
         <row r="76">
+          <cell r="B76"/>
           <cell r="C76" t="str">
             <v>August</v>
           </cell>
         </row>
         <row r="77">
+          <cell r="B77"/>
           <cell r="C77" t="str">
             <v>September</v>
           </cell>
         </row>
         <row r="78">
+          <cell r="B78"/>
           <cell r="C78" t="str">
             <v>October</v>
           </cell>
         </row>
         <row r="79">
+          <cell r="B79"/>
           <cell r="C79" t="str">
             <v>November</v>
           </cell>
         </row>
         <row r="80">
+          <cell r="B80"/>
           <cell r="C80" t="str">
             <v>December</v>
           </cell>
@@ -3819,26 +2387,31 @@
           </cell>
         </row>
         <row r="82">
+          <cell r="B82"/>
           <cell r="C82" t="str">
             <v>February</v>
           </cell>
         </row>
         <row r="83">
+          <cell r="B83"/>
           <cell r="C83" t="str">
             <v>March</v>
           </cell>
         </row>
         <row r="84">
+          <cell r="B84"/>
           <cell r="C84" t="str">
             <v>April</v>
           </cell>
         </row>
         <row r="85">
+          <cell r="B85"/>
           <cell r="C85" t="str">
             <v>May</v>
           </cell>
         </row>
         <row r="86">
+          <cell r="B86"/>
           <cell r="C86" t="str">
             <v>June</v>
           </cell>
@@ -4141,7 +2714,7 @@
   <dimension ref="A2:AP59"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4183,7 +2756,7 @@
     </row>
     <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="X9" s="37">
-        <v>44789</v>
+        <v>44797</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4410,7 +2983,7 @@
         <v>4534</v>
       </c>
       <c r="X12" s="111">
-        <v>5456</v>
+        <v>5457</v>
       </c>
       <c r="Y12" s="46" t="s">
         <v>34</v>
@@ -4487,7 +3060,7 @@
         <v>4482</v>
       </c>
       <c r="X13" s="111">
-        <v>4642</v>
+        <v>4643</v>
       </c>
       <c r="Y13" s="46" t="s">
         <v>18</v>
@@ -4718,7 +3291,7 @@
         <v>3511</v>
       </c>
       <c r="X16" s="108">
-        <v>3634</v>
+        <v>3648</v>
       </c>
       <c r="Y16" s="46" t="s">
         <v>21</v>
@@ -4794,8 +3367,8 @@
       <c r="W17" s="50">
         <v>3729</v>
       </c>
-      <c r="X17" s="50">
-        <v>3972</v>
+      <c r="X17" s="108">
+        <v>4117</v>
       </c>
       <c r="Y17" s="46" t="s">
         <v>22</v>
@@ -4869,11 +3442,9 @@
         <v>4026</v>
       </c>
       <c r="W18" s="50">
-        <v>4505</v>
-      </c>
-      <c r="X18" s="50">
-        <v>676</v>
-      </c>
+        <v>4506</v>
+      </c>
+      <c r="X18" s="50"/>
       <c r="Y18" s="46" t="s">
         <v>23</v>
       </c>
@@ -5171,7 +3742,7 @@
         <v>4489</v>
       </c>
       <c r="W22" s="53">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="X22" s="51"/>
       <c r="Y22" s="47" t="s">
@@ -5268,7 +3839,7 @@
       </c>
       <c r="W23" s="38">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50734</v>
+        <v>50736</v>
       </c>
       <c r="X23" s="38"/>
       <c r="Y23" s="8" t="s">
@@ -5350,8 +3921,8 @@
       <c r="U29" s="10">
         <v>2019</v>
       </c>
-      <c r="V29" s="39">
-        <v>2020</v>
+      <c r="V29" s="39" t="s">
+        <v>91</v>
       </c>
       <c r="W29" s="11">
         <v>2021</v>
@@ -5428,7 +3999,7 @@
         <v>3706</v>
       </c>
       <c r="V30" s="19">
-        <v>3476</v>
+        <v>3478</v>
       </c>
       <c r="W30" s="41">
         <v>4279</v>
@@ -5505,13 +4076,13 @@
         <v>3109</v>
       </c>
       <c r="V31" s="19">
-        <v>3040</v>
+        <v>3042</v>
       </c>
       <c r="W31" s="41">
         <v>3405</v>
       </c>
       <c r="X31" s="41">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="Y31" s="6" t="s">
         <v>34</v>
@@ -5582,13 +4153,13 @@
         <v>3259</v>
       </c>
       <c r="V32" s="19">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="W32" s="41">
         <v>3405</v>
       </c>
       <c r="X32" s="41">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="Y32" s="6" t="s">
         <v>18</v>
@@ -5736,7 +4307,7 @@
         <v>2829</v>
       </c>
       <c r="V34" s="19">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="W34" s="24">
         <v>2882</v>
@@ -5816,13 +4387,13 @@
         <v>2482</v>
       </c>
       <c r="V35" s="19">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="W35" s="24">
         <v>2590</v>
       </c>
       <c r="X35" s="112">
-        <v>2729</v>
+        <v>2742</v>
       </c>
       <c r="Y35" s="6" t="s">
         <v>21</v>
@@ -5898,8 +4469,8 @@
       <c r="W36" s="24">
         <v>2843</v>
       </c>
-      <c r="X36" s="24">
-        <v>3102</v>
+      <c r="X36" s="112">
+        <v>3219</v>
       </c>
       <c r="Y36" s="6" t="s">
         <v>22</v>
@@ -5970,14 +4541,12 @@
         <v>2554</v>
       </c>
       <c r="V37" s="19">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="W37" s="24">
         <v>3467</v>
       </c>
-      <c r="X37" s="24">
-        <v>540</v>
-      </c>
+      <c r="X37" s="24"/>
       <c r="Y37" s="6" t="s">
         <v>23</v>
       </c>
@@ -6047,7 +4616,7 @@
         <v>2537</v>
       </c>
       <c r="V38" s="19">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="W38" s="24">
         <v>3151</v>
@@ -6122,7 +4691,7 @@
         <v>2712</v>
       </c>
       <c r="V39" s="24">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="W39" s="24">
         <v>3087</v>
@@ -6197,7 +4766,7 @@
         <v>2752</v>
       </c>
       <c r="V40" s="40">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="W40" s="24">
         <v>2876</v>
@@ -6272,10 +4841,10 @@
         <v>3162</v>
       </c>
       <c r="V41" s="42">
-        <v>3429</v>
+        <v>3432</v>
       </c>
       <c r="W41" s="119">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="X41" s="118"/>
       <c r="Y41" s="7" t="s">
@@ -6368,11 +4937,11 @@
       </c>
       <c r="V42" s="38">
         <f t="shared" ref="V42" si="4">SUM(V30:V41)</f>
-        <v>37020</v>
+        <v>37036</v>
       </c>
       <c r="W42" s="38">
         <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
-        <v>38321</v>
+        <v>38322</v>
       </c>
       <c r="X42" s="38"/>
       <c r="Y42" s="29" t="s">
@@ -6390,7 +4959,7 @@
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -6408,7 +4977,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="Y45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6428,7 +4997,7 @@
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -6438,7 +5007,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="Y47" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6486,8 +5055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6686,7 +5255,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="C50" s="73">
-        <v>2263</v>
+        <v>3263</v>
       </c>
       <c r="D50" s="76">
         <v>3353</v>
@@ -6710,7 +5279,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C51" s="73">
-        <v>4452</v>
+        <v>4454</v>
       </c>
       <c r="D51" s="76">
         <v>4832</v>
@@ -6728,16 +5297,16 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="113" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B52" s="114">
-        <v>0.13600000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="C52" s="115">
-        <v>3291</v>
+        <v>3870</v>
       </c>
       <c r="D52" s="116">
-        <v>2736</v>
+        <v>3151</v>
       </c>
       <c r="E52" s="70"/>
       <c r="F52" s="2"/>
@@ -6768,16 +5337,16 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="117" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B54" s="114">
-        <v>0.10199999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="C54" s="115">
-        <v>11006</v>
+        <v>11587</v>
       </c>
       <c r="D54" s="116">
-        <v>1021</v>
+        <v>11336</v>
       </c>
       <c r="E54" s="78"/>
       <c r="F54" s="2"/>
@@ -6901,7 +5470,7 @@
         <v>0.17</v>
       </c>
       <c r="C60" s="105">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="D60" s="106">
         <v>1678</v>
@@ -6918,13 +5487,13 @@
     </row>
     <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="99" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B61" s="100">
         <v>0.17199999999999999</v>
       </c>
       <c r="C61" s="101">
-        <v>2926</v>
+        <v>2928</v>
       </c>
       <c r="D61" s="102">
         <v>2506</v>
@@ -7075,8 +5644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7100,7 +5669,7 @@
     </row>
     <row r="3" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
@@ -7201,7 +5770,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C52" s="73">
-        <v>4452</v>
+        <v>4454</v>
       </c>
       <c r="D52" s="76">
         <v>4832</v>
@@ -7209,16 +5778,16 @@
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="95" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B53" s="114">
-        <v>0.13600000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="C53" s="115">
-        <v>3291</v>
+        <v>3870</v>
       </c>
       <c r="D53" s="116">
-        <v>2736</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -7229,16 +5798,16 @@
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="97" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B55" s="114">
-        <v>0.10199999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="C55" s="115">
-        <v>11006</v>
+        <v>11587</v>
       </c>
       <c r="D55" s="116">
-        <v>10921</v>
+        <v>11336</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -7305,7 +5874,7 @@
         <v>0.17</v>
       </c>
       <c r="C61" s="105">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="D61" s="106">
         <v>1678</v>
@@ -7313,13 +5882,13 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="107" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B62" s="100">
         <v>0.17199999999999999</v>
       </c>
       <c r="C62" s="101">
-        <v>2926</v>
+        <v>2928</v>
       </c>
       <c r="D62" s="102">
         <v>2506</v>
@@ -7350,7 +5919,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="654" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="51aaa1c5229e0668931741fe9d299b93">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="688" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="414fd60aa5cefdaf7c21e5a91f8a4dd2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -7582,13 +6151,13 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <nfa41555e3464cf4bb914e89b71e6bff xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
-    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
@@ -7596,7 +6165,7 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-08-15T21:00:00+00:00</CbsDataPublishDate>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-08-23T21:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -7608,13 +6177,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E00A9CC1-3CC0-49F5-B4D3-39D31EAF8E36}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6EE0D77-AF81-4357-9DEC-37D4E6CCF6A2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C6276A-7CE3-454E-9279-0E0783EE1FB1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F58304F8-2C30-4BED-A500-E4B9A1143673}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8814592B-87CC-4144-8388-D2E139FA82CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6244AB18-4E9B-4809-80AC-D2E35F36079A}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Irene\מפנימי\2022\DEC-06-22\לאתר\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8220"/>
   </bookViews>
@@ -11,20 +16,17 @@
     <sheet name="עודף תמותה" sheetId="3" r:id="rId2"/>
     <sheet name="Excess mortality" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_01.12.20">'פטירות לפי שנה וחודש'!$X$9</definedName>
     <definedName name="name_change">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$Y$48</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
   <si>
     <t>ינואר</t>
   </si>
@@ -448,12 +450,6 @@
     </r>
   </si>
   <si>
-    <t>Jan.-June 2022</t>
-  </si>
-  <si>
-    <t>March 2020-June 2022</t>
-  </si>
-  <si>
     <t>ינואר עד אפריל 2022</t>
   </si>
   <si>
@@ -502,37 +498,40 @@
     </r>
   </si>
   <si>
-    <t>R2020</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 24/08/2022.</t>
-  </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 24/08/2022.</t>
-  </si>
-  <si>
-    <t>Updated: 24 August 2022</t>
-  </si>
-  <si>
-    <t>עודכן: 24/08/22</t>
-  </si>
-  <si>
-    <t>ינואר עד יולי 2022</t>
-  </si>
-  <si>
-    <t>מרץ 2020 עד יולי 2022</t>
+    <t>March 2020-Sep. 2022</t>
+  </si>
+  <si>
+    <t>Jan.-Sep. 2022</t>
+  </si>
+  <si>
+    <t>ינואר עד אוקטובר 2022</t>
+  </si>
+  <si>
+    <t>מרץ 2020 עד אוקטובר 2022</t>
+  </si>
+  <si>
+    <t>עודכן: 06/12/22</t>
+  </si>
+  <si>
+    <t>Updated: 06 December 2022</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 06/12/2022.</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 06/12/2022.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,6 +782,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1326,7 +1333,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1525,6 +1532,9 @@
     </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
@@ -1562,7 +1572,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,19 +1606,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>268653</xdr:colOff>
+      <xdr:colOff>17572</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>73607</xdr:rowOff>
+      <xdr:rowOff>62930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="תמונה 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1621,8 +1631,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11227648947" y="3143250"/>
-          <a:ext cx="9345978" cy="5255207"/>
+          <a:off x="10978390748" y="3040380"/>
+          <a:ext cx="9321592" cy="5145470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1639,19 +1649,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>201978</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>102969</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390952</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>29429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="תמונה 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1664,8 +1674,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457200" y="2876550"/>
-          <a:ext cx="9345978" cy="5541744"/>
+          <a:off x="0" y="2903220"/>
+          <a:ext cx="9321592" cy="5462489"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1675,753 +1685,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="תחזית 20-29"/>
-      <sheetName val="גיליון12"/>
-      <sheetName val="גילאי 20-29"/>
-      <sheetName val="תחזית 70+"/>
-      <sheetName val="גיליון9"/>
-      <sheetName val="70+"/>
-      <sheetName val="תוצאת רגרסיה"/>
-      <sheetName val="כל הגילאים"/>
-      <sheetName val="תחזית כל הגילאים"/>
-      <sheetName val="גיליון14"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="2">
-          <cell r="D2">
-            <v>4585</v>
-          </cell>
-          <cell r="E2">
-            <v>4727.3499999999913</v>
-          </cell>
-          <cell r="F2">
-            <v>-142.34999999999127</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-          <cell r="H2">
-            <v>-3.0112007784486345</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>3963</v>
-          </cell>
-          <cell r="E3">
-            <v>4166.3499999999922</v>
-          </cell>
-          <cell r="F3">
-            <v>-203.34999999999218</v>
-          </cell>
-          <cell r="G3">
-            <v>0</v>
-          </cell>
-          <cell r="H3">
-            <v>-4.8807709385911542</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>4181</v>
-          </cell>
-          <cell r="E4">
-            <v>4141.5499999999911</v>
-          </cell>
-          <cell r="F4">
-            <v>39.450000000008913</v>
-          </cell>
-          <cell r="G4">
-            <v>21</v>
-          </cell>
-          <cell r="H4">
-            <v>0.95254192271031368</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>3921</v>
-          </cell>
-          <cell r="E5">
-            <v>3723.1499999999924</v>
-          </cell>
-          <cell r="F5">
-            <v>197.85000000000764</v>
-          </cell>
-          <cell r="G5">
-            <v>205</v>
-          </cell>
-          <cell r="H5">
-            <v>5.3140485878895038</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>3878</v>
-          </cell>
-          <cell r="E6">
-            <v>3660.1499999999924</v>
-          </cell>
-          <cell r="F6">
-            <v>217.85000000000764</v>
-          </cell>
-          <cell r="G6">
-            <v>62</v>
-          </cell>
-          <cell r="H6">
-            <v>5.9519418603064933</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>3416</v>
-          </cell>
-          <cell r="E7">
-            <v>3386.9499999999921</v>
-          </cell>
-          <cell r="F7">
-            <v>29.050000000007913</v>
-          </cell>
-          <cell r="G7">
-            <v>40</v>
-          </cell>
-          <cell r="H7">
-            <v>0.85770383383303506</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>3702</v>
-          </cell>
-          <cell r="E8">
-            <v>3487.3499999999926</v>
-          </cell>
-          <cell r="F8">
-            <v>214.65000000000737</v>
-          </cell>
-          <cell r="G8">
-            <v>237</v>
-          </cell>
-          <cell r="H8">
-            <v>6.1551034453096998</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>4025</v>
-          </cell>
-          <cell r="E9">
-            <v>3539.9499999999916</v>
-          </cell>
-          <cell r="F9">
-            <v>485.05000000000837</v>
-          </cell>
-          <cell r="G9">
-            <v>396</v>
-          </cell>
-          <cell r="H9">
-            <v>13.702170934617989</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>4163</v>
-          </cell>
-          <cell r="E10">
-            <v>3413.1499999999915</v>
-          </cell>
-          <cell r="F10">
-            <v>749.85000000000855</v>
-          </cell>
-          <cell r="G10">
-            <v>646</v>
-          </cell>
-          <cell r="H10">
-            <v>21.969441718061333</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>4645</v>
-          </cell>
-          <cell r="E11">
-            <v>3680.1499999999924</v>
-          </cell>
-          <cell r="F11">
-            <v>964.85000000000764</v>
-          </cell>
-          <cell r="G11">
-            <v>952</v>
-          </cell>
-          <cell r="H11">
-            <v>26.217681344510673</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>3826</v>
-          </cell>
-          <cell r="E12">
-            <v>3736.549999999992</v>
-          </cell>
-          <cell r="F12">
-            <v>89.450000000008004</v>
-          </cell>
-          <cell r="G12">
-            <v>313</v>
-          </cell>
-          <cell r="H12">
-            <v>2.3939195246954594</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>4488</v>
-          </cell>
-          <cell r="E13">
-            <v>4217.3499999999922</v>
-          </cell>
-          <cell r="F13">
-            <v>270.65000000000782</v>
-          </cell>
-          <cell r="G13">
-            <v>482</v>
-          </cell>
-          <cell r="H13">
-            <v>6.4175370789715895</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>5492</v>
-          </cell>
-          <cell r="E14">
-            <v>4760.8000000000029</v>
-          </cell>
-          <cell r="F14">
-            <v>731.19999999999709</v>
-          </cell>
-          <cell r="G14">
-            <v>1439</v>
-          </cell>
-          <cell r="H14">
-            <v>15.358763233070002</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>4534</v>
-          </cell>
-          <cell r="E15">
-            <v>4199.8000000000038</v>
-          </cell>
-          <cell r="F15">
-            <v>334.19999999999618</v>
-          </cell>
-          <cell r="G15">
-            <v>942</v>
-          </cell>
-          <cell r="H15">
-            <v>7.9575217867516521</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>4482</v>
-          </cell>
-          <cell r="E16">
-            <v>4175.0000000000027</v>
-          </cell>
-          <cell r="F16">
-            <v>306.99999999999727</v>
-          </cell>
-          <cell r="G16">
-            <v>436</v>
-          </cell>
-          <cell r="H16">
-            <v>7.3532934131735823</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>4007</v>
-          </cell>
-          <cell r="E17">
-            <v>3756.600000000004</v>
-          </cell>
-          <cell r="F17">
-            <v>250.399999999996</v>
-          </cell>
-          <cell r="G17">
-            <v>160</v>
-          </cell>
-          <cell r="H17">
-            <v>6.6656018740349179</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>3825</v>
-          </cell>
-          <cell r="E18">
-            <v>3693.600000000004</v>
-          </cell>
-          <cell r="F18">
-            <v>131.399999999996</v>
-          </cell>
-          <cell r="G18">
-            <v>33</v>
-          </cell>
-          <cell r="H18">
-            <v>3.5575048732942349</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>3511</v>
-          </cell>
-          <cell r="E19">
-            <v>3420.4000000000037</v>
-          </cell>
-          <cell r="F19">
-            <v>90.599999999996271</v>
-          </cell>
-          <cell r="G19">
-            <v>11</v>
-          </cell>
-          <cell r="H19">
-            <v>2.6488130043268674</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>3728</v>
-          </cell>
-          <cell r="E20">
-            <v>3520.8000000000043</v>
-          </cell>
-          <cell r="F20">
-            <v>207.19999999999573</v>
-          </cell>
-          <cell r="G20">
-            <v>57</v>
-          </cell>
-          <cell r="H20">
-            <v>5.8850261304247748</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>4505</v>
-          </cell>
-          <cell r="E21">
-            <v>3573.4000000000033</v>
-          </cell>
-          <cell r="F21">
-            <v>931.59999999999673</v>
-          </cell>
-          <cell r="G21">
-            <v>640</v>
-          </cell>
-          <cell r="H21">
-            <v>26.070409134157828</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>4286</v>
-          </cell>
-          <cell r="E22">
-            <v>3446.6000000000031</v>
-          </cell>
-          <cell r="F22">
-            <v>839.39999999999691</v>
-          </cell>
-          <cell r="G22">
-            <v>670</v>
-          </cell>
-          <cell r="H22">
-            <v>24.354436256020314</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>4162</v>
-          </cell>
-          <cell r="E23">
-            <v>3714</v>
-          </cell>
-          <cell r="F23">
-            <v>448</v>
-          </cell>
-          <cell r="G23">
-            <v>311</v>
-          </cell>
-          <cell r="H23">
-            <v>12.062466343564889</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>3815</v>
-          </cell>
-          <cell r="E24">
-            <v>3770</v>
-          </cell>
-          <cell r="F24">
-            <v>45</v>
-          </cell>
-          <cell r="G24">
-            <v>84</v>
-          </cell>
-          <cell r="H24">
-            <v>1.1936339522546418</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>4386</v>
-          </cell>
-          <cell r="E25">
-            <v>4251</v>
-          </cell>
-          <cell r="F25">
-            <v>135</v>
-          </cell>
-          <cell r="G25">
-            <v>49</v>
-          </cell>
-          <cell r="H25">
-            <v>3.1757233592095977</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>5719</v>
-          </cell>
-          <cell r="E26">
-            <v>4794.25</v>
-          </cell>
-          <cell r="F26">
-            <v>924.75</v>
-          </cell>
-          <cell r="G26">
-            <v>734</v>
-          </cell>
-          <cell r="H26">
-            <v>19.288731292694372</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>5454</v>
-          </cell>
-          <cell r="E27">
-            <v>4233.25</v>
-          </cell>
-          <cell r="F27">
-            <v>1220.75</v>
-          </cell>
-          <cell r="G27">
-            <v>1257</v>
-          </cell>
-          <cell r="H27">
-            <v>28.837181834288078</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>4641</v>
-          </cell>
-          <cell r="E28">
-            <v>4208.45</v>
-          </cell>
-          <cell r="F28">
-            <v>432.55000000000018</v>
-          </cell>
-          <cell r="G28">
-            <v>311</v>
-          </cell>
-          <cell r="H28">
-            <v>10.278130903301696</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>4132</v>
-          </cell>
-          <cell r="E29">
-            <v>3790.05</v>
-          </cell>
-          <cell r="F29">
-            <v>341.94999999999982</v>
-          </cell>
-          <cell r="G29">
-            <v>204</v>
-          </cell>
-          <cell r="H29">
-            <v>9.0223084128177664</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30">
-            <v>3909</v>
-          </cell>
-          <cell r="E30">
-            <v>3727.05</v>
-          </cell>
-          <cell r="F30">
-            <v>181.94999999999982</v>
-          </cell>
-          <cell r="G30">
-            <v>88</v>
-          </cell>
-          <cell r="H30">
-            <v>4.8818770877771911</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>3622</v>
-          </cell>
-          <cell r="E31">
-            <v>3453.85</v>
-          </cell>
-          <cell r="F31">
-            <v>168.15000000000009</v>
-          </cell>
-          <cell r="G31">
-            <v>142</v>
-          </cell>
-          <cell r="H31">
-            <v>4.8684801019152566</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="D56" t="str">
-            <v>Total deaths per month</v>
-          </cell>
-          <cell r="E56" t="str">
-            <v>Predicted deaths per month</v>
-          </cell>
-          <cell r="F56" t="str">
-            <v>Excess deaths</v>
-          </cell>
-          <cell r="G56" t="str">
-            <v>Deaths from COVID-19</v>
-          </cell>
-          <cell r="H56" t="str">
-            <v>Excess mortality (percents)</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>2020</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>January</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58"/>
-          <cell r="C58" t="str">
-            <v>February</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59"/>
-          <cell r="C59" t="str">
-            <v>March</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60"/>
-          <cell r="C60" t="str">
-            <v>April</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61"/>
-          <cell r="C61" t="str">
-            <v>May</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62"/>
-          <cell r="C62" t="str">
-            <v>June</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63"/>
-          <cell r="C63" t="str">
-            <v>July</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64"/>
-          <cell r="C64" t="str">
-            <v>August</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65"/>
-          <cell r="C65" t="str">
-            <v>September</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66"/>
-          <cell r="C66" t="str">
-            <v>October</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67"/>
-          <cell r="C67" t="str">
-            <v>November</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68"/>
-          <cell r="C68" t="str">
-            <v>December</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>2021</v>
-          </cell>
-          <cell r="C69" t="str">
-            <v>January</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70"/>
-          <cell r="C70" t="str">
-            <v>February</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71"/>
-          <cell r="C71" t="str">
-            <v>March</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72"/>
-          <cell r="C72" t="str">
-            <v>April</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73"/>
-          <cell r="C73" t="str">
-            <v>May</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74"/>
-          <cell r="C74" t="str">
-            <v>June</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75"/>
-          <cell r="C75" t="str">
-            <v>July</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76"/>
-          <cell r="C76" t="str">
-            <v>August</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77"/>
-          <cell r="C77" t="str">
-            <v>September</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78"/>
-          <cell r="C78" t="str">
-            <v>October</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79"/>
-          <cell r="C79" t="str">
-            <v>November</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80"/>
-          <cell r="C80" t="str">
-            <v>December</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>2022</v>
-          </cell>
-          <cell r="C81" t="str">
-            <v>January</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82"/>
-          <cell r="C82" t="str">
-            <v>February</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83"/>
-          <cell r="C83" t="str">
-            <v>March</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84"/>
-          <cell r="C84" t="str">
-            <v>April</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85"/>
-          <cell r="C85" t="str">
-            <v>May</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86"/>
-          <cell r="C86" t="str">
-            <v>June</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2467,7 +1730,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2502,7 +1765,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2714,12 +1977,12 @@
   <dimension ref="A2:AP59"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
     <col min="2" max="23" width="6.875" customWidth="1"/>
     <col min="24" max="24" width="9.375" customWidth="1"/>
     <col min="25" max="25" width="10.875" customWidth="1"/>
@@ -2727,10 +1990,10 @@
     <col min="29" max="31" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:42" ht="30" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:42" ht="30" x14ac:dyDescent="0.4">
       <c r="M2" s="110"/>
     </row>
-    <row r="6" spans="1:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
@@ -2739,7 +2002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -2754,9 +2017,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="X9" s="37">
-        <v>44797</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2903,10 +2166,10 @@
         <v>4585</v>
       </c>
       <c r="W11" s="49">
-        <v>5492</v>
+        <v>5494</v>
       </c>
       <c r="X11" s="109">
-        <v>5720</v>
+        <v>5722</v>
       </c>
       <c r="Y11" s="45" t="s">
         <v>17</v>
@@ -2980,10 +2243,10 @@
         <v>3963</v>
       </c>
       <c r="W12" s="50">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="X12" s="111">
-        <v>5457</v>
+        <v>5462</v>
       </c>
       <c r="Y12" s="46" t="s">
         <v>34</v>
@@ -3057,10 +2320,10 @@
         <v>4181</v>
       </c>
       <c r="W13" s="50">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="X13" s="111">
-        <v>4643</v>
+        <v>4648</v>
       </c>
       <c r="Y13" s="46" t="s">
         <v>18</v>
@@ -3134,10 +2397,10 @@
         <v>3921</v>
       </c>
       <c r="W14" s="50">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="X14" s="111">
-        <v>4134</v>
+        <v>4142</v>
       </c>
       <c r="Y14" s="46" t="s">
         <v>19</v>
@@ -3214,7 +2477,7 @@
         <v>3825</v>
       </c>
       <c r="X15" s="111">
-        <v>3912</v>
+        <v>3926</v>
       </c>
       <c r="Y15" s="46" t="s">
         <v>20</v>
@@ -3290,8 +2553,8 @@
       <c r="W16" s="50">
         <v>3511</v>
       </c>
-      <c r="X16" s="108">
-        <v>3648</v>
+      <c r="X16" s="111">
+        <v>3662</v>
       </c>
       <c r="Y16" s="46" t="s">
         <v>21</v>
@@ -3367,8 +2630,8 @@
       <c r="W17" s="50">
         <v>3729</v>
       </c>
-      <c r="X17" s="108">
-        <v>4117</v>
+      <c r="X17" s="111">
+        <v>4217</v>
       </c>
       <c r="Y17" s="46" t="s">
         <v>22</v>
@@ -3442,9 +2705,11 @@
         <v>4026</v>
       </c>
       <c r="W18" s="50">
-        <v>4506</v>
-      </c>
-      <c r="X18" s="50"/>
+        <v>4507</v>
+      </c>
+      <c r="X18" s="111">
+        <v>3931</v>
+      </c>
       <c r="Y18" s="46" t="s">
         <v>23</v>
       </c>
@@ -3517,9 +2782,11 @@
         <v>4163</v>
       </c>
       <c r="W19" s="50">
-        <v>4286</v>
-      </c>
-      <c r="X19" s="50"/>
+        <v>4289</v>
+      </c>
+      <c r="X19" s="111">
+        <v>3659</v>
+      </c>
       <c r="Y19" s="46" t="s">
         <v>24</v>
       </c>
@@ -3594,7 +2861,9 @@
       <c r="W20" s="50">
         <v>4162</v>
       </c>
-      <c r="X20" s="50"/>
+      <c r="X20" s="108">
+        <v>3881</v>
+      </c>
       <c r="Y20" s="46" t="s">
         <v>25</v>
       </c>
@@ -3667,7 +2936,7 @@
         <v>3827</v>
       </c>
       <c r="W21" s="50">
-        <v>3815</v>
+        <v>3816</v>
       </c>
       <c r="X21" s="50"/>
       <c r="Y21" s="45" t="s">
@@ -3742,7 +3011,7 @@
         <v>4489</v>
       </c>
       <c r="W22" s="53">
-        <v>4387</v>
+        <v>4389</v>
       </c>
       <c r="X22" s="51"/>
       <c r="Y22" s="47" t="s">
@@ -3833,13 +3102,13 @@
         <f t="shared" si="0"/>
         <v>46004</v>
       </c>
-      <c r="V23" s="38">
+      <c r="V23" s="122">
         <f t="shared" ref="V23" si="1">SUM(V11:V22)</f>
         <v>48797</v>
       </c>
       <c r="W23" s="38">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50736</v>
+        <v>50748</v>
       </c>
       <c r="X23" s="38"/>
       <c r="Y23" s="8" t="s">
@@ -3921,8 +3190,8 @@
       <c r="U29" s="10">
         <v>2019</v>
       </c>
-      <c r="V29" s="39" t="s">
-        <v>91</v>
+      <c r="V29" s="39">
+        <v>2020</v>
       </c>
       <c r="W29" s="11">
         <v>2021</v>
@@ -4002,10 +3271,10 @@
         <v>3478</v>
       </c>
       <c r="W30" s="41">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="X30" s="41">
-        <v>4468</v>
+        <v>4471</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>17</v>
@@ -4079,10 +3348,10 @@
         <v>3042</v>
       </c>
       <c r="W31" s="41">
-        <v>3405</v>
+        <v>3407</v>
       </c>
       <c r="X31" s="41">
-        <v>4327</v>
+        <v>4335</v>
       </c>
       <c r="Y31" s="6" t="s">
         <v>34</v>
@@ -4156,10 +3425,10 @@
         <v>3210</v>
       </c>
       <c r="W32" s="41">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="X32" s="41">
-        <v>3528</v>
+        <v>3531</v>
       </c>
       <c r="Y32" s="6" t="s">
         <v>18</v>
@@ -4233,10 +3502,10 @@
         <v>3019</v>
       </c>
       <c r="W33" s="24">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="X33" s="24">
-        <v>3184</v>
+        <v>3191</v>
       </c>
       <c r="Y33" s="6" t="s">
         <v>19</v>
@@ -4310,10 +3579,10 @@
         <v>2940</v>
       </c>
       <c r="W34" s="24">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="X34" s="24">
-        <v>2932</v>
+        <v>2940</v>
       </c>
       <c r="Y34" s="6" t="s">
         <v>20</v>
@@ -4392,8 +3661,8 @@
       <c r="W35" s="24">
         <v>2590</v>
       </c>
-      <c r="X35" s="112">
-        <v>2742</v>
+      <c r="X35" s="24">
+        <v>2752</v>
       </c>
       <c r="Y35" s="6" t="s">
         <v>21</v>
@@ -4469,8 +3738,8 @@
       <c r="W36" s="24">
         <v>2843</v>
       </c>
-      <c r="X36" s="112">
-        <v>3219</v>
+      <c r="X36" s="24">
+        <v>3289</v>
       </c>
       <c r="Y36" s="6" t="s">
         <v>22</v>
@@ -4544,9 +3813,11 @@
         <v>3013</v>
       </c>
       <c r="W37" s="24">
-        <v>3467</v>
-      </c>
-      <c r="X37" s="24"/>
+        <v>3469</v>
+      </c>
+      <c r="X37" s="24">
+        <v>2999</v>
+      </c>
       <c r="Y37" s="6" t="s">
         <v>23</v>
       </c>
@@ -4619,9 +3890,11 @@
         <v>3173</v>
       </c>
       <c r="W38" s="24">
-        <v>3151</v>
-      </c>
-      <c r="X38" s="24"/>
+        <v>3153</v>
+      </c>
+      <c r="X38" s="24">
+        <v>2762</v>
+      </c>
       <c r="Y38" s="6" t="s">
         <v>24</v>
       </c>
@@ -4696,7 +3969,9 @@
       <c r="W39" s="24">
         <v>3087</v>
       </c>
-      <c r="X39" s="24"/>
+      <c r="X39" s="112">
+        <v>2964</v>
+      </c>
       <c r="Y39" s="6" t="s">
         <v>25</v>
       </c>
@@ -4844,7 +4119,7 @@
         <v>3432</v>
       </c>
       <c r="W41" s="119">
-        <v>3379</v>
+        <v>3382</v>
       </c>
       <c r="X41" s="118"/>
       <c r="Y41" s="7" t="s">
@@ -4935,13 +4210,13 @@
         <f t="shared" si="3"/>
         <v>34477</v>
       </c>
-      <c r="V42" s="38">
+      <c r="V42" s="122">
         <f t="shared" ref="V42" si="4">SUM(V30:V41)</f>
         <v>37036</v>
       </c>
       <c r="W42" s="38">
         <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
-        <v>38322</v>
+        <v>38335</v>
       </c>
       <c r="X42" s="38"/>
       <c r="Y42" s="29" t="s">
@@ -4959,7 +4234,7 @@
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4977,7 +4252,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="Y45" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4997,7 +4272,7 @@
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -5007,16 +4282,16 @@
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="Y47" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="120" t="s">
+      <c r="A48" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="120"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="120"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
       <c r="Y48" s="30" t="s">
         <v>35</v>
       </c>
@@ -5055,13 +4330,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5072,10 +4347,11 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="56" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+        <v>93</v>
+      </c>
+      <c r="C4" s="120"/>
+    </row>
+    <row r="5" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:5" s="56" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
         <v>41</v>
@@ -5139,7 +4415,7 @@
       <c r="D12" s="63"/>
       <c r="E12" s="87"/>
     </row>
-    <row r="13" spans="1:5" s="88" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="89" t="s">
         <v>62</v>
       </c>
@@ -5148,7 +4424,7 @@
       <c r="D13" s="63"/>
       <c r="E13" s="87"/>
     </row>
-    <row r="14" spans="1:5" s="88" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="90"/>
       <c r="B14" s="86"/>
       <c r="C14" s="86"/>
@@ -5164,35 +4440,35 @@
       <c r="D15" s="63"/>
       <c r="E15" s="64"/>
     </row>
-    <row r="32" spans="1:5" s="56" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="58"/>
       <c r="B32" s="58"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
       <c r="E32" s="59"/>
     </row>
-    <row r="33" spans="1:14" s="56" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="58"/>
       <c r="B33" s="58"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
       <c r="E33" s="59"/>
     </row>
-    <row r="45" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="65"/>
       <c r="B45" s="62"/>
       <c r="C45" s="66"/>
       <c r="D45" s="63"/>
       <c r="E45" s="64"/>
     </row>
-    <row r="46" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="65"/>
       <c r="B46" s="62"/>
       <c r="C46" s="66"/>
       <c r="D46" s="63"/>
       <c r="E46" s="64"/>
     </row>
-    <row r="47" spans="1:14" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="65"/>
       <c r="B47" s="62"/>
       <c r="C47" s="66"/>
@@ -5279,7 +4555,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C51" s="73">
-        <v>4454</v>
+        <v>4466</v>
       </c>
       <c r="D51" s="76">
         <v>4832</v>
@@ -5297,16 +4573,16 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="113" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B52" s="114">
-        <v>0.13900000000000001</v>
+        <v>0.121</v>
       </c>
       <c r="C52" s="115">
-        <v>3870</v>
+        <v>4655</v>
       </c>
       <c r="D52" s="116">
-        <v>3151</v>
+        <v>3497</v>
       </c>
       <c r="E52" s="70"/>
       <c r="F52" s="2"/>
@@ -5337,16 +4613,16 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="117" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B54" s="114">
-        <v>0.104</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C54" s="115">
-        <v>11587</v>
+        <v>12384</v>
       </c>
       <c r="D54" s="116">
-        <v>11336</v>
+        <v>11682</v>
       </c>
       <c r="E54" s="78"/>
       <c r="F54" s="2"/>
@@ -5447,7 +4723,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C59" s="73">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="D59" s="76">
         <v>3299</v>
@@ -5467,10 +4743,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="104">
-        <v>0.17</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="C60" s="105">
-        <v>2428</v>
+        <v>2432</v>
       </c>
       <c r="D60" s="106">
         <v>1678</v>
@@ -5487,16 +4763,16 @@
     </row>
     <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="99" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B61" s="100">
-        <v>0.17199999999999999</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="C61" s="101">
-        <v>2928</v>
+        <v>2948</v>
       </c>
       <c r="D61" s="102">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -5644,20 +4920,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="91" t="s">
         <v>63</v>
       </c>
@@ -5667,54 +4943,54 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="3" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C3" s="121"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.149999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="93" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="94" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -5770,7 +5046,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C52" s="73">
-        <v>4454</v>
+        <v>4466</v>
       </c>
       <c r="D52" s="76">
         <v>4832</v>
@@ -5778,16 +5054,16 @@
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="95" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B53" s="114">
-        <v>0.13900000000000001</v>
+        <v>0.121</v>
       </c>
       <c r="C53" s="115">
-        <v>3870</v>
+        <v>4655</v>
       </c>
       <c r="D53" s="116">
-        <v>3151</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5798,16 +5074,16 @@
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="97" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B55" s="114">
-        <v>0.104</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C55" s="115">
-        <v>11587</v>
+        <v>12384</v>
       </c>
       <c r="D55" s="116">
-        <v>11336</v>
+        <v>11682</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -5860,7 +5136,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C60" s="73">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="D60" s="76">
         <v>3299</v>
@@ -5871,10 +5147,10 @@
         <v>83</v>
       </c>
       <c r="B61" s="104">
-        <v>0.17</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="C61" s="105">
-        <v>2428</v>
+        <v>2432</v>
       </c>
       <c r="D61" s="106">
         <v>1678</v>
@@ -5882,16 +5158,16 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B62" s="100">
-        <v>0.17199999999999999</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="C62" s="101">
-        <v>2928</v>
+        <v>2948</v>
       </c>
       <c r="D62" s="102">
-        <v>2506</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -5919,7 +5195,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="688" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="414fd60aa5cefdaf7c21e5a91f8a4dd2">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="944" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="482292bd7405de8d0eb13eb79de93b7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -6156,16 +5432,16 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-12-07T22:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-08-23T21:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -6177,13 +5453,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6EE0D77-AF81-4357-9DEC-37D4E6CCF6A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6232CCC-B234-48AB-8674-B09746C2ADA7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F58304F8-2C30-4BED-A500-E4B9A1143673}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5396F06B-5728-44BE-97CD-03157A8FA9CB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6244AB18-4E9B-4809-80AC-D2E35F36079A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBE1DFC-26EB-415C-974E-88B6978E0260}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -5195,7 +5195,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="944" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="482292bd7405de8d0eb13eb79de93b7c">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="958" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="ba35f2808f2e7bfa1078cdb6b1da8edb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -5453,7 +5453,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6232CCC-B234-48AB-8674-B09746C2ADA7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5DA4820-1AAC-42FF-9C9B-93A969318E4B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Irene\מפנימי\2022\DEC-06-22\לאתר\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8220"/>
   </bookViews>
@@ -16,12 +11,15 @@
     <sheet name="עודף תמותה" sheetId="3" r:id="rId2"/>
     <sheet name="Excess mortality" sheetId="4" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_01.12.20">'פטירות לפי שנה וחודש'!$X$9</definedName>
     <definedName name="name_change">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$Y$48</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -498,34 +496,34 @@
     </r>
   </si>
   <si>
-    <t>March 2020-Sep. 2022</t>
-  </si>
-  <si>
-    <t>Jan.-Sep. 2022</t>
-  </si>
-  <si>
     <t>ינואר עד אוקטובר 2022</t>
   </si>
   <si>
     <t>מרץ 2020 עד אוקטובר 2022</t>
   </si>
   <si>
-    <t>עודכן: 06/12/22</t>
-  </si>
-  <si>
-    <t>Updated: 06 December 2022</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 06/12/2022.</t>
-  </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 06/12/2022.</t>
+    <t>Jan.-Oct. 2022</t>
+  </si>
+  <si>
+    <t>March 2020-Oct. 2022</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 20/12/2022.</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 20/12/2022.</t>
+  </si>
+  <si>
+    <t>עודכן: 20/12/22</t>
+  </si>
+  <si>
+    <t>Updated: 20 December 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
@@ -1572,7 +1570,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,14 +1609,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>17572</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>579550</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>62930</xdr:rowOff>
+      <xdr:rowOff>6932</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="תמונה 5"/>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1631,8 +1629,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10978390748" y="3040380"/>
-          <a:ext cx="9321592" cy="5145470"/>
+          <a:off x="11228023850" y="3105150"/>
+          <a:ext cx="9352075" cy="5255207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1655,13 +1653,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>390952</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>29429</xdr:rowOff>
+      <xdr:colOff>335328</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>112494</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="תמונה 2"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1674,8 +1672,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2903220"/>
-          <a:ext cx="9321592" cy="5462489"/>
+          <a:off x="0" y="2886075"/>
+          <a:ext cx="9345978" cy="5541744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1685,6 +1683,644 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="תחזית 20-29"/>
+      <sheetName val="גיליון12"/>
+      <sheetName val="גילאי 20-29"/>
+      <sheetName val="תחזית 70+"/>
+      <sheetName val="גיליון9"/>
+      <sheetName val="70+"/>
+      <sheetName val="תוצאת רגרסיה"/>
+      <sheetName val="כל הגילאים"/>
+      <sheetName val="תחזית כל הגילאים"/>
+      <sheetName val="גיליון14"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="D1" t="str">
+            <v>סך פטירות בחודש</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>תחזית פטירות לחודש</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>פטירות עודפות</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>פטירות מקורונה</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>עודף תמותה (אחוזים)</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>2020</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>ינואר</v>
+          </cell>
+          <cell r="D2">
+            <v>4585</v>
+          </cell>
+          <cell r="E2">
+            <v>4727.3499999999913</v>
+          </cell>
+          <cell r="F2">
+            <v>-142.34999999999127</v>
+          </cell>
+          <cell r="H2">
+            <v>-3.0112007784486345</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>פברואר</v>
+          </cell>
+          <cell r="D3">
+            <v>3963</v>
+          </cell>
+          <cell r="E3">
+            <v>4166.3499999999922</v>
+          </cell>
+          <cell r="F3">
+            <v>-203.34999999999218</v>
+          </cell>
+          <cell r="H3">
+            <v>-4.8807709385911542</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v xml:space="preserve">מרץ </v>
+          </cell>
+          <cell r="D4">
+            <v>4181</v>
+          </cell>
+          <cell r="E4">
+            <v>4141.5499999999911</v>
+          </cell>
+          <cell r="F4">
+            <v>39.450000000008913</v>
+          </cell>
+          <cell r="H4">
+            <v>0.95254192271031368</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>אפריל</v>
+          </cell>
+          <cell r="D5">
+            <v>3921</v>
+          </cell>
+          <cell r="E5">
+            <v>3723.1499999999924</v>
+          </cell>
+          <cell r="F5">
+            <v>197.85000000000764</v>
+          </cell>
+          <cell r="H5">
+            <v>5.3140485878895038</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>מאי</v>
+          </cell>
+          <cell r="D6">
+            <v>3878</v>
+          </cell>
+          <cell r="E6">
+            <v>3660.1499999999924</v>
+          </cell>
+          <cell r="F6">
+            <v>217.85000000000764</v>
+          </cell>
+          <cell r="H6">
+            <v>5.9519418603064933</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>יוני</v>
+          </cell>
+          <cell r="D7">
+            <v>3418</v>
+          </cell>
+          <cell r="E7">
+            <v>3386.9499999999921</v>
+          </cell>
+          <cell r="F7">
+            <v>31.050000000007913</v>
+          </cell>
+          <cell r="H7">
+            <v>0.91675401172169602</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>יולי</v>
+          </cell>
+          <cell r="D8">
+            <v>3701</v>
+          </cell>
+          <cell r="E8">
+            <v>3487.3499999999926</v>
+          </cell>
+          <cell r="F8">
+            <v>213.65000000000737</v>
+          </cell>
+          <cell r="H8">
+            <v>6.1264283768479739</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>אוגוסט</v>
+          </cell>
+          <cell r="D9">
+            <v>4026</v>
+          </cell>
+          <cell r="E9">
+            <v>3539.9499999999916</v>
+          </cell>
+          <cell r="F9">
+            <v>486.05000000000837</v>
+          </cell>
+          <cell r="H9">
+            <v>13.730419921185597</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>ספטמבר</v>
+          </cell>
+          <cell r="D10">
+            <v>4163</v>
+          </cell>
+          <cell r="E10">
+            <v>3413.1499999999915</v>
+          </cell>
+          <cell r="F10">
+            <v>749.85000000000855</v>
+          </cell>
+          <cell r="H10">
+            <v>21.969441718061333</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>אוקטובר</v>
+          </cell>
+          <cell r="D11">
+            <v>4645</v>
+          </cell>
+          <cell r="E11">
+            <v>3680.1499999999924</v>
+          </cell>
+          <cell r="F11">
+            <v>964.85000000000764</v>
+          </cell>
+          <cell r="H11">
+            <v>26.217681344510673</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>נובמבר</v>
+          </cell>
+          <cell r="D12">
+            <v>3827</v>
+          </cell>
+          <cell r="E12">
+            <v>3736.549999999992</v>
+          </cell>
+          <cell r="F12">
+            <v>90.450000000008004</v>
+          </cell>
+          <cell r="H12">
+            <v>2.4206821800861276</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>דצמבר</v>
+          </cell>
+          <cell r="D13">
+            <v>4489</v>
+          </cell>
+          <cell r="E13">
+            <v>4217.3499999999922</v>
+          </cell>
+          <cell r="F13">
+            <v>271.65000000000782</v>
+          </cell>
+          <cell r="H13">
+            <v>6.441248651404516</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>2021</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>ינואר</v>
+          </cell>
+          <cell r="D14">
+            <v>5494</v>
+          </cell>
+          <cell r="E14">
+            <v>4760.8000000000029</v>
+          </cell>
+          <cell r="F14">
+            <v>733.19999999999709</v>
+          </cell>
+          <cell r="H14">
+            <v>15.400772979331133</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>פברואר</v>
+          </cell>
+          <cell r="D15">
+            <v>4535</v>
+          </cell>
+          <cell r="E15">
+            <v>4199.8000000000038</v>
+          </cell>
+          <cell r="F15">
+            <v>335.19999999999618</v>
+          </cell>
+          <cell r="H15">
+            <v>7.9813324444020157</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v xml:space="preserve">מרץ </v>
+          </cell>
+          <cell r="D16">
+            <v>4483</v>
+          </cell>
+          <cell r="E16">
+            <v>4175.0000000000027</v>
+          </cell>
+          <cell r="F16">
+            <v>307.99999999999727</v>
+          </cell>
+          <cell r="H16">
+            <v>7.3772455089819653</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>אפריל</v>
+          </cell>
+          <cell r="D17">
+            <v>4008</v>
+          </cell>
+          <cell r="E17">
+            <v>3756.600000000004</v>
+          </cell>
+          <cell r="F17">
+            <v>251.399999999996</v>
+          </cell>
+          <cell r="H17">
+            <v>6.6922216898257929</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>מאי</v>
+          </cell>
+          <cell r="D18">
+            <v>3825</v>
+          </cell>
+          <cell r="E18">
+            <v>3693.600000000004</v>
+          </cell>
+          <cell r="F18">
+            <v>131.399999999996</v>
+          </cell>
+          <cell r="H18">
+            <v>3.5575048732942349</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>יוני</v>
+          </cell>
+          <cell r="D19">
+            <v>3511</v>
+          </cell>
+          <cell r="E19">
+            <v>3420.4000000000037</v>
+          </cell>
+          <cell r="F19">
+            <v>90.599999999996271</v>
+          </cell>
+          <cell r="H19">
+            <v>2.6488130043268674</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>יולי</v>
+          </cell>
+          <cell r="D20">
+            <v>3730</v>
+          </cell>
+          <cell r="E20">
+            <v>3520.8000000000043</v>
+          </cell>
+          <cell r="F20">
+            <v>209.19999999999573</v>
+          </cell>
+          <cell r="H20">
+            <v>5.941831401953972</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>אוגוסט</v>
+          </cell>
+          <cell r="D21">
+            <v>4507</v>
+          </cell>
+          <cell r="E21">
+            <v>3573.4000000000033</v>
+          </cell>
+          <cell r="F21">
+            <v>933.59999999999673</v>
+          </cell>
+          <cell r="H21">
+            <v>26.126378239211839</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>ספטמבר</v>
+          </cell>
+          <cell r="D22">
+            <v>4289</v>
+          </cell>
+          <cell r="E22">
+            <v>3446.6000000000031</v>
+          </cell>
+          <cell r="F22">
+            <v>842.39999999999691</v>
+          </cell>
+          <cell r="H22">
+            <v>24.441478558579359</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>אוקטובר</v>
+          </cell>
+          <cell r="D23">
+            <v>4162</v>
+          </cell>
+          <cell r="E23">
+            <v>3714</v>
+          </cell>
+          <cell r="F23">
+            <v>448</v>
+          </cell>
+          <cell r="H23">
+            <v>12.062466343564889</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>נובמבר</v>
+          </cell>
+          <cell r="D24">
+            <v>3816</v>
+          </cell>
+          <cell r="E24">
+            <v>3770</v>
+          </cell>
+          <cell r="F24">
+            <v>46</v>
+          </cell>
+          <cell r="H24">
+            <v>1.2201591511936341</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>דצמבר</v>
+          </cell>
+          <cell r="D25">
+            <v>4390</v>
+          </cell>
+          <cell r="E25">
+            <v>4251</v>
+          </cell>
+          <cell r="F25">
+            <v>139</v>
+          </cell>
+          <cell r="H25">
+            <v>3.2698188661491412</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>2022</v>
+          </cell>
+          <cell r="C26">
+            <v>5723</v>
+          </cell>
+          <cell r="D26">
+            <v>5723</v>
+          </cell>
+          <cell r="E26">
+            <v>4794.25</v>
+          </cell>
+          <cell r="F26">
+            <v>928.75</v>
+          </cell>
+          <cell r="H26">
+            <v>19.372164572143713</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>5463</v>
+          </cell>
+          <cell r="D27">
+            <v>5463</v>
+          </cell>
+          <cell r="E27">
+            <v>4233.25</v>
+          </cell>
+          <cell r="F27">
+            <v>1229.75</v>
+          </cell>
+          <cell r="H27">
+            <v>29.049784444575682</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>4649</v>
+          </cell>
+          <cell r="D28">
+            <v>4649</v>
+          </cell>
+          <cell r="E28">
+            <v>4208.45</v>
+          </cell>
+          <cell r="F28">
+            <v>440.55000000000018</v>
+          </cell>
+          <cell r="H28">
+            <v>10.468224643277221</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>4142</v>
+          </cell>
+          <cell r="D29">
+            <v>4142</v>
+          </cell>
+          <cell r="E29">
+            <v>3790.05</v>
+          </cell>
+          <cell r="F29">
+            <v>351.94999999999982</v>
+          </cell>
+          <cell r="H29">
+            <v>9.2861571747074532</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>3929</v>
+          </cell>
+          <cell r="D30">
+            <v>3929</v>
+          </cell>
+          <cell r="E30">
+            <v>3727.05</v>
+          </cell>
+          <cell r="F30">
+            <v>201.94999999999982</v>
+          </cell>
+          <cell r="H30">
+            <v>5.4184945197944696</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>3663</v>
+          </cell>
+          <cell r="D31">
+            <v>3663</v>
+          </cell>
+          <cell r="E31">
+            <v>3453.85</v>
+          </cell>
+          <cell r="F31">
+            <v>209.15000000000009</v>
+          </cell>
+          <cell r="H31">
+            <v>6.0555611853438949</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>4220</v>
+          </cell>
+          <cell r="D32">
+            <v>4220</v>
+          </cell>
+          <cell r="E32">
+            <v>3554.25</v>
+          </cell>
+          <cell r="F32">
+            <v>665.75</v>
+          </cell>
+          <cell r="H32">
+            <v>18.731096574523459</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>3932</v>
+          </cell>
+          <cell r="D33">
+            <v>3932</v>
+          </cell>
+          <cell r="E33">
+            <v>3606.85</v>
+          </cell>
+          <cell r="F33">
+            <v>325.15000000000009</v>
+          </cell>
+          <cell r="H33">
+            <v>9.0147912998877153</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>3660</v>
+          </cell>
+          <cell r="D34">
+            <v>3660</v>
+          </cell>
+          <cell r="E34">
+            <v>3480.05</v>
+          </cell>
+          <cell r="F34">
+            <v>179.94999999999982</v>
+          </cell>
+          <cell r="H34">
+            <v>5.1709027169149815</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>3913</v>
+          </cell>
+          <cell r="D35">
+            <v>3913</v>
+          </cell>
+          <cell r="E35">
+            <v>3747.05</v>
+          </cell>
+          <cell r="F35">
+            <v>165.94999999999982</v>
+          </cell>
+          <cell r="H35">
+            <v>4.4288173363045544</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1730,7 +2366,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1765,7 +2401,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1976,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AP59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1990,10 +2626,10 @@
     <col min="29" max="31" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:42" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:42" ht="30" x14ac:dyDescent="0.5">
       <c r="M2" s="110"/>
     </row>
-    <row r="6" spans="1:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
@@ -2002,7 +2638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -2017,9 +2653,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="X9" s="37">
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2169,7 +2805,7 @@
         <v>5494</v>
       </c>
       <c r="X11" s="109">
-        <v>5722</v>
+        <v>5723</v>
       </c>
       <c r="Y11" s="45" t="s">
         <v>17</v>
@@ -2246,7 +2882,7 @@
         <v>4535</v>
       </c>
       <c r="X12" s="111">
-        <v>5462</v>
+        <v>5463</v>
       </c>
       <c r="Y12" s="46" t="s">
         <v>34</v>
@@ -2323,7 +2959,7 @@
         <v>4483</v>
       </c>
       <c r="X13" s="111">
-        <v>4648</v>
+        <v>4649</v>
       </c>
       <c r="Y13" s="46" t="s">
         <v>18</v>
@@ -2477,7 +3113,7 @@
         <v>3825</v>
       </c>
       <c r="X15" s="111">
-        <v>3926</v>
+        <v>3929</v>
       </c>
       <c r="Y15" s="46" t="s">
         <v>20</v>
@@ -2554,7 +3190,7 @@
         <v>3511</v>
       </c>
       <c r="X16" s="111">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="Y16" s="46" t="s">
         <v>21</v>
@@ -2628,10 +3264,10 @@
         <v>3701</v>
       </c>
       <c r="W17" s="50">
-        <v>3729</v>
+        <v>3730</v>
       </c>
       <c r="X17" s="111">
-        <v>4217</v>
+        <v>4220</v>
       </c>
       <c r="Y17" s="46" t="s">
         <v>22</v>
@@ -2708,7 +3344,7 @@
         <v>4507</v>
       </c>
       <c r="X18" s="111">
-        <v>3931</v>
+        <v>3932</v>
       </c>
       <c r="Y18" s="46" t="s">
         <v>23</v>
@@ -2785,7 +3421,7 @@
         <v>4289</v>
       </c>
       <c r="X19" s="111">
-        <v>3659</v>
+        <v>3660</v>
       </c>
       <c r="Y19" s="46" t="s">
         <v>24</v>
@@ -2862,7 +3498,7 @@
         <v>4162</v>
       </c>
       <c r="X20" s="108">
-        <v>3881</v>
+        <v>3913</v>
       </c>
       <c r="Y20" s="46" t="s">
         <v>25</v>
@@ -3011,7 +3647,7 @@
         <v>4489</v>
       </c>
       <c r="W22" s="53">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="X22" s="51"/>
       <c r="Y22" s="47" t="s">
@@ -3108,7 +3744,7 @@
       </c>
       <c r="W23" s="38">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50748</v>
+        <v>50750</v>
       </c>
       <c r="X23" s="38"/>
       <c r="Y23" s="8" t="s">
@@ -3274,7 +3910,7 @@
         <v>4280</v>
       </c>
       <c r="X30" s="41">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>17</v>
@@ -3428,7 +4064,7 @@
         <v>3406</v>
       </c>
       <c r="X32" s="41">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="Y32" s="6" t="s">
         <v>18</v>
@@ -3662,7 +4298,7 @@
         <v>2590</v>
       </c>
       <c r="X35" s="24">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="Y35" s="6" t="s">
         <v>21</v>
@@ -3739,7 +4375,7 @@
         <v>2843</v>
       </c>
       <c r="X36" s="24">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="Y36" s="6" t="s">
         <v>22</v>
@@ -3816,7 +4452,7 @@
         <v>3469</v>
       </c>
       <c r="X37" s="24">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="Y37" s="6" t="s">
         <v>23</v>
@@ -3893,7 +4529,7 @@
         <v>3153</v>
       </c>
       <c r="X38" s="24">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="Y38" s="6" t="s">
         <v>24</v>
@@ -3970,7 +4606,7 @@
         <v>3087</v>
       </c>
       <c r="X39" s="112">
-        <v>2964</v>
+        <v>2986</v>
       </c>
       <c r="Y39" s="6" t="s">
         <v>25</v>
@@ -4119,7 +4755,7 @@
         <v>3432</v>
       </c>
       <c r="W41" s="119">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="X41" s="118"/>
       <c r="Y41" s="7" t="s">
@@ -4216,7 +4852,7 @@
       </c>
       <c r="W42" s="38">
         <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
-        <v>38335</v>
+        <v>38336</v>
       </c>
       <c r="X42" s="38"/>
       <c r="Y42" s="29" t="s">
@@ -4234,7 +4870,7 @@
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4252,7 +4888,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="Y45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4330,8 +4966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4347,11 +4983,11 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="120"/>
     </row>
-    <row r="5" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:5" s="56" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" s="56" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
         <v>41</v>
@@ -4415,7 +5051,7 @@
       <c r="D12" s="63"/>
       <c r="E12" s="87"/>
     </row>
-    <row r="13" spans="1:5" s="88" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="88" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A13" s="89" t="s">
         <v>62</v>
       </c>
@@ -4424,7 +5060,7 @@
       <c r="D13" s="63"/>
       <c r="E13" s="87"/>
     </row>
-    <row r="14" spans="1:5" s="88" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="88" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="86"/>
       <c r="C14" s="86"/>
@@ -4552,10 +5188,10 @@
         <v>52</v>
       </c>
       <c r="B51" s="72">
-        <v>9.6000000000000002E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="C51" s="73">
-        <v>4466</v>
+        <v>4468</v>
       </c>
       <c r="D51" s="76">
         <v>4832</v>
@@ -4573,16 +5209,16 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="113" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B52" s="114">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
       <c r="C52" s="115">
-        <v>4655</v>
+        <v>4699</v>
       </c>
       <c r="D52" s="116">
-        <v>3497</v>
+        <v>3502</v>
       </c>
       <c r="E52" s="70"/>
       <c r="F52" s="2"/>
@@ -4613,16 +5249,16 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="117" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B54" s="114">
         <v>0.10199999999999999</v>
       </c>
       <c r="C54" s="115">
-        <v>12384</v>
+        <v>12430</v>
       </c>
       <c r="D54" s="116">
-        <v>11682</v>
+        <v>11687</v>
       </c>
       <c r="E54" s="78"/>
       <c r="F54" s="2"/>
@@ -4746,7 +5382,7 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="C60" s="105">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="D60" s="106">
         <v>1678</v>
@@ -4769,10 +5405,10 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="C61" s="101">
-        <v>2948</v>
+        <v>2951</v>
       </c>
       <c r="D61" s="102">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -4920,8 +5556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4933,7 +5569,7 @@
     <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17.45" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>63</v>
       </c>
@@ -4943,54 +5579,54 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="56"/>
       <c r="C3" s="121"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -5043,10 +5679,10 @@
         <v>78</v>
       </c>
       <c r="B52" s="72">
-        <v>9.6000000000000002E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="C52" s="73">
-        <v>4466</v>
+        <v>4468</v>
       </c>
       <c r="D52" s="76">
         <v>4832</v>
@@ -5054,16 +5690,16 @@
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="95" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="114">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
       <c r="C53" s="115">
-        <v>4655</v>
+        <v>4699</v>
       </c>
       <c r="D53" s="116">
-        <v>3497</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5074,16 +5710,16 @@
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="97" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55" s="114">
         <v>0.10199999999999999</v>
       </c>
       <c r="C55" s="115">
-        <v>12384</v>
+        <v>12430</v>
       </c>
       <c r="D55" s="116">
-        <v>11682</v>
+        <v>11687</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -5150,7 +5786,7 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="C61" s="105">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="D61" s="106">
         <v>1678</v>
@@ -5164,10 +5800,10 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="C62" s="101">
-        <v>2948</v>
+        <v>2951</v>
       </c>
       <c r="D62" s="102">
-        <v>2504</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -5195,7 +5831,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="958" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="ba35f2808f2e7bfa1078cdb6b1da8edb">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="986" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="91a57d22f4b382177861480357952403">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -5431,16 +6067,16 @@
     <nfa41555e3464cf4bb914e89b71e6bff xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
-    <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-12-07T22:00:00+00:00</CbsDataPublishDate>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-12-19T22:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -5453,13 +6089,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5DA4820-1AAC-42FF-9C9B-93A969318E4B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE5D17B-A375-4988-8C3A-3F08CD9ED397}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5396F06B-5728-44BE-97CD-03157A8FA9CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{822BF006-3010-4F0C-93CC-10A676463F07}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBE1DFC-26EB-415C-974E-88B6978E0260}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FEF4057-5808-4776-BFB0-99BD7842E1FC}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -11,9 +11,6 @@
     <sheet name="עודף תמותה" sheetId="3" r:id="rId2"/>
     <sheet name="Excess mortality" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_01.12.20">'פטירות לפי שנה וחודש'!$X$9</definedName>
     <definedName name="name_change">#REF!</definedName>
@@ -496,28 +493,28 @@
     </r>
   </si>
   <si>
-    <t>ינואר עד אוקטובר 2022</t>
-  </si>
-  <si>
-    <t>מרץ 2020 עד אוקטובר 2022</t>
-  </si>
-  <si>
-    <t>Jan.-Oct. 2022</t>
-  </si>
-  <si>
-    <t>March 2020-Oct. 2022</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 20/12/2022.</t>
-  </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 20/12/2022.</t>
-  </si>
-  <si>
-    <t>עודכן: 20/12/22</t>
-  </si>
-  <si>
-    <t>Updated: 20 December 2022</t>
+    <t>מרץ 2020 עד נובמבר 2022</t>
+  </si>
+  <si>
+    <t>ינואר עד נובמבר 2022</t>
+  </si>
+  <si>
+    <t>Jan.-Nov. 2022</t>
+  </si>
+  <si>
+    <t>March 2020-Nov. 2022</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 18/01/2023.</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 18/01/2023.</t>
+  </si>
+  <si>
+    <t>עודכן: 18/01/23</t>
+  </si>
+  <si>
+    <t>Updated: 18 January 2023</t>
   </si>
 </sst>
 </file>
@@ -1604,19 +1601,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>579550</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>6932</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>255700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>25982</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1629,7 +1626,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11228023850" y="3105150"/>
+          <a:off x="11227661900" y="3267075"/>
           <a:ext cx="9352075" cy="5255207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1647,19 +1644,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>335328</xdr:colOff>
+      <xdr:colOff>659178</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>112494</xdr:rowOff>
+      <xdr:rowOff>122019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1672,7 +1669,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2886075"/>
+          <a:off x="323850" y="2895600"/>
           <a:ext cx="9345978" cy="5541744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1683,644 +1680,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="תחזית 20-29"/>
-      <sheetName val="גיליון12"/>
-      <sheetName val="גילאי 20-29"/>
-      <sheetName val="תחזית 70+"/>
-      <sheetName val="גיליון9"/>
-      <sheetName val="70+"/>
-      <sheetName val="תוצאת רגרסיה"/>
-      <sheetName val="כל הגילאים"/>
-      <sheetName val="תחזית כל הגילאים"/>
-      <sheetName val="גיליון14"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>סך פטירות בחודש</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>תחזית פטירות לחודש</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>פטירות עודפות</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>פטירות מקורונה</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>עודף תמותה (אחוזים)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>2020</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>ינואר</v>
-          </cell>
-          <cell r="D2">
-            <v>4585</v>
-          </cell>
-          <cell r="E2">
-            <v>4727.3499999999913</v>
-          </cell>
-          <cell r="F2">
-            <v>-142.34999999999127</v>
-          </cell>
-          <cell r="H2">
-            <v>-3.0112007784486345</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>פברואר</v>
-          </cell>
-          <cell r="D3">
-            <v>3963</v>
-          </cell>
-          <cell r="E3">
-            <v>4166.3499999999922</v>
-          </cell>
-          <cell r="F3">
-            <v>-203.34999999999218</v>
-          </cell>
-          <cell r="H3">
-            <v>-4.8807709385911542</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v xml:space="preserve">מרץ </v>
-          </cell>
-          <cell r="D4">
-            <v>4181</v>
-          </cell>
-          <cell r="E4">
-            <v>4141.5499999999911</v>
-          </cell>
-          <cell r="F4">
-            <v>39.450000000008913</v>
-          </cell>
-          <cell r="H4">
-            <v>0.95254192271031368</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>אפריל</v>
-          </cell>
-          <cell r="D5">
-            <v>3921</v>
-          </cell>
-          <cell r="E5">
-            <v>3723.1499999999924</v>
-          </cell>
-          <cell r="F5">
-            <v>197.85000000000764</v>
-          </cell>
-          <cell r="H5">
-            <v>5.3140485878895038</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>מאי</v>
-          </cell>
-          <cell r="D6">
-            <v>3878</v>
-          </cell>
-          <cell r="E6">
-            <v>3660.1499999999924</v>
-          </cell>
-          <cell r="F6">
-            <v>217.85000000000764</v>
-          </cell>
-          <cell r="H6">
-            <v>5.9519418603064933</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>יוני</v>
-          </cell>
-          <cell r="D7">
-            <v>3418</v>
-          </cell>
-          <cell r="E7">
-            <v>3386.9499999999921</v>
-          </cell>
-          <cell r="F7">
-            <v>31.050000000007913</v>
-          </cell>
-          <cell r="H7">
-            <v>0.91675401172169602</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>יולי</v>
-          </cell>
-          <cell r="D8">
-            <v>3701</v>
-          </cell>
-          <cell r="E8">
-            <v>3487.3499999999926</v>
-          </cell>
-          <cell r="F8">
-            <v>213.65000000000737</v>
-          </cell>
-          <cell r="H8">
-            <v>6.1264283768479739</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>אוגוסט</v>
-          </cell>
-          <cell r="D9">
-            <v>4026</v>
-          </cell>
-          <cell r="E9">
-            <v>3539.9499999999916</v>
-          </cell>
-          <cell r="F9">
-            <v>486.05000000000837</v>
-          </cell>
-          <cell r="H9">
-            <v>13.730419921185597</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>ספטמבר</v>
-          </cell>
-          <cell r="D10">
-            <v>4163</v>
-          </cell>
-          <cell r="E10">
-            <v>3413.1499999999915</v>
-          </cell>
-          <cell r="F10">
-            <v>749.85000000000855</v>
-          </cell>
-          <cell r="H10">
-            <v>21.969441718061333</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>אוקטובר</v>
-          </cell>
-          <cell r="D11">
-            <v>4645</v>
-          </cell>
-          <cell r="E11">
-            <v>3680.1499999999924</v>
-          </cell>
-          <cell r="F11">
-            <v>964.85000000000764</v>
-          </cell>
-          <cell r="H11">
-            <v>26.217681344510673</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>נובמבר</v>
-          </cell>
-          <cell r="D12">
-            <v>3827</v>
-          </cell>
-          <cell r="E12">
-            <v>3736.549999999992</v>
-          </cell>
-          <cell r="F12">
-            <v>90.450000000008004</v>
-          </cell>
-          <cell r="H12">
-            <v>2.4206821800861276</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>דצמבר</v>
-          </cell>
-          <cell r="D13">
-            <v>4489</v>
-          </cell>
-          <cell r="E13">
-            <v>4217.3499999999922</v>
-          </cell>
-          <cell r="F13">
-            <v>271.65000000000782</v>
-          </cell>
-          <cell r="H13">
-            <v>6.441248651404516</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>2021</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>ינואר</v>
-          </cell>
-          <cell r="D14">
-            <v>5494</v>
-          </cell>
-          <cell r="E14">
-            <v>4760.8000000000029</v>
-          </cell>
-          <cell r="F14">
-            <v>733.19999999999709</v>
-          </cell>
-          <cell r="H14">
-            <v>15.400772979331133</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>פברואר</v>
-          </cell>
-          <cell r="D15">
-            <v>4535</v>
-          </cell>
-          <cell r="E15">
-            <v>4199.8000000000038</v>
-          </cell>
-          <cell r="F15">
-            <v>335.19999999999618</v>
-          </cell>
-          <cell r="H15">
-            <v>7.9813324444020157</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16" t="str">
-            <v xml:space="preserve">מרץ </v>
-          </cell>
-          <cell r="D16">
-            <v>4483</v>
-          </cell>
-          <cell r="E16">
-            <v>4175.0000000000027</v>
-          </cell>
-          <cell r="F16">
-            <v>307.99999999999727</v>
-          </cell>
-          <cell r="H16">
-            <v>7.3772455089819653</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>אפריל</v>
-          </cell>
-          <cell r="D17">
-            <v>4008</v>
-          </cell>
-          <cell r="E17">
-            <v>3756.600000000004</v>
-          </cell>
-          <cell r="F17">
-            <v>251.399999999996</v>
-          </cell>
-          <cell r="H17">
-            <v>6.6922216898257929</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>מאי</v>
-          </cell>
-          <cell r="D18">
-            <v>3825</v>
-          </cell>
-          <cell r="E18">
-            <v>3693.600000000004</v>
-          </cell>
-          <cell r="F18">
-            <v>131.399999999996</v>
-          </cell>
-          <cell r="H18">
-            <v>3.5575048732942349</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>יוני</v>
-          </cell>
-          <cell r="D19">
-            <v>3511</v>
-          </cell>
-          <cell r="E19">
-            <v>3420.4000000000037</v>
-          </cell>
-          <cell r="F19">
-            <v>90.599999999996271</v>
-          </cell>
-          <cell r="H19">
-            <v>2.6488130043268674</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>יולי</v>
-          </cell>
-          <cell r="D20">
-            <v>3730</v>
-          </cell>
-          <cell r="E20">
-            <v>3520.8000000000043</v>
-          </cell>
-          <cell r="F20">
-            <v>209.19999999999573</v>
-          </cell>
-          <cell r="H20">
-            <v>5.941831401953972</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>אוגוסט</v>
-          </cell>
-          <cell r="D21">
-            <v>4507</v>
-          </cell>
-          <cell r="E21">
-            <v>3573.4000000000033</v>
-          </cell>
-          <cell r="F21">
-            <v>933.59999999999673</v>
-          </cell>
-          <cell r="H21">
-            <v>26.126378239211839</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22" t="str">
-            <v>ספטמבר</v>
-          </cell>
-          <cell r="D22">
-            <v>4289</v>
-          </cell>
-          <cell r="E22">
-            <v>3446.6000000000031</v>
-          </cell>
-          <cell r="F22">
-            <v>842.39999999999691</v>
-          </cell>
-          <cell r="H22">
-            <v>24.441478558579359</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>אוקטובר</v>
-          </cell>
-          <cell r="D23">
-            <v>4162</v>
-          </cell>
-          <cell r="E23">
-            <v>3714</v>
-          </cell>
-          <cell r="F23">
-            <v>448</v>
-          </cell>
-          <cell r="H23">
-            <v>12.062466343564889</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>נובמבר</v>
-          </cell>
-          <cell r="D24">
-            <v>3816</v>
-          </cell>
-          <cell r="E24">
-            <v>3770</v>
-          </cell>
-          <cell r="F24">
-            <v>46</v>
-          </cell>
-          <cell r="H24">
-            <v>1.2201591511936341</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25" t="str">
-            <v>דצמבר</v>
-          </cell>
-          <cell r="D25">
-            <v>4390</v>
-          </cell>
-          <cell r="E25">
-            <v>4251</v>
-          </cell>
-          <cell r="F25">
-            <v>139</v>
-          </cell>
-          <cell r="H25">
-            <v>3.2698188661491412</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>2022</v>
-          </cell>
-          <cell r="C26">
-            <v>5723</v>
-          </cell>
-          <cell r="D26">
-            <v>5723</v>
-          </cell>
-          <cell r="E26">
-            <v>4794.25</v>
-          </cell>
-          <cell r="F26">
-            <v>928.75</v>
-          </cell>
-          <cell r="H26">
-            <v>19.372164572143713</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>5463</v>
-          </cell>
-          <cell r="D27">
-            <v>5463</v>
-          </cell>
-          <cell r="E27">
-            <v>4233.25</v>
-          </cell>
-          <cell r="F27">
-            <v>1229.75</v>
-          </cell>
-          <cell r="H27">
-            <v>29.049784444575682</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>4649</v>
-          </cell>
-          <cell r="D28">
-            <v>4649</v>
-          </cell>
-          <cell r="E28">
-            <v>4208.45</v>
-          </cell>
-          <cell r="F28">
-            <v>440.55000000000018</v>
-          </cell>
-          <cell r="H28">
-            <v>10.468224643277221</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>4142</v>
-          </cell>
-          <cell r="D29">
-            <v>4142</v>
-          </cell>
-          <cell r="E29">
-            <v>3790.05</v>
-          </cell>
-          <cell r="F29">
-            <v>351.94999999999982</v>
-          </cell>
-          <cell r="H29">
-            <v>9.2861571747074532</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>3929</v>
-          </cell>
-          <cell r="D30">
-            <v>3929</v>
-          </cell>
-          <cell r="E30">
-            <v>3727.05</v>
-          </cell>
-          <cell r="F30">
-            <v>201.94999999999982</v>
-          </cell>
-          <cell r="H30">
-            <v>5.4184945197944696</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>3663</v>
-          </cell>
-          <cell r="D31">
-            <v>3663</v>
-          </cell>
-          <cell r="E31">
-            <v>3453.85</v>
-          </cell>
-          <cell r="F31">
-            <v>209.15000000000009</v>
-          </cell>
-          <cell r="H31">
-            <v>6.0555611853438949</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>4220</v>
-          </cell>
-          <cell r="D32">
-            <v>4220</v>
-          </cell>
-          <cell r="E32">
-            <v>3554.25</v>
-          </cell>
-          <cell r="F32">
-            <v>665.75</v>
-          </cell>
-          <cell r="H32">
-            <v>18.731096574523459</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>3932</v>
-          </cell>
-          <cell r="D33">
-            <v>3932</v>
-          </cell>
-          <cell r="E33">
-            <v>3606.85</v>
-          </cell>
-          <cell r="F33">
-            <v>325.15000000000009</v>
-          </cell>
-          <cell r="H33">
-            <v>9.0147912998877153</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>3660</v>
-          </cell>
-          <cell r="D34">
-            <v>3660</v>
-          </cell>
-          <cell r="E34">
-            <v>3480.05</v>
-          </cell>
-          <cell r="F34">
-            <v>179.94999999999982</v>
-          </cell>
-          <cell r="H34">
-            <v>5.1709027169149815</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>3913</v>
-          </cell>
-          <cell r="D35">
-            <v>3913</v>
-          </cell>
-          <cell r="E35">
-            <v>3747.05</v>
-          </cell>
-          <cell r="F35">
-            <v>165.94999999999982</v>
-          </cell>
-          <cell r="H35">
-            <v>4.4288173363045544</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2612,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AP59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2655,7 +2014,7 @@
     </row>
     <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="X9" s="37">
-        <v>44915</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2805,7 +2164,7 @@
         <v>5494</v>
       </c>
       <c r="X11" s="109">
-        <v>5723</v>
+        <v>5725</v>
       </c>
       <c r="Y11" s="45" t="s">
         <v>17</v>
@@ -2882,7 +2241,7 @@
         <v>4535</v>
       </c>
       <c r="X12" s="111">
-        <v>5463</v>
+        <v>5465</v>
       </c>
       <c r="Y12" s="46" t="s">
         <v>34</v>
@@ -2959,7 +2318,7 @@
         <v>4483</v>
       </c>
       <c r="X13" s="111">
-        <v>4649</v>
+        <v>4650</v>
       </c>
       <c r="Y13" s="46" t="s">
         <v>18</v>
@@ -3036,7 +2395,7 @@
         <v>4008</v>
       </c>
       <c r="X14" s="111">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="Y14" s="46" t="s">
         <v>19</v>
@@ -3190,7 +2549,7 @@
         <v>3511</v>
       </c>
       <c r="X16" s="111">
-        <v>3663</v>
+        <v>3664</v>
       </c>
       <c r="Y16" s="46" t="s">
         <v>21</v>
@@ -3267,7 +2626,7 @@
         <v>3730</v>
       </c>
       <c r="X17" s="111">
-        <v>4220</v>
+        <v>4223</v>
       </c>
       <c r="Y17" s="46" t="s">
         <v>22</v>
@@ -3344,7 +2703,7 @@
         <v>4507</v>
       </c>
       <c r="X18" s="111">
-        <v>3932</v>
+        <v>3935</v>
       </c>
       <c r="Y18" s="46" t="s">
         <v>23</v>
@@ -3421,7 +2780,7 @@
         <v>4289</v>
       </c>
       <c r="X19" s="111">
-        <v>3660</v>
+        <v>3666</v>
       </c>
       <c r="Y19" s="46" t="s">
         <v>24</v>
@@ -3495,10 +2854,10 @@
         <v>4645</v>
       </c>
       <c r="W20" s="50">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="X20" s="108">
-        <v>3913</v>
+        <v>3931</v>
       </c>
       <c r="Y20" s="46" t="s">
         <v>25</v>
@@ -3574,7 +2933,9 @@
       <c r="W21" s="50">
         <v>3816</v>
       </c>
-      <c r="X21" s="50"/>
+      <c r="X21" s="50">
+        <v>3865</v>
+      </c>
       <c r="Y21" s="45" t="s">
         <v>26</v>
       </c>
@@ -3744,26 +3105,26 @@
       </c>
       <c r="W23" s="38">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50750</v>
+        <v>50751</v>
       </c>
       <c r="X23" s="38"/>
       <c r="Y23" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K27" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="9">
@@ -3910,7 +3271,7 @@
         <v>4280</v>
       </c>
       <c r="X30" s="41">
-        <v>4472</v>
+        <v>4474</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>17</v>
@@ -3987,7 +3348,7 @@
         <v>3407</v>
       </c>
       <c r="X31" s="41">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="Y31" s="6" t="s">
         <v>34</v>
@@ -4141,7 +3502,7 @@
         <v>2959</v>
       </c>
       <c r="X33" s="24">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="Y33" s="6" t="s">
         <v>19</v>
@@ -4375,7 +3736,7 @@
         <v>2843</v>
       </c>
       <c r="X36" s="24">
-        <v>3292</v>
+        <v>3295</v>
       </c>
       <c r="Y36" s="6" t="s">
         <v>22</v>
@@ -4452,7 +3813,7 @@
         <v>3469</v>
       </c>
       <c r="X37" s="24">
-        <v>3000</v>
+        <v>3002</v>
       </c>
       <c r="Y37" s="6" t="s">
         <v>23</v>
@@ -4529,7 +3890,7 @@
         <v>3153</v>
       </c>
       <c r="X38" s="24">
-        <v>2763</v>
+        <v>2769</v>
       </c>
       <c r="Y38" s="6" t="s">
         <v>24</v>
@@ -4606,7 +3967,7 @@
         <v>3087</v>
       </c>
       <c r="X39" s="112">
-        <v>2986</v>
+        <v>2996</v>
       </c>
       <c r="Y39" s="6" t="s">
         <v>25</v>
@@ -4682,7 +4043,9 @@
       <c r="W40" s="24">
         <v>2876</v>
       </c>
-      <c r="X40" s="52"/>
+      <c r="X40" s="52">
+        <v>2925</v>
+      </c>
       <c r="Y40" s="5" t="s">
         <v>26</v>
       </c>
@@ -4966,8 +4329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:B61"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5076,35 +4439,35 @@
       <c r="D15" s="63"/>
       <c r="E15" s="64"/>
     </row>
-    <row r="32" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="56" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
       <c r="B32" s="58"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
       <c r="E32" s="59"/>
     </row>
-    <row r="33" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="56" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A33" s="58"/>
       <c r="B33" s="58"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
       <c r="E33" s="59"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A45" s="65"/>
       <c r="B45" s="62"/>
       <c r="C45" s="66"/>
       <c r="D45" s="63"/>
       <c r="E45" s="64"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A46" s="65"/>
       <c r="B46" s="62"/>
       <c r="C46" s="66"/>
       <c r="D46" s="63"/>
       <c r="E46" s="64"/>
     </row>
-    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="65"/>
       <c r="B47" s="62"/>
       <c r="C47" s="66"/>
@@ -5191,7 +4554,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="C51" s="73">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="D51" s="76">
         <v>4832</v>
@@ -5209,16 +4572,16 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="113" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B52" s="114">
-        <v>0.122</v>
+        <v>0.113</v>
       </c>
       <c r="C52" s="115">
-        <v>4699</v>
+        <v>4797</v>
       </c>
       <c r="D52" s="116">
-        <v>3502</v>
+        <v>3603</v>
       </c>
       <c r="E52" s="70"/>
       <c r="F52" s="2"/>
@@ -5231,7 +4594,7 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A53" s="77"/>
       <c r="B53" s="72"/>
       <c r="C53" s="73"/>
@@ -5249,16 +4612,16 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="117" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" s="114">
-        <v>0.10199999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="C54" s="115">
-        <v>12430</v>
+        <v>12529</v>
       </c>
       <c r="D54" s="116">
-        <v>11687</v>
+        <v>11788</v>
       </c>
       <c r="E54" s="78"/>
       <c r="F54" s="2"/>
@@ -5271,7 +4634,7 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A55" s="71"/>
       <c r="B55" s="79"/>
       <c r="C55" s="80"/>
@@ -5382,7 +4745,7 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="C60" s="105">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="D60" s="106">
         <v>1678</v>
@@ -5402,10 +4765,10 @@
         <v>85</v>
       </c>
       <c r="B61" s="100">
-        <v>0.17299999999999999</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="C61" s="101">
-        <v>2951</v>
+        <v>2957</v>
       </c>
       <c r="D61" s="102">
         <v>2506</v>
@@ -5557,7 +4920,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5631,8 +4994,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="48" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:4" ht="42" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A49" s="67" t="s">
         <v>72</v>
       </c>
@@ -5646,7 +5009,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A50" s="71" t="s">
         <v>76</v>
       </c>
@@ -5660,7 +5023,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A51" s="75" t="s">
         <v>77</v>
       </c>
@@ -5674,7 +5037,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A52" s="71" t="s">
         <v>78</v>
       </c>
@@ -5682,7 +5045,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="C52" s="73">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="D52" s="76">
         <v>4832</v>
@@ -5693,13 +5056,13 @@
         <v>91</v>
       </c>
       <c r="B53" s="114">
-        <v>0.122</v>
+        <v>0.113</v>
       </c>
       <c r="C53" s="115">
-        <v>4699</v>
+        <v>4797</v>
       </c>
       <c r="D53" s="116">
-        <v>3502</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5713,13 +5076,13 @@
         <v>92</v>
       </c>
       <c r="B55" s="114">
-        <v>0.10199999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="C55" s="115">
-        <v>12430</v>
+        <v>12529</v>
       </c>
       <c r="D55" s="116">
-        <v>11687</v>
+        <v>11788</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -5786,7 +5149,7 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="C61" s="105">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="D61" s="106">
         <v>1678</v>
@@ -5797,10 +5160,10 @@
         <v>86</v>
       </c>
       <c r="B62" s="100">
-        <v>0.17299999999999999</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="C62" s="101">
-        <v>2951</v>
+        <v>2957</v>
       </c>
       <c r="D62" s="102">
         <v>2506</v>
@@ -5831,7 +5194,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="986" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="91a57d22f4b382177861480357952403">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="1068" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="8e100fa39b86abf765e3835612bb3c12">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -6063,21 +5426,21 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <nfa41555e3464cf4bb914e89b71e6bff xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
+    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040">לוחות ותרשימים</CbsPublishingDocChapter>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2022-12-19T22:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2023-01-17T22:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -6089,13 +5452,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE5D17B-A375-4988-8C3A-3F08CD9ED397}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29AA2DE8-C962-473E-BB9F-58221D0A43FE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{822BF006-3010-4F0C-93CC-10A676463F07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F092F552-8F95-41FF-A93A-40033E09CD23}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FEF4057-5808-4776-BFB0-99BD7842E1FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E25826C3-1238-4610-980E-FC4007A6FF56}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -493,28 +493,28 @@
     </r>
   </si>
   <si>
-    <t>מרץ 2020 עד נובמבר 2022</t>
-  </si>
-  <si>
-    <t>ינואר עד נובמבר 2022</t>
-  </si>
-  <si>
-    <t>Jan.-Nov. 2022</t>
-  </si>
-  <si>
-    <t>March 2020-Nov. 2022</t>
-  </si>
-  <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 18/01/2023.</t>
-  </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 18/01/2023.</t>
-  </si>
-  <si>
-    <t>עודכן: 18/01/23</t>
-  </si>
-  <si>
-    <t>Updated: 18 January 2023</t>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 24/01/2023.</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 24/01/2023.</t>
+  </si>
+  <si>
+    <t>עודכן: 24/01/23</t>
+  </si>
+  <si>
+    <t>ינואר עד דצמבר 2022</t>
+  </si>
+  <si>
+    <t>מרץ 2020 עד דצמבר 2022</t>
+  </si>
+  <si>
+    <t>Jan.-Dec. 2022</t>
+  </si>
+  <si>
+    <t>March 2020-Dec. 2022</t>
+  </si>
+  <si>
+    <t>Updated: 24 January 2023</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1328,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1526,7 +1526,6 @@
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1601,19 +1600,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>255700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>25982</xdr:rowOff>
+      <xdr:colOff>36625</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>54557</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1626,7 +1625,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11227661900" y="3267075"/>
+          <a:off x="11227880975" y="3124200"/>
           <a:ext cx="9352075" cy="5255207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1644,19 +1643,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>659178</xdr:colOff>
+      <xdr:colOff>611553</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>122019</xdr:rowOff>
+      <xdr:rowOff>102969</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1669,7 +1668,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="2895600"/>
+          <a:off x="276225" y="2876550"/>
           <a:ext cx="9345978" cy="5541744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1971,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AP59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2014,7 +2013,7 @@
     </row>
     <row r="9" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="X9" s="37">
-        <v>44943</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2241,7 +2240,7 @@
         <v>4535</v>
       </c>
       <c r="X12" s="111">
-        <v>5465</v>
+        <v>5464</v>
       </c>
       <c r="Y12" s="46" t="s">
         <v>34</v>
@@ -2703,7 +2702,7 @@
         <v>4507</v>
       </c>
       <c r="X18" s="111">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="Y18" s="46" t="s">
         <v>23</v>
@@ -2780,7 +2779,7 @@
         <v>4289</v>
       </c>
       <c r="X19" s="111">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="Y19" s="46" t="s">
         <v>24</v>
@@ -2857,7 +2856,7 @@
         <v>4163</v>
       </c>
       <c r="X20" s="108">
-        <v>3931</v>
+        <v>3933</v>
       </c>
       <c r="Y20" s="46" t="s">
         <v>25</v>
@@ -2933,8 +2932,8 @@
       <c r="W21" s="50">
         <v>3816</v>
       </c>
-      <c r="X21" s="50">
-        <v>3865</v>
+      <c r="X21" s="108">
+        <v>3871</v>
       </c>
       <c r="Y21" s="45" t="s">
         <v>26</v>
@@ -3010,7 +3009,9 @@
       <c r="W22" s="53">
         <v>4390</v>
       </c>
-      <c r="X22" s="51"/>
+      <c r="X22" s="51">
+        <v>4241</v>
+      </c>
       <c r="Y22" s="47" t="s">
         <v>27</v>
       </c>
@@ -3099,7 +3100,7 @@
         <f t="shared" si="0"/>
         <v>46004</v>
       </c>
-      <c r="V23" s="122">
+      <c r="V23" s="121">
         <f t="shared" ref="V23" si="1">SUM(V11:V22)</f>
         <v>48797</v>
       </c>
@@ -3107,7 +3108,10 @@
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
         <v>50751</v>
       </c>
-      <c r="X23" s="38"/>
+      <c r="X23" s="38">
+        <f>SUM(X11:X22)</f>
+        <v>51446</v>
+      </c>
       <c r="Y23" s="8" t="s">
         <v>28</v>
       </c>
@@ -3267,7 +3271,7 @@
       <c r="V30" s="19">
         <v>3478</v>
       </c>
-      <c r="W30" s="41">
+      <c r="W30" s="49">
         <v>4280</v>
       </c>
       <c r="X30" s="41">
@@ -3344,7 +3348,7 @@
       <c r="V31" s="19">
         <v>3042</v>
       </c>
-      <c r="W31" s="41">
+      <c r="W31" s="50">
         <v>3407</v>
       </c>
       <c r="X31" s="41">
@@ -3421,7 +3425,7 @@
       <c r="V32" s="19">
         <v>3210</v>
       </c>
-      <c r="W32" s="41">
+      <c r="W32" s="50">
         <v>3406</v>
       </c>
       <c r="X32" s="41">
@@ -3498,7 +3502,7 @@
       <c r="V33" s="19">
         <v>3019</v>
       </c>
-      <c r="W33" s="24">
+      <c r="W33" s="50">
         <v>2959</v>
       </c>
       <c r="X33" s="24">
@@ -3575,7 +3579,7 @@
       <c r="V34" s="19">
         <v>2940</v>
       </c>
-      <c r="W34" s="24">
+      <c r="W34" s="50">
         <v>2883</v>
       </c>
       <c r="X34" s="24">
@@ -3655,7 +3659,7 @@
       <c r="V35" s="19">
         <v>2534</v>
       </c>
-      <c r="W35" s="24">
+      <c r="W35" s="50">
         <v>2590</v>
       </c>
       <c r="X35" s="24">
@@ -3732,7 +3736,7 @@
       <c r="V36" s="19">
         <v>2778</v>
       </c>
-      <c r="W36" s="24">
+      <c r="W36" s="50">
         <v>2843</v>
       </c>
       <c r="X36" s="24">
@@ -3809,11 +3813,11 @@
       <c r="V37" s="19">
         <v>3013</v>
       </c>
-      <c r="W37" s="24">
+      <c r="W37" s="50">
         <v>3469</v>
       </c>
       <c r="X37" s="24">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="Y37" s="6" t="s">
         <v>23</v>
@@ -3886,11 +3890,11 @@
       <c r="V38" s="19">
         <v>3173</v>
       </c>
-      <c r="W38" s="24">
+      <c r="W38" s="50">
         <v>3153</v>
       </c>
       <c r="X38" s="24">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="Y38" s="6" t="s">
         <v>24</v>
@@ -3963,7 +3967,7 @@
       <c r="V39" s="24">
         <v>3563</v>
       </c>
-      <c r="W39" s="24">
+      <c r="W39" s="50">
         <v>3087</v>
       </c>
       <c r="X39" s="112">
@@ -4040,11 +4044,11 @@
       <c r="V40" s="40">
         <v>2854</v>
       </c>
-      <c r="W40" s="24">
+      <c r="W40" s="50">
         <v>2876</v>
       </c>
       <c r="X40" s="52">
-        <v>2925</v>
+        <v>2929</v>
       </c>
       <c r="Y40" s="5" t="s">
         <v>26</v>
@@ -4117,10 +4121,12 @@
       <c r="V41" s="42">
         <v>3432</v>
       </c>
-      <c r="W41" s="119">
+      <c r="W41" s="53">
         <v>3383</v>
       </c>
-      <c r="X41" s="118"/>
+      <c r="X41" s="118">
+        <v>3280</v>
+      </c>
       <c r="Y41" s="7" t="s">
         <v>27</v>
       </c>
@@ -4209,7 +4215,7 @@
         <f t="shared" si="3"/>
         <v>34477</v>
       </c>
-      <c r="V42" s="122">
+      <c r="V42" s="121">
         <f t="shared" ref="V42" si="4">SUM(V30:V41)</f>
         <v>37036</v>
       </c>
@@ -4217,7 +4223,10 @@
         <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
         <v>38336</v>
       </c>
-      <c r="X42" s="38"/>
+      <c r="X42" s="38">
+        <f>SUM(X30:X41)</f>
+        <v>39500</v>
+      </c>
       <c r="Y42" s="29" t="s">
         <v>28</v>
       </c>
@@ -4233,7 +4242,7 @@
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4251,7 +4260,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="Y45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4285,12 +4294,12 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="123" t="s">
+      <c r="A48" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="123"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
       <c r="Y48" s="30" t="s">
         <v>35</v>
       </c>
@@ -4329,8 +4338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4346,9 +4355,9 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="120"/>
+        <v>91</v>
+      </c>
+      <c r="C4" s="119"/>
     </row>
     <row r="5" spans="1:5" s="56" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" s="56" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
@@ -4572,16 +4581,16 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="113" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="114">
-        <v>0.113</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C52" s="115">
-        <v>4797</v>
+        <v>4763</v>
       </c>
       <c r="D52" s="116">
-        <v>3603</v>
+        <v>3783</v>
       </c>
       <c r="E52" s="70"/>
       <c r="F52" s="2"/>
@@ -4612,16 +4621,16 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="117" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B54" s="114">
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="C54" s="115">
-        <v>12529</v>
+        <v>12495</v>
       </c>
       <c r="D54" s="116">
-        <v>11788</v>
+        <v>11968</v>
       </c>
       <c r="E54" s="78"/>
       <c r="F54" s="2"/>
@@ -4768,7 +4777,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="C61" s="101">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="D61" s="102">
         <v>2506</v>
@@ -4919,8 +4928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4947,7 +4956,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="56"/>
-      <c r="C3" s="121"/>
+      <c r="C3" s="120"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
@@ -4994,8 +5003,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:4" ht="42" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="48" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A49" s="67" t="s">
         <v>72</v>
       </c>
@@ -5009,7 +5018,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="71" t="s">
         <v>76</v>
       </c>
@@ -5023,7 +5032,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="75" t="s">
         <v>77</v>
       </c>
@@ -5037,7 +5046,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="71" t="s">
         <v>78</v>
       </c>
@@ -5053,16 +5062,16 @@
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="95" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B53" s="114">
-        <v>0.113</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C53" s="115">
-        <v>4797</v>
+        <v>4763</v>
       </c>
       <c r="D53" s="116">
-        <v>3603</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -5073,16 +5082,16 @@
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="97" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B55" s="114">
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="C55" s="115">
-        <v>12529</v>
+        <v>12495</v>
       </c>
       <c r="D55" s="116">
-        <v>11788</v>
+        <v>11968</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -5163,7 +5172,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="C62" s="101">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="D62" s="102">
         <v>2506</v>
@@ -5194,7 +5203,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="1068" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="8e100fa39b86abf765e3835612bb3c12">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="1080" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="ddb0830e40cc656cd4d523adc19c3547">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284f9a09b04ee4ed78181931606c5927" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -5426,21 +5435,21 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <nfa41555e3464cf4bb914e89b71e6bff xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </nfa41555e3464cf4bb914e89b71e6bff>
-    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040">לוחות ותרשימים</CbsPublishingDocChapter>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2023-01-23T22:00:00+00:00</CbsDataPublishDate>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2023-01-17T22:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
@@ -5452,13 +5461,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29AA2DE8-C962-473E-BB9F-58221D0A43FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{858E40DE-B459-4C11-A7D3-54146A70E9E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F092F552-8F95-41FF-A93A-40033E09CD23}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5038C58C-5488-4E9B-8B55-255A98904A86}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E25826C3-1238-4610-980E-FC4007A6FF56}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1F7AA87-00DA-4BF4-829A-6F4EAE3199EB}"/>
 </file>
--- a/data/Israel/lmsMonth.xlsx
+++ b/data/Israel/lmsMonth.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Irene\מפנימי\2023\AUG-22-23\לאתר\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DD419B-528D-479D-B884-1DDDCF95F112}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8220"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="פטירות לפי שנה וחודש" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <definedName name="name_change">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'פטירות לפי שנה וחודש'!$A$1:$Z$48</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -463,14 +469,14 @@
     <t>פטירות של תושבי ישראל, לפי שנה וחודש, 2023-2000 - בני 70 ומעלה</t>
   </si>
   <si>
-    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 01/03/2023.</t>
-  </si>
-  <si>
-    <t>The data were produced by the Health and Vital Statistics Sector on 01/03/2023.</t>
+    <t>Excess mortality is shown only up to December 2022, due to the distance from the years on which the predicted mortality was calculated. As the distance in years increases, there may be a greater bias in the prediction.</t>
+  </si>
+  <si>
+    <t>עודף התמותה מוצג רק עד דצמבר 2022, בשל המרחק מהשנים שעל פיהן חושבה תחזית התמותה. ככל שהמרחק בשנים גדל, תתכן הטיה גדולה יותר בתחזית.</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. נתוני 2023-2021 אינם סופיים, </t>
+      <t xml:space="preserve">1. נתוני 2023-2022 אינם סופיים, </t>
     </r>
     <r>
       <rPr>
@@ -486,7 +492,7 @@
   </si>
   <si>
     <r>
-      <t>1. Data for 2021-2023 are not final,</t>
+      <t>1. Data for 2022-2023 are not final,</t>
     </r>
     <r>
       <rPr>
@@ -511,28 +517,28 @@
     </r>
   </si>
   <si>
-    <t>עודכן: 01/03/23</t>
-  </si>
-  <si>
-    <t>Updated: 01 March 2023</t>
-  </si>
-  <si>
-    <t>Excess mortality is shown only up to December 2022, due to the distance from the years on which the predicted mortality was calculated. As the distance in years increases, there may be a greater bias in the prediction.</t>
-  </si>
-  <si>
-    <t>עודף התמותה מוצג רק עד דצמבר 2022, בשל המרחק מהשנים שעל פיהן חושבה תחזית התמותה. ככל שהמרחק בשנים גדל, תתכן הטיה גדולה יותר בתחזית.</t>
+    <t>עודכן: 23/07/23</t>
+  </si>
+  <si>
+    <t>Updated: 23 July 2023</t>
+  </si>
+  <si>
+    <t>הנתונים הופקו בתחום סטטיסטיקה של בריאות ותנועה טבעית, 22/08/2023.</t>
+  </si>
+  <si>
+    <t>The data were produced by the Health and Vital Statistics Sector on 22/08/2023.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +803,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1432,7 +1447,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1541,10 +1555,7 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="30" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1578,25 +1589,29 @@
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Text_e" xfId="1"/>
+    <cellStyle name="Text_e" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1626,7 +1641,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1662,17 +1677,23 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>17575</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>6932</xdr:rowOff>
+      <xdr:rowOff>114015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7782C9EA-5B56-4CAC-86D9-DEC837EE1531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1685,8 +1706,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11227900025" y="3086100"/>
-          <a:ext cx="9352075" cy="5255207"/>
+          <a:off x="11227900025" y="3362325"/>
+          <a:ext cx="9352075" cy="5505165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1703,19 +1724,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>611553</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>157838</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>78153</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>138788</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3ED59C-E954-4FC5-AE2C-04EB5552946E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1728,7 +1755,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="276225" y="2876550"/>
+          <a:off x="419100" y="3152775"/>
           <a:ext cx="9345978" cy="5596613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1784,7 +1811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1817,9 +1844,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1852,6 +1896,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2027,27 +2088,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AQ59"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD27"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.125" customWidth="1"/>
     <col min="2" max="23" width="6.875" customWidth="1"/>
-    <col min="24" max="25" width="9.375" customWidth="1"/>
+    <col min="24" max="25" width="9.5" customWidth="1"/>
     <col min="26" max="26" width="10.875" customWidth="1"/>
     <col min="27" max="29" width="6.875" customWidth="1"/>
     <col min="30" max="32" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:43" ht="30" x14ac:dyDescent="0.5">
-      <c r="M2" s="107"/>
-    </row>
-    <row r="6" spans="1:43" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:43" ht="30" x14ac:dyDescent="0.4">
+      <c r="M2" s="104"/>
+    </row>
+    <row r="6" spans="1:43" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>89</v>
@@ -2056,7 +2117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -2071,9 +2132,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Y9" s="37">
-        <v>44985</v>
+        <v>45160</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2223,13 +2284,13 @@
         <v>4585</v>
       </c>
       <c r="W11" s="48">
-        <v>5494</v>
-      </c>
-      <c r="X11" s="106">
-        <v>5724</v>
-      </c>
-      <c r="Y11" s="118">
-        <v>4699</v>
+        <v>5496</v>
+      </c>
+      <c r="X11" s="128">
+        <v>5726</v>
+      </c>
+      <c r="Y11" s="114">
+        <v>4799</v>
       </c>
       <c r="Z11" s="44" t="s">
         <v>17</v>
@@ -2303,12 +2364,14 @@
         <v>3963</v>
       </c>
       <c r="W12" s="49">
-        <v>4535</v>
-      </c>
-      <c r="X12" s="108">
-        <v>5468</v>
-      </c>
-      <c r="Y12" s="119"/>
+        <v>4536</v>
+      </c>
+      <c r="X12" s="129">
+        <v>5470</v>
+      </c>
+      <c r="Y12" s="115">
+        <v>4198</v>
+      </c>
       <c r="Z12" s="45" t="s">
         <v>34</v>
       </c>
@@ -2381,12 +2444,14 @@
         <v>4181</v>
       </c>
       <c r="W13" s="49">
-        <v>4483</v>
-      </c>
-      <c r="X13" s="108">
-        <v>4651</v>
-      </c>
-      <c r="Y13" s="119"/>
+        <v>4485</v>
+      </c>
+      <c r="X13" s="129">
+        <v>4653</v>
+      </c>
+      <c r="Y13" s="115">
+        <v>4425</v>
+      </c>
       <c r="Z13" s="45" t="s">
         <v>18</v>
       </c>
@@ -2459,12 +2524,14 @@
         <v>3921</v>
       </c>
       <c r="W14" s="49">
-        <v>4008</v>
-      </c>
-      <c r="X14" s="108">
-        <v>4145</v>
-      </c>
-      <c r="Y14" s="119"/>
+        <v>4009</v>
+      </c>
+      <c r="X14" s="129">
+        <v>4148</v>
+      </c>
+      <c r="Y14" s="134">
+        <v>4059</v>
+      </c>
       <c r="Z14" s="45" t="s">
         <v>19</v>
       </c>
@@ -2539,10 +2606,12 @@
       <c r="W15" s="49">
         <v>3826</v>
       </c>
-      <c r="X15" s="108">
-        <v>3931</v>
-      </c>
-      <c r="Y15" s="119"/>
+      <c r="X15" s="129">
+        <v>3933</v>
+      </c>
+      <c r="Y15" s="115">
+        <v>3999</v>
+      </c>
       <c r="Z15" s="45" t="s">
         <v>20</v>
       </c>
@@ -2615,12 +2684,14 @@
         <v>3418</v>
       </c>
       <c r="W16" s="49">
-        <v>3511</v>
-      </c>
-      <c r="X16" s="108">
-        <v>3665</v>
-      </c>
-      <c r="Y16" s="119"/>
+        <v>3512</v>
+      </c>
+      <c r="X16" s="129">
+        <v>3669</v>
+      </c>
+      <c r="Y16" s="116">
+        <v>3510</v>
+      </c>
       <c r="Z16" s="45" t="s">
         <v>21</v>
       </c>
@@ -2693,12 +2764,14 @@
         <v>3701</v>
       </c>
       <c r="W17" s="49">
-        <v>3730</v>
-      </c>
-      <c r="X17" s="108">
-        <v>4223</v>
-      </c>
-      <c r="Y17" s="119"/>
+        <v>3731</v>
+      </c>
+      <c r="X17" s="129">
+        <v>4226</v>
+      </c>
+      <c r="Y17" s="116">
+        <v>3398</v>
+      </c>
       <c r="Z17" s="45" t="s">
         <v>22</v>
       </c>
@@ -2771,12 +2844,12 @@
         <v>4026</v>
       </c>
       <c r="W18" s="49">
-        <v>4507</v>
-      </c>
-      <c r="X18" s="108">
-        <v>3939</v>
-      </c>
-      <c r="Y18" s="119"/>
+        <v>4510</v>
+      </c>
+      <c r="X18" s="129">
+        <v>3946</v>
+      </c>
+      <c r="Y18" s="115"/>
       <c r="Z18" s="45" t="s">
         <v>23</v>
       </c>
@@ -2849,12 +2922,12 @@
         <v>4163</v>
       </c>
       <c r="W19" s="49">
-        <v>4289</v>
-      </c>
-      <c r="X19" s="108">
-        <v>3672</v>
-      </c>
-      <c r="Y19" s="119"/>
+        <v>4291</v>
+      </c>
+      <c r="X19" s="129">
+        <v>3680</v>
+      </c>
+      <c r="Y19" s="115"/>
       <c r="Z19" s="45" t="s">
         <v>24</v>
       </c>
@@ -2927,12 +3000,12 @@
         <v>4645</v>
       </c>
       <c r="W20" s="49">
-        <v>4163</v>
-      </c>
-      <c r="X20" s="105">
-        <v>3939</v>
-      </c>
-      <c r="Y20" s="120"/>
+        <v>4164</v>
+      </c>
+      <c r="X20" s="129">
+        <v>3950</v>
+      </c>
+      <c r="Y20" s="116"/>
       <c r="Z20" s="45" t="s">
         <v>25</v>
       </c>
@@ -3005,12 +3078,12 @@
         <v>3827</v>
       </c>
       <c r="W21" s="49">
-        <v>3817</v>
-      </c>
-      <c r="X21" s="105">
-        <v>3886</v>
-      </c>
-      <c r="Y21" s="121"/>
+        <v>3819</v>
+      </c>
+      <c r="X21" s="129">
+        <v>3901</v>
+      </c>
+      <c r="Y21" s="117"/>
       <c r="Z21" s="44" t="s">
         <v>26</v>
       </c>
@@ -3082,13 +3155,13 @@
       <c r="V22" s="41">
         <v>4489</v>
       </c>
-      <c r="W22" s="51">
-        <v>4391</v>
+      <c r="W22" s="50">
+        <v>4393</v>
       </c>
       <c r="X22" s="50">
-        <v>4383</v>
-      </c>
-      <c r="Y22" s="122"/>
+        <v>4416</v>
+      </c>
+      <c r="Y22" s="118"/>
       <c r="Z22" s="46" t="s">
         <v>27</v>
       </c>
@@ -3177,36 +3250,36 @@
         <f t="shared" si="0"/>
         <v>46004</v>
       </c>
-      <c r="V23" s="117">
+      <c r="V23" s="113">
         <f t="shared" ref="V23" si="1">SUM(V11:V22)</f>
         <v>48797</v>
       </c>
-      <c r="W23" s="38">
+      <c r="W23" s="127">
         <f t="shared" ref="W23" si="2">SUM(W11:W22)</f>
-        <v>50754</v>
+        <v>50772</v>
       </c>
       <c r="X23" s="38">
         <f>SUM(X11:X22)</f>
-        <v>51626</v>
+        <v>51718</v>
       </c>
       <c r="Y23" s="38"/>
       <c r="Z23" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K27" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="9">
@@ -3352,14 +3425,14 @@
       <c r="V30" s="42">
         <v>3478</v>
       </c>
-      <c r="W30" s="132">
-        <v>4280</v>
-      </c>
-      <c r="X30" s="128">
-        <v>4473</v>
-      </c>
-      <c r="Y30" s="124">
-        <v>3713</v>
+      <c r="W30" s="124">
+        <v>4282</v>
+      </c>
+      <c r="X30" s="130">
+        <v>4475</v>
+      </c>
+      <c r="Y30" s="120">
+        <v>3772</v>
       </c>
       <c r="Z30" s="5" t="s">
         <v>17</v>
@@ -3433,12 +3506,14 @@
         <v>3042</v>
       </c>
       <c r="W31" s="19">
-        <v>3407</v>
-      </c>
-      <c r="X31" s="128">
-        <v>4338</v>
-      </c>
-      <c r="Y31" s="125"/>
+        <v>3408</v>
+      </c>
+      <c r="X31" s="130">
+        <v>4340</v>
+      </c>
+      <c r="Y31" s="121">
+        <v>3255</v>
+      </c>
       <c r="Z31" s="6" t="s">
         <v>34</v>
       </c>
@@ -3513,10 +3588,12 @@
       <c r="W32" s="19">
         <v>3406</v>
       </c>
-      <c r="X32" s="128">
-        <v>3533</v>
-      </c>
-      <c r="Y32" s="125"/>
+      <c r="X32" s="130">
+        <v>3534</v>
+      </c>
+      <c r="Y32" s="121">
+        <v>3452</v>
+      </c>
       <c r="Z32" s="6" t="s">
         <v>18</v>
       </c>
@@ -3591,10 +3668,12 @@
       <c r="W33" s="19">
         <v>2959</v>
       </c>
-      <c r="X33" s="129">
-        <v>3194</v>
-      </c>
-      <c r="Y33" s="126"/>
+      <c r="X33" s="131">
+        <v>3196</v>
+      </c>
+      <c r="Y33" s="133">
+        <v>3108</v>
+      </c>
       <c r="Z33" s="6" t="s">
         <v>19</v>
       </c>
@@ -3667,12 +3746,14 @@
         <v>2940</v>
       </c>
       <c r="W34" s="19">
-        <v>2884</v>
-      </c>
-      <c r="X34" s="129">
-        <v>2941</v>
-      </c>
-      <c r="Y34" s="126"/>
+        <v>2885</v>
+      </c>
+      <c r="X34" s="131">
+        <v>2943</v>
+      </c>
+      <c r="Y34" s="122">
+        <v>3014</v>
+      </c>
       <c r="Z34" s="6" t="s">
         <v>20</v>
       </c>
@@ -3748,12 +3829,14 @@
         <v>2534</v>
       </c>
       <c r="W35" s="19">
-        <v>2590</v>
-      </c>
-      <c r="X35" s="129">
-        <v>2754</v>
-      </c>
-      <c r="Y35" s="126"/>
+        <v>2591</v>
+      </c>
+      <c r="X35" s="131">
+        <v>2758</v>
+      </c>
+      <c r="Y35" s="123">
+        <v>2605</v>
+      </c>
       <c r="Z35" s="6" t="s">
         <v>21</v>
       </c>
@@ -3828,10 +3911,12 @@
       <c r="W36" s="19">
         <v>2843</v>
       </c>
-      <c r="X36" s="129">
-        <v>3295</v>
-      </c>
-      <c r="Y36" s="126"/>
+      <c r="X36" s="131">
+        <v>3296</v>
+      </c>
+      <c r="Y36" s="123">
+        <v>2559</v>
+      </c>
       <c r="Z36" s="6" t="s">
         <v>22</v>
       </c>
@@ -3904,12 +3989,12 @@
         <v>3013</v>
       </c>
       <c r="W37" s="19">
-        <v>3469</v>
-      </c>
-      <c r="X37" s="129">
-        <v>3005</v>
-      </c>
-      <c r="Y37" s="126"/>
+        <v>3471</v>
+      </c>
+      <c r="X37" s="131">
+        <v>3012</v>
+      </c>
+      <c r="Y37" s="122"/>
       <c r="Z37" s="6" t="s">
         <v>23</v>
       </c>
@@ -3982,12 +4067,12 @@
         <v>3173</v>
       </c>
       <c r="W38" s="19">
-        <v>3153</v>
-      </c>
-      <c r="X38" s="129">
-        <v>2774</v>
-      </c>
-      <c r="Y38" s="126"/>
+        <v>3154</v>
+      </c>
+      <c r="X38" s="131">
+        <v>2778</v>
+      </c>
+      <c r="Y38" s="122"/>
       <c r="Z38" s="6" t="s">
         <v>24</v>
       </c>
@@ -4060,12 +4145,12 @@
         <v>3563</v>
       </c>
       <c r="W39" s="19">
-        <v>3087</v>
-      </c>
-      <c r="X39" s="130">
-        <v>3001</v>
-      </c>
-      <c r="Y39" s="127"/>
+        <v>3088</v>
+      </c>
+      <c r="X39" s="131">
+        <v>3010</v>
+      </c>
+      <c r="Y39" s="123"/>
       <c r="Z39" s="6" t="s">
         <v>25</v>
       </c>
@@ -4140,10 +4225,10 @@
       <c r="W40" s="19">
         <v>2877</v>
       </c>
-      <c r="X40" s="129">
-        <v>2943</v>
-      </c>
-      <c r="Y40" s="118"/>
+      <c r="X40" s="131">
+        <v>2953</v>
+      </c>
+      <c r="Y40" s="114"/>
       <c r="Z40" s="5" t="s">
         <v>26</v>
       </c>
@@ -4215,13 +4300,13 @@
       <c r="V41" s="41">
         <v>3432</v>
       </c>
-      <c r="W41" s="133">
-        <v>3384</v>
-      </c>
-      <c r="X41" s="131">
-        <v>3386</v>
-      </c>
-      <c r="Y41" s="114"/>
+      <c r="W41" s="125">
+        <v>3385</v>
+      </c>
+      <c r="X41" s="132">
+        <v>3412</v>
+      </c>
+      <c r="Y41" s="110"/>
       <c r="Z41" s="7" t="s">
         <v>27</v>
       </c>
@@ -4310,24 +4395,24 @@
         <f t="shared" si="3"/>
         <v>34477</v>
       </c>
-      <c r="V42" s="117">
+      <c r="V42" s="113">
         <f t="shared" ref="V42" si="4">SUM(V30:V41)</f>
         <v>37036</v>
       </c>
-      <c r="W42" s="38">
+      <c r="W42" s="127">
         <f t="shared" ref="W42" si="5">SUM(W30:W41)</f>
-        <v>38339</v>
+        <v>38349</v>
       </c>
       <c r="X42" s="38">
         <f>SUM(X30:X41)</f>
-        <v>39637</v>
-      </c>
-      <c r="Y42" s="123"/>
+        <v>39707</v>
+      </c>
+      <c r="Y42" s="119"/>
       <c r="Z42" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>14</v>
@@ -4338,7 +4423,7 @@
     </row>
     <row r="45" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4356,7 +4441,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="Z45" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4390,12 +4475,12 @@
       </c>
     </row>
     <row r="48" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="134" t="s">
+      <c r="A48" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="134"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="135"/>
       <c r="Z48" s="30" t="s">
         <v>35</v>
       </c>
@@ -4431,182 +4516,182 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:P71"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="115"/>
-    </row>
-    <row r="5" spans="1:5" s="54" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" s="54" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="C4" s="111"/>
+    </row>
+    <row r="5" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" s="53" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-    </row>
-    <row r="12" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+    </row>
+    <row r="12" spans="1:5" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="85"/>
-    </row>
-    <row r="13" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="87" t="s">
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="84"/>
+    </row>
+    <row r="13" spans="1:5" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="85"/>
-    </row>
-    <row r="14" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="84"/>
+    </row>
+    <row r="14" spans="1:5" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="85"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="84"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="60"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="135" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
+      <c r="A16" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="60"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
-    </row>
-    <row r="34" spans="1:5" s="54" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-    </row>
-    <row r="35" spans="1:5" s="54" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="57"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+    </row>
+    <row r="34" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+    </row>
+    <row r="35" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="63"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="62"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="61"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="63"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="62"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="61"/>
     </row>
     <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="62"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="61"/>
     </row>
     <row r="50" spans="1:14" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="67" t="s">
+      <c r="D50" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="68"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -4618,19 +4703,19 @@
       <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="70">
+      <c r="B51" s="69">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="C51" s="71">
+      <c r="C51" s="70">
         <v>2917</v>
       </c>
-      <c r="D51" s="72">
+      <c r="D51" s="71">
         <v>3353</v>
       </c>
-      <c r="E51" s="68"/>
+      <c r="E51" s="67"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -4642,19 +4727,19 @@
       <c r="N51" s="2"/>
     </row>
     <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="73" t="s">
+      <c r="A52" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="70">
+      <c r="B52" s="69">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="C52" s="71">
+      <c r="C52" s="70">
         <v>3263</v>
       </c>
-      <c r="D52" s="74">
+      <c r="D52" s="73">
         <v>3353</v>
       </c>
-      <c r="E52" s="68"/>
+      <c r="E52" s="67"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -4666,19 +4751,19 @@
       <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="70">
+      <c r="B53" s="69">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="C53" s="71">
-        <v>4472</v>
-      </c>
-      <c r="D53" s="74">
+      <c r="C53" s="70">
+        <v>4490</v>
+      </c>
+      <c r="D53" s="73">
         <v>4832</v>
       </c>
-      <c r="E53" s="68"/>
+      <c r="E53" s="67"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -4690,19 +4775,19 @@
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="110">
-        <v>0.106</v>
-      </c>
-      <c r="C54" s="111">
-        <v>4943</v>
-      </c>
-      <c r="D54" s="112">
+      <c r="B54" s="106">
+        <v>0.107</v>
+      </c>
+      <c r="C54" s="107">
+        <v>5018</v>
+      </c>
+      <c r="D54" s="108">
         <v>3783</v>
       </c>
-      <c r="E54" s="68"/>
+      <c r="E54" s="67"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -4714,11 +4799,11 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="75"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="68"/>
+      <c r="A55" s="74"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="67"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -4730,19 +4815,19 @@
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="113" t="s">
+      <c r="A56" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="110">
+      <c r="B56" s="106">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="C56" s="111">
-        <v>12678</v>
-      </c>
-      <c r="D56" s="112">
+      <c r="C56" s="107">
+        <v>12771</v>
+      </c>
+      <c r="D56" s="108">
         <v>11968</v>
       </c>
-      <c r="E56" s="76"/>
+      <c r="E56" s="75"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -4754,11 +4839,11 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="69"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="79"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="78"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -4770,13 +4855,13 @@
       <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="69" t="s">
+      <c r="A58" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="77"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="80"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="79"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -4788,16 +4873,16 @@
       <c r="N58" s="2"/>
     </row>
     <row r="59" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="69" t="s">
+      <c r="A59" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="81">
+      <c r="B59" s="80">
         <v>3.9E-2</v>
       </c>
-      <c r="C59" s="71">
+      <c r="C59" s="70">
         <v>455</v>
       </c>
-      <c r="D59" s="74">
+      <c r="D59" s="73">
         <v>288</v>
       </c>
       <c r="F59" s="2"/>
@@ -4811,16 +4896,16 @@
       <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="69" t="s">
+      <c r="A60" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="81">
+      <c r="B60" s="80">
         <v>0.17100000000000001</v>
       </c>
-      <c r="C60" s="71">
+      <c r="C60" s="70">
         <v>2414</v>
       </c>
-      <c r="D60" s="74">
+      <c r="D60" s="73">
         <v>2230</v>
       </c>
       <c r="F60" s="2"/>
@@ -4834,16 +4919,16 @@
       <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="69" t="s">
+      <c r="A61" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="82">
+      <c r="B61" s="81">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C61" s="71">
-        <v>1648</v>
-      </c>
-      <c r="D61" s="74">
+      <c r="C61" s="70">
+        <v>1653</v>
+      </c>
+      <c r="D61" s="73">
         <v>3299</v>
       </c>
       <c r="F61" s="2"/>
@@ -4857,16 +4942,16 @@
       <c r="N61" s="2"/>
     </row>
     <row r="62" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="100" t="s">
+      <c r="A62" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="101">
+      <c r="B62" s="100">
         <v>0.17100000000000001</v>
       </c>
-      <c r="C62" s="102">
-        <v>2434</v>
-      </c>
-      <c r="D62" s="103">
+      <c r="C62" s="101">
+        <v>2441</v>
+      </c>
+      <c r="D62" s="102">
         <v>1678</v>
       </c>
       <c r="F62" s="2"/>
@@ -4880,16 +4965,16 @@
       <c r="N62" s="2"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="96" t="s">
+      <c r="A63" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="97">
+      <c r="B63" s="96">
         <v>0.17399999999999999</v>
       </c>
-      <c r="C63" s="98">
-        <v>2962</v>
-      </c>
-      <c r="D63" s="99">
+      <c r="C63" s="97">
+        <v>2970</v>
+      </c>
+      <c r="D63" s="98">
         <v>2506</v>
       </c>
       <c r="F63" s="2"/>
@@ -4903,13 +4988,13 @@
       <c r="N63" s="2"/>
     </row>
     <row r="64" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -4921,18 +5006,18 @@
       <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="60"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="59"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" s="58"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="60"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="59"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
@@ -5026,7 +5111,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -5035,76 +5120,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-    </row>
-    <row r="3" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="116"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="53"/>
+      <c r="C3" s="112"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.149999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="89" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="90" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5115,201 +5200,201 @@
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:4" ht="42" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="67" t="s">
+      <c r="D51" s="66" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A52" s="69" t="s">
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="70">
+      <c r="B52" s="69">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="C52" s="71">
+      <c r="C52" s="70">
         <v>2917</v>
       </c>
-      <c r="D52" s="72">
+      <c r="D52" s="71">
         <v>3353</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A53" s="73" t="s">
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="70">
+      <c r="B53" s="69">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="C53" s="71">
+      <c r="C53" s="70">
         <v>3263</v>
       </c>
-      <c r="D53" s="74">
+      <c r="D53" s="73">
         <v>3353</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="69" t="s">
+      <c r="A54" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="70">
+      <c r="B54" s="69">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="C54" s="71">
-        <v>4472</v>
-      </c>
-      <c r="D54" s="74">
+      <c r="C54" s="70">
+        <v>4490</v>
+      </c>
+      <c r="D54" s="73">
         <v>4832</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="92" t="s">
+      <c r="A55" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="110">
-        <v>0.106</v>
-      </c>
-      <c r="C55" s="111">
-        <v>4943</v>
-      </c>
-      <c r="D55" s="112">
+      <c r="B55" s="106">
+        <v>0.107</v>
+      </c>
+      <c r="C55" s="107">
+        <v>5018</v>
+      </c>
+      <c r="D55" s="108">
         <v>3783</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A56" s="93"/>
-      <c r="B56" s="110"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="112"/>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="92"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="108"/>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="94" t="s">
+      <c r="A57" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="B57" s="110">
+      <c r="B57" s="106">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="C57" s="111">
-        <v>12678</v>
-      </c>
-      <c r="D57" s="112">
+      <c r="C57" s="107">
+        <v>12771</v>
+      </c>
+      <c r="D57" s="108">
         <v>11968</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="72"/>
-    </row>
-    <row r="59" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A59" s="69" t="s">
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="68"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="71"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="77"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="72"/>
-    </row>
-    <row r="60" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A60" s="69" t="s">
+      <c r="B59" s="76"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="71"/>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="81">
+      <c r="B60" s="80">
         <v>3.9E-2</v>
       </c>
-      <c r="C60" s="71">
+      <c r="C60" s="70">
         <v>455</v>
       </c>
-      <c r="D60" s="74">
+      <c r="D60" s="73">
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A61" s="69" t="s">
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="81">
+      <c r="B61" s="80">
         <v>0.17100000000000001</v>
       </c>
-      <c r="C61" s="71">
+      <c r="C61" s="70">
         <v>2414</v>
       </c>
-      <c r="D61" s="74">
+      <c r="D61" s="73">
         <v>2230</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A62" s="69" t="s">
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="82">
+      <c r="B62" s="81">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C62" s="71">
-        <v>1648</v>
-      </c>
-      <c r="D62" s="74">
+      <c r="C62" s="70">
+        <v>1653</v>
+      </c>
+      <c r="D62" s="73">
         <v>3299</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A63" s="100" t="s">
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="101">
+      <c r="B63" s="100">
         <v>0.17100000000000001</v>
       </c>
-      <c r="C63" s="102">
-        <v>2434</v>
-      </c>
-      <c r="D63" s="103">
+      <c r="C63" s="101">
+        <v>2441</v>
+      </c>
+      <c r="D63" s="102">
         <v>1678</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="104" t="s">
+      <c r="A64" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="97">
+      <c r="B64" s="96">
         <v>0.17399999999999999</v>
       </c>
-      <c r="C64" s="98">
-        <v>2962</v>
-      </c>
-      <c r="D64" s="99">
+      <c r="C64" s="97">
+        <v>2970</v>
+      </c>
+      <c r="D64" s="98">
         <v>2506</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="95" t="s">
+    <row r="65" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -5318,7 +5403,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="1192" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="d51cd4ec3c52c2c58ecbfabd2d2a5e7b">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך פרסום למס" ma:contentTypeID="0x01010018C65C5FFA1A411CB733A36D5E05D176005EC8771B28134F43A3AE7296363CCDAA00CA9D19E110FDD945A88D3AA94D6474B4" ma:contentTypeVersion="1682" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="a22a2a4f76907356e6ff8c8e5054d447">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f37fff55-d014-472b-b062-823f736a4040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9461ec958dfa353a6ba5101e07d70ca" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f37fff55-d014-472b-b062-823f736a4040"/>
@@ -5566,30 +5651,30 @@
     <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsPublishingDocSubject xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
     <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040">לוחות ותרשימים</CbsPublishingDocChapter>
+    <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040">Deaths of Israeli Residents, by Year and Month, 2000-2022 - All Ages</CbsPublishingDocChapter>
     <d8f60aace6e84187b9d8167da15a966c xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </d8f60aace6e84187b9d8167da15a966c>
     <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2023-02-28T22:00:00+00:00</CbsDataPublishDate>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2023-08-22T21:00:00+00:00</CbsDataPublishDate>
     <be7e4c0a87744fda8f9ec475d0d5383d xmlns="f37fff55-d014-472b-b062-823f736a4040">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </be7e4c0a87744fda8f9ec475d0d5383d>
     <CbsOrderField xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsEnglishTitle xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsEnglishTitle xmlns="f37fff55-d014-472b-b062-823f736a4040">Deaths of Israeli Residents, by Year and Month, 2000-2022 - All Ages</CbsEnglishTitle>
     <CbsMadadPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5D896DC-C4AC-4AB0-872D-815725B0A343}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78B98264-E3AA-4E3E-B190-0AF48AC75414}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2599DB-64BE-48BB-A283-5ECA70362DEB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{317B7A00-A828-4388-98DB-CC1EB7E986AB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{486F2392-7928-4397-AD2B-DF828B856202}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A9D5419-C43F-4EA7-B158-423CF3441CCF}"/>
 </file>